--- a/src/static/enriched_data/enriched_data.xlsx
+++ b/src/static/enriched_data/enriched_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R501"/>
+  <dimension ref="A1:R701"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21125,6 +21125,8256 @@
       <c r="Q501" t="inlineStr"/>
       <c r="R501" t="inlineStr"/>
     </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>501</v>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>Assistenz Remote (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>Tecis Finanzdienstleistungen Ag</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E502" t="b">
+        <v>1</v>
+      </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tecis-finanzdienstleistungen-ag/assistenz-remote-frankfurt-119151</t>
+        </is>
+      </c>
+      <c r="G502" t="inlineStr"/>
+      <c r="H502" t="inlineStr"/>
+      <c r="I502" t="inlineStr"/>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
+      <c r="L502" t="inlineStr"/>
+      <c r="M502" t="inlineStr"/>
+      <c r="N502" t="inlineStr"/>
+      <c r="O502" t="inlineStr"/>
+      <c r="P502" t="inlineStr"/>
+      <c r="Q502" t="inlineStr"/>
+      <c r="R502" t="inlineStr"/>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>502</v>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>Industrial Project Manager</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>Ucaneo</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E503" t="b">
+        <v>0</v>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ucaneo/industrial-project-manager-berlin-61869</t>
+        </is>
+      </c>
+      <c r="G503" t="inlineStr"/>
+      <c r="H503" t="inlineStr"/>
+      <c r="I503" t="inlineStr"/>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
+      <c r="L503" t="inlineStr"/>
+      <c r="M503" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N503" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O503" t="n">
+        <v>70</v>
+      </c>
+      <c r="P503" t="inlineStr"/>
+      <c r="Q503" t="inlineStr"/>
+      <c r="R503" t="inlineStr"/>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>503</v>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>Werkstudent für Webshop &amp; Online-Marktplätze gesucht!</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>Dias-Gruppe Gbr</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>Ahrensburg</t>
+        </is>
+      </c>
+      <c r="E504" t="b">
+        <v>0</v>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/dias-gruppe-gbr/werkstudent-fur-webshop-online-marktplatze-gesucht-ahrensburg-69358</t>
+        </is>
+      </c>
+      <c r="G504" t="inlineStr"/>
+      <c r="H504" t="inlineStr"/>
+      <c r="I504" t="inlineStr"/>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
+      <c r="L504" t="inlineStr"/>
+      <c r="M504" t="inlineStr"/>
+      <c r="N504" t="inlineStr"/>
+      <c r="O504" t="inlineStr"/>
+      <c r="P504" t="inlineStr"/>
+      <c r="Q504" t="inlineStr"/>
+      <c r="R504" t="inlineStr"/>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>504</v>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>It-Systemkaufmann (M/W/D)</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>Ht Kommunikation Gmbh &amp; Co.Kg</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>Oberkirch</t>
+        </is>
+      </c>
+      <c r="E505" t="b">
+        <v>0</v>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ht-kommunikation-gmbh-cokg/it-systemkaufmann-oberkirch-127808</t>
+        </is>
+      </c>
+      <c r="G505" t="inlineStr"/>
+      <c r="H505" t="inlineStr"/>
+      <c r="I505" t="inlineStr"/>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
+      <c r="L505" t="inlineStr"/>
+      <c r="M505" t="inlineStr"/>
+      <c r="N505" t="inlineStr"/>
+      <c r="O505" t="inlineStr"/>
+      <c r="P505" t="inlineStr"/>
+      <c r="Q505" t="inlineStr"/>
+      <c r="R505" t="inlineStr"/>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>505</v>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>Privatkundenberater (gn*)</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>Volksbank Raiffeisenbank Fürstenfeldbruck Eg</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>Maisach</t>
+        </is>
+      </c>
+      <c r="E506" t="b">
+        <v>0</v>
+      </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/volksbank-raiffeisenbank-furstenfeldbruck-eg/privatkundenberater-gn-maisach-28952</t>
+        </is>
+      </c>
+      <c r="G506" t="inlineStr"/>
+      <c r="H506" t="inlineStr"/>
+      <c r="I506" t="inlineStr"/>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
+      <c r="L506" t="inlineStr"/>
+      <c r="M506" t="inlineStr"/>
+      <c r="N506" t="inlineStr"/>
+      <c r="O506" t="inlineStr"/>
+      <c r="P506" t="inlineStr"/>
+      <c r="Q506" t="inlineStr"/>
+      <c r="R506" t="inlineStr"/>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>506</v>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>Trocknungsmonteur / Servicetechniker als Trocknungstechniker</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>Srt Friedrich Gmbh</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>Sandhausen</t>
+        </is>
+      </c>
+      <c r="E507" t="b">
+        <v>0</v>
+      </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/srt-friedrich-gmbh/trocknungsmonteur-servicetechniker-als-trocknungstechniker-sandhausen-426729</t>
+        </is>
+      </c>
+      <c r="G507" t="inlineStr"/>
+      <c r="H507" t="inlineStr"/>
+      <c r="I507" t="inlineStr"/>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
+      <c r="L507" t="inlineStr"/>
+      <c r="M507" t="inlineStr"/>
+      <c r="N507" t="inlineStr"/>
+      <c r="O507" t="inlineStr"/>
+      <c r="P507" t="inlineStr"/>
+      <c r="Q507" t="inlineStr"/>
+      <c r="R507" t="inlineStr"/>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>507</v>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>Partnerships &amp; Business Development Manager (BD)</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>Particula</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="E508" t="b">
+        <v>1</v>
+      </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/particula/partnerships-business-development-manager-bd-munich-335152</t>
+        </is>
+      </c>
+      <c r="G508" t="inlineStr"/>
+      <c r="H508" t="inlineStr"/>
+      <c r="I508" t="inlineStr"/>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
+      <c r="L508" t="inlineStr"/>
+      <c r="M508" t="inlineStr"/>
+      <c r="N508" t="inlineStr"/>
+      <c r="O508" t="inlineStr"/>
+      <c r="P508" t="inlineStr"/>
+      <c r="Q508" t="inlineStr"/>
+      <c r="R508" t="inlineStr"/>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>508</v>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>Trocknungsmonteur / Servicetechniker als Trocknungstechniker</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>Srt Friedrich Gmbh</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>Heilbronn</t>
+        </is>
+      </c>
+      <c r="E509" t="b">
+        <v>0</v>
+      </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/srt-friedrich-gmbh/trocknungsmonteur-servicetechniker-als-trocknungstechniker-heilbronn-47872</t>
+        </is>
+      </c>
+      <c r="G509" t="inlineStr"/>
+      <c r="H509" t="inlineStr"/>
+      <c r="I509" t="inlineStr"/>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
+      <c r="L509" t="inlineStr"/>
+      <c r="M509" t="inlineStr"/>
+      <c r="N509" t="inlineStr"/>
+      <c r="O509" t="inlineStr"/>
+      <c r="P509" t="inlineStr"/>
+      <c r="Q509" t="inlineStr"/>
+      <c r="R509" t="inlineStr"/>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>509</v>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>Allround-Handwerker, Servicetechniker (m/w/d) Schadensanierung - WB</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>Srt Friedrich Gmbh</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>Wiesbaden</t>
+        </is>
+      </c>
+      <c r="E510" t="b">
+        <v>0</v>
+      </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/srt-friedrich-gmbh/allround-handwerker-servicetechniker-schadensanierung-wb-wiesbaden-389115</t>
+        </is>
+      </c>
+      <c r="G510" t="inlineStr"/>
+      <c r="H510" t="inlineStr"/>
+      <c r="I510" t="inlineStr"/>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
+      <c r="L510" t="inlineStr"/>
+      <c r="M510" t="inlineStr"/>
+      <c r="N510" t="inlineStr"/>
+      <c r="O510" t="inlineStr"/>
+      <c r="P510" t="inlineStr"/>
+      <c r="Q510" t="inlineStr"/>
+      <c r="R510" t="inlineStr"/>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>510</v>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>Trocknungstechniker, Servicetechniker (mwd) Schadensanierung</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>Srt Friedrich Gmbh</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>Heilbronn</t>
+        </is>
+      </c>
+      <c r="E511" t="b">
+        <v>0</v>
+      </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/srt-friedrich-gmbh/trocknungstechniker-servicetechniker-mwd-schadensanierung-heilbronn-71280</t>
+        </is>
+      </c>
+      <c r="G511" t="inlineStr"/>
+      <c r="H511" t="inlineStr"/>
+      <c r="I511" t="inlineStr"/>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
+      <c r="L511" t="inlineStr"/>
+      <c r="M511" t="inlineStr"/>
+      <c r="N511" t="inlineStr"/>
+      <c r="O511" t="inlineStr"/>
+      <c r="P511" t="inlineStr"/>
+      <c r="Q511" t="inlineStr"/>
+      <c r="R511" t="inlineStr"/>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>511</v>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>Servicetechniker Trocknung (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>Srt Friedrich Gmbh</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>Sandhausen</t>
+        </is>
+      </c>
+      <c r="E512" t="b">
+        <v>0</v>
+      </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/srt-friedrich-gmbh/servicetechniker-trocknung-sandhausen-93352</t>
+        </is>
+      </c>
+      <c r="G512" t="inlineStr"/>
+      <c r="H512" t="inlineStr"/>
+      <c r="I512" t="inlineStr"/>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
+      <c r="L512" t="inlineStr"/>
+      <c r="M512" t="inlineStr"/>
+      <c r="N512" t="inlineStr"/>
+      <c r="O512" t="inlineStr"/>
+      <c r="P512" t="inlineStr"/>
+      <c r="Q512" t="inlineStr"/>
+      <c r="R512" t="inlineStr"/>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>512</v>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>Servicetechniker Trocknung (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>Srt Friedrich Gmbh</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>Heilbronn</t>
+        </is>
+      </c>
+      <c r="E513" t="b">
+        <v>0</v>
+      </c>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/srt-friedrich-gmbh/servicetechniker-trocknung-heilbronn-51899</t>
+        </is>
+      </c>
+      <c r="G513" t="inlineStr"/>
+      <c r="H513" t="inlineStr"/>
+      <c r="I513" t="inlineStr"/>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
+      <c r="L513" t="inlineStr"/>
+      <c r="M513" t="inlineStr"/>
+      <c r="N513" t="inlineStr"/>
+      <c r="O513" t="inlineStr"/>
+      <c r="P513" t="inlineStr"/>
+      <c r="Q513" t="inlineStr"/>
+      <c r="R513" t="inlineStr"/>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>513</v>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>Head of Marketing (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>Yagcho</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E514" t="b">
+        <v>1</v>
+      </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/yagcho/head-of-marketing-hamburg-496694</t>
+        </is>
+      </c>
+      <c r="G514" t="inlineStr"/>
+      <c r="H514" t="inlineStr"/>
+      <c r="I514" t="inlineStr"/>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
+      <c r="L514" t="inlineStr"/>
+      <c r="M514" t="inlineStr"/>
+      <c r="N514" t="inlineStr"/>
+      <c r="O514" t="inlineStr"/>
+      <c r="P514" t="inlineStr"/>
+      <c r="Q514" t="inlineStr"/>
+      <c r="R514" t="inlineStr"/>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>514</v>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>Personalberater (m/w/d) - IT &amp; Managment</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>Eaces Gmbh</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="E515" t="b">
+        <v>0</v>
+      </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/eaces-gmbh/personalberater-it-managment-munich-393738</t>
+        </is>
+      </c>
+      <c r="G515" t="inlineStr"/>
+      <c r="H515" t="inlineStr"/>
+      <c r="I515" t="inlineStr"/>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
+      <c r="L515" t="inlineStr"/>
+      <c r="M515" t="inlineStr"/>
+      <c r="N515" t="inlineStr"/>
+      <c r="O515" t="inlineStr"/>
+      <c r="P515" t="inlineStr"/>
+      <c r="Q515" t="inlineStr"/>
+      <c r="R515" t="inlineStr"/>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>515</v>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>Manager*in Qualitätsmanagement &amp; Regulatory Affairs (m/w/d) - ab sofort (Teil- oder Vollzeit, remote)</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>Bornholdt Lee Gmbh</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E516" t="b">
+        <v>1</v>
+      </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/bornholdt-lee-gmbh/managerin-qualitatsmanagement-regulatory-affairs-ab-sofort-teil-oder-vollzeit-remote-hamburg-340340</t>
+        </is>
+      </c>
+      <c r="G516" t="inlineStr"/>
+      <c r="H516" t="inlineStr"/>
+      <c r="I516" t="inlineStr"/>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
+      <c r="L516" t="inlineStr"/>
+      <c r="M516" t="inlineStr"/>
+      <c r="N516" t="inlineStr"/>
+      <c r="O516" t="inlineStr"/>
+      <c r="P516" t="inlineStr"/>
+      <c r="Q516" t="inlineStr"/>
+      <c r="R516" t="inlineStr"/>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>516</v>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>Agile Projektmanager*in (m/w/d) - ab sofort (Teil- oder Vollzeit, remote)</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>Bornholdt Lee Gmbh</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E517" t="b">
+        <v>1</v>
+      </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/bornholdt-lee-gmbh/agile-projektmanagerin-ab-sofort-teil-oder-vollzeit-remote-hamburg-276307</t>
+        </is>
+      </c>
+      <c r="G517" t="inlineStr"/>
+      <c r="H517" t="inlineStr"/>
+      <c r="I517" t="inlineStr"/>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
+      <c r="L517" t="inlineStr"/>
+      <c r="M517" t="inlineStr"/>
+      <c r="N517" t="inlineStr"/>
+      <c r="O517" t="inlineStr"/>
+      <c r="P517" t="inlineStr"/>
+      <c r="Q517" t="inlineStr"/>
+      <c r="R517" t="inlineStr"/>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>517</v>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>Bauprojekt-Manager/in (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>Rbi Beteiligungen Und Immobilien Gmbh</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E518" t="b">
+        <v>0</v>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/rbi-beteiligungen-und-immobilien-gmbh/bauprojekt-manager-in-berlin-93338</t>
+        </is>
+      </c>
+      <c r="G518" t="inlineStr"/>
+      <c r="H518" t="inlineStr"/>
+      <c r="I518" t="inlineStr"/>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
+      <c r="L518" t="inlineStr"/>
+      <c r="M518" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N518" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O518" t="n">
+        <v>70</v>
+      </c>
+      <c r="P518" t="inlineStr"/>
+      <c r="Q518" t="inlineStr"/>
+      <c r="R518" t="inlineStr"/>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>518</v>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>Senior Frontend Engineer - Flutter (w/m/d)</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>Crewmeister</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="E519" t="b">
+        <v>0</v>
+      </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/crewmeister/senior-frontend-engineer-flutter-munich-162056</t>
+        </is>
+      </c>
+      <c r="G519" t="inlineStr"/>
+      <c r="H519" t="inlineStr"/>
+      <c r="I519" t="inlineStr"/>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
+      <c r="L519" t="inlineStr"/>
+      <c r="M519" t="inlineStr"/>
+      <c r="N519" t="inlineStr"/>
+      <c r="O519" t="inlineStr"/>
+      <c r="P519" t="inlineStr"/>
+      <c r="Q519" t="inlineStr"/>
+      <c r="R519" t="inlineStr"/>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>519</v>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>Pflege.De | Web Care Lbj Gmbh</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E520" t="b">
+        <v>0</v>
+      </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/pflegede-web-care-lbj-gmbh/senior-software-engineer-hamburg-279280</t>
+        </is>
+      </c>
+      <c r="G520" t="inlineStr"/>
+      <c r="H520" t="inlineStr"/>
+      <c r="I520" t="inlineStr"/>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
+      <c r="L520" t="inlineStr"/>
+      <c r="M520" t="inlineStr"/>
+      <c r="N520" t="inlineStr"/>
+      <c r="O520" t="inlineStr"/>
+      <c r="P520" t="inlineStr"/>
+      <c r="Q520" t="inlineStr"/>
+      <c r="R520" t="inlineStr"/>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>520</v>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>Key Account Manager (m/w/d) - Personalberatung</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>Karriereweg Gmbh</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>Düsseldorf</t>
+        </is>
+      </c>
+      <c r="E521" t="b">
+        <v>0</v>
+      </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/karriereweg-gmbh/key-account-manager-personalberatung-dusseldorf-208710</t>
+        </is>
+      </c>
+      <c r="G521" t="inlineStr"/>
+      <c r="H521" t="inlineStr"/>
+      <c r="I521" t="inlineStr"/>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
+      <c r="L521" t="inlineStr"/>
+      <c r="M521" t="inlineStr"/>
+      <c r="N521" t="inlineStr"/>
+      <c r="O521" t="inlineStr"/>
+      <c r="P521" t="inlineStr"/>
+      <c r="Q521" t="inlineStr"/>
+      <c r="R521" t="inlineStr"/>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>521</v>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>Content Talent (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>Castin - And Much More</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E522" t="b">
+        <v>0</v>
+      </c>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/castin-and-much-more/content-talent-frankfurt-332808</t>
+        </is>
+      </c>
+      <c r="G522" t="inlineStr"/>
+      <c r="H522" t="inlineStr"/>
+      <c r="I522" t="inlineStr"/>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
+      <c r="L522" t="inlineStr"/>
+      <c r="M522" t="inlineStr"/>
+      <c r="N522" t="inlineStr"/>
+      <c r="O522" t="inlineStr"/>
+      <c r="P522" t="inlineStr"/>
+      <c r="Q522" t="inlineStr"/>
+      <c r="R522" t="inlineStr"/>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>522</v>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>Senior Consultant (m/w/d) IT-Managementberatung</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>Serview Gmbh</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E523" t="b">
+        <v>0</v>
+      </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/serview-gmbh/senior-consultant-it-managementberatung-berlin-472006</t>
+        </is>
+      </c>
+      <c r="G523" t="inlineStr"/>
+      <c r="H523" t="inlineStr"/>
+      <c r="I523" t="inlineStr"/>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
+      <c r="L523" t="inlineStr"/>
+      <c r="M523" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N523" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O523" t="n">
+        <v>70</v>
+      </c>
+      <c r="P523" t="inlineStr"/>
+      <c r="Q523" t="inlineStr"/>
+      <c r="R523" t="inlineStr"/>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>523</v>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>Customer Success Manager (m/w/d) | Teilnehmerbetreuung | Bildungsinstitut für Online Marketing, Digitalisierung &amp; KI</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>Distart Education Gmbh</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>Leipzig</t>
+        </is>
+      </c>
+      <c r="E524" t="b">
+        <v>0</v>
+      </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/distart-education-gmbh/customer-success-manager-teilnehmerbetreuung-bildungsinstitut-fur-online-marketing-digitalisierung-ki-leipzig-413587</t>
+        </is>
+      </c>
+      <c r="G524" t="inlineStr"/>
+      <c r="H524" t="inlineStr"/>
+      <c r="I524" t="inlineStr"/>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
+      <c r="L524" t="inlineStr"/>
+      <c r="M524" t="inlineStr"/>
+      <c r="N524" t="inlineStr"/>
+      <c r="O524" t="inlineStr"/>
+      <c r="P524" t="inlineStr"/>
+      <c r="Q524" t="inlineStr"/>
+      <c r="R524" t="inlineStr"/>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>524</v>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>Customer Success Manager (m/w/d) | Teilnehmerkoordination | Bildungsinstitut für Online Marketing, Digitalisierung &amp; KI</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>Distart Education Gmbh</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>Leipzig</t>
+        </is>
+      </c>
+      <c r="E525" t="b">
+        <v>0</v>
+      </c>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/distart-education-gmbh/customer-success-manager-teilnehmerkoordination-bildungsinstitut-fur-online-marketing-digitalisierung-ki-leipzig-255236</t>
+        </is>
+      </c>
+      <c r="G525" t="inlineStr"/>
+      <c r="H525" t="inlineStr"/>
+      <c r="I525" t="inlineStr"/>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
+      <c r="L525" t="inlineStr"/>
+      <c r="M525" t="inlineStr"/>
+      <c r="N525" t="inlineStr"/>
+      <c r="O525" t="inlineStr"/>
+      <c r="P525" t="inlineStr"/>
+      <c r="Q525" t="inlineStr"/>
+      <c r="R525" t="inlineStr"/>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>525</v>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>Werkstudent (m/w/d) HR - Schwerpunkt Social Media (10h/pro Woche)</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>Simba Computer Systeme Gmbh</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>Ostfildern</t>
+        </is>
+      </c>
+      <c r="E526" t="b">
+        <v>0</v>
+      </c>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/simba-computer-systeme-gmbh/werkstudent-hr-schwerpunkt-social-media-10h-pro-woche-ostfildern-171545</t>
+        </is>
+      </c>
+      <c r="G526" t="inlineStr"/>
+      <c r="H526" t="inlineStr"/>
+      <c r="I526" t="inlineStr"/>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
+      <c r="L526" t="inlineStr"/>
+      <c r="M526" t="inlineStr"/>
+      <c r="N526" t="inlineStr"/>
+      <c r="O526" t="inlineStr"/>
+      <c r="P526" t="inlineStr"/>
+      <c r="Q526" t="inlineStr"/>
+      <c r="R526" t="inlineStr"/>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>526</v>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>Multimedia freelancer - localization</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>Milengo Gmbh</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E527" t="b">
+        <v>1</v>
+      </c>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/milengo-gmbh/multimedia-freelancer-localization-berlin-253462</t>
+        </is>
+      </c>
+      <c r="G527" t="inlineStr"/>
+      <c r="H527" t="inlineStr"/>
+      <c r="I527" t="inlineStr"/>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
+      <c r="L527" t="inlineStr"/>
+      <c r="M527" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N527" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O527" t="n">
+        <v>70</v>
+      </c>
+      <c r="P527" t="inlineStr"/>
+      <c r="Q527" t="inlineStr"/>
+      <c r="R527" t="inlineStr"/>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>527</v>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>Senior Consultant Test Manager (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>Qestit</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E528" t="b">
+        <v>0</v>
+      </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/qestit/senior-consultant-test-manager-frankfurt-326254</t>
+        </is>
+      </c>
+      <c r="G528" t="inlineStr"/>
+      <c r="H528" t="inlineStr"/>
+      <c r="I528" t="inlineStr"/>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
+      <c r="L528" t="inlineStr"/>
+      <c r="M528" t="inlineStr"/>
+      <c r="N528" t="inlineStr"/>
+      <c r="O528" t="inlineStr"/>
+      <c r="P528" t="inlineStr"/>
+      <c r="Q528" t="inlineStr"/>
+      <c r="R528" t="inlineStr"/>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>528</v>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>Senior Consultant Test Automation Engineer (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>Qestit</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="E529" t="b">
+        <v>0</v>
+      </c>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/qestit/senior-consultant-test-automation-engineer-munich-132453</t>
+        </is>
+      </c>
+      <c r="G529" t="inlineStr"/>
+      <c r="H529" t="inlineStr"/>
+      <c r="I529" t="inlineStr"/>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
+      <c r="L529" t="inlineStr"/>
+      <c r="M529" t="inlineStr"/>
+      <c r="N529" t="inlineStr"/>
+      <c r="O529" t="inlineStr"/>
+      <c r="P529" t="inlineStr"/>
+      <c r="Q529" t="inlineStr"/>
+      <c r="R529" t="inlineStr"/>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>529</v>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Rostock, auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>Rostock</t>
+        </is>
+      </c>
+      <c r="E530" t="b">
+        <v>0</v>
+      </c>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-rostock-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-430644</t>
+        </is>
+      </c>
+      <c r="G530" t="inlineStr"/>
+      <c r="H530" t="inlineStr"/>
+      <c r="I530" t="inlineStr"/>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
+      <c r="L530" t="inlineStr"/>
+      <c r="M530" t="inlineStr"/>
+      <c r="N530" t="inlineStr"/>
+      <c r="O530" t="inlineStr"/>
+      <c r="P530" t="inlineStr"/>
+      <c r="Q530" t="inlineStr"/>
+      <c r="R530" t="inlineStr"/>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>530</v>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>Steuerexperte (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>Opus One Recruitment Gmbh</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="E531" t="b">
+        <v>0</v>
+      </c>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/opus-one-recruitment-gmbh/steuerexperte-munich-182315</t>
+        </is>
+      </c>
+      <c r="G531" t="inlineStr"/>
+      <c r="H531" t="inlineStr"/>
+      <c r="I531" t="inlineStr"/>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
+      <c r="L531" t="inlineStr"/>
+      <c r="M531" t="inlineStr"/>
+      <c r="N531" t="inlineStr"/>
+      <c r="O531" t="inlineStr"/>
+      <c r="P531" t="inlineStr"/>
+      <c r="Q531" t="inlineStr"/>
+      <c r="R531" t="inlineStr"/>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>531</v>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>Marketing Manager (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>Zeinpharma Germany Gmbh</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>Nauheim</t>
+        </is>
+      </c>
+      <c r="E532" t="b">
+        <v>0</v>
+      </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/zeinpharma-germany-gmbh/marketing-manager-nauheim-46086</t>
+        </is>
+      </c>
+      <c r="G532" t="inlineStr"/>
+      <c r="H532" t="inlineStr"/>
+      <c r="I532" t="inlineStr"/>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
+      <c r="L532" t="inlineStr"/>
+      <c r="M532" t="inlineStr"/>
+      <c r="N532" t="inlineStr"/>
+      <c r="O532" t="inlineStr"/>
+      <c r="P532" t="inlineStr"/>
+      <c r="Q532" t="inlineStr"/>
+      <c r="R532" t="inlineStr"/>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>532</v>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>Mitarbeiter Second Level Support (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>Kommwis Gmbh</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
+      <c r="E533" t="b">
+        <v>0</v>
+      </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/kommwis-gmbh/mitarbeiter-second-level-support-mainz-16609</t>
+        </is>
+      </c>
+      <c r="G533" t="inlineStr"/>
+      <c r="H533" t="inlineStr"/>
+      <c r="I533" t="inlineStr"/>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
+      <c r="L533" t="inlineStr"/>
+      <c r="M533" t="inlineStr"/>
+      <c r="N533" t="inlineStr"/>
+      <c r="O533" t="inlineStr"/>
+      <c r="P533" t="inlineStr"/>
+      <c r="Q533" t="inlineStr"/>
+      <c r="R533" t="inlineStr"/>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>533</v>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>Call Center Agent (m/w/d) Notdienst-Hotline - Teilzeit</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>Foundever® B.V. &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>Dessau-Roßlau</t>
+        </is>
+      </c>
+      <c r="E534" t="b">
+        <v>0</v>
+      </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/foundever-bv-co-kg/call-center-agent-notdienst-hotline-teilzeit-dessau-rosslau-274586</t>
+        </is>
+      </c>
+      <c r="G534" t="inlineStr"/>
+      <c r="H534" t="inlineStr"/>
+      <c r="I534" t="inlineStr"/>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
+      <c r="L534" t="inlineStr"/>
+      <c r="M534" t="inlineStr"/>
+      <c r="N534" t="inlineStr"/>
+      <c r="O534" t="inlineStr"/>
+      <c r="P534" t="inlineStr"/>
+      <c r="Q534" t="inlineStr"/>
+      <c r="R534" t="inlineStr"/>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>534</v>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>Personalsachbearbeiter (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>Schweiger Gmbh &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>Münchsmünster</t>
+        </is>
+      </c>
+      <c r="E535" t="b">
+        <v>0</v>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/schweiger-gmbh-co-kg/personalsachbearbeiter-munchsmunster-23462</t>
+        </is>
+      </c>
+      <c r="G535" t="inlineStr"/>
+      <c r="H535" t="inlineStr"/>
+      <c r="I535" t="inlineStr"/>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
+      <c r="L535" t="inlineStr"/>
+      <c r="M535" t="inlineStr"/>
+      <c r="N535" t="inlineStr"/>
+      <c r="O535" t="inlineStr"/>
+      <c r="P535" t="inlineStr"/>
+      <c r="Q535" t="inlineStr"/>
+      <c r="R535" t="inlineStr"/>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>535</v>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>Mechatroniker / Elektriker / Elektroniker (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>Dpi Automatisierungssysteme Gmbh</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E536" t="b">
+        <v>0</v>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/dpi-automatisierungssysteme-gmbh/mechatroniker-elektriker-elektroniker-berlin-283471</t>
+        </is>
+      </c>
+      <c r="G536" t="inlineStr"/>
+      <c r="H536" t="inlineStr"/>
+      <c r="I536" t="inlineStr"/>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
+      <c r="L536" t="inlineStr"/>
+      <c r="M536" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N536" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O536" t="n">
+        <v>70</v>
+      </c>
+      <c r="P536" t="inlineStr"/>
+      <c r="Q536" t="inlineStr"/>
+      <c r="R536" t="inlineStr"/>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>536</v>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>Junior Treasurer (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>Opus One Recruitment Gmbh</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="E537" t="b">
+        <v>0</v>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/opus-one-recruitment-gmbh/junior-treasurer-munich-386859</t>
+        </is>
+      </c>
+      <c r="G537" t="inlineStr"/>
+      <c r="H537" t="inlineStr"/>
+      <c r="I537" t="inlineStr"/>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
+      <c r="L537" t="inlineStr"/>
+      <c r="M537" t="inlineStr"/>
+      <c r="N537" t="inlineStr"/>
+      <c r="O537" t="inlineStr"/>
+      <c r="P537" t="inlineStr"/>
+      <c r="Q537" t="inlineStr"/>
+      <c r="R537" t="inlineStr"/>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>537</v>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>Werkstudent Event Sales / Messe-Marketing</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>Gibbon - Id Sports Gmbh</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E538" t="b">
+        <v>0</v>
+      </c>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/gibbon-id-sports-gmbh/werkstudent-event-sales-messe-marketing-stuttgart-125896</t>
+        </is>
+      </c>
+      <c r="G538" t="inlineStr"/>
+      <c r="H538" t="inlineStr"/>
+      <c r="I538" t="inlineStr"/>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
+      <c r="L538" t="inlineStr"/>
+      <c r="M538" t="inlineStr"/>
+      <c r="N538" t="inlineStr"/>
+      <c r="O538" t="inlineStr"/>
+      <c r="P538" t="inlineStr"/>
+      <c r="Q538" t="inlineStr"/>
+      <c r="R538" t="inlineStr"/>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>538</v>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>Vertriebsingenieur für den Industriebau (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>Christmann &amp; Pfeifer Construction Gmbh &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>Neutraubling</t>
+        </is>
+      </c>
+      <c r="E539" t="b">
+        <v>0</v>
+      </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/christmann-pfeifer-construction-gmbh-co-kg/vertriebsingenieur-fur-den-industriebau-neutraubling-429359</t>
+        </is>
+      </c>
+      <c r="G539" t="inlineStr"/>
+      <c r="H539" t="inlineStr"/>
+      <c r="I539" t="inlineStr"/>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
+      <c r="L539" t="inlineStr"/>
+      <c r="M539" t="inlineStr"/>
+      <c r="N539" t="inlineStr"/>
+      <c r="O539" t="inlineStr"/>
+      <c r="P539" t="inlineStr"/>
+      <c r="Q539" t="inlineStr"/>
+      <c r="R539" t="inlineStr"/>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>539</v>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>Intern Business Development</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>Auto1 Group Se</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E540" t="b">
+        <v>0</v>
+      </c>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/auto1-group-se/intern-business-development-berlin-230402</t>
+        </is>
+      </c>
+      <c r="G540" t="inlineStr"/>
+      <c r="H540" t="inlineStr"/>
+      <c r="I540" t="inlineStr"/>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
+      <c r="L540" t="inlineStr"/>
+      <c r="M540" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N540" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O540" t="n">
+        <v>70</v>
+      </c>
+      <c r="P540" t="inlineStr"/>
+      <c r="Q540" t="inlineStr"/>
+      <c r="R540" t="inlineStr"/>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>540</v>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>Solutions Engineer</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>Qdrant</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E541" t="b">
+        <v>1</v>
+      </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/qdrant/solutions-engineer-berlin-340925</t>
+        </is>
+      </c>
+      <c r="G541" t="inlineStr"/>
+      <c r="H541" t="inlineStr"/>
+      <c r="I541" t="inlineStr"/>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
+      <c r="L541" t="inlineStr"/>
+      <c r="M541" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N541" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O541" t="n">
+        <v>70</v>
+      </c>
+      <c r="P541" t="inlineStr"/>
+      <c r="Q541" t="inlineStr"/>
+      <c r="R541" t="inlineStr"/>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>541</v>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Jena , auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>Jena</t>
+        </is>
+      </c>
+      <c r="E542" t="b">
+        <v>0</v>
+      </c>
+      <c r="F542" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-jena-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-488165</t>
+        </is>
+      </c>
+      <c r="G542" t="inlineStr"/>
+      <c r="H542" t="inlineStr"/>
+      <c r="I542" t="inlineStr"/>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
+      <c r="L542" t="inlineStr"/>
+      <c r="M542" t="inlineStr"/>
+      <c r="N542" t="inlineStr"/>
+      <c r="O542" t="inlineStr"/>
+      <c r="P542" t="inlineStr"/>
+      <c r="Q542" t="inlineStr"/>
+      <c r="R542" t="inlineStr"/>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>542</v>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>Büroleiter Bauphysik (m/w/d) - Nachhaltige Projekte, moderne Führung (60.000-85.000€)</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>Riverstate Premium Recruiting</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>Potsdam</t>
+        </is>
+      </c>
+      <c r="E543" t="b">
+        <v>0</v>
+      </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/riverstate-premium-recruiting/buroleiter-bauphysik-nachhaltige-projekte-moderne-fuhrung-60000-85000eur-potsdam-94933</t>
+        </is>
+      </c>
+      <c r="G543" t="inlineStr"/>
+      <c r="H543" t="inlineStr"/>
+      <c r="I543" t="inlineStr"/>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
+      <c r="L543" t="inlineStr"/>
+      <c r="M543" t="inlineStr"/>
+      <c r="N543" t="inlineStr"/>
+      <c r="O543" t="inlineStr"/>
+      <c r="P543" t="inlineStr"/>
+      <c r="Q543" t="inlineStr"/>
+      <c r="R543" t="inlineStr"/>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>543</v>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>Konstrukteur Anlagenbau in Hamburg (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>Hgc Hamburg Gas Consult Gmbh</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>Lotte</t>
+        </is>
+      </c>
+      <c r="E544" t="b">
+        <v>0</v>
+      </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/hgc-hamburg-gas-consult-gmbh/konstrukteur-anlagenbau-in-hamburg-lotte-285425</t>
+        </is>
+      </c>
+      <c r="G544" t="inlineStr"/>
+      <c r="H544" t="inlineStr"/>
+      <c r="I544" t="inlineStr"/>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
+      <c r="L544" t="inlineStr"/>
+      <c r="M544" t="inlineStr"/>
+      <c r="N544" t="inlineStr"/>
+      <c r="O544" t="inlineStr"/>
+      <c r="P544" t="inlineStr"/>
+      <c r="Q544" t="inlineStr"/>
+      <c r="R544" t="inlineStr"/>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>544</v>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>Design Manager (w/m/d)*</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>Engel &amp; Völkers Holding Gmbh</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E545" t="b">
+        <v>0</v>
+      </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/engel-volkers-holding-gmbh/design-manager-hamburg-214793</t>
+        </is>
+      </c>
+      <c r="G545" t="inlineStr"/>
+      <c r="H545" t="inlineStr"/>
+      <c r="I545" t="inlineStr"/>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
+      <c r="L545" t="inlineStr"/>
+      <c r="M545" t="inlineStr"/>
+      <c r="N545" t="inlineStr"/>
+      <c r="O545" t="inlineStr"/>
+      <c r="P545" t="inlineStr"/>
+      <c r="Q545" t="inlineStr"/>
+      <c r="R545" t="inlineStr"/>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>545</v>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>Chief Executive Officer (CEO)</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>Soonami.Io Gmbh</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E546" t="b">
+        <v>1</v>
+      </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/soonamiio-gmbh/chief-executive-officer-ceo-berlin-283261</t>
+        </is>
+      </c>
+      <c r="G546" t="inlineStr"/>
+      <c r="H546" t="inlineStr"/>
+      <c r="I546" t="inlineStr"/>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
+      <c r="L546" t="inlineStr"/>
+      <c r="M546" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N546" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O546" t="n">
+        <v>70</v>
+      </c>
+      <c r="P546" t="inlineStr"/>
+      <c r="Q546" t="inlineStr"/>
+      <c r="R546" t="inlineStr"/>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>546</v>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>Ausbildung zum Fachinformatiker für Anwendungsentwicklung (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>Eder - Agentur Für Produktkommunikation</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>Ostfildern</t>
+        </is>
+      </c>
+      <c r="E547" t="b">
+        <v>0</v>
+      </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/eder-agentur-fur-produktkommunikation/ausbildung-zum-fachinformatiker-fur-anwendungsentwicklung-ostfildern-37340</t>
+        </is>
+      </c>
+      <c r="G547" t="inlineStr"/>
+      <c r="H547" t="inlineStr"/>
+      <c r="I547" t="inlineStr"/>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
+      <c r="L547" t="inlineStr"/>
+      <c r="M547" t="inlineStr"/>
+      <c r="N547" t="inlineStr"/>
+      <c r="O547" t="inlineStr"/>
+      <c r="P547" t="inlineStr"/>
+      <c r="Q547" t="inlineStr"/>
+      <c r="R547" t="inlineStr"/>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>547</v>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>Ausbildung zum Mediengestalter Printmedien (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>Eder - Agentur Für Produktkommunikation</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>Ostfildern</t>
+        </is>
+      </c>
+      <c r="E548" t="b">
+        <v>0</v>
+      </c>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/eder-agentur-fur-produktkommunikation/ausbildung-zum-mediengestalter-printmedien-ostfildern-429554</t>
+        </is>
+      </c>
+      <c r="G548" t="inlineStr"/>
+      <c r="H548" t="inlineStr"/>
+      <c r="I548" t="inlineStr"/>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
+      <c r="L548" t="inlineStr"/>
+      <c r="M548" t="inlineStr"/>
+      <c r="N548" t="inlineStr"/>
+      <c r="O548" t="inlineStr"/>
+      <c r="P548" t="inlineStr"/>
+      <c r="Q548" t="inlineStr"/>
+      <c r="R548" t="inlineStr"/>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>548</v>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>IT Service Management Berater (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>Serview Gmbh</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E549" t="b">
+        <v>0</v>
+      </c>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/serview-gmbh/it-service-management-berater-berlin-477981</t>
+        </is>
+      </c>
+      <c r="G549" t="inlineStr"/>
+      <c r="H549" t="inlineStr"/>
+      <c r="I549" t="inlineStr"/>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
+      <c r="L549" t="inlineStr"/>
+      <c r="M549" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N549" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O549" t="n">
+        <v>70</v>
+      </c>
+      <c r="P549" t="inlineStr"/>
+      <c r="Q549" t="inlineStr"/>
+      <c r="R549" t="inlineStr"/>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>549</v>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>Baufacharbeiter - Quereinsteiger willkommen</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>Bauunternehmung E. Wenk - Inh. Thomas Wenk E.K.</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>Themar</t>
+        </is>
+      </c>
+      <c r="E550" t="b">
+        <v>0</v>
+      </c>
+      <c r="F550" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/bauunternehmung-e-wenk-inh-thomas-wenk-ek/baufacharbeiter-quereinsteiger-willkommen-themar-65794</t>
+        </is>
+      </c>
+      <c r="G550" t="inlineStr"/>
+      <c r="H550" t="inlineStr"/>
+      <c r="I550" t="inlineStr"/>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
+      <c r="L550" t="inlineStr"/>
+      <c r="M550" t="inlineStr"/>
+      <c r="N550" t="inlineStr"/>
+      <c r="O550" t="inlineStr"/>
+      <c r="P550" t="inlineStr"/>
+      <c r="Q550" t="inlineStr"/>
+      <c r="R550" t="inlineStr"/>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>550</v>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>Servicetechniker:in</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>Japan Management</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E551" t="b">
+        <v>0</v>
+      </c>
+      <c r="F551" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/japan-management/servicetechnikerin-frankfurt-338834</t>
+        </is>
+      </c>
+      <c r="G551" t="inlineStr"/>
+      <c r="H551" t="inlineStr"/>
+      <c r="I551" t="inlineStr"/>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
+      <c r="L551" t="inlineStr"/>
+      <c r="M551" t="inlineStr"/>
+      <c r="N551" t="inlineStr"/>
+      <c r="O551" t="inlineStr"/>
+      <c r="P551" t="inlineStr"/>
+      <c r="Q551" t="inlineStr"/>
+      <c r="R551" t="inlineStr"/>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>551</v>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>Elektroniker für Betriebstechnik (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>Ifürel Emsr-Technik Gmbh &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>Duisburg</t>
+        </is>
+      </c>
+      <c r="E552" t="b">
+        <v>0</v>
+      </c>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ifurel-emsr-technik-gmbh-co-kg/elektroniker-fur-betriebstechnik-duisburg-171322</t>
+        </is>
+      </c>
+      <c r="G552" t="inlineStr"/>
+      <c r="H552" t="inlineStr"/>
+      <c r="I552" t="inlineStr"/>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
+      <c r="L552" t="inlineStr"/>
+      <c r="M552" t="inlineStr"/>
+      <c r="N552" t="inlineStr"/>
+      <c r="O552" t="inlineStr"/>
+      <c r="P552" t="inlineStr"/>
+      <c r="Q552" t="inlineStr"/>
+      <c r="R552" t="inlineStr"/>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>552</v>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>Industriemechaniker - Industrieelektriker (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>Kaja Food Gmbh</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>Kempen</t>
+        </is>
+      </c>
+      <c r="E553" t="b">
+        <v>0</v>
+      </c>
+      <c r="F553" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/kaja-food-gmbh/industriemechaniker-industrieelektriker-kempen-24644</t>
+        </is>
+      </c>
+      <c r="G553" t="inlineStr"/>
+      <c r="H553" t="inlineStr"/>
+      <c r="I553" t="inlineStr"/>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
+      <c r="L553" t="inlineStr"/>
+      <c r="M553" t="inlineStr"/>
+      <c r="N553" t="inlineStr"/>
+      <c r="O553" t="inlineStr"/>
+      <c r="P553" t="inlineStr"/>
+      <c r="Q553" t="inlineStr"/>
+      <c r="R553" t="inlineStr"/>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>553</v>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>HR Business Partner (d/m/w)</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>Auto1 Group Se</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E554" t="b">
+        <v>0</v>
+      </c>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/auto1-group-se/hr-business-partner-berlin-100636</t>
+        </is>
+      </c>
+      <c r="G554" t="inlineStr"/>
+      <c r="H554" t="inlineStr"/>
+      <c r="I554" t="inlineStr"/>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
+      <c r="L554" t="inlineStr"/>
+      <c r="M554" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N554" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O554" t="n">
+        <v>70</v>
+      </c>
+      <c r="P554" t="inlineStr"/>
+      <c r="Q554" t="inlineStr"/>
+      <c r="R554" t="inlineStr"/>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>554</v>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>Buchhalter | Schwerpunkt Debitoren (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>Lichtblick Eaas Gmbh</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E555" t="b">
+        <v>0</v>
+      </c>
+      <c r="F555" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/lichtblick-eaas-gmbh/buchhalter-schwerpunkt-debitoren-cologne-376058</t>
+        </is>
+      </c>
+      <c r="G555" t="inlineStr"/>
+      <c r="H555" t="inlineStr"/>
+      <c r="I555" t="inlineStr"/>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
+      <c r="L555" t="inlineStr"/>
+      <c r="M555" t="inlineStr"/>
+      <c r="N555" t="inlineStr"/>
+      <c r="O555" t="inlineStr"/>
+      <c r="P555" t="inlineStr"/>
+      <c r="Q555" t="inlineStr"/>
+      <c r="R555" t="inlineStr"/>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>555</v>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>Bauleiter / Bautechniker (m/w/d) - Bahnbau</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>Dresden</t>
+        </is>
+      </c>
+      <c r="E556" t="b">
+        <v>0</v>
+      </c>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauleiter-bautechniker-bahnbau-dresden-209197</t>
+        </is>
+      </c>
+      <c r="G556" t="inlineStr"/>
+      <c r="H556" t="inlineStr"/>
+      <c r="I556" t="inlineStr"/>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
+      <c r="L556" t="inlineStr"/>
+      <c r="M556" t="inlineStr"/>
+      <c r="N556" t="inlineStr"/>
+      <c r="O556" t="inlineStr"/>
+      <c r="P556" t="inlineStr"/>
+      <c r="Q556" t="inlineStr"/>
+      <c r="R556" t="inlineStr"/>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>556</v>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>Office Manager:in (m/w/d) in Berlin (Minijob-Basis)</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>Snocks Gmbh</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>Burow</t>
+        </is>
+      </c>
+      <c r="E557" t="b">
+        <v>0</v>
+      </c>
+      <c r="F557" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/snocks-gmbh/office-managerin-in-berlin-minijob-basis-burow-229681</t>
+        </is>
+      </c>
+      <c r="G557" t="inlineStr"/>
+      <c r="H557" t="inlineStr"/>
+      <c r="I557" t="inlineStr"/>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
+      <c r="L557" t="inlineStr"/>
+      <c r="M557" t="inlineStr"/>
+      <c r="N557" t="inlineStr"/>
+      <c r="O557" t="inlineStr"/>
+      <c r="P557" t="inlineStr"/>
+      <c r="Q557" t="inlineStr"/>
+      <c r="R557" t="inlineStr"/>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>557</v>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>Social Media - Manager*in (w/m/d)</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>German Design Council - Rat Für Formgebung</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E558" t="b">
+        <v>0</v>
+      </c>
+      <c r="F558" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/german-design-council-rat-fur-formgebung/social-media-managerin-frankfurt-357125</t>
+        </is>
+      </c>
+      <c r="G558" t="inlineStr"/>
+      <c r="H558" t="inlineStr"/>
+      <c r="I558" t="inlineStr"/>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
+      <c r="L558" t="inlineStr"/>
+      <c r="M558" t="inlineStr"/>
+      <c r="N558" t="inlineStr"/>
+      <c r="O558" t="inlineStr"/>
+      <c r="P558" t="inlineStr"/>
+      <c r="Q558" t="inlineStr"/>
+      <c r="R558" t="inlineStr"/>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>558</v>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>Finanzfachkraft für die Abrechnung (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>Bunt-Stiftung Bildung Und Integrative Arbeit Ggmbh</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E559" t="b">
+        <v>0</v>
+      </c>
+      <c r="F559" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/bunt-stiftung-bildung-und-integrative-arbeit-ggmbh/finanzfachkraft-fur-die-abrechnung-berlin-199481</t>
+        </is>
+      </c>
+      <c r="G559" t="inlineStr"/>
+      <c r="H559" t="inlineStr"/>
+      <c r="I559" t="inlineStr"/>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
+      <c r="L559" t="inlineStr"/>
+      <c r="M559" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N559" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O559" t="n">
+        <v>70</v>
+      </c>
+      <c r="P559" t="inlineStr"/>
+      <c r="Q559" t="inlineStr"/>
+      <c r="R559" t="inlineStr"/>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>559</v>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>Internal Control Associate/Auditor (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>Diebold Nixdorf Germany</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="E560" t="b">
+        <v>0</v>
+      </c>
+      <c r="F560" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/diebold-nixdorf-germany/internal-control-associate-auditor-paderborn-211345</t>
+        </is>
+      </c>
+      <c r="G560" t="inlineStr"/>
+      <c r="H560" t="inlineStr"/>
+      <c r="I560" t="inlineStr"/>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
+      <c r="L560" t="inlineStr"/>
+      <c r="M560" t="inlineStr"/>
+      <c r="N560" t="inlineStr"/>
+      <c r="O560" t="inlineStr"/>
+      <c r="P560" t="inlineStr"/>
+      <c r="Q560" t="inlineStr"/>
+      <c r="R560" t="inlineStr"/>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>560</v>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>Account Manager Automotive (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>Cmf Advertising Gmbh</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>Oberursel</t>
+        </is>
+      </c>
+      <c r="E561" t="b">
+        <v>0</v>
+      </c>
+      <c r="F561" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/cmf-advertising-gmbh/account-manager-automotive-oberursel-387354</t>
+        </is>
+      </c>
+      <c r="G561" t="inlineStr"/>
+      <c r="H561" t="inlineStr"/>
+      <c r="I561" t="inlineStr"/>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
+      <c r="L561" t="inlineStr"/>
+      <c r="M561" t="inlineStr"/>
+      <c r="N561" t="inlineStr"/>
+      <c r="O561" t="inlineStr"/>
+      <c r="P561" t="inlineStr"/>
+      <c r="Q561" t="inlineStr"/>
+      <c r="R561" t="inlineStr"/>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>561</v>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>Senior Full-Stack Engineer (m/f/d)</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>Omnipeak Gmbh</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E562" t="b">
+        <v>1</v>
+      </c>
+      <c r="F562" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/omnipeak-gmbh/senior-full-stack-engineer-frankfurt-343368</t>
+        </is>
+      </c>
+      <c r="G562" t="inlineStr"/>
+      <c r="H562" t="inlineStr"/>
+      <c r="I562" t="inlineStr"/>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
+      <c r="L562" t="inlineStr"/>
+      <c r="M562" t="inlineStr"/>
+      <c r="N562" t="inlineStr"/>
+      <c r="O562" t="inlineStr"/>
+      <c r="P562" t="inlineStr"/>
+      <c r="Q562" t="inlineStr"/>
+      <c r="R562" t="inlineStr"/>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>562</v>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>Projektmanager (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>Personalica Gmbh</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E563" t="b">
+        <v>0</v>
+      </c>
+      <c r="F563" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/personalica-gmbh/projektmanager-hamburg-345460</t>
+        </is>
+      </c>
+      <c r="G563" t="inlineStr"/>
+      <c r="H563" t="inlineStr"/>
+      <c r="I563" t="inlineStr"/>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
+      <c r="L563" t="inlineStr"/>
+      <c r="M563" t="inlineStr"/>
+      <c r="N563" t="inlineStr"/>
+      <c r="O563" t="inlineStr"/>
+      <c r="P563" t="inlineStr"/>
+      <c r="Q563" t="inlineStr"/>
+      <c r="R563" t="inlineStr"/>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>563</v>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>Sachbearbeiter Kundenservice - Bundesweit (m/w/d) Home Office - Vollzeit</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>Ketteler &amp; Funcken Gmbh</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>Düsseldorf</t>
+        </is>
+      </c>
+      <c r="E564" t="b">
+        <v>0</v>
+      </c>
+      <c r="F564" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ketteler-funcken-gmbh/sachbearbeiter-kundenservice-bundesweit-home-office-vollzeit-dusseldorf-495853</t>
+        </is>
+      </c>
+      <c r="G564" t="inlineStr"/>
+      <c r="H564" t="inlineStr"/>
+      <c r="I564" t="inlineStr"/>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
+      <c r="L564" t="inlineStr"/>
+      <c r="M564" t="inlineStr"/>
+      <c r="N564" t="inlineStr"/>
+      <c r="O564" t="inlineStr"/>
+      <c r="P564" t="inlineStr"/>
+      <c r="Q564" t="inlineStr"/>
+      <c r="R564" t="inlineStr"/>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>564</v>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>Performance Marketing Manager:in</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>Angeheuert Recruiting</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>Nuremberg</t>
+        </is>
+      </c>
+      <c r="E565" t="b">
+        <v>1</v>
+      </c>
+      <c r="F565" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/angeheuert-recruiting/performance-marketing-managerin-nuremberg-57367</t>
+        </is>
+      </c>
+      <c r="G565" t="inlineStr"/>
+      <c r="H565" t="inlineStr"/>
+      <c r="I565" t="inlineStr"/>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
+      <c r="L565" t="inlineStr"/>
+      <c r="M565" t="inlineStr"/>
+      <c r="N565" t="inlineStr"/>
+      <c r="O565" t="inlineStr"/>
+      <c r="P565" t="inlineStr"/>
+      <c r="Q565" t="inlineStr"/>
+      <c r="R565" t="inlineStr"/>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>565</v>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>Softwareentwickler Maschinensoftware PLC / NC (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>Modul Mt Verzahntechnik Gmbh</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>Chemnitz</t>
+        </is>
+      </c>
+      <c r="E566" t="b">
+        <v>0</v>
+      </c>
+      <c r="F566" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/modul-mt-verzahntechnik-gmbh/softwareentwickler-maschinensoftware-plc-nc-chemnitz-228663</t>
+        </is>
+      </c>
+      <c r="G566" t="inlineStr"/>
+      <c r="H566" t="inlineStr"/>
+      <c r="I566" t="inlineStr"/>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
+      <c r="L566" t="inlineStr"/>
+      <c r="M566" t="inlineStr"/>
+      <c r="N566" t="inlineStr"/>
+      <c r="O566" t="inlineStr"/>
+      <c r="P566" t="inlineStr"/>
+      <c r="Q566" t="inlineStr"/>
+      <c r="R566" t="inlineStr"/>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>566</v>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>Performance Marketing Manager:in</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>Personalberatung Angeheuert Gmbh</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>Saarbrücken</t>
+        </is>
+      </c>
+      <c r="E567" t="b">
+        <v>1</v>
+      </c>
+      <c r="F567" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/personalberatung-angeheuert-gmbh/performance-marketing-managerin-saarbrucken-303105</t>
+        </is>
+      </c>
+      <c r="G567" t="inlineStr"/>
+      <c r="H567" t="inlineStr"/>
+      <c r="I567" t="inlineStr"/>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
+      <c r="L567" t="inlineStr"/>
+      <c r="M567" t="inlineStr"/>
+      <c r="N567" t="inlineStr"/>
+      <c r="O567" t="inlineStr"/>
+      <c r="P567" t="inlineStr"/>
+      <c r="Q567" t="inlineStr"/>
+      <c r="R567" t="inlineStr"/>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>567</v>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>Kundensupport Mitarbeiter - Remote - VZ - Sports &amp; Health Industrie</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>Tretmann</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>Aachen</t>
+        </is>
+      </c>
+      <c r="E568" t="b">
+        <v>1</v>
+      </c>
+      <c r="F568" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tretmann/kundensupport-mitarbeiter-remote-vz-sports-health-industrie-aachen-37507</t>
+        </is>
+      </c>
+      <c r="G568" t="inlineStr"/>
+      <c r="H568" t="inlineStr"/>
+      <c r="I568" t="inlineStr"/>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
+      <c r="L568" t="inlineStr"/>
+      <c r="M568" t="inlineStr"/>
+      <c r="N568" t="inlineStr"/>
+      <c r="O568" t="inlineStr"/>
+      <c r="P568" t="inlineStr"/>
+      <c r="Q568" t="inlineStr"/>
+      <c r="R568" t="inlineStr"/>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>568</v>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>Fachwirt für Finanzberatung (m/w/d) Homeoffice</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>Persolowa</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>Koblenz</t>
+        </is>
+      </c>
+      <c r="E569" t="b">
+        <v>1</v>
+      </c>
+      <c r="F569" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/persolowa/fachwirt-fur-finanzberatung-homeoffice-koblenz-163052</t>
+        </is>
+      </c>
+      <c r="G569" t="inlineStr"/>
+      <c r="H569" t="inlineStr"/>
+      <c r="I569" t="inlineStr"/>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
+      <c r="L569" t="inlineStr"/>
+      <c r="M569" t="inlineStr"/>
+      <c r="N569" t="inlineStr"/>
+      <c r="O569" t="inlineStr"/>
+      <c r="P569" t="inlineStr"/>
+      <c r="Q569" t="inlineStr"/>
+      <c r="R569" t="inlineStr"/>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>569</v>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>Polier (m/w/d) Straßen- und Tiefbau</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>Gs Company Gmbh &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E570" t="b">
+        <v>0</v>
+      </c>
+      <c r="F570" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/gs-company-gmbh-co-kg/polier-strassen-und-tiefbau-berlin-13404</t>
+        </is>
+      </c>
+      <c r="G570" t="inlineStr"/>
+      <c r="H570" t="inlineStr"/>
+      <c r="I570" t="inlineStr"/>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
+      <c r="L570" t="inlineStr"/>
+      <c r="M570" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N570" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O570" t="n">
+        <v>70</v>
+      </c>
+      <c r="P570" t="inlineStr"/>
+      <c r="Q570" t="inlineStr"/>
+      <c r="R570" t="inlineStr"/>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>570</v>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>Mitarbeiter*in Kund*innenservice (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>Santos Grills Gmbh</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E571" t="b">
+        <v>0</v>
+      </c>
+      <c r="F571" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/santos-grills-gmbh/mitarbeiterin-kundinnenservice-cologne-325239</t>
+        </is>
+      </c>
+      <c r="G571" t="inlineStr"/>
+      <c r="H571" t="inlineStr"/>
+      <c r="I571" t="inlineStr"/>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
+      <c r="L571" t="inlineStr"/>
+      <c r="M571" t="inlineStr"/>
+      <c r="N571" t="inlineStr"/>
+      <c r="O571" t="inlineStr"/>
+      <c r="P571" t="inlineStr"/>
+      <c r="Q571" t="inlineStr"/>
+      <c r="R571" t="inlineStr"/>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>571</v>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>Konstrukteur Hardware Elektrokonstruktion (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>Modul Mt Verzahntechnik Gmbh</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>Chemnitz</t>
+        </is>
+      </c>
+      <c r="E572" t="b">
+        <v>0</v>
+      </c>
+      <c r="F572" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/modul-mt-verzahntechnik-gmbh/konstrukteur-hardware-elektrokonstruktion-chemnitz-64532</t>
+        </is>
+      </c>
+      <c r="G572" t="inlineStr"/>
+      <c r="H572" t="inlineStr"/>
+      <c r="I572" t="inlineStr"/>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
+      <c r="L572" t="inlineStr"/>
+      <c r="M572" t="inlineStr"/>
+      <c r="N572" t="inlineStr"/>
+      <c r="O572" t="inlineStr"/>
+      <c r="P572" t="inlineStr"/>
+      <c r="Q572" t="inlineStr"/>
+      <c r="R572" t="inlineStr"/>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>572</v>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>Technischer Objektmanager (m/d/w) mit Karrierechance</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>Prime Hr Agentur®</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E573" t="b">
+        <v>0</v>
+      </c>
+      <c r="F573" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/prime-hr-agentur/technischer-objektmanager-mit-karrierechance-hamburg-184908</t>
+        </is>
+      </c>
+      <c r="G573" t="inlineStr"/>
+      <c r="H573" t="inlineStr"/>
+      <c r="I573" t="inlineStr"/>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
+      <c r="L573" t="inlineStr"/>
+      <c r="M573" t="inlineStr"/>
+      <c r="N573" t="inlineStr"/>
+      <c r="O573" t="inlineStr"/>
+      <c r="P573" t="inlineStr"/>
+      <c r="Q573" t="inlineStr"/>
+      <c r="R573" t="inlineStr"/>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>573</v>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>Werkstudent*in IT Support (all genders)</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>Onetwosocial</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="E574" t="b">
+        <v>0</v>
+      </c>
+      <c r="F574" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/onetwosocial/werkstudentin-it-support-all-genders-munich-372159</t>
+        </is>
+      </c>
+      <c r="G574" t="inlineStr"/>
+      <c r="H574" t="inlineStr"/>
+      <c r="I574" t="inlineStr"/>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
+      <c r="L574" t="inlineStr"/>
+      <c r="M574" t="inlineStr"/>
+      <c r="N574" t="inlineStr"/>
+      <c r="O574" t="inlineStr"/>
+      <c r="P574" t="inlineStr"/>
+      <c r="Q574" t="inlineStr"/>
+      <c r="R574" t="inlineStr"/>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>574</v>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Erfurt, auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>Erfurt</t>
+        </is>
+      </c>
+      <c r="E575" t="b">
+        <v>0</v>
+      </c>
+      <c r="F575" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-erfurt-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-310268</t>
+        </is>
+      </c>
+      <c r="G575" t="inlineStr"/>
+      <c r="H575" t="inlineStr"/>
+      <c r="I575" t="inlineStr"/>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
+      <c r="L575" t="inlineStr"/>
+      <c r="M575" t="inlineStr"/>
+      <c r="N575" t="inlineStr"/>
+      <c r="O575" t="inlineStr"/>
+      <c r="P575" t="inlineStr"/>
+      <c r="Q575" t="inlineStr"/>
+      <c r="R575" t="inlineStr"/>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>575</v>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>Werkstudent*in Human Resources (all genders)</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>Onetwosocial</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="E576" t="b">
+        <v>0</v>
+      </c>
+      <c r="F576" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/onetwosocial/werkstudentin-human-resources-all-genders-munich-343969</t>
+        </is>
+      </c>
+      <c r="G576" t="inlineStr"/>
+      <c r="H576" t="inlineStr"/>
+      <c r="I576" t="inlineStr"/>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
+      <c r="L576" t="inlineStr"/>
+      <c r="M576" t="inlineStr"/>
+      <c r="N576" t="inlineStr"/>
+      <c r="O576" t="inlineStr"/>
+      <c r="P576" t="inlineStr"/>
+      <c r="Q576" t="inlineStr"/>
+      <c r="R576" t="inlineStr"/>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>576</v>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>Technischer Property Manager (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>Prime Hr Agentur®</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E577" t="b">
+        <v>0</v>
+      </c>
+      <c r="F577" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/prime-hr-agentur/technischer-property-manager-hamburg-56765</t>
+        </is>
+      </c>
+      <c r="G577" t="inlineStr"/>
+      <c r="H577" t="inlineStr"/>
+      <c r="I577" t="inlineStr"/>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
+      <c r="L577" t="inlineStr"/>
+      <c r="M577" t="inlineStr"/>
+      <c r="N577" t="inlineStr"/>
+      <c r="O577" t="inlineStr"/>
+      <c r="P577" t="inlineStr"/>
+      <c r="Q577" t="inlineStr"/>
+      <c r="R577" t="inlineStr"/>
+    </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>577</v>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>Business Consultant Erp (M/W/D)</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>Thepublic® Gmbh</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E578" t="b">
+        <v>0</v>
+      </c>
+      <c r="F578" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/thepublic-gmbh/business-consultant-erp-stuttgart-143689</t>
+        </is>
+      </c>
+      <c r="G578" t="inlineStr"/>
+      <c r="H578" t="inlineStr"/>
+      <c r="I578" t="inlineStr"/>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
+      <c r="L578" t="inlineStr"/>
+      <c r="M578" t="inlineStr"/>
+      <c r="N578" t="inlineStr"/>
+      <c r="O578" t="inlineStr"/>
+      <c r="P578" t="inlineStr"/>
+      <c r="Q578" t="inlineStr"/>
+      <c r="R578" t="inlineStr"/>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>578</v>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>It Projektmanager Erp (M/W/D)</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>Thepublic® Gmbh</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E579" t="b">
+        <v>0</v>
+      </c>
+      <c r="F579" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/thepublic-gmbh/it-projektmanager-erp-stuttgart-432181</t>
+        </is>
+      </c>
+      <c r="G579" t="inlineStr"/>
+      <c r="H579" t="inlineStr"/>
+      <c r="I579" t="inlineStr"/>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
+      <c r="L579" t="inlineStr"/>
+      <c r="M579" t="inlineStr"/>
+      <c r="N579" t="inlineStr"/>
+      <c r="O579" t="inlineStr"/>
+      <c r="P579" t="inlineStr"/>
+      <c r="Q579" t="inlineStr"/>
+      <c r="R579" t="inlineStr"/>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>579</v>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>Data Analyst - Business Intelligence (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>Personalberatung Angeheuert Gmbh</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>Giessen</t>
+        </is>
+      </c>
+      <c r="E580" t="b">
+        <v>0</v>
+      </c>
+      <c r="F580" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/personalberatung-angeheuert-gmbh/data-analyst-business-intelligence-giessen-240310</t>
+        </is>
+      </c>
+      <c r="G580" t="inlineStr"/>
+      <c r="H580" t="inlineStr"/>
+      <c r="I580" t="inlineStr"/>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
+      <c r="L580" t="inlineStr"/>
+      <c r="M580" t="inlineStr"/>
+      <c r="N580" t="inlineStr"/>
+      <c r="O580" t="inlineStr"/>
+      <c r="P580" t="inlineStr"/>
+      <c r="Q580" t="inlineStr"/>
+      <c r="R580" t="inlineStr"/>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>580</v>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>Senior Software Developer:in (m/w/d) im Kölner Startup</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>Greenpocket Gmbh</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E581" t="b">
+        <v>0</v>
+      </c>
+      <c r="F581" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/greenpocket-gmbh/senior-software-developerin-im-kolner-startup-cologne-274422</t>
+        </is>
+      </c>
+      <c r="G581" t="inlineStr"/>
+      <c r="H581" t="inlineStr"/>
+      <c r="I581" t="inlineStr"/>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
+      <c r="L581" t="inlineStr"/>
+      <c r="M581" t="inlineStr"/>
+      <c r="N581" t="inlineStr"/>
+      <c r="O581" t="inlineStr"/>
+      <c r="P581" t="inlineStr"/>
+      <c r="Q581" t="inlineStr"/>
+      <c r="R581" t="inlineStr"/>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>581</v>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>Data Analyst - Business Intelligence (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>Personalberatung Angeheuert Gmbh</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E582" t="b">
+        <v>0</v>
+      </c>
+      <c r="F582" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/personalberatung-angeheuert-gmbh/data-analyst-business-intelligence-frankfurt-241008</t>
+        </is>
+      </c>
+      <c r="G582" t="inlineStr"/>
+      <c r="H582" t="inlineStr"/>
+      <c r="I582" t="inlineStr"/>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
+      <c r="L582" t="inlineStr"/>
+      <c r="M582" t="inlineStr"/>
+      <c r="N582" t="inlineStr"/>
+      <c r="O582" t="inlineStr"/>
+      <c r="P582" t="inlineStr"/>
+      <c r="Q582" t="inlineStr"/>
+      <c r="R582" t="inlineStr"/>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>582</v>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>Data &amp; BI Specialist (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>Personalberatung Angeheuert Gmbh</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>Wetzlar</t>
+        </is>
+      </c>
+      <c r="E583" t="b">
+        <v>0</v>
+      </c>
+      <c r="F583" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/personalberatung-angeheuert-gmbh/data-bi-specialist-wetzlar-306636</t>
+        </is>
+      </c>
+      <c r="G583" t="inlineStr"/>
+      <c r="H583" t="inlineStr"/>
+      <c r="I583" t="inlineStr"/>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
+      <c r="L583" t="inlineStr"/>
+      <c r="M583" t="inlineStr"/>
+      <c r="N583" t="inlineStr"/>
+      <c r="O583" t="inlineStr"/>
+      <c r="P583" t="inlineStr"/>
+      <c r="Q583" t="inlineStr"/>
+      <c r="R583" t="inlineStr"/>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>583</v>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>Data &amp; BI Specialist (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>Personalberatung Angeheuert Gmbh</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E584" t="b">
+        <v>0</v>
+      </c>
+      <c r="F584" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/personalberatung-angeheuert-gmbh/data-bi-specialist-frankfurt-78097</t>
+        </is>
+      </c>
+      <c r="G584" t="inlineStr"/>
+      <c r="H584" t="inlineStr"/>
+      <c r="I584" t="inlineStr"/>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
+      <c r="L584" t="inlineStr"/>
+      <c r="M584" t="inlineStr"/>
+      <c r="N584" t="inlineStr"/>
+      <c r="O584" t="inlineStr"/>
+      <c r="P584" t="inlineStr"/>
+      <c r="Q584" t="inlineStr"/>
+      <c r="R584" t="inlineStr"/>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>584</v>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>Technischer Objektmanager (m/w/d) Corporate Real Estate - bis ca. 80.000 € Jahresgehalt</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>Qtalents - Real Estate Recruiting</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>Darmstadt</t>
+        </is>
+      </c>
+      <c r="E585" t="b">
+        <v>0</v>
+      </c>
+      <c r="F585" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/qtalents-real-estate-recruiting/technischer-objektmanager-corporate-real-estate-bis-ca-80000-eur-jahresgehalt-darmstadt-475057</t>
+        </is>
+      </c>
+      <c r="G585" t="inlineStr"/>
+      <c r="H585" t="inlineStr"/>
+      <c r="I585" t="inlineStr"/>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
+      <c r="L585" t="inlineStr"/>
+      <c r="M585" t="inlineStr"/>
+      <c r="N585" t="inlineStr"/>
+      <c r="O585" t="inlineStr"/>
+      <c r="P585" t="inlineStr"/>
+      <c r="Q585" t="inlineStr"/>
+      <c r="R585" t="inlineStr"/>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>585</v>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>Python DevOps Entwickler (m/w/d) (Ref.Nr.: 44467)</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>Wavestone Germany Ag</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E586" t="b">
+        <v>0</v>
+      </c>
+      <c r="F586" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/wavestone-germany-ag/python-devops-entwickler-refnr-44467-berlin-76201</t>
+        </is>
+      </c>
+      <c r="G586" t="inlineStr"/>
+      <c r="H586" t="inlineStr"/>
+      <c r="I586" t="inlineStr"/>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
+      <c r="L586" t="inlineStr"/>
+      <c r="M586" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N586" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O586" t="n">
+        <v>70</v>
+      </c>
+      <c r="P586" t="inlineStr"/>
+      <c r="Q586" t="inlineStr"/>
+      <c r="R586" t="inlineStr"/>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>586</v>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>Serviceberater Nutzfahrzeuge (m/w/d) für mittelständische Autohaus-Gruppe</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>Michael Krohn Consulting</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>Elmshorn</t>
+        </is>
+      </c>
+      <c r="E587" t="b">
+        <v>0</v>
+      </c>
+      <c r="F587" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/michael-krohn-consulting/serviceberater-nutzfahrzeuge-fur-mittelstandische-autohaus-gruppe-elmshorn-144871</t>
+        </is>
+      </c>
+      <c r="G587" t="inlineStr"/>
+      <c r="H587" t="inlineStr"/>
+      <c r="I587" t="inlineStr"/>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
+      <c r="L587" t="inlineStr"/>
+      <c r="M587" t="inlineStr"/>
+      <c r="N587" t="inlineStr"/>
+      <c r="O587" t="inlineStr"/>
+      <c r="P587" t="inlineStr"/>
+      <c r="Q587" t="inlineStr"/>
+      <c r="R587" t="inlineStr"/>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>587</v>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>UGC / Creator Manager (m/w/d) - Paid Social Agentur</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>Adbaker</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E588" t="b">
+        <v>0</v>
+      </c>
+      <c r="F588" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/adbaker/ugc-creator-manager-paid-social-agentur-cologne-117088</t>
+        </is>
+      </c>
+      <c r="G588" t="inlineStr"/>
+      <c r="H588" t="inlineStr"/>
+      <c r="I588" t="inlineStr"/>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
+      <c r="L588" t="inlineStr"/>
+      <c r="M588" t="inlineStr"/>
+      <c r="N588" t="inlineStr"/>
+      <c r="O588" t="inlineStr"/>
+      <c r="P588" t="inlineStr"/>
+      <c r="Q588" t="inlineStr"/>
+      <c r="R588" t="inlineStr"/>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>588</v>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>Werkstudent Buchhaltung/Controlling (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>Oehm Und Rehbein Gmbh</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>Rostock</t>
+        </is>
+      </c>
+      <c r="E589" t="b">
+        <v>0</v>
+      </c>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/oehm-und-rehbein-gmbh/werkstudent-buchhaltung-controlling-rostock-45746</t>
+        </is>
+      </c>
+      <c r="G589" t="inlineStr"/>
+      <c r="H589" t="inlineStr"/>
+      <c r="I589" t="inlineStr"/>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
+      <c r="L589" t="inlineStr"/>
+      <c r="M589" t="inlineStr"/>
+      <c r="N589" t="inlineStr"/>
+      <c r="O589" t="inlineStr"/>
+      <c r="P589" t="inlineStr"/>
+      <c r="Q589" t="inlineStr"/>
+      <c r="R589" t="inlineStr"/>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>589</v>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>Accountant (w/d/m) remote</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>Raisenow</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="E590" t="b">
+        <v>1</v>
+      </c>
+      <c r="F590" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/raisenow/accountant-remote-munich-227904</t>
+        </is>
+      </c>
+      <c r="G590" t="inlineStr"/>
+      <c r="H590" t="inlineStr"/>
+      <c r="I590" t="inlineStr"/>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
+      <c r="L590" t="inlineStr"/>
+      <c r="M590" t="inlineStr"/>
+      <c r="N590" t="inlineStr"/>
+      <c r="O590" t="inlineStr"/>
+      <c r="P590" t="inlineStr"/>
+      <c r="Q590" t="inlineStr"/>
+      <c r="R590" t="inlineStr"/>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>590</v>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>Lebensmittelspezialist: Einstieg als SAP RD Consultant (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>Gqs Ag</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>Grasbrunn</t>
+        </is>
+      </c>
+      <c r="E591" t="b">
+        <v>0</v>
+      </c>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/gqs-ag/lebensmittelspezialist-einstieg-als-sap-rd-consultant-grasbrunn-21543</t>
+        </is>
+      </c>
+      <c r="G591" t="inlineStr"/>
+      <c r="H591" t="inlineStr"/>
+      <c r="I591" t="inlineStr"/>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
+      <c r="L591" t="inlineStr"/>
+      <c r="M591" t="inlineStr"/>
+      <c r="N591" t="inlineStr"/>
+      <c r="O591" t="inlineStr"/>
+      <c r="P591" t="inlineStr"/>
+      <c r="Q591" t="inlineStr"/>
+      <c r="R591" t="inlineStr"/>
+    </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>591</v>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>Assistenz Operations (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>Pulse Advertising Gmbh</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E592" t="b">
+        <v>0</v>
+      </c>
+      <c r="F592" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/pulse-advertising-gmbh/assistenz-operations-hamburg-322678</t>
+        </is>
+      </c>
+      <c r="G592" t="inlineStr"/>
+      <c r="H592" t="inlineStr"/>
+      <c r="I592" t="inlineStr"/>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
+      <c r="L592" t="inlineStr"/>
+      <c r="M592" t="inlineStr"/>
+      <c r="N592" t="inlineStr"/>
+      <c r="O592" t="inlineStr"/>
+      <c r="P592" t="inlineStr"/>
+      <c r="Q592" t="inlineStr"/>
+      <c r="R592" t="inlineStr"/>
+    </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>592</v>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>UX/UI-Designer (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>Smake It Gmbh</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>Castrop-Rauxel</t>
+        </is>
+      </c>
+      <c r="E593" t="b">
+        <v>0</v>
+      </c>
+      <c r="F593" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/smake-it-gmbh/ux-ui-designer-castrop-rauxel-356143</t>
+        </is>
+      </c>
+      <c r="G593" t="inlineStr"/>
+      <c r="H593" t="inlineStr"/>
+      <c r="I593" t="inlineStr"/>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
+      <c r="L593" t="inlineStr"/>
+      <c r="M593" t="inlineStr"/>
+      <c r="N593" t="inlineStr"/>
+      <c r="O593" t="inlineStr"/>
+      <c r="P593" t="inlineStr"/>
+      <c r="Q593" t="inlineStr"/>
+      <c r="R593" t="inlineStr"/>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>593</v>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>Senior Sales Operations Manager</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>Join</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E594" t="b">
+        <v>0</v>
+      </c>
+      <c r="F594" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/join/senior-sales-operations-manager-berlin-270759</t>
+        </is>
+      </c>
+      <c r="G594" t="inlineStr"/>
+      <c r="H594" t="inlineStr"/>
+      <c r="I594" t="inlineStr"/>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
+      <c r="L594" t="inlineStr"/>
+      <c r="M594" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N594" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O594" t="n">
+        <v>70</v>
+      </c>
+      <c r="P594" t="inlineStr"/>
+      <c r="Q594" t="inlineStr"/>
+      <c r="R594" t="inlineStr"/>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>594</v>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>Serviceleiter (m/w/d) für Große Autohaus-Gruppe</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>Michael Krohn Consulting</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E595" t="b">
+        <v>0</v>
+      </c>
+      <c r="F595" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/michael-krohn-consulting/serviceleiter-fur-grosse-autohaus-gruppe-hamburg-497958</t>
+        </is>
+      </c>
+      <c r="G595" t="inlineStr"/>
+      <c r="H595" t="inlineStr"/>
+      <c r="I595" t="inlineStr"/>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
+      <c r="L595" t="inlineStr"/>
+      <c r="M595" t="inlineStr"/>
+      <c r="N595" t="inlineStr"/>
+      <c r="O595" t="inlineStr"/>
+      <c r="P595" t="inlineStr"/>
+      <c r="Q595" t="inlineStr"/>
+      <c r="R595" t="inlineStr"/>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>595</v>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>VoIP-Experte (m/w/d),</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>Ritter Technologie Gmbh</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>Oberhausen</t>
+        </is>
+      </c>
+      <c r="E596" t="b">
+        <v>0</v>
+      </c>
+      <c r="F596" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ritter-technologie-gmbh/voip-experte-oberhausen-291557</t>
+        </is>
+      </c>
+      <c r="G596" t="inlineStr"/>
+      <c r="H596" t="inlineStr"/>
+      <c r="I596" t="inlineStr"/>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
+      <c r="L596" t="inlineStr"/>
+      <c r="M596" t="inlineStr"/>
+      <c r="N596" t="inlineStr"/>
+      <c r="O596" t="inlineStr"/>
+      <c r="P596" t="inlineStr"/>
+      <c r="Q596" t="inlineStr"/>
+      <c r="R596" t="inlineStr"/>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>596</v>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>Python Entwickler (m/w/d) (Ref.Nr.: 44466)</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>Wavestone Germany Ag</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E597" t="b">
+        <v>0</v>
+      </c>
+      <c r="F597" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/wavestone-germany-ag/python-entwickler-refnr-44466-berlin-291530</t>
+        </is>
+      </c>
+      <c r="G597" t="inlineStr"/>
+      <c r="H597" t="inlineStr"/>
+      <c r="I597" t="inlineStr"/>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
+      <c r="L597" t="inlineStr"/>
+      <c r="M597" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N597" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O597" t="n">
+        <v>70</v>
+      </c>
+      <c r="P597" t="inlineStr"/>
+      <c r="Q597" t="inlineStr"/>
+      <c r="R597" t="inlineStr"/>
+    </row>
+    <row r="598">
+      <c r="A598" t="n">
+        <v>597</v>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>Bilanzbuchhalter (w/m/d) Private Equity-Gesellschaft</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>V-Select</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>Hanover</t>
+        </is>
+      </c>
+      <c r="E598" t="b">
+        <v>0</v>
+      </c>
+      <c r="F598" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/v-select/bilanzbuchhalter-private-equity-gesellschaft-hanover-228733</t>
+        </is>
+      </c>
+      <c r="G598" t="inlineStr"/>
+      <c r="H598" t="inlineStr"/>
+      <c r="I598" t="inlineStr"/>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
+      <c r="L598" t="inlineStr"/>
+      <c r="M598" t="inlineStr"/>
+      <c r="N598" t="inlineStr"/>
+      <c r="O598" t="inlineStr"/>
+      <c r="P598" t="inlineStr"/>
+      <c r="Q598" t="inlineStr"/>
+      <c r="R598" t="inlineStr"/>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>598</v>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>Teamleiter HR &amp; Payroll (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>Head For Work Gmbh</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E599" t="b">
+        <v>0</v>
+      </c>
+      <c r="F599" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/head-for-work-gmbh/teamleiter-hr-payroll-cologne-316396</t>
+        </is>
+      </c>
+      <c r="G599" t="inlineStr"/>
+      <c r="H599" t="inlineStr"/>
+      <c r="I599" t="inlineStr"/>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
+      <c r="L599" t="inlineStr"/>
+      <c r="M599" t="inlineStr"/>
+      <c r="N599" t="inlineStr"/>
+      <c r="O599" t="inlineStr"/>
+      <c r="P599" t="inlineStr"/>
+      <c r="Q599" t="inlineStr"/>
+      <c r="R599" t="inlineStr"/>
+    </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>599</v>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>Software Engineer (w/m/d) in Test</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>Ionos Se</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E600" t="b">
+        <v>0</v>
+      </c>
+      <c r="F600" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ionos-se/software-engineer-in-test-berlin-241483</t>
+        </is>
+      </c>
+      <c r="G600" t="inlineStr"/>
+      <c r="H600" t="inlineStr"/>
+      <c r="I600" t="inlineStr"/>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
+      <c r="L600" t="inlineStr"/>
+      <c r="M600" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N600" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O600" t="n">
+        <v>70</v>
+      </c>
+      <c r="P600" t="inlineStr"/>
+      <c r="Q600" t="inlineStr"/>
+      <c r="R600" t="inlineStr"/>
+    </row>
+    <row r="601">
+      <c r="A601" t="n">
+        <v>600</v>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>Kaufmännischer Direktor (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>Head For Work Gmbh</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>Detmold</t>
+        </is>
+      </c>
+      <c r="E601" t="b">
+        <v>0</v>
+      </c>
+      <c r="F601" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/head-for-work-gmbh/kaufmannischer-direktor-detmold-303137</t>
+        </is>
+      </c>
+      <c r="G601" t="inlineStr"/>
+      <c r="H601" t="inlineStr"/>
+      <c r="I601" t="inlineStr"/>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
+      <c r="L601" t="inlineStr"/>
+      <c r="M601" t="inlineStr"/>
+      <c r="N601" t="inlineStr"/>
+      <c r="O601" t="inlineStr"/>
+      <c r="P601" t="inlineStr"/>
+      <c r="Q601" t="inlineStr"/>
+      <c r="R601" t="inlineStr"/>
+    </row>
+    <row r="602">
+      <c r="A602" t="n">
+        <v>601</v>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>Product Manager (m/f/d) part-time (80%) - Partnerships Squad</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>Tooltime Gmbh</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E602" t="b">
+        <v>0</v>
+      </c>
+      <c r="F602" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tooltime-gmbh/product-manager-part-time-80-partnerships-squad-berlin-319322</t>
+        </is>
+      </c>
+      <c r="G602" t="inlineStr"/>
+      <c r="H602" t="inlineStr"/>
+      <c r="I602" t="inlineStr"/>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
+      <c r="L602" t="inlineStr"/>
+      <c r="M602" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N602" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O602" t="n">
+        <v>70</v>
+      </c>
+      <c r="P602" t="inlineStr"/>
+      <c r="Q602" t="inlineStr"/>
+      <c r="R602" t="inlineStr"/>
+    </row>
+    <row r="603">
+      <c r="A603" t="n">
+        <v>602</v>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>Bauingenieur / Architekt für die technische Objektverwaltung Hausverwaltung Immobileinverwaltung (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>Busemann &amp; Schremmer Immobilien</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>Hanover</t>
+        </is>
+      </c>
+      <c r="E603" t="b">
+        <v>0</v>
+      </c>
+      <c r="F603" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/busemann-schremmer-immobilien/bauingenieur-architekt-fur-die-technische-objektverwaltung-hausverwaltung-immobileinverwaltung-hanover-76249</t>
+        </is>
+      </c>
+      <c r="G603" t="inlineStr"/>
+      <c r="H603" t="inlineStr"/>
+      <c r="I603" t="inlineStr"/>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
+      <c r="L603" t="inlineStr"/>
+      <c r="M603" t="inlineStr"/>
+      <c r="N603" t="inlineStr"/>
+      <c r="O603" t="inlineStr"/>
+      <c r="P603" t="inlineStr"/>
+      <c r="Q603" t="inlineStr"/>
+      <c r="R603" t="inlineStr"/>
+    </row>
+    <row r="604">
+      <c r="A604" t="n">
+        <v>603</v>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>Kalkulator Abbruch/Erdbau (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>Werner Otto Gmbh</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>Hamelin</t>
+        </is>
+      </c>
+      <c r="E604" t="b">
+        <v>0</v>
+      </c>
+      <c r="F604" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/werner-otto-gmbh/kalkulator-abbruch-erdbau-hamelin-192614</t>
+        </is>
+      </c>
+      <c r="G604" t="inlineStr"/>
+      <c r="H604" t="inlineStr"/>
+      <c r="I604" t="inlineStr"/>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
+      <c r="L604" t="inlineStr"/>
+      <c r="M604" t="inlineStr"/>
+      <c r="N604" t="inlineStr"/>
+      <c r="O604" t="inlineStr"/>
+      <c r="P604" t="inlineStr"/>
+      <c r="Q604" t="inlineStr"/>
+      <c r="R604" t="inlineStr"/>
+    </row>
+    <row r="605">
+      <c r="A605" t="n">
+        <v>604</v>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>Vermessungstechniker (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>Werner Otto Gmbh</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>Hamelin</t>
+        </is>
+      </c>
+      <c r="E605" t="b">
+        <v>0</v>
+      </c>
+      <c r="F605" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/werner-otto-gmbh/vermessungstechniker-hamelin-276857</t>
+        </is>
+      </c>
+      <c r="G605" t="inlineStr"/>
+      <c r="H605" t="inlineStr"/>
+      <c r="I605" t="inlineStr"/>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
+      <c r="L605" t="inlineStr"/>
+      <c r="M605" t="inlineStr"/>
+      <c r="N605" t="inlineStr"/>
+      <c r="O605" t="inlineStr"/>
+      <c r="P605" t="inlineStr"/>
+      <c r="Q605" t="inlineStr"/>
+      <c r="R605" t="inlineStr"/>
+    </row>
+    <row r="606">
+      <c r="A606" t="n">
+        <v>605</v>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>Technischer Objektbetreuer WEG-Verwaltung Hausverwaltung Immobileinverwaltung (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>Busemann &amp; Schremmer Immobilien</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>Hanover</t>
+        </is>
+      </c>
+      <c r="E606" t="b">
+        <v>0</v>
+      </c>
+      <c r="F606" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/busemann-schremmer-immobilien/technischer-objektbetreuer-weg-verwaltung-hausverwaltung-immobileinverwaltung-hanover-107008</t>
+        </is>
+      </c>
+      <c r="G606" t="inlineStr"/>
+      <c r="H606" t="inlineStr"/>
+      <c r="I606" t="inlineStr"/>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
+      <c r="L606" t="inlineStr"/>
+      <c r="M606" t="inlineStr"/>
+      <c r="N606" t="inlineStr"/>
+      <c r="O606" t="inlineStr"/>
+      <c r="P606" t="inlineStr"/>
+      <c r="Q606" t="inlineStr"/>
+      <c r="R606" t="inlineStr"/>
+    </row>
+    <row r="607">
+      <c r="A607" t="n">
+        <v>606</v>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>Business Developer - Food / D2C (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>Benchmarkets Gmbh</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>Dresden</t>
+        </is>
+      </c>
+      <c r="E607" t="b">
+        <v>0</v>
+      </c>
+      <c r="F607" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/benchmarkets-gmbh/business-developer-food-d2c-dresden-297972</t>
+        </is>
+      </c>
+      <c r="G607" t="inlineStr"/>
+      <c r="H607" t="inlineStr"/>
+      <c r="I607" t="inlineStr"/>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
+      <c r="L607" t="inlineStr"/>
+      <c r="M607" t="inlineStr"/>
+      <c r="N607" t="inlineStr"/>
+      <c r="O607" t="inlineStr"/>
+      <c r="P607" t="inlineStr"/>
+      <c r="Q607" t="inlineStr"/>
+      <c r="R607" t="inlineStr"/>
+    </row>
+    <row r="608">
+      <c r="A608" t="n">
+        <v>607</v>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>Projektmanager:in für Websites und digitale Projekte (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>Portrino Gmbh</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>Dresden</t>
+        </is>
+      </c>
+      <c r="E608" t="b">
+        <v>0</v>
+      </c>
+      <c r="F608" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/portrino-gmbh/projektmanagerin-fur-websites-und-digitale-projekte-dresden-235681</t>
+        </is>
+      </c>
+      <c r="G608" t="inlineStr"/>
+      <c r="H608" t="inlineStr"/>
+      <c r="I608" t="inlineStr"/>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
+      <c r="L608" t="inlineStr"/>
+      <c r="M608" t="inlineStr"/>
+      <c r="N608" t="inlineStr"/>
+      <c r="O608" t="inlineStr"/>
+      <c r="P608" t="inlineStr"/>
+      <c r="Q608" t="inlineStr"/>
+      <c r="R608" t="inlineStr"/>
+    </row>
+    <row r="609">
+      <c r="A609" t="n">
+        <v>608</v>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>Mobile Growth Hacker (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>Epap</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E609" t="b">
+        <v>0</v>
+      </c>
+      <c r="F609" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/epap/mobile-growth-hacker-berlin-291727</t>
+        </is>
+      </c>
+      <c r="G609" t="inlineStr"/>
+      <c r="H609" t="inlineStr"/>
+      <c r="I609" t="inlineStr"/>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
+      <c r="L609" t="inlineStr"/>
+      <c r="M609" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N609" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O609" t="n">
+        <v>70</v>
+      </c>
+      <c r="P609" t="inlineStr"/>
+      <c r="Q609" t="inlineStr"/>
+      <c r="R609" t="inlineStr"/>
+    </row>
+    <row r="610">
+      <c r="A610" t="n">
+        <v>609</v>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>Senior Artist Manager / Influencer Manager (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>Lionflence</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>Mülheim</t>
+        </is>
+      </c>
+      <c r="E610" t="b">
+        <v>0</v>
+      </c>
+      <c r="F610" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/lionflence/senior-artist-manager-influencer-manager-mulheim-78988</t>
+        </is>
+      </c>
+      <c r="G610" t="inlineStr"/>
+      <c r="H610" t="inlineStr"/>
+      <c r="I610" t="inlineStr"/>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
+      <c r="L610" t="inlineStr"/>
+      <c r="M610" t="inlineStr"/>
+      <c r="N610" t="inlineStr"/>
+      <c r="O610" t="inlineStr"/>
+      <c r="P610" t="inlineStr"/>
+      <c r="Q610" t="inlineStr"/>
+      <c r="R610" t="inlineStr"/>
+    </row>
+    <row r="611">
+      <c r="A611" t="n">
+        <v>610</v>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>Artist Manager / Influencer Manager (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>Lionflence</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>Mülheim</t>
+        </is>
+      </c>
+      <c r="E611" t="b">
+        <v>0</v>
+      </c>
+      <c r="F611" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/lionflence/artist-manager-influencer-manager-mulheim-140159</t>
+        </is>
+      </c>
+      <c r="G611" t="inlineStr"/>
+      <c r="H611" t="inlineStr"/>
+      <c r="I611" t="inlineStr"/>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr"/>
+      <c r="L611" t="inlineStr"/>
+      <c r="M611" t="inlineStr"/>
+      <c r="N611" t="inlineStr"/>
+      <c r="O611" t="inlineStr"/>
+      <c r="P611" t="inlineStr"/>
+      <c r="Q611" t="inlineStr"/>
+      <c r="R611" t="inlineStr"/>
+    </row>
+    <row r="612">
+      <c r="A612" t="n">
+        <v>611</v>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>Head of Influencer Marketing (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>Lionflence</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>Mülheim</t>
+        </is>
+      </c>
+      <c r="E612" t="b">
+        <v>0</v>
+      </c>
+      <c r="F612" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/lionflence/head-of-influencer-marketing-mulheim-273155</t>
+        </is>
+      </c>
+      <c r="G612" t="inlineStr"/>
+      <c r="H612" t="inlineStr"/>
+      <c r="I612" t="inlineStr"/>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
+      <c r="L612" t="inlineStr"/>
+      <c r="M612" t="inlineStr"/>
+      <c r="N612" t="inlineStr"/>
+      <c r="O612" t="inlineStr"/>
+      <c r="P612" t="inlineStr"/>
+      <c r="Q612" t="inlineStr"/>
+      <c r="R612" t="inlineStr"/>
+    </row>
+    <row r="613">
+      <c r="A613" t="n">
+        <v>612</v>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>Artist Manager / Influencer Manager (m/w/d) BERLIN</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>Lionflence</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E613" t="b">
+        <v>0</v>
+      </c>
+      <c r="F613" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/lionflence/artist-manager-influencer-manager-berlin-144170</t>
+        </is>
+      </c>
+      <c r="G613" t="inlineStr"/>
+      <c r="H613" t="inlineStr"/>
+      <c r="I613" t="inlineStr"/>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
+      <c r="L613" t="inlineStr"/>
+      <c r="M613" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N613" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O613" t="n">
+        <v>70</v>
+      </c>
+      <c r="P613" t="inlineStr"/>
+      <c r="Q613" t="inlineStr"/>
+      <c r="R613" t="inlineStr"/>
+    </row>
+    <row r="614">
+      <c r="A614" t="n">
+        <v>613</v>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>Serviceberater (m/w/d) für familiäre Autohaus-Gruppe</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>Michael Krohn Consulting</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>Wernigerode</t>
+        </is>
+      </c>
+      <c r="E614" t="b">
+        <v>0</v>
+      </c>
+      <c r="F614" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/michael-krohn-consulting/serviceberater-fur-familiare-autohaus-gruppe-wernigerode-84218</t>
+        </is>
+      </c>
+      <c r="G614" t="inlineStr"/>
+      <c r="H614" t="inlineStr"/>
+      <c r="I614" t="inlineStr"/>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
+      <c r="L614" t="inlineStr"/>
+      <c r="M614" t="inlineStr"/>
+      <c r="N614" t="inlineStr"/>
+      <c r="O614" t="inlineStr"/>
+      <c r="P614" t="inlineStr"/>
+      <c r="Q614" t="inlineStr"/>
+      <c r="R614" t="inlineStr"/>
+    </row>
+    <row r="615">
+      <c r="A615" t="n">
+        <v>614</v>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>Performance Marketer mit Fokus auf Copywriting (Remote, Vollzeit)</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>Schnell Global</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E615" t="b">
+        <v>1</v>
+      </c>
+      <c r="F615" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/schnell-global/performance-marketer-mit-fokus-auf-copywriting-remote-vollzeit-berlin-370705</t>
+        </is>
+      </c>
+      <c r="G615" t="inlineStr"/>
+      <c r="H615" t="inlineStr"/>
+      <c r="I615" t="inlineStr"/>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
+      <c r="L615" t="inlineStr"/>
+      <c r="M615" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N615" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O615" t="n">
+        <v>70</v>
+      </c>
+      <c r="P615" t="inlineStr"/>
+      <c r="Q615" t="inlineStr"/>
+      <c r="R615" t="inlineStr"/>
+    </row>
+    <row r="616">
+      <c r="A616" t="n">
+        <v>615</v>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>Social Media Agent- Praktikum (mit Übernahmeoption in Minijob)</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>Koralls</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E616" t="b">
+        <v>1</v>
+      </c>
+      <c r="F616" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/koralls/social-media-agent-praktikum-mit-ubernahmeoption-in-minijob-cologne-67411</t>
+        </is>
+      </c>
+      <c r="G616" t="inlineStr"/>
+      <c r="H616" t="inlineStr"/>
+      <c r="I616" t="inlineStr"/>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr"/>
+      <c r="L616" t="inlineStr"/>
+      <c r="M616" t="inlineStr"/>
+      <c r="N616" t="inlineStr"/>
+      <c r="O616" t="inlineStr"/>
+      <c r="P616" t="inlineStr"/>
+      <c r="Q616" t="inlineStr"/>
+      <c r="R616" t="inlineStr"/>
+    </row>
+    <row r="617">
+      <c r="A617" t="n">
+        <v>616</v>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>Senior Backend Entwickler (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>Axontic Gmbh</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>Bremen</t>
+        </is>
+      </c>
+      <c r="E617" t="b">
+        <v>0</v>
+      </c>
+      <c r="F617" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/axontic-gmbh/senior-backend-entwickler-bremen-12278</t>
+        </is>
+      </c>
+      <c r="G617" t="inlineStr"/>
+      <c r="H617" t="inlineStr"/>
+      <c r="I617" t="inlineStr"/>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr"/>
+      <c r="L617" t="inlineStr"/>
+      <c r="M617" t="inlineStr"/>
+      <c r="N617" t="inlineStr"/>
+      <c r="O617" t="inlineStr"/>
+      <c r="P617" t="inlineStr"/>
+      <c r="Q617" t="inlineStr"/>
+      <c r="R617" t="inlineStr"/>
+    </row>
+    <row r="618">
+      <c r="A618" t="n">
+        <v>617</v>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>Produktionsmitarbeiter (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>Gauzy</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>Sulz am Neckar</t>
+        </is>
+      </c>
+      <c r="E618" t="b">
+        <v>0</v>
+      </c>
+      <c r="F618" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/gauzy/produktionsmitarbeiter-sulz-am-neckar-486347</t>
+        </is>
+      </c>
+      <c r="G618" t="inlineStr"/>
+      <c r="H618" t="inlineStr"/>
+      <c r="I618" t="inlineStr"/>
+      <c r="J618" t="inlineStr"/>
+      <c r="K618" t="inlineStr"/>
+      <c r="L618" t="inlineStr"/>
+      <c r="M618" t="inlineStr"/>
+      <c r="N618" t="inlineStr"/>
+      <c r="O618" t="inlineStr"/>
+      <c r="P618" t="inlineStr"/>
+      <c r="Q618" t="inlineStr"/>
+      <c r="R618" t="inlineStr"/>
+    </row>
+    <row r="619">
+      <c r="A619" t="n">
+        <v>618</v>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>Callassistent / Telefonist (m/w/d) - remote</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>Jankinson´S Solution Gmbh</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E619" t="b">
+        <v>1</v>
+      </c>
+      <c r="F619" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/jankinsons-solution-gmbh/callassistent-telefonist-remote-berlin-642</t>
+        </is>
+      </c>
+      <c r="G619" t="inlineStr"/>
+      <c r="H619" t="inlineStr"/>
+      <c r="I619" t="inlineStr"/>
+      <c r="J619" t="inlineStr"/>
+      <c r="K619" t="inlineStr"/>
+      <c r="L619" t="inlineStr"/>
+      <c r="M619" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N619" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O619" t="n">
+        <v>70</v>
+      </c>
+      <c r="P619" t="inlineStr"/>
+      <c r="Q619" t="inlineStr"/>
+      <c r="R619" t="inlineStr"/>
+    </row>
+    <row r="620">
+      <c r="A620" t="n">
+        <v>619</v>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>Kundenberater m/w/d Krankenversicherung</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>W&amp;W Human Resources -  Ivonne Wresch -</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E620" t="b">
+        <v>0</v>
+      </c>
+      <c r="F620" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ww-human-resources-ivonne-wresch/kundenberater-krankenversicherung-hamburg-32443</t>
+        </is>
+      </c>
+      <c r="G620" t="inlineStr"/>
+      <c r="H620" t="inlineStr"/>
+      <c r="I620" t="inlineStr"/>
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr"/>
+      <c r="L620" t="inlineStr"/>
+      <c r="M620" t="inlineStr"/>
+      <c r="N620" t="inlineStr"/>
+      <c r="O620" t="inlineStr"/>
+      <c r="P620" t="inlineStr"/>
+      <c r="Q620" t="inlineStr"/>
+      <c r="R620" t="inlineStr"/>
+    </row>
+    <row r="621">
+      <c r="A621" t="n">
+        <v>620</v>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>2350-2800 € Telefonischer Kundenbetreuer  m/w/d Kundenservice Mo-Fr</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>W&amp;W Human Resources -  Ivonne Wresch -</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E621" t="b">
+        <v>0</v>
+      </c>
+      <c r="F621" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ww-human-resources-ivonne-wresch/2350-2800-eur-telefonischer-kundenbetreuer-kundenservice-mo-fr-berlin-57253</t>
+        </is>
+      </c>
+      <c r="G621" t="inlineStr"/>
+      <c r="H621" t="inlineStr"/>
+      <c r="I621" t="inlineStr"/>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr"/>
+      <c r="L621" t="inlineStr"/>
+      <c r="M621" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N621" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O621" t="n">
+        <v>70</v>
+      </c>
+      <c r="P621" t="inlineStr"/>
+      <c r="Q621" t="inlineStr"/>
+      <c r="R621" t="inlineStr"/>
+    </row>
+    <row r="622">
+      <c r="A622" t="n">
+        <v>621</v>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>Telefonischer Kundenberater / Call Center Agent m/w/d Krankenversicherung</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>W&amp;W Human Resources -  Ivonne Wresch -</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E622" t="b">
+        <v>0</v>
+      </c>
+      <c r="F622" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ww-human-resources-ivonne-wresch/telefonischer-kundenberater-call-center-agent-krankenversicherung-hamburg-467309</t>
+        </is>
+      </c>
+      <c r="G622" t="inlineStr"/>
+      <c r="H622" t="inlineStr"/>
+      <c r="I622" t="inlineStr"/>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr"/>
+      <c r="L622" t="inlineStr"/>
+      <c r="M622" t="inlineStr"/>
+      <c r="N622" t="inlineStr"/>
+      <c r="O622" t="inlineStr"/>
+      <c r="P622" t="inlineStr"/>
+      <c r="Q622" t="inlineStr"/>
+      <c r="R622" t="inlineStr"/>
+    </row>
+    <row r="623">
+      <c r="A623" t="n">
+        <v>622</v>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>Account Manager m/w/d</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>W&amp;W Human Resources -  Ivonne Wresch -</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E623" t="b">
+        <v>0</v>
+      </c>
+      <c r="F623" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ww-human-resources-ivonne-wresch/account-manager-berlin-75855</t>
+        </is>
+      </c>
+      <c r="G623" t="inlineStr"/>
+      <c r="H623" t="inlineStr"/>
+      <c r="I623" t="inlineStr"/>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr"/>
+      <c r="L623" t="inlineStr"/>
+      <c r="M623" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N623" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O623" t="n">
+        <v>70</v>
+      </c>
+      <c r="P623" t="inlineStr"/>
+      <c r="Q623" t="inlineStr"/>
+      <c r="R623" t="inlineStr"/>
+    </row>
+    <row r="624">
+      <c r="A624" t="n">
+        <v>623</v>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>Masseur/Masseurin (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>The Spa</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>Krausnick-Groß Wasserburg</t>
+        </is>
+      </c>
+      <c r="E624" t="b">
+        <v>0</v>
+      </c>
+      <c r="F624" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/the-spa/masseur-masseurin-krausnick-gross-wasserburg-471682</t>
+        </is>
+      </c>
+      <c r="G624" t="inlineStr"/>
+      <c r="H624" t="inlineStr"/>
+      <c r="I624" t="inlineStr"/>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
+      <c r="L624" t="inlineStr"/>
+      <c r="M624" t="inlineStr"/>
+      <c r="N624" t="inlineStr"/>
+      <c r="O624" t="inlineStr"/>
+      <c r="P624" t="inlineStr"/>
+      <c r="Q624" t="inlineStr"/>
+      <c r="R624" t="inlineStr"/>
+    </row>
+    <row r="625">
+      <c r="A625" t="n">
+        <v>624</v>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>Ausbildung Kaufmann / Kauffrau im E-Commerce (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>Landsiedel Nlp Training</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>Kitzingen</t>
+        </is>
+      </c>
+      <c r="E625" t="b">
+        <v>0</v>
+      </c>
+      <c r="F625" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/landsiedel-nlp-training/ausbildung-kaufmann-kauffrau-im-e-commerce-kitzingen-377821</t>
+        </is>
+      </c>
+      <c r="G625" t="inlineStr"/>
+      <c r="H625" t="inlineStr"/>
+      <c r="I625" t="inlineStr"/>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr"/>
+      <c r="L625" t="inlineStr"/>
+      <c r="M625" t="inlineStr"/>
+      <c r="N625" t="inlineStr"/>
+      <c r="O625" t="inlineStr"/>
+      <c r="P625" t="inlineStr"/>
+      <c r="Q625" t="inlineStr"/>
+      <c r="R625" t="inlineStr"/>
+    </row>
+    <row r="626">
+      <c r="A626" t="n">
+        <v>625</v>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>Mediengestalter/-in Grafikdesigner/-in (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>Ism Gmbh</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>Lippstadt</t>
+        </is>
+      </c>
+      <c r="E626" t="b">
+        <v>0</v>
+      </c>
+      <c r="F626" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ism-gmbh/mediengestalter-in-grafikdesigner-in-lippstadt-4989</t>
+        </is>
+      </c>
+      <c r="G626" t="inlineStr"/>
+      <c r="H626" t="inlineStr"/>
+      <c r="I626" t="inlineStr"/>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
+      <c r="L626" t="inlineStr"/>
+      <c r="M626" t="inlineStr"/>
+      <c r="N626" t="inlineStr"/>
+      <c r="O626" t="inlineStr"/>
+      <c r="P626" t="inlineStr"/>
+      <c r="Q626" t="inlineStr"/>
+      <c r="R626" t="inlineStr"/>
+    </row>
+    <row r="627">
+      <c r="A627" t="n">
+        <v>626</v>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>Senior Softwareentwickler:in mit Karriereambitionen - jetzt mit uns voll durchstarten!</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>Auralis Partners Gmbh</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>Markt Indersdorf</t>
+        </is>
+      </c>
+      <c r="E627" t="b">
+        <v>1</v>
+      </c>
+      <c r="F627" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/auralis-partners-gmbh/senior-softwareentwicklerin-mit-karriereambitionen-jetzt-mit-uns-voll-durchstarten-markt-indersdorf-462792</t>
+        </is>
+      </c>
+      <c r="G627" t="inlineStr"/>
+      <c r="H627" t="inlineStr"/>
+      <c r="I627" t="inlineStr"/>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr"/>
+      <c r="L627" t="inlineStr"/>
+      <c r="M627" t="inlineStr"/>
+      <c r="N627" t="inlineStr"/>
+      <c r="O627" t="inlineStr"/>
+      <c r="P627" t="inlineStr"/>
+      <c r="Q627" t="inlineStr"/>
+      <c r="R627" t="inlineStr"/>
+    </row>
+    <row r="628">
+      <c r="A628" t="n">
+        <v>627</v>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>Senior Product Marketing Manager - Control (m/f/d)</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>Onapsis</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>Heidelberg, Baden-Württemberg, Germany</t>
+        </is>
+      </c>
+      <c r="E628" t="b">
+        <v>0</v>
+      </c>
+      <c r="F628" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/onapsis/senior-product-marketing-manager-control-heidelberg-203425</t>
+        </is>
+      </c>
+      <c r="G628" t="inlineStr"/>
+      <c r="H628" t="inlineStr"/>
+      <c r="I628" t="inlineStr"/>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr"/>
+      <c r="L628" t="inlineStr"/>
+      <c r="M628" t="inlineStr"/>
+      <c r="N628" t="inlineStr"/>
+      <c r="O628" t="inlineStr"/>
+      <c r="P628" t="inlineStr"/>
+      <c r="Q628" t="inlineStr"/>
+      <c r="R628" t="inlineStr"/>
+    </row>
+    <row r="629">
+      <c r="A629" t="n">
+        <v>628</v>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>Software Engineer II - Java (m/f/d)</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>Onapsis</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>Heidelberg, Baden-Württemberg, Germany</t>
+        </is>
+      </c>
+      <c r="E629" t="b">
+        <v>0</v>
+      </c>
+      <c r="F629" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/onapsis/software-engineer-ii-java-heidelberg-285207</t>
+        </is>
+      </c>
+      <c r="G629" t="inlineStr"/>
+      <c r="H629" t="inlineStr"/>
+      <c r="I629" t="inlineStr"/>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr"/>
+      <c r="L629" t="inlineStr"/>
+      <c r="M629" t="inlineStr"/>
+      <c r="N629" t="inlineStr"/>
+      <c r="O629" t="inlineStr"/>
+      <c r="P629" t="inlineStr"/>
+      <c r="Q629" t="inlineStr"/>
+      <c r="R629" t="inlineStr"/>
+    </row>
+    <row r="630">
+      <c r="A630" t="n">
+        <v>629</v>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>Working Student in Code Analysis</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>Onapsis</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>Heidelberg, Baden-Württemberg, Germany</t>
+        </is>
+      </c>
+      <c r="E630" t="b">
+        <v>0</v>
+      </c>
+      <c r="F630" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/onapsis/working-student-in-code-analysis-heidelberg-320568</t>
+        </is>
+      </c>
+      <c r="G630" t="inlineStr"/>
+      <c r="H630" t="inlineStr"/>
+      <c r="I630" t="inlineStr"/>
+      <c r="J630" t="inlineStr"/>
+      <c r="K630" t="inlineStr"/>
+      <c r="L630" t="inlineStr"/>
+      <c r="M630" t="inlineStr"/>
+      <c r="N630" t="inlineStr"/>
+      <c r="O630" t="inlineStr"/>
+      <c r="P630" t="inlineStr"/>
+      <c r="Q630" t="inlineStr"/>
+      <c r="R630" t="inlineStr"/>
+    </row>
+    <row r="631">
+      <c r="A631" t="n">
+        <v>630</v>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>IT Systems Engineer Internal IT (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>Noris Network Ag</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>Nuremberg</t>
+        </is>
+      </c>
+      <c r="E631" t="b">
+        <v>0</v>
+      </c>
+      <c r="F631" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/noris-network-ag/it-systems-engineer-internal-it-nuremberg-38094</t>
+        </is>
+      </c>
+      <c r="G631" t="inlineStr"/>
+      <c r="H631" t="inlineStr"/>
+      <c r="I631" t="inlineStr"/>
+      <c r="J631" t="inlineStr"/>
+      <c r="K631" t="inlineStr"/>
+      <c r="L631" t="inlineStr"/>
+      <c r="M631" t="inlineStr"/>
+      <c r="N631" t="inlineStr"/>
+      <c r="O631" t="inlineStr"/>
+      <c r="P631" t="inlineStr"/>
+      <c r="Q631" t="inlineStr"/>
+      <c r="R631" t="inlineStr"/>
+    </row>
+    <row r="632">
+      <c r="A632" t="n">
+        <v>631</v>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>Werkstudent (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>Rösler It-Solutions Gmbh</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E632" t="b">
+        <v>0</v>
+      </c>
+      <c r="F632" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/rosler-it-solutions-gmbh/werkstudent-hamburg-386245</t>
+        </is>
+      </c>
+      <c r="G632" t="inlineStr"/>
+      <c r="H632" t="inlineStr"/>
+      <c r="I632" t="inlineStr"/>
+      <c r="J632" t="inlineStr"/>
+      <c r="K632" t="inlineStr"/>
+      <c r="L632" t="inlineStr"/>
+      <c r="M632" t="inlineStr"/>
+      <c r="N632" t="inlineStr"/>
+      <c r="O632" t="inlineStr"/>
+      <c r="P632" t="inlineStr"/>
+      <c r="Q632" t="inlineStr"/>
+      <c r="R632" t="inlineStr"/>
+    </row>
+    <row r="633">
+      <c r="A633" t="n">
+        <v>632</v>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>Senior Consultant Microsoft Security</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>Bernd Ulrich It- Recruiting</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>Wuppertal</t>
+        </is>
+      </c>
+      <c r="E633" t="b">
+        <v>1</v>
+      </c>
+      <c r="F633" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/bernd-ulrich-it-recruiting/senior-consultant-microsoft-security-wuppertal-478124</t>
+        </is>
+      </c>
+      <c r="G633" t="inlineStr"/>
+      <c r="H633" t="inlineStr"/>
+      <c r="I633" t="inlineStr"/>
+      <c r="J633" t="inlineStr"/>
+      <c r="K633" t="inlineStr"/>
+      <c r="L633" t="inlineStr"/>
+      <c r="M633" t="inlineStr"/>
+      <c r="N633" t="inlineStr"/>
+      <c r="O633" t="inlineStr"/>
+      <c r="P633" t="inlineStr"/>
+      <c r="Q633" t="inlineStr"/>
+      <c r="R633" t="inlineStr"/>
+    </row>
+    <row r="634">
+      <c r="A634" t="n">
+        <v>633</v>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>FullStack-Developer (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>Ventx Gmbh</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="E634" t="b">
+        <v>0</v>
+      </c>
+      <c r="F634" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ventx-gmbh/fullstack-developer-munich-429568</t>
+        </is>
+      </c>
+      <c r="G634" t="inlineStr"/>
+      <c r="H634" t="inlineStr"/>
+      <c r="I634" t="inlineStr"/>
+      <c r="J634" t="inlineStr"/>
+      <c r="K634" t="inlineStr"/>
+      <c r="L634" t="inlineStr"/>
+      <c r="M634" t="inlineStr"/>
+      <c r="N634" t="inlineStr"/>
+      <c r="O634" t="inlineStr"/>
+      <c r="P634" t="inlineStr"/>
+      <c r="Q634" t="inlineStr"/>
+      <c r="R634" t="inlineStr"/>
+    </row>
+    <row r="635">
+      <c r="A635" t="n">
+        <v>634</v>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>2350-2800 € Telefonischer Kundenbetreuer  m/w/d Kundenservice Mo-Fr</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>W&amp;W Human Resources -  Ivonne Wresch -</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E635" t="b">
+        <v>0</v>
+      </c>
+      <c r="F635" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ww-human-resources-ivonne-wresch/2350-2800-eur-telefonischer-kundenbetreuer-kundenservice-mo-fr-berlin-140061</t>
+        </is>
+      </c>
+      <c r="G635" t="inlineStr"/>
+      <c r="H635" t="inlineStr"/>
+      <c r="I635" t="inlineStr"/>
+      <c r="J635" t="inlineStr"/>
+      <c r="K635" t="inlineStr"/>
+      <c r="L635" t="inlineStr"/>
+      <c r="M635" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N635" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O635" t="n">
+        <v>70</v>
+      </c>
+      <c r="P635" t="inlineStr"/>
+      <c r="Q635" t="inlineStr"/>
+      <c r="R635" t="inlineStr"/>
+    </row>
+    <row r="636">
+      <c r="A636" t="n">
+        <v>635</v>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>Praktikum Online-Marketing &amp; Marketing</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>Seomatik Gmbh</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="E636" t="b">
+        <v>0</v>
+      </c>
+      <c r="F636" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/seomatik-gmbh/praktikum-online-marketing-marketing-dortmund-232752</t>
+        </is>
+      </c>
+      <c r="G636" t="inlineStr"/>
+      <c r="H636" t="inlineStr"/>
+      <c r="I636" t="inlineStr"/>
+      <c r="J636" t="inlineStr"/>
+      <c r="K636" t="inlineStr"/>
+      <c r="L636" t="inlineStr"/>
+      <c r="M636" t="inlineStr"/>
+      <c r="N636" t="inlineStr"/>
+      <c r="O636" t="inlineStr"/>
+      <c r="P636" t="inlineStr"/>
+      <c r="Q636" t="inlineStr"/>
+      <c r="R636" t="inlineStr"/>
+    </row>
+    <row r="637">
+      <c r="A637" t="n">
+        <v>636</v>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>(Senior) Corporate Account Executive (all genders)</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>Urban Sports Club</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E637" t="b">
+        <v>0</v>
+      </c>
+      <c r="F637" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/urban-sports-club/senior-corporate-account-executive-all-genders-berlin-256226</t>
+        </is>
+      </c>
+      <c r="G637" t="inlineStr"/>
+      <c r="H637" t="inlineStr"/>
+      <c r="I637" t="inlineStr"/>
+      <c r="J637" t="inlineStr"/>
+      <c r="K637" t="inlineStr"/>
+      <c r="L637" t="inlineStr"/>
+      <c r="M637" t="inlineStr"/>
+      <c r="N637" t="inlineStr"/>
+      <c r="O637" t="inlineStr"/>
+      <c r="P637" t="inlineStr"/>
+      <c r="Q637" t="inlineStr"/>
+      <c r="R637" t="inlineStr"/>
+    </row>
+    <row r="638">
+      <c r="A638" t="n">
+        <v>637</v>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>Partner Support Agent (all genders) - French and German speaking</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>Urban Sports Club</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E638" t="b">
+        <v>0</v>
+      </c>
+      <c r="F638" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/urban-sports-club/partner-support-agent-all-genders-french-and-german-speaking-berlin-121784</t>
+        </is>
+      </c>
+      <c r="G638" t="inlineStr"/>
+      <c r="H638" t="inlineStr"/>
+      <c r="I638" t="inlineStr"/>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr"/>
+      <c r="L638" t="inlineStr"/>
+      <c r="M638" t="inlineStr"/>
+      <c r="N638" t="inlineStr"/>
+      <c r="O638" t="inlineStr"/>
+      <c r="P638" t="inlineStr"/>
+      <c r="Q638" t="inlineStr"/>
+      <c r="R638" t="inlineStr"/>
+    </row>
+    <row r="639">
+      <c r="A639" t="n">
+        <v>638</v>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>Rechtsreferendar/in (all genders)</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>Urban Sports Club</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E639" t="b">
+        <v>0</v>
+      </c>
+      <c r="F639" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/urban-sports-club/rechtsreferendar-in-all-genders-berlin-187582</t>
+        </is>
+      </c>
+      <c r="G639" t="inlineStr"/>
+      <c r="H639" t="inlineStr"/>
+      <c r="I639" t="inlineStr"/>
+      <c r="J639" t="inlineStr"/>
+      <c r="K639" t="inlineStr"/>
+      <c r="L639" t="inlineStr"/>
+      <c r="M639" t="inlineStr"/>
+      <c r="N639" t="inlineStr"/>
+      <c r="O639" t="inlineStr"/>
+      <c r="P639" t="inlineStr"/>
+      <c r="Q639" t="inlineStr"/>
+      <c r="R639" t="inlineStr"/>
+    </row>
+    <row r="640">
+      <c r="A640" t="n">
+        <v>639</v>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>Sales Admin (m/w/d) FlixShop</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E640" t="b">
+        <v>0</v>
+      </c>
+      <c r="F640" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/sales-admin-flixshop-berlin-165507</t>
+        </is>
+      </c>
+      <c r="G640" t="inlineStr"/>
+      <c r="H640" t="inlineStr"/>
+      <c r="I640" t="inlineStr"/>
+      <c r="J640" t="inlineStr"/>
+      <c r="K640" t="inlineStr"/>
+      <c r="L640" t="inlineStr"/>
+      <c r="M640" t="inlineStr"/>
+      <c r="N640" t="inlineStr"/>
+      <c r="O640" t="inlineStr"/>
+      <c r="P640" t="inlineStr"/>
+      <c r="Q640" t="inlineStr"/>
+      <c r="R640" t="inlineStr"/>
+    </row>
+    <row r="641">
+      <c r="A641" t="n">
+        <v>640</v>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>Kundenberater (m/w/d) Flixbus Shop</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E641" t="b">
+        <v>0</v>
+      </c>
+      <c r="F641" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/kundenberater-flixbus-shop-berlin-252577</t>
+        </is>
+      </c>
+      <c r="G641" t="inlineStr"/>
+      <c r="H641" t="inlineStr"/>
+      <c r="I641" t="inlineStr"/>
+      <c r="J641" t="inlineStr"/>
+      <c r="K641" t="inlineStr"/>
+      <c r="L641" t="inlineStr"/>
+      <c r="M641" t="inlineStr"/>
+      <c r="N641" t="inlineStr"/>
+      <c r="O641" t="inlineStr"/>
+      <c r="P641" t="inlineStr"/>
+      <c r="Q641" t="inlineStr"/>
+      <c r="R641" t="inlineStr"/>
+    </row>
+    <row r="642">
+      <c r="A642" t="n">
+        <v>641</v>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>Travel Agent (m/w/d) FlixShop</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E642" t="b">
+        <v>0</v>
+      </c>
+      <c r="F642" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/travel-agent-flixshop-berlin-101318</t>
+        </is>
+      </c>
+      <c r="G642" t="inlineStr"/>
+      <c r="H642" t="inlineStr"/>
+      <c r="I642" t="inlineStr"/>
+      <c r="J642" t="inlineStr"/>
+      <c r="K642" t="inlineStr"/>
+      <c r="L642" t="inlineStr"/>
+      <c r="M642" t="inlineStr"/>
+      <c r="N642" t="inlineStr"/>
+      <c r="O642" t="inlineStr"/>
+      <c r="P642" t="inlineStr"/>
+      <c r="Q642" t="inlineStr"/>
+      <c r="R642" t="inlineStr"/>
+    </row>
+    <row r="643">
+      <c r="A643" t="n">
+        <v>642</v>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>Quereinstieg (m/w/d) Flixbus Shop</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E643" t="b">
+        <v>0</v>
+      </c>
+      <c r="F643" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/quereinstieg-flixbus-shop-berlin-204090</t>
+        </is>
+      </c>
+      <c r="G643" t="inlineStr"/>
+      <c r="H643" t="inlineStr"/>
+      <c r="I643" t="inlineStr"/>
+      <c r="J643" t="inlineStr"/>
+      <c r="K643" t="inlineStr"/>
+      <c r="L643" t="inlineStr"/>
+      <c r="M643" t="inlineStr"/>
+      <c r="N643" t="inlineStr"/>
+      <c r="O643" t="inlineStr"/>
+      <c r="P643" t="inlineStr"/>
+      <c r="Q643" t="inlineStr"/>
+      <c r="R643" t="inlineStr"/>
+    </row>
+    <row r="644">
+      <c r="A644" t="n">
+        <v>643</v>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>Werde Shop Hero (m/w/d) bei Flixbus!</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E644" t="b">
+        <v>0</v>
+      </c>
+      <c r="F644" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/werde-shop-hero-bei-flixbus-berlin-277748</t>
+        </is>
+      </c>
+      <c r="G644" t="inlineStr"/>
+      <c r="H644" t="inlineStr"/>
+      <c r="I644" t="inlineStr"/>
+      <c r="J644" t="inlineStr"/>
+      <c r="K644" t="inlineStr"/>
+      <c r="L644" t="inlineStr"/>
+      <c r="M644" t="inlineStr"/>
+      <c r="N644" t="inlineStr"/>
+      <c r="O644" t="inlineStr"/>
+      <c r="P644" t="inlineStr"/>
+      <c r="Q644" t="inlineStr"/>
+      <c r="R644" t="inlineStr"/>
+    </row>
+    <row r="645">
+      <c r="A645" t="n">
+        <v>644</v>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>Station Agent (m/w/d) Flixbus in Voll- oder Teilzeit</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E645" t="b">
+        <v>0</v>
+      </c>
+      <c r="F645" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/station-agent-flixbus-in-voll-oder-teilzeit-berlin-329506</t>
+        </is>
+      </c>
+      <c r="G645" t="inlineStr"/>
+      <c r="H645" t="inlineStr"/>
+      <c r="I645" t="inlineStr"/>
+      <c r="J645" t="inlineStr"/>
+      <c r="K645" t="inlineStr"/>
+      <c r="L645" t="inlineStr"/>
+      <c r="M645" t="inlineStr"/>
+      <c r="N645" t="inlineStr"/>
+      <c r="O645" t="inlineStr"/>
+      <c r="P645" t="inlineStr"/>
+      <c r="Q645" t="inlineStr"/>
+      <c r="R645" t="inlineStr"/>
+    </row>
+    <row r="646">
+      <c r="A646" t="n">
+        <v>645</v>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>Shop Mitarbeiter (m/w/d) in Voll- oder Teilzeit</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E646" t="b">
+        <v>0</v>
+      </c>
+      <c r="F646" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/shop-mitarbeiter-in-voll-oder-teilzeit-berlin-473311</t>
+        </is>
+      </c>
+      <c r="G646" t="inlineStr"/>
+      <c r="H646" t="inlineStr"/>
+      <c r="I646" t="inlineStr"/>
+      <c r="J646" t="inlineStr"/>
+      <c r="K646" t="inlineStr"/>
+      <c r="L646" t="inlineStr"/>
+      <c r="M646" t="inlineStr"/>
+      <c r="N646" t="inlineStr"/>
+      <c r="O646" t="inlineStr"/>
+      <c r="P646" t="inlineStr"/>
+      <c r="Q646" t="inlineStr"/>
+      <c r="R646" t="inlineStr"/>
+    </row>
+    <row r="647">
+      <c r="A647" t="n">
+        <v>646</v>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>Simulation engineer FEM electric motor for electric drives (m/f/d)</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>Solaredge</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>Schweinfurt</t>
+        </is>
+      </c>
+      <c r="E647" t="b">
+        <v>0</v>
+      </c>
+      <c r="F647" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/solaredge/simulation-engineer-fem-electric-motor-for-electric-drives-schweinfurt-480925</t>
+        </is>
+      </c>
+      <c r="G647" t="inlineStr"/>
+      <c r="H647" t="inlineStr"/>
+      <c r="I647" t="inlineStr"/>
+      <c r="J647" t="inlineStr"/>
+      <c r="K647" t="inlineStr"/>
+      <c r="L647" t="inlineStr"/>
+      <c r="M647" t="inlineStr"/>
+      <c r="N647" t="inlineStr"/>
+      <c r="O647" t="inlineStr"/>
+      <c r="P647" t="inlineStr"/>
+      <c r="Q647" t="inlineStr"/>
+      <c r="R647" t="inlineStr"/>
+    </row>
+    <row r="648">
+      <c r="A648" t="n">
+        <v>647</v>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>Marketing Manager (w/m/d)* - Hamburger Headquarter</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>Engel &amp; Völkers Holding Gmbh</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E648" t="b">
+        <v>0</v>
+      </c>
+      <c r="F648" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/engel-volkers-holding-gmbh/marketing-manager-hamburger-headquarter-255098</t>
+        </is>
+      </c>
+      <c r="G648" t="inlineStr"/>
+      <c r="H648" t="inlineStr"/>
+      <c r="I648" t="inlineStr"/>
+      <c r="J648" t="inlineStr"/>
+      <c r="K648" t="inlineStr"/>
+      <c r="L648" t="inlineStr"/>
+      <c r="M648" t="inlineStr"/>
+      <c r="N648" t="inlineStr"/>
+      <c r="O648" t="inlineStr"/>
+      <c r="P648" t="inlineStr"/>
+      <c r="Q648" t="inlineStr"/>
+      <c r="R648" t="inlineStr"/>
+    </row>
+    <row r="649">
+      <c r="A649" t="n">
+        <v>648</v>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>COMMUNITY MANAGER - Germany (F/M/D)</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>Com2Us Europe Gmbh</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E649" t="b">
+        <v>0</v>
+      </c>
+      <c r="F649" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/com2us-europe-gmbh/community-manager-germany-berlin-141644</t>
+        </is>
+      </c>
+      <c r="G649" t="inlineStr"/>
+      <c r="H649" t="inlineStr"/>
+      <c r="I649" t="inlineStr"/>
+      <c r="J649" t="inlineStr"/>
+      <c r="K649" t="inlineStr"/>
+      <c r="L649" t="inlineStr"/>
+      <c r="M649" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N649" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O649" t="n">
+        <v>70</v>
+      </c>
+      <c r="P649" t="inlineStr"/>
+      <c r="Q649" t="inlineStr"/>
+      <c r="R649" t="inlineStr"/>
+    </row>
+    <row r="650">
+      <c r="A650" t="n">
+        <v>649</v>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>Automatisierungsingenieur / Mechatroniker (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>Pulsed Gmbh</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>Garching</t>
+        </is>
+      </c>
+      <c r="E650" t="b">
+        <v>0</v>
+      </c>
+      <c r="F650" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/pulsed-gmbh/automatisierungsingenieur-mechatroniker-garching-398009</t>
+        </is>
+      </c>
+      <c r="G650" t="inlineStr"/>
+      <c r="H650" t="inlineStr"/>
+      <c r="I650" t="inlineStr"/>
+      <c r="J650" t="inlineStr"/>
+      <c r="K650" t="inlineStr"/>
+      <c r="L650" t="inlineStr"/>
+      <c r="M650" t="inlineStr"/>
+      <c r="N650" t="inlineStr"/>
+      <c r="O650" t="inlineStr"/>
+      <c r="P650" t="inlineStr"/>
+      <c r="Q650" t="inlineStr"/>
+      <c r="R650" t="inlineStr"/>
+    </row>
+    <row r="651">
+      <c r="A651" t="n">
+        <v>650</v>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>Bauleiter/ Bautechniker (m/w/d) - Bahnbau</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>Halle (Saale)</t>
+        </is>
+      </c>
+      <c r="E651" t="b">
+        <v>0</v>
+      </c>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauleiter-bautechniker-bahnbau-halle-saale-105104</t>
+        </is>
+      </c>
+      <c r="G651" t="inlineStr"/>
+      <c r="H651" t="inlineStr"/>
+      <c r="I651" t="inlineStr"/>
+      <c r="J651" t="inlineStr"/>
+      <c r="K651" t="inlineStr"/>
+      <c r="L651" t="inlineStr"/>
+      <c r="M651" t="inlineStr"/>
+      <c r="N651" t="inlineStr"/>
+      <c r="O651" t="inlineStr"/>
+      <c r="P651" t="inlineStr"/>
+      <c r="Q651" t="inlineStr"/>
+      <c r="R651" t="inlineStr"/>
+    </row>
+    <row r="652">
+      <c r="A652" t="n">
+        <v>651</v>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>Bauleiter/ Bautechniker (m/w/d) - Bahnbau</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>Magdeburg</t>
+        </is>
+      </c>
+      <c r="E652" t="b">
+        <v>0</v>
+      </c>
+      <c r="F652" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauleiter-bautechniker-bahnbau-magdeburg-55294</t>
+        </is>
+      </c>
+      <c r="G652" t="inlineStr"/>
+      <c r="H652" t="inlineStr"/>
+      <c r="I652" t="inlineStr"/>
+      <c r="J652" t="inlineStr"/>
+      <c r="K652" t="inlineStr"/>
+      <c r="L652" t="inlineStr"/>
+      <c r="M652" t="inlineStr"/>
+      <c r="N652" t="inlineStr"/>
+      <c r="O652" t="inlineStr"/>
+      <c r="P652" t="inlineStr"/>
+      <c r="Q652" t="inlineStr"/>
+      <c r="R652" t="inlineStr"/>
+    </row>
+    <row r="653">
+      <c r="A653" t="n">
+        <v>652</v>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>Bauleiter/ Bautechniker (m/w/d) - Bahnbau</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>Leipzig</t>
+        </is>
+      </c>
+      <c r="E653" t="b">
+        <v>0</v>
+      </c>
+      <c r="F653" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauleiter-bautechniker-bahnbau-leipzig-189228</t>
+        </is>
+      </c>
+      <c r="G653" t="inlineStr"/>
+      <c r="H653" t="inlineStr"/>
+      <c r="I653" t="inlineStr"/>
+      <c r="J653" t="inlineStr"/>
+      <c r="K653" t="inlineStr"/>
+      <c r="L653" t="inlineStr"/>
+      <c r="M653" t="inlineStr"/>
+      <c r="N653" t="inlineStr"/>
+      <c r="O653" t="inlineStr"/>
+      <c r="P653" t="inlineStr"/>
+      <c r="Q653" t="inlineStr"/>
+      <c r="R653" t="inlineStr"/>
+    </row>
+    <row r="654">
+      <c r="A654" t="n">
+        <v>653</v>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>Bauleiter/ Bautechniker (m/w/d) - Bahnbau</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>Gera</t>
+        </is>
+      </c>
+      <c r="E654" t="b">
+        <v>0</v>
+      </c>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauleiter-bautechniker-bahnbau-gera-475056</t>
+        </is>
+      </c>
+      <c r="G654" t="inlineStr"/>
+      <c r="H654" t="inlineStr"/>
+      <c r="I654" t="inlineStr"/>
+      <c r="J654" t="inlineStr"/>
+      <c r="K654" t="inlineStr"/>
+      <c r="L654" t="inlineStr"/>
+      <c r="M654" t="inlineStr"/>
+      <c r="N654" t="inlineStr"/>
+      <c r="O654" t="inlineStr"/>
+      <c r="P654" t="inlineStr"/>
+      <c r="Q654" t="inlineStr"/>
+      <c r="R654" t="inlineStr"/>
+    </row>
+    <row r="655">
+      <c r="A655" t="n">
+        <v>654</v>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>Bauleiter/ Bautechniker (m/w/d) - Bahnbau</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>Suhl</t>
+        </is>
+      </c>
+      <c r="E655" t="b">
+        <v>0</v>
+      </c>
+      <c r="F655" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauleiter-bautechniker-bahnbau-suhl-62230</t>
+        </is>
+      </c>
+      <c r="G655" t="inlineStr"/>
+      <c r="H655" t="inlineStr"/>
+      <c r="I655" t="inlineStr"/>
+      <c r="J655" t="inlineStr"/>
+      <c r="K655" t="inlineStr"/>
+      <c r="L655" t="inlineStr"/>
+      <c r="M655" t="inlineStr"/>
+      <c r="N655" t="inlineStr"/>
+      <c r="O655" t="inlineStr"/>
+      <c r="P655" t="inlineStr"/>
+      <c r="Q655" t="inlineStr"/>
+      <c r="R655" t="inlineStr"/>
+    </row>
+    <row r="656">
+      <c r="A656" t="n">
+        <v>655</v>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>Bauleiter/ Bautechniker/ Polier Tiefbau (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>Wernigerode</t>
+        </is>
+      </c>
+      <c r="E656" t="b">
+        <v>0</v>
+      </c>
+      <c r="F656" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauleiter-bautechniker-polier-tiefbau-wernigerode-245100</t>
+        </is>
+      </c>
+      <c r="G656" t="inlineStr"/>
+      <c r="H656" t="inlineStr"/>
+      <c r="I656" t="inlineStr"/>
+      <c r="J656" t="inlineStr"/>
+      <c r="K656" t="inlineStr"/>
+      <c r="L656" t="inlineStr"/>
+      <c r="M656" t="inlineStr"/>
+      <c r="N656" t="inlineStr"/>
+      <c r="O656" t="inlineStr"/>
+      <c r="P656" t="inlineStr"/>
+      <c r="Q656" t="inlineStr"/>
+      <c r="R656" t="inlineStr"/>
+    </row>
+    <row r="657">
+      <c r="A657" t="n">
+        <v>656</v>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>Bauleiter/ Bautechniker/ Polier Tiefbau (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>Eisenach</t>
+        </is>
+      </c>
+      <c r="E657" t="b">
+        <v>0</v>
+      </c>
+      <c r="F657" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauleiter-bautechniker-polier-tiefbau-eisenach-444806</t>
+        </is>
+      </c>
+      <c r="G657" t="inlineStr"/>
+      <c r="H657" t="inlineStr"/>
+      <c r="I657" t="inlineStr"/>
+      <c r="J657" t="inlineStr"/>
+      <c r="K657" t="inlineStr"/>
+      <c r="L657" t="inlineStr"/>
+      <c r="M657" t="inlineStr"/>
+      <c r="N657" t="inlineStr"/>
+      <c r="O657" t="inlineStr"/>
+      <c r="P657" t="inlineStr"/>
+      <c r="Q657" t="inlineStr"/>
+      <c r="R657" t="inlineStr"/>
+    </row>
+    <row r="658">
+      <c r="A658" t="n">
+        <v>657</v>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>Bauleiter/ Bautechniker/ Polier Tiefbau (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>Siegen</t>
+        </is>
+      </c>
+      <c r="E658" t="b">
+        <v>0</v>
+      </c>
+      <c r="F658" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauleiter-bautechniker-polier-tiefbau-siegen-24650</t>
+        </is>
+      </c>
+      <c r="G658" t="inlineStr"/>
+      <c r="H658" t="inlineStr"/>
+      <c r="I658" t="inlineStr"/>
+      <c r="J658" t="inlineStr"/>
+      <c r="K658" t="inlineStr"/>
+      <c r="L658" t="inlineStr"/>
+      <c r="M658" t="inlineStr"/>
+      <c r="N658" t="inlineStr"/>
+      <c r="O658" t="inlineStr"/>
+      <c r="P658" t="inlineStr"/>
+      <c r="Q658" t="inlineStr"/>
+      <c r="R658" t="inlineStr"/>
+    </row>
+    <row r="659">
+      <c r="A659" t="n">
+        <v>658</v>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>Bauleiter/ Bautechniker/ Polier Tiefbau (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>Bautzen</t>
+        </is>
+      </c>
+      <c r="E659" t="b">
+        <v>0</v>
+      </c>
+      <c r="F659" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauleiter-bautechniker-polier-tiefbau-bautzen-79961</t>
+        </is>
+      </c>
+      <c r="G659" t="inlineStr"/>
+      <c r="H659" t="inlineStr"/>
+      <c r="I659" t="inlineStr"/>
+      <c r="J659" t="inlineStr"/>
+      <c r="K659" t="inlineStr"/>
+      <c r="L659" t="inlineStr"/>
+      <c r="M659" t="inlineStr"/>
+      <c r="N659" t="inlineStr"/>
+      <c r="O659" t="inlineStr"/>
+      <c r="P659" t="inlineStr"/>
+      <c r="Q659" t="inlineStr"/>
+      <c r="R659" t="inlineStr"/>
+    </row>
+    <row r="660">
+      <c r="A660" t="n">
+        <v>659</v>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>Bauleiter/ Bautechniker/ Polier Tiefbau (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>Alsfeld</t>
+        </is>
+      </c>
+      <c r="E660" t="b">
+        <v>0</v>
+      </c>
+      <c r="F660" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauleiter-bautechniker-polier-tiefbau-alsfeld-325847</t>
+        </is>
+      </c>
+      <c r="G660" t="inlineStr"/>
+      <c r="H660" t="inlineStr"/>
+      <c r="I660" t="inlineStr"/>
+      <c r="J660" t="inlineStr"/>
+      <c r="K660" t="inlineStr"/>
+      <c r="L660" t="inlineStr"/>
+      <c r="M660" t="inlineStr"/>
+      <c r="N660" t="inlineStr"/>
+      <c r="O660" t="inlineStr"/>
+      <c r="P660" t="inlineStr"/>
+      <c r="Q660" t="inlineStr"/>
+      <c r="R660" t="inlineStr"/>
+    </row>
+    <row r="661">
+      <c r="A661" t="n">
+        <v>660</v>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>Bauleiter/ Bautechniker/ Polier Tiefbau (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>Tübingen</t>
+        </is>
+      </c>
+      <c r="E661" t="b">
+        <v>0</v>
+      </c>
+      <c r="F661" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauleiter-bautechniker-polier-tiefbau-tubingen-204083</t>
+        </is>
+      </c>
+      <c r="G661" t="inlineStr"/>
+      <c r="H661" t="inlineStr"/>
+      <c r="I661" t="inlineStr"/>
+      <c r="J661" t="inlineStr"/>
+      <c r="K661" t="inlineStr"/>
+      <c r="L661" t="inlineStr"/>
+      <c r="M661" t="inlineStr"/>
+      <c r="N661" t="inlineStr"/>
+      <c r="O661" t="inlineStr"/>
+      <c r="P661" t="inlineStr"/>
+      <c r="Q661" t="inlineStr"/>
+      <c r="R661" t="inlineStr"/>
+    </row>
+    <row r="662">
+      <c r="A662" t="n">
+        <v>661</v>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>Bauleiter/ Bautechniker/ Polier Tiefbau (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>Bad Salzungen</t>
+        </is>
+      </c>
+      <c r="E662" t="b">
+        <v>0</v>
+      </c>
+      <c r="F662" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauleiter-bautechniker-polier-tiefbau-bad-salzungen-167904</t>
+        </is>
+      </c>
+      <c r="G662" t="inlineStr"/>
+      <c r="H662" t="inlineStr"/>
+      <c r="I662" t="inlineStr"/>
+      <c r="J662" t="inlineStr"/>
+      <c r="K662" t="inlineStr"/>
+      <c r="L662" t="inlineStr"/>
+      <c r="M662" t="inlineStr"/>
+      <c r="N662" t="inlineStr"/>
+      <c r="O662" t="inlineStr"/>
+      <c r="P662" t="inlineStr"/>
+      <c r="Q662" t="inlineStr"/>
+      <c r="R662" t="inlineStr"/>
+    </row>
+    <row r="663">
+      <c r="A663" t="n">
+        <v>662</v>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>Bauleiter/ Bautechniker/ Polier Tiefbau (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>Saalfeld</t>
+        </is>
+      </c>
+      <c r="E663" t="b">
+        <v>0</v>
+      </c>
+      <c r="F663" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauleiter-bautechniker-polier-tiefbau-saalfeld-334340</t>
+        </is>
+      </c>
+      <c r="G663" t="inlineStr"/>
+      <c r="H663" t="inlineStr"/>
+      <c r="I663" t="inlineStr"/>
+      <c r="J663" t="inlineStr"/>
+      <c r="K663" t="inlineStr"/>
+      <c r="L663" t="inlineStr"/>
+      <c r="M663" t="inlineStr"/>
+      <c r="N663" t="inlineStr"/>
+      <c r="O663" t="inlineStr"/>
+      <c r="P663" t="inlineStr"/>
+      <c r="Q663" t="inlineStr"/>
+      <c r="R663" t="inlineStr"/>
+    </row>
+    <row r="664">
+      <c r="A664" t="n">
+        <v>663</v>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>Bauleiter/ Bautechniker/ Polier Tiefbau (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>Lüneburg</t>
+        </is>
+      </c>
+      <c r="E664" t="b">
+        <v>0</v>
+      </c>
+      <c r="F664" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauleiter-bautechniker-polier-tiefbau-luneburg-441368</t>
+        </is>
+      </c>
+      <c r="G664" t="inlineStr"/>
+      <c r="H664" t="inlineStr"/>
+      <c r="I664" t="inlineStr"/>
+      <c r="J664" t="inlineStr"/>
+      <c r="K664" t="inlineStr"/>
+      <c r="L664" t="inlineStr"/>
+      <c r="M664" t="inlineStr"/>
+      <c r="N664" t="inlineStr"/>
+      <c r="O664" t="inlineStr"/>
+      <c r="P664" t="inlineStr"/>
+      <c r="Q664" t="inlineStr"/>
+      <c r="R664" t="inlineStr"/>
+    </row>
+    <row r="665">
+      <c r="A665" t="n">
+        <v>664</v>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>Bauleiter/ Bautechniker/ Polier Tiefbau (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>Borna</t>
+        </is>
+      </c>
+      <c r="E665" t="b">
+        <v>0</v>
+      </c>
+      <c r="F665" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauleiter-bautechniker-polier-tiefbau-borna-414937</t>
+        </is>
+      </c>
+      <c r="G665" t="inlineStr"/>
+      <c r="H665" t="inlineStr"/>
+      <c r="I665" t="inlineStr"/>
+      <c r="J665" t="inlineStr"/>
+      <c r="K665" t="inlineStr"/>
+      <c r="L665" t="inlineStr"/>
+      <c r="M665" t="inlineStr"/>
+      <c r="N665" t="inlineStr"/>
+      <c r="O665" t="inlineStr"/>
+      <c r="P665" t="inlineStr"/>
+      <c r="Q665" t="inlineStr"/>
+      <c r="R665" t="inlineStr"/>
+    </row>
+    <row r="666">
+      <c r="A666" t="n">
+        <v>665</v>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>Bauleiter für den Leitungsbau Stromtrasse (w/m/d)</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>Braunschweig</t>
+        </is>
+      </c>
+      <c r="E666" t="b">
+        <v>0</v>
+      </c>
+      <c r="F666" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauleiter-fur-den-leitungsbau-stromtrasse-braunschweig-234427</t>
+        </is>
+      </c>
+      <c r="G666" t="inlineStr"/>
+      <c r="H666" t="inlineStr"/>
+      <c r="I666" t="inlineStr"/>
+      <c r="J666" t="inlineStr"/>
+      <c r="K666" t="inlineStr"/>
+      <c r="L666" t="inlineStr"/>
+      <c r="M666" t="inlineStr"/>
+      <c r="N666" t="inlineStr"/>
+      <c r="O666" t="inlineStr"/>
+      <c r="P666" t="inlineStr"/>
+      <c r="Q666" t="inlineStr"/>
+      <c r="R666" t="inlineStr"/>
+    </row>
+    <row r="667">
+      <c r="A667" t="n">
+        <v>666</v>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>Bauüberwacher im Tiefbau (m/w/d) - Bereich Glasfaserausbau - deutschlandweit</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>Braunschweig</t>
+        </is>
+      </c>
+      <c r="E667" t="b">
+        <v>0</v>
+      </c>
+      <c r="F667" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauuberwacher-im-tiefbau-bereich-glasfaserausbau-deutschlandweit-braunschweig-186684</t>
+        </is>
+      </c>
+      <c r="G667" t="inlineStr"/>
+      <c r="H667" t="inlineStr"/>
+      <c r="I667" t="inlineStr"/>
+      <c r="J667" t="inlineStr"/>
+      <c r="K667" t="inlineStr"/>
+      <c r="L667" t="inlineStr"/>
+      <c r="M667" t="inlineStr"/>
+      <c r="N667" t="inlineStr"/>
+      <c r="O667" t="inlineStr"/>
+      <c r="P667" t="inlineStr"/>
+      <c r="Q667" t="inlineStr"/>
+      <c r="R667" t="inlineStr"/>
+    </row>
+    <row r="668">
+      <c r="A668" t="n">
+        <v>667</v>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>Projektentwickler (m/w/d) Windenergie</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>Molbergen</t>
+        </is>
+      </c>
+      <c r="E668" t="b">
+        <v>0</v>
+      </c>
+      <c r="F668" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/projektentwickler-windenergie-molbergen-77847</t>
+        </is>
+      </c>
+      <c r="G668" t="inlineStr"/>
+      <c r="H668" t="inlineStr"/>
+      <c r="I668" t="inlineStr"/>
+      <c r="J668" t="inlineStr"/>
+      <c r="K668" t="inlineStr"/>
+      <c r="L668" t="inlineStr"/>
+      <c r="M668" t="inlineStr"/>
+      <c r="N668" t="inlineStr"/>
+      <c r="O668" t="inlineStr"/>
+      <c r="P668" t="inlineStr"/>
+      <c r="Q668" t="inlineStr"/>
+      <c r="R668" t="inlineStr"/>
+    </row>
+    <row r="669">
+      <c r="A669" t="n">
+        <v>668</v>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>Bauüberwacher im Tiefbau (m/w/d) - Bereich Glasfaserausbau - deutschlandweit</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>Chemnitz</t>
+        </is>
+      </c>
+      <c r="E669" t="b">
+        <v>0</v>
+      </c>
+      <c r="F669" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauuberwacher-im-tiefbau-bereich-glasfaserausbau-deutschlandweit-chemnitz-23827</t>
+        </is>
+      </c>
+      <c r="G669" t="inlineStr"/>
+      <c r="H669" t="inlineStr"/>
+      <c r="I669" t="inlineStr"/>
+      <c r="J669" t="inlineStr"/>
+      <c r="K669" t="inlineStr"/>
+      <c r="L669" t="inlineStr"/>
+      <c r="M669" t="inlineStr"/>
+      <c r="N669" t="inlineStr"/>
+      <c r="O669" t="inlineStr"/>
+      <c r="P669" t="inlineStr"/>
+      <c r="Q669" t="inlineStr"/>
+      <c r="R669" t="inlineStr"/>
+    </row>
+    <row r="670">
+      <c r="A670" t="n">
+        <v>669</v>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>Bauüberwacher im Tiefbau (m/w/d) - Bereich Glasfaserausbau - deutschlandweit</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>Goslar</t>
+        </is>
+      </c>
+      <c r="E670" t="b">
+        <v>0</v>
+      </c>
+      <c r="F670" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauuberwacher-im-tiefbau-bereich-glasfaserausbau-deutschlandweit-goslar-470047</t>
+        </is>
+      </c>
+      <c r="G670" t="inlineStr"/>
+      <c r="H670" t="inlineStr"/>
+      <c r="I670" t="inlineStr"/>
+      <c r="J670" t="inlineStr"/>
+      <c r="K670" t="inlineStr"/>
+      <c r="L670" t="inlineStr"/>
+      <c r="M670" t="inlineStr"/>
+      <c r="N670" t="inlineStr"/>
+      <c r="O670" t="inlineStr"/>
+      <c r="P670" t="inlineStr"/>
+      <c r="Q670" t="inlineStr"/>
+      <c r="R670" t="inlineStr"/>
+    </row>
+    <row r="671">
+      <c r="A671" t="n">
+        <v>670</v>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>Bauüberwacher im Tiefbau (m/w/d) - Bereich Glasfaserausbau - deutschlandweit</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>Leipzig</t>
+        </is>
+      </c>
+      <c r="E671" t="b">
+        <v>0</v>
+      </c>
+      <c r="F671" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauuberwacher-im-tiefbau-bereich-glasfaserausbau-deutschlandweit-leipzig-38512</t>
+        </is>
+      </c>
+      <c r="G671" t="inlineStr"/>
+      <c r="H671" t="inlineStr"/>
+      <c r="I671" t="inlineStr"/>
+      <c r="J671" t="inlineStr"/>
+      <c r="K671" t="inlineStr"/>
+      <c r="L671" t="inlineStr"/>
+      <c r="M671" t="inlineStr"/>
+      <c r="N671" t="inlineStr"/>
+      <c r="O671" t="inlineStr"/>
+      <c r="P671" t="inlineStr"/>
+      <c r="Q671" t="inlineStr"/>
+      <c r="R671" t="inlineStr"/>
+    </row>
+    <row r="672">
+      <c r="A672" t="n">
+        <v>671</v>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>Bauüberwacher im Tiefbau (m/w/d) - Bereich Glasfaserausbau - deutschlandweit</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>Aschaffenburg</t>
+        </is>
+      </c>
+      <c r="E672" t="b">
+        <v>0</v>
+      </c>
+      <c r="F672" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauuberwacher-im-tiefbau-bereich-glasfaserausbau-deutschlandweit-aschaffenburg-20953</t>
+        </is>
+      </c>
+      <c r="G672" t="inlineStr"/>
+      <c r="H672" t="inlineStr"/>
+      <c r="I672" t="inlineStr"/>
+      <c r="J672" t="inlineStr"/>
+      <c r="K672" t="inlineStr"/>
+      <c r="L672" t="inlineStr"/>
+      <c r="M672" t="inlineStr"/>
+      <c r="N672" t="inlineStr"/>
+      <c r="O672" t="inlineStr"/>
+      <c r="P672" t="inlineStr"/>
+      <c r="Q672" t="inlineStr"/>
+      <c r="R672" t="inlineStr"/>
+    </row>
+    <row r="673">
+      <c r="A673" t="n">
+        <v>672</v>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>Bauleiter für den Leitungsbau Stromtrasse (w/m/d)</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>Hanover</t>
+        </is>
+      </c>
+      <c r="E673" t="b">
+        <v>0</v>
+      </c>
+      <c r="F673" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauleiter-fur-den-leitungsbau-stromtrasse-hanover-411055</t>
+        </is>
+      </c>
+      <c r="G673" t="inlineStr"/>
+      <c r="H673" t="inlineStr"/>
+      <c r="I673" t="inlineStr"/>
+      <c r="J673" t="inlineStr"/>
+      <c r="K673" t="inlineStr"/>
+      <c r="L673" t="inlineStr"/>
+      <c r="M673" t="inlineStr"/>
+      <c r="N673" t="inlineStr"/>
+      <c r="O673" t="inlineStr"/>
+      <c r="P673" t="inlineStr"/>
+      <c r="Q673" t="inlineStr"/>
+      <c r="R673" t="inlineStr"/>
+    </row>
+    <row r="674">
+      <c r="A674" t="n">
+        <v>673</v>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>Bauüberwacher im Tiefbau (m/w/d) - Bereich Glasfaserausbau - deutschlandweit</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>Halle (Saale)</t>
+        </is>
+      </c>
+      <c r="E674" t="b">
+        <v>0</v>
+      </c>
+      <c r="F674" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauuberwacher-im-tiefbau-bereich-glasfaserausbau-deutschlandweit-halle-saale-144477</t>
+        </is>
+      </c>
+      <c r="G674" t="inlineStr"/>
+      <c r="H674" t="inlineStr"/>
+      <c r="I674" t="inlineStr"/>
+      <c r="J674" t="inlineStr"/>
+      <c r="K674" t="inlineStr"/>
+      <c r="L674" t="inlineStr"/>
+      <c r="M674" t="inlineStr"/>
+      <c r="N674" t="inlineStr"/>
+      <c r="O674" t="inlineStr"/>
+      <c r="P674" t="inlineStr"/>
+      <c r="Q674" t="inlineStr"/>
+      <c r="R674" t="inlineStr"/>
+    </row>
+    <row r="675">
+      <c r="A675" t="n">
+        <v>674</v>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>Bauoberleitung - Glasfaserausbau - deutschlandweit -</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>Leipzig</t>
+        </is>
+      </c>
+      <c r="E675" t="b">
+        <v>0</v>
+      </c>
+      <c r="F675" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauoberleitung-glasfaserausbau-deutschlandweit-leipzig-429829</t>
+        </is>
+      </c>
+      <c r="G675" t="inlineStr"/>
+      <c r="H675" t="inlineStr"/>
+      <c r="I675" t="inlineStr"/>
+      <c r="J675" t="inlineStr"/>
+      <c r="K675" t="inlineStr"/>
+      <c r="L675" t="inlineStr"/>
+      <c r="M675" t="inlineStr"/>
+      <c r="N675" t="inlineStr"/>
+      <c r="O675" t="inlineStr"/>
+      <c r="P675" t="inlineStr"/>
+      <c r="Q675" t="inlineStr"/>
+      <c r="R675" t="inlineStr"/>
+    </row>
+    <row r="676">
+      <c r="A676" t="n">
+        <v>675</v>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>Bauleiter im Tiefbau (m/w/d) - Bereich Glasfaserausbau - deutschlandweit</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>Weimar</t>
+        </is>
+      </c>
+      <c r="E676" t="b">
+        <v>0</v>
+      </c>
+      <c r="F676" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauleiter-im-tiefbau-bereich-glasfaserausbau-deutschlandweit-weimar-152488</t>
+        </is>
+      </c>
+      <c r="G676" t="inlineStr"/>
+      <c r="H676" t="inlineStr"/>
+      <c r="I676" t="inlineStr"/>
+      <c r="J676" t="inlineStr"/>
+      <c r="K676" t="inlineStr"/>
+      <c r="L676" t="inlineStr"/>
+      <c r="M676" t="inlineStr"/>
+      <c r="N676" t="inlineStr"/>
+      <c r="O676" t="inlineStr"/>
+      <c r="P676" t="inlineStr"/>
+      <c r="Q676" t="inlineStr"/>
+      <c r="R676" t="inlineStr"/>
+    </row>
+    <row r="677">
+      <c r="A677" t="n">
+        <v>676</v>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>Bauleiter im Tiefbau (m/w/d) - Bereich Glasfaserausbau - deutschlandweit</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="E677" t="b">
+        <v>0</v>
+      </c>
+      <c r="F677" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauleiter-im-tiefbau-bereich-glasfaserausbau-deutschlandweit-paderborn-354984</t>
+        </is>
+      </c>
+      <c r="G677" t="inlineStr"/>
+      <c r="H677" t="inlineStr"/>
+      <c r="I677" t="inlineStr"/>
+      <c r="J677" t="inlineStr"/>
+      <c r="K677" t="inlineStr"/>
+      <c r="L677" t="inlineStr"/>
+      <c r="M677" t="inlineStr"/>
+      <c r="N677" t="inlineStr"/>
+      <c r="O677" t="inlineStr"/>
+      <c r="P677" t="inlineStr"/>
+      <c r="Q677" t="inlineStr"/>
+      <c r="R677" t="inlineStr"/>
+    </row>
+    <row r="678">
+      <c r="A678" t="n">
+        <v>677</v>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>Bauleiter im Tiefbau (m/w/d) - Bereich Glasfaserausbau - deutschlandweit</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>Hanover</t>
+        </is>
+      </c>
+      <c r="E678" t="b">
+        <v>0</v>
+      </c>
+      <c r="F678" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauleiter-im-tiefbau-bereich-glasfaserausbau-deutschlandweit-hanover-379258</t>
+        </is>
+      </c>
+      <c r="G678" t="inlineStr"/>
+      <c r="H678" t="inlineStr"/>
+      <c r="I678" t="inlineStr"/>
+      <c r="J678" t="inlineStr"/>
+      <c r="K678" t="inlineStr"/>
+      <c r="L678" t="inlineStr"/>
+      <c r="M678" t="inlineStr"/>
+      <c r="N678" t="inlineStr"/>
+      <c r="O678" t="inlineStr"/>
+      <c r="P678" t="inlineStr"/>
+      <c r="Q678" t="inlineStr"/>
+      <c r="R678" t="inlineStr"/>
+    </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>678</v>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>Bauleiter im Tiefbau (m/w/d) - Bereich Glasfaserausbau - deutschlandweit</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>Isernhagen</t>
+        </is>
+      </c>
+      <c r="E679" t="b">
+        <v>0</v>
+      </c>
+      <c r="F679" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauleiter-im-tiefbau-bereich-glasfaserausbau-deutschlandweit-isernhagen-154773</t>
+        </is>
+      </c>
+      <c r="G679" t="inlineStr"/>
+      <c r="H679" t="inlineStr"/>
+      <c r="I679" t="inlineStr"/>
+      <c r="J679" t="inlineStr"/>
+      <c r="K679" t="inlineStr"/>
+      <c r="L679" t="inlineStr"/>
+      <c r="M679" t="inlineStr"/>
+      <c r="N679" t="inlineStr"/>
+      <c r="O679" t="inlineStr"/>
+      <c r="P679" t="inlineStr"/>
+      <c r="Q679" t="inlineStr"/>
+      <c r="R679" t="inlineStr"/>
+    </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>679</v>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>Bauleiter im Tiefbau (m/w/d) - Bereich Glasfaserausbau - deutschlandweit</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>Inning am Ammersee</t>
+        </is>
+      </c>
+      <c r="E680" t="b">
+        <v>0</v>
+      </c>
+      <c r="F680" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauleiter-im-tiefbau-bereich-glasfaserausbau-deutschlandweit-inning-am-ammersee-60957</t>
+        </is>
+      </c>
+      <c r="G680" t="inlineStr"/>
+      <c r="H680" t="inlineStr"/>
+      <c r="I680" t="inlineStr"/>
+      <c r="J680" t="inlineStr"/>
+      <c r="K680" t="inlineStr"/>
+      <c r="L680" t="inlineStr"/>
+      <c r="M680" t="inlineStr"/>
+      <c r="N680" t="inlineStr"/>
+      <c r="O680" t="inlineStr"/>
+      <c r="P680" t="inlineStr"/>
+      <c r="Q680" t="inlineStr"/>
+      <c r="R680" t="inlineStr"/>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>680</v>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>Backend Engineer (Cloud)</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>Retailnext</t>
+        </is>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="E681" t="b">
+        <v>1</v>
+      </c>
+      <c r="F681" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/retailnext/remote-backend-engineer-cloud-153172</t>
+        </is>
+      </c>
+      <c r="G681" t="inlineStr"/>
+      <c r="H681" t="inlineStr"/>
+      <c r="I681" t="inlineStr"/>
+      <c r="J681" t="inlineStr"/>
+      <c r="K681" t="inlineStr"/>
+      <c r="L681" t="inlineStr"/>
+      <c r="M681" t="inlineStr"/>
+      <c r="N681" t="inlineStr"/>
+      <c r="O681" t="inlineStr"/>
+      <c r="P681" t="inlineStr"/>
+      <c r="Q681" t="inlineStr"/>
+      <c r="R681" t="inlineStr"/>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>681</v>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>Business Development Manager, European Government, Military, and Intelligence</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>Spire</t>
+        </is>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>Munich, Bavaria, Germany</t>
+        </is>
+      </c>
+      <c r="E682" t="b">
+        <v>0</v>
+      </c>
+      <c r="F682" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/spire/business-development-manager-european-government-military-and-intelligence-munich-242770</t>
+        </is>
+      </c>
+      <c r="G682" t="inlineStr"/>
+      <c r="H682" t="inlineStr"/>
+      <c r="I682" t="inlineStr"/>
+      <c r="J682" t="inlineStr"/>
+      <c r="K682" t="inlineStr"/>
+      <c r="L682" t="inlineStr"/>
+      <c r="M682" t="inlineStr"/>
+      <c r="N682" t="inlineStr"/>
+      <c r="O682" t="inlineStr"/>
+      <c r="P682" t="inlineStr"/>
+      <c r="Q682" t="inlineStr"/>
+      <c r="R682" t="inlineStr"/>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>682</v>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>Technical Support Specialist (Germany)</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>Wolt - English</t>
+        </is>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E683" t="b">
+        <v>0</v>
+      </c>
+      <c r="F683" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/wolt-english/technical-support-specialist-germany-berlin-261267</t>
+        </is>
+      </c>
+      <c r="G683" t="inlineStr"/>
+      <c r="H683" t="inlineStr"/>
+      <c r="I683" t="inlineStr"/>
+      <c r="J683" t="inlineStr"/>
+      <c r="K683" t="inlineStr"/>
+      <c r="L683" t="inlineStr"/>
+      <c r="M683" t="inlineStr"/>
+      <c r="N683" t="inlineStr"/>
+      <c r="O683" t="inlineStr"/>
+      <c r="P683" t="inlineStr"/>
+      <c r="Q683" t="inlineStr"/>
+      <c r="R683" t="inlineStr"/>
+    </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>683</v>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>Partner Operations Associate (m/f/x)</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>Wolt - English</t>
+        </is>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E684" t="b">
+        <v>0</v>
+      </c>
+      <c r="F684" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/wolt-english/partner-operations-associate-berlin-25154</t>
+        </is>
+      </c>
+      <c r="G684" t="inlineStr"/>
+      <c r="H684" t="inlineStr"/>
+      <c r="I684" t="inlineStr"/>
+      <c r="J684" t="inlineStr"/>
+      <c r="K684" t="inlineStr"/>
+      <c r="L684" t="inlineStr"/>
+      <c r="M684" t="inlineStr"/>
+      <c r="N684" t="inlineStr"/>
+      <c r="O684" t="inlineStr"/>
+      <c r="P684" t="inlineStr"/>
+      <c r="Q684" t="inlineStr"/>
+      <c r="R684" t="inlineStr"/>
+    </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>684</v>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>Grocery Associate</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>Wolt - English</t>
+        </is>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>Hamburg, Hamburg, Germany</t>
+        </is>
+      </c>
+      <c r="E685" t="b">
+        <v>0</v>
+      </c>
+      <c r="F685" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/wolt-english/grocery-associate-hamburg-402313</t>
+        </is>
+      </c>
+      <c r="G685" t="inlineStr"/>
+      <c r="H685" t="inlineStr"/>
+      <c r="I685" t="inlineStr"/>
+      <c r="J685" t="inlineStr"/>
+      <c r="K685" t="inlineStr"/>
+      <c r="L685" t="inlineStr"/>
+      <c r="M685" t="inlineStr"/>
+      <c r="N685" t="inlineStr"/>
+      <c r="O685" t="inlineStr"/>
+      <c r="P685" t="inlineStr"/>
+      <c r="Q685" t="inlineStr"/>
+      <c r="R685" t="inlineStr"/>
+    </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>685</v>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>Projektmanager:in (m/w/x) Innovationsnetzwerk in Vollzeit oder Teilzeit (80-100%)</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>Hochschule Reutlingen - Center For Entrepreneurship</t>
+        </is>
+      </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>Reutlingen</t>
+        </is>
+      </c>
+      <c r="E686" t="b">
+        <v>0</v>
+      </c>
+      <c r="F686" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/hochschule-reutlingen-center-for-entrepreneurship/projektmanagerin-innovationsnetzwerk-in-vollzeit-oder-teilzeit-80-100-reutlingen-269706</t>
+        </is>
+      </c>
+      <c r="G686" t="inlineStr"/>
+      <c r="H686" t="inlineStr"/>
+      <c r="I686" t="inlineStr"/>
+      <c r="J686" t="inlineStr"/>
+      <c r="K686" t="inlineStr"/>
+      <c r="L686" t="inlineStr"/>
+      <c r="M686" t="inlineStr"/>
+      <c r="N686" t="inlineStr"/>
+      <c r="O686" t="inlineStr"/>
+      <c r="P686" t="inlineStr"/>
+      <c r="Q686" t="inlineStr"/>
+      <c r="R686" t="inlineStr"/>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>686</v>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>Werkzeugmechaniker (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>Gs Company Gmbh &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>Nauen</t>
+        </is>
+      </c>
+      <c r="E687" t="b">
+        <v>0</v>
+      </c>
+      <c r="F687" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/gs-company-gmbh-co-kg/werkzeugmechaniker-nauen-388159</t>
+        </is>
+      </c>
+      <c r="G687" t="inlineStr"/>
+      <c r="H687" t="inlineStr"/>
+      <c r="I687" t="inlineStr"/>
+      <c r="J687" t="inlineStr"/>
+      <c r="K687" t="inlineStr"/>
+      <c r="L687" t="inlineStr"/>
+      <c r="M687" t="inlineStr"/>
+      <c r="N687" t="inlineStr"/>
+      <c r="O687" t="inlineStr"/>
+      <c r="P687" t="inlineStr"/>
+      <c r="Q687" t="inlineStr"/>
+      <c r="R687" t="inlineStr"/>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>687</v>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>Key Account / Akquisemanager (m/w/d) für innovative Content + Marketing Agentur</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>Alsterbuben Gmbh</t>
+        </is>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E688" t="b">
+        <v>0</v>
+      </c>
+      <c r="F688" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/alsterbuben-gmbh/key-account-akquisemanager-fur-innovative-content-marketing-agentur-hamburg-91263</t>
+        </is>
+      </c>
+      <c r="G688" t="inlineStr"/>
+      <c r="H688" t="inlineStr"/>
+      <c r="I688" t="inlineStr"/>
+      <c r="J688" t="inlineStr"/>
+      <c r="K688" t="inlineStr"/>
+      <c r="L688" t="inlineStr"/>
+      <c r="M688" t="inlineStr"/>
+      <c r="N688" t="inlineStr"/>
+      <c r="O688" t="inlineStr"/>
+      <c r="P688" t="inlineStr"/>
+      <c r="Q688" t="inlineStr"/>
+      <c r="R688" t="inlineStr"/>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>688</v>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>Freelancer Grafikdesigner/in (all genders) - 100 % remote</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E689" t="b">
+        <v>0</v>
+      </c>
+      <c r="F689" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/freelancer-grafikdesigner-in-all-genders-100-remote-heidelberg-444100</t>
+        </is>
+      </c>
+      <c r="G689" t="inlineStr"/>
+      <c r="H689" t="inlineStr"/>
+      <c r="I689" t="inlineStr"/>
+      <c r="J689" t="inlineStr"/>
+      <c r="K689" t="inlineStr"/>
+      <c r="L689" t="inlineStr"/>
+      <c r="M689" t="inlineStr"/>
+      <c r="N689" t="inlineStr"/>
+      <c r="O689" t="inlineStr"/>
+      <c r="P689" t="inlineStr"/>
+      <c r="Q689" t="inlineStr"/>
+      <c r="R689" t="inlineStr"/>
+    </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>689</v>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>Serviceberater/in (m/w/d) - Bereich Karosserie &amp; Lack</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>Maschmeyer Gmbh</t>
+        </is>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>Bergkamen</t>
+        </is>
+      </c>
+      <c r="E690" t="b">
+        <v>0</v>
+      </c>
+      <c r="F690" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/maschmeyer-gmbh/serviceberater-in-bereich-karosserie-lack-bergkamen-396172</t>
+        </is>
+      </c>
+      <c r="G690" t="inlineStr"/>
+      <c r="H690" t="inlineStr"/>
+      <c r="I690" t="inlineStr"/>
+      <c r="J690" t="inlineStr"/>
+      <c r="K690" t="inlineStr"/>
+      <c r="L690" t="inlineStr"/>
+      <c r="M690" t="inlineStr"/>
+      <c r="N690" t="inlineStr"/>
+      <c r="O690" t="inlineStr"/>
+      <c r="P690" t="inlineStr"/>
+      <c r="Q690" t="inlineStr"/>
+      <c r="R690" t="inlineStr"/>
+    </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>690</v>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>Kaufmännische/r Angestellte/r (m/w/d) in Bergkamen!</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>Maschmeyer Gmbh</t>
+        </is>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>Bergkamen</t>
+        </is>
+      </c>
+      <c r="E691" t="b">
+        <v>0</v>
+      </c>
+      <c r="F691" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/maschmeyer-gmbh/kaufmannische-r-angestellte-r-in-bergkamen-299541</t>
+        </is>
+      </c>
+      <c r="G691" t="inlineStr"/>
+      <c r="H691" t="inlineStr"/>
+      <c r="I691" t="inlineStr"/>
+      <c r="J691" t="inlineStr"/>
+      <c r="K691" t="inlineStr"/>
+      <c r="L691" t="inlineStr"/>
+      <c r="M691" t="inlineStr"/>
+      <c r="N691" t="inlineStr"/>
+      <c r="O691" t="inlineStr"/>
+      <c r="P691" t="inlineStr"/>
+      <c r="Q691" t="inlineStr"/>
+      <c r="R691" t="inlineStr"/>
+    </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>691</v>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>Versicherungskaufmann/-frau im Innendienst (m/w/d) Homeoffice</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>Persolowa</t>
+        </is>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>Koblenz</t>
+        </is>
+      </c>
+      <c r="E692" t="b">
+        <v>1</v>
+      </c>
+      <c r="F692" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/persolowa/versicherungskaufmann-frau-im-innendienst-homeoffice-koblenz-424196</t>
+        </is>
+      </c>
+      <c r="G692" t="inlineStr"/>
+      <c r="H692" t="inlineStr"/>
+      <c r="I692" t="inlineStr"/>
+      <c r="J692" t="inlineStr"/>
+      <c r="K692" t="inlineStr"/>
+      <c r="L692" t="inlineStr"/>
+      <c r="M692" t="inlineStr"/>
+      <c r="N692" t="inlineStr"/>
+      <c r="O692" t="inlineStr"/>
+      <c r="P692" t="inlineStr"/>
+      <c r="Q692" t="inlineStr"/>
+      <c r="R692" t="inlineStr"/>
+    </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>692</v>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>Account Manager:in (w/m/x) Vollzeit</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>Conquer Media Gmbh</t>
+        </is>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>Willich</t>
+        </is>
+      </c>
+      <c r="E693" t="b">
+        <v>0</v>
+      </c>
+      <c r="F693" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/conquer-media-gmbh/account-managerin-vollzeit-willich-360469</t>
+        </is>
+      </c>
+      <c r="G693" t="inlineStr"/>
+      <c r="H693" t="inlineStr"/>
+      <c r="I693" t="inlineStr"/>
+      <c r="J693" t="inlineStr"/>
+      <c r="K693" t="inlineStr"/>
+      <c r="L693" t="inlineStr"/>
+      <c r="M693" t="inlineStr"/>
+      <c r="N693" t="inlineStr"/>
+      <c r="O693" t="inlineStr"/>
+      <c r="P693" t="inlineStr"/>
+      <c r="Q693" t="inlineStr"/>
+      <c r="R693" t="inlineStr"/>
+    </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>693</v>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>Marketing Manager (w/m/d)* - Hamburger Headquarter</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>Engel &amp; Völkers Holding Gmbh</t>
+        </is>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E694" t="b">
+        <v>0</v>
+      </c>
+      <c r="F694" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/engel-volkers-holding-gmbh/marketing-manager-hamburger-headquarter-40993</t>
+        </is>
+      </c>
+      <c r="G694" t="inlineStr"/>
+      <c r="H694" t="inlineStr"/>
+      <c r="I694" t="inlineStr"/>
+      <c r="J694" t="inlineStr"/>
+      <c r="K694" t="inlineStr"/>
+      <c r="L694" t="inlineStr"/>
+      <c r="M694" t="inlineStr"/>
+      <c r="N694" t="inlineStr"/>
+      <c r="O694" t="inlineStr"/>
+      <c r="P694" t="inlineStr"/>
+      <c r="Q694" t="inlineStr"/>
+      <c r="R694" t="inlineStr"/>
+    </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>694</v>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>Teamlead International Invoice Management</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>Hornetsecurity</t>
+        </is>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>Hanover</t>
+        </is>
+      </c>
+      <c r="E695" t="b">
+        <v>0</v>
+      </c>
+      <c r="F695" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/hornetsecurity/teamlead-international-invoice-management-hanover-29556</t>
+        </is>
+      </c>
+      <c r="G695" t="inlineStr"/>
+      <c r="H695" t="inlineStr"/>
+      <c r="I695" t="inlineStr"/>
+      <c r="J695" t="inlineStr"/>
+      <c r="K695" t="inlineStr"/>
+      <c r="L695" t="inlineStr"/>
+      <c r="M695" t="inlineStr"/>
+      <c r="N695" t="inlineStr"/>
+      <c r="O695" t="inlineStr"/>
+      <c r="P695" t="inlineStr"/>
+      <c r="Q695" t="inlineStr"/>
+      <c r="R695" t="inlineStr"/>
+    </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>695</v>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>Social Media Manager (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>Zeinpharma Germany Gmbh</t>
+        </is>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>Nauheim</t>
+        </is>
+      </c>
+      <c r="E696" t="b">
+        <v>0</v>
+      </c>
+      <c r="F696" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/zeinpharma-germany-gmbh/social-media-manager-nauheim-270485</t>
+        </is>
+      </c>
+      <c r="G696" t="inlineStr"/>
+      <c r="H696" t="inlineStr"/>
+      <c r="I696" t="inlineStr"/>
+      <c r="J696" t="inlineStr"/>
+      <c r="K696" t="inlineStr"/>
+      <c r="L696" t="inlineStr"/>
+      <c r="M696" t="inlineStr"/>
+      <c r="N696" t="inlineStr"/>
+      <c r="O696" t="inlineStr"/>
+      <c r="P696" t="inlineStr"/>
+      <c r="Q696" t="inlineStr"/>
+      <c r="R696" t="inlineStr"/>
+    </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>696</v>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>Frontend Developer</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>Atmos</t>
+        </is>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E697" t="b">
+        <v>0</v>
+      </c>
+      <c r="F697" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/atmos/frontend-developer-cologne-88712</t>
+        </is>
+      </c>
+      <c r="G697" t="inlineStr"/>
+      <c r="H697" t="inlineStr"/>
+      <c r="I697" t="inlineStr"/>
+      <c r="J697" t="inlineStr"/>
+      <c r="K697" t="inlineStr"/>
+      <c r="L697" t="inlineStr"/>
+      <c r="M697" t="inlineStr"/>
+      <c r="N697" t="inlineStr"/>
+      <c r="O697" t="inlineStr"/>
+      <c r="P697" t="inlineStr"/>
+      <c r="Q697" t="inlineStr"/>
+      <c r="R697" t="inlineStr"/>
+    </row>
+    <row r="698">
+      <c r="A698" t="n">
+        <v>697</v>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>HR Generalist (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>My Humancapital Gmbh</t>
+        </is>
+      </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="E698" t="b">
+        <v>0</v>
+      </c>
+      <c r="F698" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/my-humancapital-gmbh/hr-generalist-munich-298171</t>
+        </is>
+      </c>
+      <c r="G698" t="inlineStr"/>
+      <c r="H698" t="inlineStr"/>
+      <c r="I698" t="inlineStr"/>
+      <c r="J698" t="inlineStr"/>
+      <c r="K698" t="inlineStr"/>
+      <c r="L698" t="inlineStr"/>
+      <c r="M698" t="inlineStr"/>
+      <c r="N698" t="inlineStr"/>
+      <c r="O698" t="inlineStr"/>
+      <c r="P698" t="inlineStr"/>
+      <c r="Q698" t="inlineStr"/>
+      <c r="R698" t="inlineStr"/>
+    </row>
+    <row r="699">
+      <c r="A699" t="n">
+        <v>698</v>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>Backend Go Developer (Middle - Senior)</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>Atmos</t>
+        </is>
+      </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E699" t="b">
+        <v>0</v>
+      </c>
+      <c r="F699" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/atmos/backend-go-developer-middle-senior-cologne-120441</t>
+        </is>
+      </c>
+      <c r="G699" t="inlineStr"/>
+      <c r="H699" t="inlineStr"/>
+      <c r="I699" t="inlineStr"/>
+      <c r="J699" t="inlineStr"/>
+      <c r="K699" t="inlineStr"/>
+      <c r="L699" t="inlineStr"/>
+      <c r="M699" t="inlineStr"/>
+      <c r="N699" t="inlineStr"/>
+      <c r="O699" t="inlineStr"/>
+      <c r="P699" t="inlineStr"/>
+      <c r="Q699" t="inlineStr"/>
+      <c r="R699" t="inlineStr"/>
+    </row>
+    <row r="700">
+      <c r="A700" t="n">
+        <v>699</v>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>Projektleiter TGA - Technische Gebäudeausrüstung (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>Ruby Gmbh</t>
+        </is>
+      </c>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>Düsseldorf</t>
+        </is>
+      </c>
+      <c r="E700" t="b">
+        <v>0</v>
+      </c>
+      <c r="F700" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ruby-gmbh/projektleiter-tga-technische-gebaudeausrustung-dusseldorf-155466</t>
+        </is>
+      </c>
+      <c r="G700" t="inlineStr"/>
+      <c r="H700" t="inlineStr"/>
+      <c r="I700" t="inlineStr"/>
+      <c r="J700" t="inlineStr"/>
+      <c r="K700" t="inlineStr"/>
+      <c r="L700" t="inlineStr"/>
+      <c r="M700" t="inlineStr"/>
+      <c r="N700" t="inlineStr"/>
+      <c r="O700" t="inlineStr"/>
+      <c r="P700" t="inlineStr"/>
+      <c r="Q700" t="inlineStr"/>
+      <c r="R700" t="inlineStr"/>
+    </row>
+    <row r="701">
+      <c r="A701" t="n">
+        <v>700</v>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>Projektleiter TGA - Technische Gebäudeausrüstung (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>Ruby Gmbh</t>
+        </is>
+      </c>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E701" t="b">
+        <v>0</v>
+      </c>
+      <c r="F701" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ruby-gmbh/projektleiter-tga-technische-gebaudeausrustung-hamburg-486143</t>
+        </is>
+      </c>
+      <c r="G701" t="inlineStr"/>
+      <c r="H701" t="inlineStr"/>
+      <c r="I701" t="inlineStr"/>
+      <c r="J701" t="inlineStr"/>
+      <c r="K701" t="inlineStr"/>
+      <c r="L701" t="inlineStr"/>
+      <c r="M701" t="inlineStr"/>
+      <c r="N701" t="inlineStr"/>
+      <c r="O701" t="inlineStr"/>
+      <c r="P701" t="inlineStr"/>
+      <c r="Q701" t="inlineStr"/>
+      <c r="R701" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/static/enriched_data/enriched_data.xlsx
+++ b/src/static/enriched_data/enriched_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R701"/>
+  <dimension ref="A1:R801"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29375,6 +29375,4166 @@
       <c r="Q701" t="inlineStr"/>
       <c r="R701" t="inlineStr"/>
     </row>
+    <row r="702">
+      <c r="A702" t="n">
+        <v>701</v>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>Sympathischer IT Systemadministrator (m/w/d) gesucht</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>Intercon Solutions Gmbh</t>
+        </is>
+      </c>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>Münster</t>
+        </is>
+      </c>
+      <c r="E702" t="b">
+        <v>0</v>
+      </c>
+      <c r="F702" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/intercon-solutions-gmbh/sympathischer-it-systemadministrator-gesucht-munster-128192</t>
+        </is>
+      </c>
+      <c r="G702" t="inlineStr"/>
+      <c r="H702" t="inlineStr"/>
+      <c r="I702" t="inlineStr"/>
+      <c r="J702" t="inlineStr"/>
+      <c r="K702" t="inlineStr"/>
+      <c r="L702" t="inlineStr"/>
+      <c r="M702" t="inlineStr"/>
+      <c r="N702" t="inlineStr"/>
+      <c r="O702" t="inlineStr"/>
+      <c r="P702" t="inlineStr"/>
+      <c r="Q702" t="inlineStr"/>
+      <c r="R702" t="inlineStr"/>
+    </row>
+    <row r="703">
+      <c r="A703" t="n">
+        <v>702</v>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>Pfiffiger IT Systemadministrator (m/w/d) gesucht</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>Intercon Solutions Gmbh</t>
+        </is>
+      </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>Osnabrück</t>
+        </is>
+      </c>
+      <c r="E703" t="b">
+        <v>0</v>
+      </c>
+      <c r="F703" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/intercon-solutions-gmbh/pfiffiger-it-systemadministrator-gesucht-osnabruck-178287</t>
+        </is>
+      </c>
+      <c r="G703" t="inlineStr"/>
+      <c r="H703" t="inlineStr"/>
+      <c r="I703" t="inlineStr"/>
+      <c r="J703" t="inlineStr"/>
+      <c r="K703" t="inlineStr"/>
+      <c r="L703" t="inlineStr"/>
+      <c r="M703" t="inlineStr"/>
+      <c r="N703" t="inlineStr"/>
+      <c r="O703" t="inlineStr"/>
+      <c r="P703" t="inlineStr"/>
+      <c r="Q703" t="inlineStr"/>
+      <c r="R703" t="inlineStr"/>
+    </row>
+    <row r="704">
+      <c r="A704" t="n">
+        <v>703</v>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>Marketing-Fachkraft [m/w/d]</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>Bikosigma Gmbh</t>
+        </is>
+      </c>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>Holzwickede</t>
+        </is>
+      </c>
+      <c r="E704" t="b">
+        <v>0</v>
+      </c>
+      <c r="F704" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/bikosigma-gmbh/marketing-fachkraft-holzwickede-322126</t>
+        </is>
+      </c>
+      <c r="G704" t="inlineStr"/>
+      <c r="H704" t="inlineStr"/>
+      <c r="I704" t="inlineStr"/>
+      <c r="J704" t="inlineStr"/>
+      <c r="K704" t="inlineStr"/>
+      <c r="L704" t="inlineStr"/>
+      <c r="M704" t="inlineStr"/>
+      <c r="N704" t="inlineStr"/>
+      <c r="O704" t="inlineStr"/>
+      <c r="P704" t="inlineStr"/>
+      <c r="Q704" t="inlineStr"/>
+      <c r="R704" t="inlineStr"/>
+    </row>
+    <row r="705">
+      <c r="A705" t="n">
+        <v>704</v>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>Teamassistentin in der Physiotherapie</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>Physiotherapie Joscha Mei</t>
+        </is>
+      </c>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>Essen</t>
+        </is>
+      </c>
+      <c r="E705" t="b">
+        <v>0</v>
+      </c>
+      <c r="F705" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/physiotherapie-joscha-mei/teamassistentin-in-der-physiotherapie-essen-85471</t>
+        </is>
+      </c>
+      <c r="G705" t="inlineStr"/>
+      <c r="H705" t="inlineStr"/>
+      <c r="I705" t="inlineStr"/>
+      <c r="J705" t="inlineStr"/>
+      <c r="K705" t="inlineStr"/>
+      <c r="L705" t="inlineStr"/>
+      <c r="M705" t="inlineStr"/>
+      <c r="N705" t="inlineStr"/>
+      <c r="O705" t="inlineStr"/>
+      <c r="P705" t="inlineStr"/>
+      <c r="Q705" t="inlineStr"/>
+      <c r="R705" t="inlineStr"/>
+    </row>
+    <row r="706">
+      <c r="A706" t="n">
+        <v>705</v>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>Projektleitung - Elektrotechnik (M/W/D)</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>Schnepf Planungsgruppe</t>
+        </is>
+      </c>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>Nagold</t>
+        </is>
+      </c>
+      <c r="E706" t="b">
+        <v>0</v>
+      </c>
+      <c r="F706" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/schnepf-planungsgruppe/projektleitung-elektrotechnik-nagold-331591</t>
+        </is>
+      </c>
+      <c r="G706" t="inlineStr"/>
+      <c r="H706" t="inlineStr"/>
+      <c r="I706" t="inlineStr"/>
+      <c r="J706" t="inlineStr"/>
+      <c r="K706" t="inlineStr"/>
+      <c r="L706" t="inlineStr"/>
+      <c r="M706" t="inlineStr"/>
+      <c r="N706" t="inlineStr"/>
+      <c r="O706" t="inlineStr"/>
+      <c r="P706" t="inlineStr"/>
+      <c r="Q706" t="inlineStr"/>
+      <c r="R706" t="inlineStr"/>
+    </row>
+    <row r="707">
+      <c r="A707" t="n">
+        <v>706</v>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>Head of Sales @SaaS Startup (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>Hellomateo</t>
+        </is>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E707" t="b">
+        <v>0</v>
+      </c>
+      <c r="F707" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/hellomateo/head-of-sales-at-saas-startup-berlin-120209</t>
+        </is>
+      </c>
+      <c r="G707" t="inlineStr"/>
+      <c r="H707" t="inlineStr"/>
+      <c r="I707" t="inlineStr"/>
+      <c r="J707" t="inlineStr"/>
+      <c r="K707" t="inlineStr"/>
+      <c r="L707" t="inlineStr"/>
+      <c r="M707" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N707" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O707" t="n">
+        <v>70</v>
+      </c>
+      <c r="P707" t="inlineStr"/>
+      <c r="Q707" t="inlineStr"/>
+      <c r="R707" t="inlineStr"/>
+    </row>
+    <row r="708">
+      <c r="A708" t="n">
+        <v>707</v>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>Designer für UX/UI Digital &amp; Print (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>Communicators Gmbh &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E708" t="b">
+        <v>0</v>
+      </c>
+      <c r="F708" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/communicators-gmbh-co-kg/designer-fur-ux-ui-digital-print-hamburg-479751</t>
+        </is>
+      </c>
+      <c r="G708" t="inlineStr"/>
+      <c r="H708" t="inlineStr"/>
+      <c r="I708" t="inlineStr"/>
+      <c r="J708" t="inlineStr"/>
+      <c r="K708" t="inlineStr"/>
+      <c r="L708" t="inlineStr"/>
+      <c r="M708" t="inlineStr"/>
+      <c r="N708" t="inlineStr"/>
+      <c r="O708" t="inlineStr"/>
+      <c r="P708" t="inlineStr"/>
+      <c r="Q708" t="inlineStr"/>
+      <c r="R708" t="inlineStr"/>
+    </row>
+    <row r="709">
+      <c r="A709" t="n">
+        <v>708</v>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>Planungsingenieur:in / Konstrukteur:in Tragwerksplanung / BIM-Modeler (ALLPLAN) (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>Heg Beratende Ingenieure Berlin Gmbh</t>
+        </is>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E709" t="b">
+        <v>0</v>
+      </c>
+      <c r="F709" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/heg-beratende-ingenieure-berlin-gmbh/planungsingenieurin-konstrukteurin-tragwerksplanung-bim-modeler-allplan-berlin-209326</t>
+        </is>
+      </c>
+      <c r="G709" t="inlineStr"/>
+      <c r="H709" t="inlineStr"/>
+      <c r="I709" t="inlineStr"/>
+      <c r="J709" t="inlineStr"/>
+      <c r="K709" t="inlineStr"/>
+      <c r="L709" t="inlineStr"/>
+      <c r="M709" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N709" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O709" t="n">
+        <v>70</v>
+      </c>
+      <c r="P709" t="inlineStr"/>
+      <c r="Q709" t="inlineStr"/>
+      <c r="R709" t="inlineStr"/>
+    </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>709</v>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>Junior Legal Counsel, Northern Europe</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>Bolt Technology</t>
+        </is>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E710" t="b">
+        <v>0</v>
+      </c>
+      <c r="F710" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/bolt-technology/junior-legal-counsel-northern-europe-berlin-61213</t>
+        </is>
+      </c>
+      <c r="G710" t="inlineStr"/>
+      <c r="H710" t="inlineStr"/>
+      <c r="I710" t="inlineStr"/>
+      <c r="J710" t="inlineStr"/>
+      <c r="K710" t="inlineStr"/>
+      <c r="L710" t="inlineStr"/>
+      <c r="M710" t="inlineStr"/>
+      <c r="N710" t="inlineStr"/>
+      <c r="O710" t="inlineStr"/>
+      <c r="P710" t="inlineStr"/>
+      <c r="Q710" t="inlineStr"/>
+      <c r="R710" t="inlineStr"/>
+    </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>710</v>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>Data Engineer with Flink  (w/m/d)</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>Billie</t>
+        </is>
+      </c>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E711" t="b">
+        <v>0</v>
+      </c>
+      <c r="F711" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/billie/data-engineer-with-flink-berlin-468608</t>
+        </is>
+      </c>
+      <c r="G711" t="inlineStr"/>
+      <c r="H711" t="inlineStr"/>
+      <c r="I711" t="inlineStr"/>
+      <c r="J711" t="inlineStr"/>
+      <c r="K711" t="inlineStr"/>
+      <c r="L711" t="inlineStr"/>
+      <c r="M711" t="inlineStr"/>
+      <c r="N711" t="inlineStr"/>
+      <c r="O711" t="inlineStr"/>
+      <c r="P711" t="inlineStr"/>
+      <c r="Q711" t="inlineStr"/>
+      <c r="R711" t="inlineStr"/>
+    </row>
+    <row r="712">
+      <c r="A712" t="n">
+        <v>711</v>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>Field Engineer (m/f/d) FlixTrain</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E712" t="b">
+        <v>0</v>
+      </c>
+      <c r="F712" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/field-engineer-flixtrain-berlin-313927</t>
+        </is>
+      </c>
+      <c r="G712" t="inlineStr"/>
+      <c r="H712" t="inlineStr"/>
+      <c r="I712" t="inlineStr"/>
+      <c r="J712" t="inlineStr"/>
+      <c r="K712" t="inlineStr"/>
+      <c r="L712" t="inlineStr"/>
+      <c r="M712" t="inlineStr"/>
+      <c r="N712" t="inlineStr"/>
+      <c r="O712" t="inlineStr"/>
+      <c r="P712" t="inlineStr"/>
+      <c r="Q712" t="inlineStr"/>
+      <c r="R712" t="inlineStr"/>
+    </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>712</v>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>Network/Infrastructure Engineer (m/f/d) FlixTrain</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E713" t="b">
+        <v>0</v>
+      </c>
+      <c r="F713" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/network-infrastructure-engineer-flixtrain-berlin-24799</t>
+        </is>
+      </c>
+      <c r="G713" t="inlineStr"/>
+      <c r="H713" t="inlineStr"/>
+      <c r="I713" t="inlineStr"/>
+      <c r="J713" t="inlineStr"/>
+      <c r="K713" t="inlineStr"/>
+      <c r="L713" t="inlineStr"/>
+      <c r="M713" t="inlineStr"/>
+      <c r="N713" t="inlineStr"/>
+      <c r="O713" t="inlineStr"/>
+      <c r="P713" t="inlineStr"/>
+      <c r="Q713" t="inlineStr"/>
+      <c r="R713" t="inlineStr"/>
+    </row>
+    <row r="714">
+      <c r="A714" t="n">
+        <v>713</v>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>CRM Communications Manager (m/f/d)</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>Munich, Bavaria, Germany</t>
+        </is>
+      </c>
+      <c r="E714" t="b">
+        <v>0</v>
+      </c>
+      <c r="F714" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/crm-communications-manager-munich-56903</t>
+        </is>
+      </c>
+      <c r="G714" t="inlineStr"/>
+      <c r="H714" t="inlineStr"/>
+      <c r="I714" t="inlineStr"/>
+      <c r="J714" t="inlineStr"/>
+      <c r="K714" t="inlineStr"/>
+      <c r="L714" t="inlineStr"/>
+      <c r="M714" t="inlineStr"/>
+      <c r="N714" t="inlineStr"/>
+      <c r="O714" t="inlineStr"/>
+      <c r="P714" t="inlineStr"/>
+      <c r="Q714" t="inlineStr"/>
+      <c r="R714" t="inlineStr"/>
+    </row>
+    <row r="715">
+      <c r="A715" t="n">
+        <v>714</v>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>Senior UI/UX Designer - FlixTrain Operations Management Team (m/f/d)</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E715" t="b">
+        <v>0</v>
+      </c>
+      <c r="F715" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/senior-ui-ux-designer-flixtrain-operations-management-team-berlin-493016</t>
+        </is>
+      </c>
+      <c r="G715" t="inlineStr"/>
+      <c r="H715" t="inlineStr"/>
+      <c r="I715" t="inlineStr"/>
+      <c r="J715" t="inlineStr"/>
+      <c r="K715" t="inlineStr"/>
+      <c r="L715" t="inlineStr"/>
+      <c r="M715" t="inlineStr"/>
+      <c r="N715" t="inlineStr"/>
+      <c r="O715" t="inlineStr"/>
+      <c r="P715" t="inlineStr"/>
+      <c r="Q715" t="inlineStr"/>
+      <c r="R715" t="inlineStr"/>
+    </row>
+    <row r="716">
+      <c r="A716" t="n">
+        <v>715</v>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>Merchant Account Development Manager</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>Wolt - English</t>
+        </is>
+      </c>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E716" t="b">
+        <v>0</v>
+      </c>
+      <c r="F716" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/wolt-english/merchant-account-development-manager-berlin-73713</t>
+        </is>
+      </c>
+      <c r="G716" t="inlineStr"/>
+      <c r="H716" t="inlineStr"/>
+      <c r="I716" t="inlineStr"/>
+      <c r="J716" t="inlineStr"/>
+      <c r="K716" t="inlineStr"/>
+      <c r="L716" t="inlineStr"/>
+      <c r="M716" t="inlineStr"/>
+      <c r="N716" t="inlineStr"/>
+      <c r="O716" t="inlineStr"/>
+      <c r="P716" t="inlineStr"/>
+      <c r="Q716" t="inlineStr"/>
+      <c r="R716" t="inlineStr"/>
+    </row>
+    <row r="717">
+      <c r="A717" t="n">
+        <v>716</v>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>Working Student - Wolt Campus Ambassador</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>Wolt - English</t>
+        </is>
+      </c>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E717" t="b">
+        <v>0</v>
+      </c>
+      <c r="F717" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/wolt-english/working-student-wolt-campus-ambassador-berlin-80292</t>
+        </is>
+      </c>
+      <c r="G717" t="inlineStr"/>
+      <c r="H717" t="inlineStr"/>
+      <c r="I717" t="inlineStr"/>
+      <c r="J717" t="inlineStr"/>
+      <c r="K717" t="inlineStr"/>
+      <c r="L717" t="inlineStr"/>
+      <c r="M717" t="inlineStr"/>
+      <c r="N717" t="inlineStr"/>
+      <c r="O717" t="inlineStr"/>
+      <c r="P717" t="inlineStr"/>
+      <c r="Q717" t="inlineStr"/>
+      <c r="R717" t="inlineStr"/>
+    </row>
+    <row r="718">
+      <c r="A718" t="n">
+        <v>717</v>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>Projektingenieur:in Tragwerksplanung / Statiker:in (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>Heg Beratende Ingenieure Berlin Gmbh</t>
+        </is>
+      </c>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E718" t="b">
+        <v>0</v>
+      </c>
+      <c r="F718" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/heg-beratende-ingenieure-berlin-gmbh/projektingenieurin-tragwerksplanung-statikerin-berlin-325341</t>
+        </is>
+      </c>
+      <c r="G718" t="inlineStr"/>
+      <c r="H718" t="inlineStr"/>
+      <c r="I718" t="inlineStr"/>
+      <c r="J718" t="inlineStr"/>
+      <c r="K718" t="inlineStr"/>
+      <c r="L718" t="inlineStr"/>
+      <c r="M718" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N718" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O718" t="n">
+        <v>70</v>
+      </c>
+      <c r="P718" t="inlineStr"/>
+      <c r="Q718" t="inlineStr"/>
+      <c r="R718" t="inlineStr"/>
+    </row>
+    <row r="719">
+      <c r="A719" t="n">
+        <v>718</v>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>Data Analyst (m/w/d) bei einem aufstrebenden Foodtech-Startup</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>Garoma Gmbh</t>
+        </is>
+      </c>
+      <c r="D719" t="inlineStr">
+        <is>
+          <t>Karlsruhe</t>
+        </is>
+      </c>
+      <c r="E719" t="b">
+        <v>0</v>
+      </c>
+      <c r="F719" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/garoma-gmbh/data-analyst-bei-einem-aufstrebenden-foodtech-startup-karlsruhe-198843</t>
+        </is>
+      </c>
+      <c r="G719" t="inlineStr"/>
+      <c r="H719" t="inlineStr"/>
+      <c r="I719" t="inlineStr"/>
+      <c r="J719" t="inlineStr"/>
+      <c r="K719" t="inlineStr"/>
+      <c r="L719" t="inlineStr"/>
+      <c r="M719" t="inlineStr"/>
+      <c r="N719" t="inlineStr"/>
+      <c r="O719" t="inlineStr"/>
+      <c r="P719" t="inlineStr"/>
+      <c r="Q719" t="inlineStr"/>
+      <c r="R719" t="inlineStr"/>
+    </row>
+    <row r="720">
+      <c r="A720" t="n">
+        <v>719</v>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>Web Designer (m/f/d) - Remote</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>Alrdy</t>
+        </is>
+      </c>
+      <c r="D720" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E720" t="b">
+        <v>1</v>
+      </c>
+      <c r="F720" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/alrdy/web-designer-remote-berlin-311235</t>
+        </is>
+      </c>
+      <c r="G720" t="inlineStr"/>
+      <c r="H720" t="inlineStr"/>
+      <c r="I720" t="inlineStr"/>
+      <c r="J720" t="inlineStr"/>
+      <c r="K720" t="inlineStr"/>
+      <c r="L720" t="inlineStr"/>
+      <c r="M720" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N720" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O720" t="n">
+        <v>70</v>
+      </c>
+      <c r="P720" t="inlineStr"/>
+      <c r="Q720" t="inlineStr"/>
+      <c r="R720" t="inlineStr"/>
+    </row>
+    <row r="721">
+      <c r="A721" t="n">
+        <v>720</v>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>Google Apps Script Engineer</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>Auto1 Group Se</t>
+        </is>
+      </c>
+      <c r="D721" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E721" t="b">
+        <v>0</v>
+      </c>
+      <c r="F721" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/auto1-group-se/google-apps-script-engineer-berlin-296907</t>
+        </is>
+      </c>
+      <c r="G721" t="inlineStr"/>
+      <c r="H721" t="inlineStr"/>
+      <c r="I721" t="inlineStr"/>
+      <c r="J721" t="inlineStr"/>
+      <c r="K721" t="inlineStr"/>
+      <c r="L721" t="inlineStr"/>
+      <c r="M721" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N721" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O721" t="n">
+        <v>70</v>
+      </c>
+      <c r="P721" t="inlineStr"/>
+      <c r="Q721" t="inlineStr"/>
+      <c r="R721" t="inlineStr"/>
+    </row>
+    <row r="722">
+      <c r="A722" t="n">
+        <v>721</v>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>Wirtschaftsprüfer (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>Herber Niewelt Witzel Partnerschaft Mbb</t>
+        </is>
+      </c>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>Fulda</t>
+        </is>
+      </c>
+      <c r="E722" t="b">
+        <v>0</v>
+      </c>
+      <c r="F722" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/herber-niewelt-witzel-partnerschaft-mbb/wirtschaftsprufer-fulda-222830</t>
+        </is>
+      </c>
+      <c r="G722" t="inlineStr"/>
+      <c r="H722" t="inlineStr"/>
+      <c r="I722" t="inlineStr"/>
+      <c r="J722" t="inlineStr"/>
+      <c r="K722" t="inlineStr"/>
+      <c r="L722" t="inlineStr"/>
+      <c r="M722" t="inlineStr"/>
+      <c r="N722" t="inlineStr"/>
+      <c r="O722" t="inlineStr"/>
+      <c r="P722" t="inlineStr"/>
+      <c r="Q722" t="inlineStr"/>
+      <c r="R722" t="inlineStr"/>
+    </row>
+    <row r="723">
+      <c r="A723" t="n">
+        <v>722</v>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>Bautechniker/  Steintechniker (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>Schuhmann &amp; Partner</t>
+        </is>
+      </c>
+      <c r="D723" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="E723" t="b">
+        <v>0</v>
+      </c>
+      <c r="F723" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/schuhmann-partner/bautechniker-steintechniker-munich-448886</t>
+        </is>
+      </c>
+      <c r="G723" t="inlineStr"/>
+      <c r="H723" t="inlineStr"/>
+      <c r="I723" t="inlineStr"/>
+      <c r="J723" t="inlineStr"/>
+      <c r="K723" t="inlineStr"/>
+      <c r="L723" t="inlineStr"/>
+      <c r="M723" t="inlineStr"/>
+      <c r="N723" t="inlineStr"/>
+      <c r="O723" t="inlineStr"/>
+      <c r="P723" t="inlineStr"/>
+      <c r="Q723" t="inlineStr"/>
+      <c r="R723" t="inlineStr"/>
+    </row>
+    <row r="724">
+      <c r="A724" t="n">
+        <v>723</v>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>Bautechniker/  Steintechniker (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>Schuhmann &amp; Partner</t>
+        </is>
+      </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E724" t="b">
+        <v>0</v>
+      </c>
+      <c r="F724" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/schuhmann-partner/bautechniker-steintechniker-berlin-226014</t>
+        </is>
+      </c>
+      <c r="G724" t="inlineStr"/>
+      <c r="H724" t="inlineStr"/>
+      <c r="I724" t="inlineStr"/>
+      <c r="J724" t="inlineStr"/>
+      <c r="K724" t="inlineStr"/>
+      <c r="L724" t="inlineStr"/>
+      <c r="M724" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N724" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O724" t="n">
+        <v>70</v>
+      </c>
+      <c r="P724" t="inlineStr"/>
+      <c r="Q724" t="inlineStr"/>
+      <c r="R724" t="inlineStr"/>
+    </row>
+    <row r="725">
+      <c r="A725" t="n">
+        <v>724</v>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>Make.com / n8n Automation-Entwickler (m/w/d) 100% REMOTE</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>Powerprozesse</t>
+        </is>
+      </c>
+      <c r="D725" t="inlineStr">
+        <is>
+          <t>Worms</t>
+        </is>
+      </c>
+      <c r="E725" t="b">
+        <v>1</v>
+      </c>
+      <c r="F725" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/powerprozesse/makecom-n8n-automation-entwickler-100-remote-worms-47538</t>
+        </is>
+      </c>
+      <c r="G725" t="inlineStr"/>
+      <c r="H725" t="inlineStr"/>
+      <c r="I725" t="inlineStr"/>
+      <c r="J725" t="inlineStr"/>
+      <c r="K725" t="inlineStr"/>
+      <c r="L725" t="inlineStr"/>
+      <c r="M725" t="inlineStr"/>
+      <c r="N725" t="inlineStr"/>
+      <c r="O725" t="inlineStr"/>
+      <c r="P725" t="inlineStr"/>
+      <c r="Q725" t="inlineStr"/>
+      <c r="R725" t="inlineStr"/>
+    </row>
+    <row r="726">
+      <c r="A726" t="n">
+        <v>725</v>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>Berater IT-Projekte (m/w/d) 100% REMOTE</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>Powerprozesse</t>
+        </is>
+      </c>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t>Worms</t>
+        </is>
+      </c>
+      <c r="E726" t="b">
+        <v>1</v>
+      </c>
+      <c r="F726" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/powerprozesse/berater-it-projekte-100-remote-worms-402620</t>
+        </is>
+      </c>
+      <c r="G726" t="inlineStr"/>
+      <c r="H726" t="inlineStr"/>
+      <c r="I726" t="inlineStr"/>
+      <c r="J726" t="inlineStr"/>
+      <c r="K726" t="inlineStr"/>
+      <c r="L726" t="inlineStr"/>
+      <c r="M726" t="inlineStr"/>
+      <c r="N726" t="inlineStr"/>
+      <c r="O726" t="inlineStr"/>
+      <c r="P726" t="inlineStr"/>
+      <c r="Q726" t="inlineStr"/>
+      <c r="R726" t="inlineStr"/>
+    </row>
+    <row r="727">
+      <c r="A727" t="n">
+        <v>726</v>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>Kreditorenbuchhalter:in (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>Momox</t>
+        </is>
+      </c>
+      <c r="D727" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E727" t="b">
+        <v>0</v>
+      </c>
+      <c r="F727" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/momox/kreditorenbuchhalterin-berlin-155646</t>
+        </is>
+      </c>
+      <c r="G727" t="inlineStr"/>
+      <c r="H727" t="inlineStr"/>
+      <c r="I727" t="inlineStr"/>
+      <c r="J727" t="inlineStr"/>
+      <c r="K727" t="inlineStr"/>
+      <c r="L727" t="inlineStr"/>
+      <c r="M727" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N727" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O727" t="n">
+        <v>70</v>
+      </c>
+      <c r="P727" t="inlineStr"/>
+      <c r="Q727" t="inlineStr"/>
+      <c r="R727" t="inlineStr"/>
+    </row>
+    <row r="728">
+      <c r="A728" t="n">
+        <v>727</v>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>Projektleiter Gebäudeautomation für führendes schweizer Ingenieurbüro (w/m, 80-100%)</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>Roger Germ Ag | Personalberatung Energie &amp; Elektro</t>
+        </is>
+      </c>
+      <c r="D728" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="E728" t="b">
+        <v>0</v>
+      </c>
+      <c r="F728" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/roger-germ-ag-personalberatung-energie-elektro/projektleiter-gebaudeautomation-fur-fuhrendes-schweizer-ingenieurburo-w-m-80-100-munich-204762</t>
+        </is>
+      </c>
+      <c r="G728" t="inlineStr"/>
+      <c r="H728" t="inlineStr"/>
+      <c r="I728" t="inlineStr"/>
+      <c r="J728" t="inlineStr"/>
+      <c r="K728" t="inlineStr"/>
+      <c r="L728" t="inlineStr"/>
+      <c r="M728" t="inlineStr"/>
+      <c r="N728" t="inlineStr"/>
+      <c r="O728" t="inlineStr"/>
+      <c r="P728" t="inlineStr"/>
+      <c r="Q728" t="inlineStr"/>
+      <c r="R728" t="inlineStr"/>
+    </row>
+    <row r="729">
+      <c r="A729" t="n">
+        <v>728</v>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>Werkstudent (w/m/d) oder Praktikant (w/m/d) Vertriebsassistenz</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>Skysails Power Gmbh</t>
+        </is>
+      </c>
+      <c r="D729" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E729" t="b">
+        <v>0</v>
+      </c>
+      <c r="F729" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/skysails-power-gmbh/werkstudent-oder-praktikant-vertriebsassistenz-hamburg-205096</t>
+        </is>
+      </c>
+      <c r="G729" t="inlineStr"/>
+      <c r="H729" t="inlineStr"/>
+      <c r="I729" t="inlineStr"/>
+      <c r="J729" t="inlineStr"/>
+      <c r="K729" t="inlineStr"/>
+      <c r="L729" t="inlineStr"/>
+      <c r="M729" t="inlineStr"/>
+      <c r="N729" t="inlineStr"/>
+      <c r="O729" t="inlineStr"/>
+      <c r="P729" t="inlineStr"/>
+      <c r="Q729" t="inlineStr"/>
+      <c r="R729" t="inlineStr"/>
+    </row>
+    <row r="730">
+      <c r="A730" t="n">
+        <v>729</v>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>Senior Consultant SAP VC/PP (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>Avvale Gmbh</t>
+        </is>
+      </c>
+      <c r="D730" t="inlineStr">
+        <is>
+          <t>Mannheim</t>
+        </is>
+      </c>
+      <c r="E730" t="b">
+        <v>1</v>
+      </c>
+      <c r="F730" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/avvale-gmbh/senior-consultant-sap-vc-pp-mannheim-140703</t>
+        </is>
+      </c>
+      <c r="G730" t="inlineStr"/>
+      <c r="H730" t="inlineStr"/>
+      <c r="I730" t="inlineStr"/>
+      <c r="J730" t="inlineStr"/>
+      <c r="K730" t="inlineStr"/>
+      <c r="L730" t="inlineStr"/>
+      <c r="M730" t="inlineStr"/>
+      <c r="N730" t="inlineStr"/>
+      <c r="O730" t="inlineStr"/>
+      <c r="P730" t="inlineStr"/>
+      <c r="Q730" t="inlineStr"/>
+      <c r="R730" t="inlineStr"/>
+    </row>
+    <row r="731">
+      <c r="A731" t="n">
+        <v>730</v>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>Junior Google Apps Script Engineer</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>Auto1 Group Se</t>
+        </is>
+      </c>
+      <c r="D731" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E731" t="b">
+        <v>0</v>
+      </c>
+      <c r="F731" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/auto1-group-se/junior-google-apps-script-engineer-berlin-476311</t>
+        </is>
+      </c>
+      <c r="G731" t="inlineStr"/>
+      <c r="H731" t="inlineStr"/>
+      <c r="I731" t="inlineStr"/>
+      <c r="J731" t="inlineStr"/>
+      <c r="K731" t="inlineStr"/>
+      <c r="L731" t="inlineStr"/>
+      <c r="M731" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N731" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O731" t="n">
+        <v>70</v>
+      </c>
+      <c r="P731" t="inlineStr"/>
+      <c r="Q731" t="inlineStr"/>
+      <c r="R731" t="inlineStr"/>
+    </row>
+    <row r="732">
+      <c r="A732" t="n">
+        <v>731</v>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>Project Manager (f, m, x)</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>Altitude</t>
+        </is>
+      </c>
+      <c r="D732" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E732" t="b">
+        <v>0</v>
+      </c>
+      <c r="F732" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/altitude/project-manager-f-m-x-berlin-34293</t>
+        </is>
+      </c>
+      <c r="G732" t="inlineStr"/>
+      <c r="H732" t="inlineStr"/>
+      <c r="I732" t="inlineStr"/>
+      <c r="J732" t="inlineStr"/>
+      <c r="K732" t="inlineStr"/>
+      <c r="L732" t="inlineStr"/>
+      <c r="M732" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N732" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O732" t="n">
+        <v>70</v>
+      </c>
+      <c r="P732" t="inlineStr"/>
+      <c r="Q732" t="inlineStr"/>
+      <c r="R732" t="inlineStr"/>
+    </row>
+    <row r="733">
+      <c r="A733" t="n">
+        <v>732</v>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>Initiativbewerbung (M/W/D)</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>Anti Boring Content Club Gmbh</t>
+        </is>
+      </c>
+      <c r="D733" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E733" t="b">
+        <v>0</v>
+      </c>
+      <c r="F733" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/anti-boring-content-club-gmbh/initiativbewerbung-berlin-29186</t>
+        </is>
+      </c>
+      <c r="G733" t="inlineStr"/>
+      <c r="H733" t="inlineStr"/>
+      <c r="I733" t="inlineStr"/>
+      <c r="J733" t="inlineStr"/>
+      <c r="K733" t="inlineStr"/>
+      <c r="L733" t="inlineStr"/>
+      <c r="M733" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N733" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O733" t="n">
+        <v>70</v>
+      </c>
+      <c r="P733" t="inlineStr"/>
+      <c r="Q733" t="inlineStr"/>
+      <c r="R733" t="inlineStr"/>
+    </row>
+    <row r="734">
+      <c r="A734" t="n">
+        <v>733</v>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>(Junior) Creative Sales Manager:in (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t>Anti Boring Content Club Gmbh</t>
+        </is>
+      </c>
+      <c r="D734" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E734" t="b">
+        <v>0</v>
+      </c>
+      <c r="F734" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/anti-boring-content-club-gmbh/junior-creative-sales-managerin-berlin-70673</t>
+        </is>
+      </c>
+      <c r="G734" t="inlineStr"/>
+      <c r="H734" t="inlineStr"/>
+      <c r="I734" t="inlineStr"/>
+      <c r="J734" t="inlineStr"/>
+      <c r="K734" t="inlineStr"/>
+      <c r="L734" t="inlineStr"/>
+      <c r="M734" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N734" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O734" t="n">
+        <v>70</v>
+      </c>
+      <c r="P734" t="inlineStr"/>
+      <c r="Q734" t="inlineStr"/>
+      <c r="R734" t="inlineStr"/>
+    </row>
+    <row r="735">
+      <c r="A735" t="n">
+        <v>734</v>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>Java Spring Boot Microservices Entwickler (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t>Innoapps</t>
+        </is>
+      </c>
+      <c r="D735" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E735" t="b">
+        <v>0</v>
+      </c>
+      <c r="F735" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/innoapps/java-spring-boot-microservices-entwickler-frankfurt-224789</t>
+        </is>
+      </c>
+      <c r="G735" t="inlineStr"/>
+      <c r="H735" t="inlineStr"/>
+      <c r="I735" t="inlineStr"/>
+      <c r="J735" t="inlineStr"/>
+      <c r="K735" t="inlineStr"/>
+      <c r="L735" t="inlineStr"/>
+      <c r="M735" t="inlineStr"/>
+      <c r="N735" t="inlineStr"/>
+      <c r="O735" t="inlineStr"/>
+      <c r="P735" t="inlineStr"/>
+      <c r="Q735" t="inlineStr"/>
+      <c r="R735" t="inlineStr"/>
+    </row>
+    <row r="736">
+      <c r="A736" t="n">
+        <v>735</v>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in leitender Stellung</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr">
+        <is>
+          <t>Sozialwerk Heuser</t>
+        </is>
+      </c>
+      <c r="D736" t="inlineStr">
+        <is>
+          <t>Bad Aibling</t>
+        </is>
+      </c>
+      <c r="E736" t="b">
+        <v>0</v>
+      </c>
+      <c r="F736" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/sozialwerk-heuser/steuerberater-in-leitender-stellung-bad-aibling-285524</t>
+        </is>
+      </c>
+      <c r="G736" t="inlineStr"/>
+      <c r="H736" t="inlineStr"/>
+      <c r="I736" t="inlineStr"/>
+      <c r="J736" t="inlineStr"/>
+      <c r="K736" t="inlineStr"/>
+      <c r="L736" t="inlineStr"/>
+      <c r="M736" t="inlineStr"/>
+      <c r="N736" t="inlineStr"/>
+      <c r="O736" t="inlineStr"/>
+      <c r="P736" t="inlineStr"/>
+      <c r="Q736" t="inlineStr"/>
+      <c r="R736" t="inlineStr"/>
+    </row>
+    <row r="737">
+      <c r="A737" t="n">
+        <v>736</v>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>Java Quarkus Microservices Entwickler (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>Innoapps</t>
+        </is>
+      </c>
+      <c r="D737" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E737" t="b">
+        <v>0</v>
+      </c>
+      <c r="F737" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/innoapps/java-quarkus-microservices-entwickler-frankfurt-113346</t>
+        </is>
+      </c>
+      <c r="G737" t="inlineStr"/>
+      <c r="H737" t="inlineStr"/>
+      <c r="I737" t="inlineStr"/>
+      <c r="J737" t="inlineStr"/>
+      <c r="K737" t="inlineStr"/>
+      <c r="L737" t="inlineStr"/>
+      <c r="M737" t="inlineStr"/>
+      <c r="N737" t="inlineStr"/>
+      <c r="O737" t="inlineStr"/>
+      <c r="P737" t="inlineStr"/>
+      <c r="Q737" t="inlineStr"/>
+      <c r="R737" t="inlineStr"/>
+    </row>
+    <row r="738">
+      <c r="A738" t="n">
+        <v>737</v>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>Java Developer (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t>Collaboration Betters The World Gmbh</t>
+        </is>
+      </c>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E738" t="b">
+        <v>0</v>
+      </c>
+      <c r="F738" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/collaboration-betters-the-world-gmbh/java-developer-frankfurt-215444</t>
+        </is>
+      </c>
+      <c r="G738" t="inlineStr"/>
+      <c r="H738" t="inlineStr"/>
+      <c r="I738" t="inlineStr"/>
+      <c r="J738" t="inlineStr"/>
+      <c r="K738" t="inlineStr"/>
+      <c r="L738" t="inlineStr"/>
+      <c r="M738" t="inlineStr"/>
+      <c r="N738" t="inlineStr"/>
+      <c r="O738" t="inlineStr"/>
+      <c r="P738" t="inlineStr"/>
+      <c r="Q738" t="inlineStr"/>
+      <c r="R738" t="inlineStr"/>
+    </row>
+    <row r="739">
+      <c r="A739" t="n">
+        <v>738</v>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>Working Student (m/f/d) for IT &amp; Data Operations</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>Green Fusion Gmbh</t>
+        </is>
+      </c>
+      <c r="D739" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E739" t="b">
+        <v>0</v>
+      </c>
+      <c r="F739" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/green-fusion-gmbh/working-student-for-it-data-operations-berlin-277842</t>
+        </is>
+      </c>
+      <c r="G739" t="inlineStr"/>
+      <c r="H739" t="inlineStr"/>
+      <c r="I739" t="inlineStr"/>
+      <c r="J739" t="inlineStr"/>
+      <c r="K739" t="inlineStr"/>
+      <c r="L739" t="inlineStr"/>
+      <c r="M739" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N739" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O739" t="n">
+        <v>70</v>
+      </c>
+      <c r="P739" t="inlineStr"/>
+      <c r="Q739" t="inlineStr"/>
+      <c r="R739" t="inlineStr"/>
+    </row>
+    <row r="740">
+      <c r="A740" t="n">
+        <v>739</v>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>Full Stack Developer (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>Collaboration Betters The World Gmbh</t>
+        </is>
+      </c>
+      <c r="D740" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E740" t="b">
+        <v>0</v>
+      </c>
+      <c r="F740" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/collaboration-betters-the-world-gmbh/full-stack-developer-frankfurt-433544</t>
+        </is>
+      </c>
+      <c r="G740" t="inlineStr"/>
+      <c r="H740" t="inlineStr"/>
+      <c r="I740" t="inlineStr"/>
+      <c r="J740" t="inlineStr"/>
+      <c r="K740" t="inlineStr"/>
+      <c r="L740" t="inlineStr"/>
+      <c r="M740" t="inlineStr"/>
+      <c r="N740" t="inlineStr"/>
+      <c r="O740" t="inlineStr"/>
+      <c r="P740" t="inlineStr"/>
+      <c r="Q740" t="inlineStr"/>
+      <c r="R740" t="inlineStr"/>
+    </row>
+    <row r="741">
+      <c r="A741" t="n">
+        <v>740</v>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>Werkstudent (gn) - Personalberatung/Recruiting</t>
+        </is>
+      </c>
+      <c r="C741" t="inlineStr">
+        <is>
+          <t>Argus Search Gmbh</t>
+        </is>
+      </c>
+      <c r="D741" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E741" t="b">
+        <v>0</v>
+      </c>
+      <c r="F741" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/argus-search-gmbh/werkstudent-gn-personalberatung-recruiting-berlin-457982</t>
+        </is>
+      </c>
+      <c r="G741" t="inlineStr"/>
+      <c r="H741" t="inlineStr"/>
+      <c r="I741" t="inlineStr"/>
+      <c r="J741" t="inlineStr"/>
+      <c r="K741" t="inlineStr"/>
+      <c r="L741" t="inlineStr"/>
+      <c r="M741" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N741" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O741" t="n">
+        <v>70</v>
+      </c>
+      <c r="P741" t="inlineStr"/>
+      <c r="Q741" t="inlineStr"/>
+      <c r="R741" t="inlineStr"/>
+    </row>
+    <row r="742">
+      <c r="A742" t="n">
+        <v>741</v>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>Account Manager (m|w|d) - Promotion-/Werbeagentur</t>
+        </is>
+      </c>
+      <c r="C742" t="inlineStr">
+        <is>
+          <t>Agentur Für Wahre Kommunikation</t>
+        </is>
+      </c>
+      <c r="D742" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E742" t="b">
+        <v>0</v>
+      </c>
+      <c r="F742" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/agentur-fur-wahre-kommunikation/account-manager-mwd-promotion-werbeagentur-hamburg-462823</t>
+        </is>
+      </c>
+      <c r="G742" t="inlineStr"/>
+      <c r="H742" t="inlineStr"/>
+      <c r="I742" t="inlineStr"/>
+      <c r="J742" t="inlineStr"/>
+      <c r="K742" t="inlineStr"/>
+      <c r="L742" t="inlineStr"/>
+      <c r="M742" t="inlineStr"/>
+      <c r="N742" t="inlineStr"/>
+      <c r="O742" t="inlineStr"/>
+      <c r="P742" t="inlineStr"/>
+      <c r="Q742" t="inlineStr"/>
+      <c r="R742" t="inlineStr"/>
+    </row>
+    <row r="743">
+      <c r="A743" t="n">
+        <v>742</v>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>ERP Consultant (w/m/d)</t>
+        </is>
+      </c>
+      <c r="C743" t="inlineStr">
+        <is>
+          <t>Das Kontaktwerk (Dkw Consulting Gmbh)</t>
+        </is>
+      </c>
+      <c r="D743" t="inlineStr">
+        <is>
+          <t>Altötting</t>
+        </is>
+      </c>
+      <c r="E743" t="b">
+        <v>0</v>
+      </c>
+      <c r="F743" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/das-kontaktwerk-dkw-consulting-gmbh/erp-consultant-altotting-186541</t>
+        </is>
+      </c>
+      <c r="G743" t="inlineStr"/>
+      <c r="H743" t="inlineStr"/>
+      <c r="I743" t="inlineStr"/>
+      <c r="J743" t="inlineStr"/>
+      <c r="K743" t="inlineStr"/>
+      <c r="L743" t="inlineStr"/>
+      <c r="M743" t="inlineStr"/>
+      <c r="N743" t="inlineStr"/>
+      <c r="O743" t="inlineStr"/>
+      <c r="P743" t="inlineStr"/>
+      <c r="Q743" t="inlineStr"/>
+      <c r="R743" t="inlineStr"/>
+    </row>
+    <row r="744">
+      <c r="A744" t="n">
+        <v>743</v>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>Werkstudent Social Media Management (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t>Finally Freelancing Gmbh</t>
+        </is>
+      </c>
+      <c r="D744" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E744" t="b">
+        <v>0</v>
+      </c>
+      <c r="F744" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/finally-freelancing-gmbh/werkstudent-social-media-management-hamburg-51211</t>
+        </is>
+      </c>
+      <c r="G744" t="inlineStr"/>
+      <c r="H744" t="inlineStr"/>
+      <c r="I744" t="inlineStr"/>
+      <c r="J744" t="inlineStr"/>
+      <c r="K744" t="inlineStr"/>
+      <c r="L744" t="inlineStr"/>
+      <c r="M744" t="inlineStr"/>
+      <c r="N744" t="inlineStr"/>
+      <c r="O744" t="inlineStr"/>
+      <c r="P744" t="inlineStr"/>
+      <c r="Q744" t="inlineStr"/>
+      <c r="R744" t="inlineStr"/>
+    </row>
+    <row r="745">
+      <c r="A745" t="n">
+        <v>744</v>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>Auftragsmanager (m/w/d) Photovoltaik - 1KOMMA5° Freiburg</t>
+        </is>
+      </c>
+      <c r="C745" t="inlineStr">
+        <is>
+          <t>1Komma5˚</t>
+        </is>
+      </c>
+      <c r="D745" t="inlineStr">
+        <is>
+          <t>Freiburg im Breisgau</t>
+        </is>
+      </c>
+      <c r="E745" t="b">
+        <v>0</v>
+      </c>
+      <c r="F745" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/1komma50/auftragsmanager-photovoltaik-1komma5-freiburg-freiburg-im-breisgau-9342</t>
+        </is>
+      </c>
+      <c r="G745" t="inlineStr"/>
+      <c r="H745" t="inlineStr"/>
+      <c r="I745" t="inlineStr"/>
+      <c r="J745" t="inlineStr"/>
+      <c r="K745" t="inlineStr"/>
+      <c r="L745" t="inlineStr"/>
+      <c r="M745" t="inlineStr"/>
+      <c r="N745" t="inlineStr"/>
+      <c r="O745" t="inlineStr"/>
+      <c r="P745" t="inlineStr"/>
+      <c r="Q745" t="inlineStr"/>
+      <c r="R745" t="inlineStr"/>
+    </row>
+    <row r="746">
+      <c r="A746" t="n">
+        <v>745</v>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>Praktikant (m/w/d) Controlling</t>
+        </is>
+      </c>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>Evident Europe Gmbh</t>
+        </is>
+      </c>
+      <c r="D746" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E746" t="b">
+        <v>0</v>
+      </c>
+      <c r="F746" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/evident-europe-gmbh/praktikant-controlling-hamburg-129076</t>
+        </is>
+      </c>
+      <c r="G746" t="inlineStr"/>
+      <c r="H746" t="inlineStr"/>
+      <c r="I746" t="inlineStr"/>
+      <c r="J746" t="inlineStr"/>
+      <c r="K746" t="inlineStr"/>
+      <c r="L746" t="inlineStr"/>
+      <c r="M746" t="inlineStr"/>
+      <c r="N746" t="inlineStr"/>
+      <c r="O746" t="inlineStr"/>
+      <c r="P746" t="inlineStr"/>
+      <c r="Q746" t="inlineStr"/>
+      <c r="R746" t="inlineStr"/>
+    </row>
+    <row r="747">
+      <c r="A747" t="n">
+        <v>746</v>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>Werkstudent (m/w/d) Marketing &amp; Communications</t>
+        </is>
+      </c>
+      <c r="C747" t="inlineStr">
+        <is>
+          <t>Ict Digital Solutions</t>
+        </is>
+      </c>
+      <c r="D747" t="inlineStr">
+        <is>
+          <t>Ismaning</t>
+        </is>
+      </c>
+      <c r="E747" t="b">
+        <v>1</v>
+      </c>
+      <c r="F747" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ict-digital-solutions/werkstudent-marketing-communications-ismaning-239974</t>
+        </is>
+      </c>
+      <c r="G747" t="inlineStr"/>
+      <c r="H747" t="inlineStr"/>
+      <c r="I747" t="inlineStr"/>
+      <c r="J747" t="inlineStr"/>
+      <c r="K747" t="inlineStr"/>
+      <c r="L747" t="inlineStr"/>
+      <c r="M747" t="inlineStr"/>
+      <c r="N747" t="inlineStr"/>
+      <c r="O747" t="inlineStr"/>
+      <c r="P747" t="inlineStr"/>
+      <c r="Q747" t="inlineStr"/>
+      <c r="R747" t="inlineStr"/>
+    </row>
+    <row r="748">
+      <c r="A748" t="n">
+        <v>747</v>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>Home Office Call Center Agent (m/w/d) SALES</t>
+        </is>
+      </c>
+      <c r="C748" t="inlineStr">
+        <is>
+          <t>Foundever® B.V. &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="D748" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E748" t="b">
+        <v>1</v>
+      </c>
+      <c r="F748" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/foundever-bv-co-kg/home-office-call-center-agent-sales-berlin-459735</t>
+        </is>
+      </c>
+      <c r="G748" t="inlineStr"/>
+      <c r="H748" t="inlineStr"/>
+      <c r="I748" t="inlineStr"/>
+      <c r="J748" t="inlineStr"/>
+      <c r="K748" t="inlineStr"/>
+      <c r="L748" t="inlineStr"/>
+      <c r="M748" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N748" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O748" t="n">
+        <v>70</v>
+      </c>
+      <c r="P748" t="inlineStr"/>
+      <c r="Q748" t="inlineStr"/>
+      <c r="R748" t="inlineStr"/>
+    </row>
+    <row r="749">
+      <c r="A749" t="n">
+        <v>748</v>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>Ingenieur - Schweißfachtechnik (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C749" t="inlineStr">
+        <is>
+          <t>Lionment</t>
+        </is>
+      </c>
+      <c r="D749" t="inlineStr">
+        <is>
+          <t>Gera</t>
+        </is>
+      </c>
+      <c r="E749" t="b">
+        <v>0</v>
+      </c>
+      <c r="F749" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/lionment/ingenieur-schweissfachtechnik-gera-444680</t>
+        </is>
+      </c>
+      <c r="G749" t="inlineStr"/>
+      <c r="H749" t="inlineStr"/>
+      <c r="I749" t="inlineStr"/>
+      <c r="J749" t="inlineStr"/>
+      <c r="K749" t="inlineStr"/>
+      <c r="L749" t="inlineStr"/>
+      <c r="M749" t="inlineStr"/>
+      <c r="N749" t="inlineStr"/>
+      <c r="O749" t="inlineStr"/>
+      <c r="P749" t="inlineStr"/>
+      <c r="Q749" t="inlineStr"/>
+      <c r="R749" t="inlineStr"/>
+    </row>
+    <row r="750">
+      <c r="A750" t="n">
+        <v>749</v>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>Growth &amp; RevOps Analyst</t>
+        </is>
+      </c>
+      <c r="C750" t="inlineStr">
+        <is>
+          <t>Bridger</t>
+        </is>
+      </c>
+      <c r="D750" t="inlineStr">
+        <is>
+          <t>Wasbek</t>
+        </is>
+      </c>
+      <c r="E750" t="b">
+        <v>0</v>
+      </c>
+      <c r="F750" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/bridger/growth-revops-analyst-wasbek-469922</t>
+        </is>
+      </c>
+      <c r="G750" t="inlineStr"/>
+      <c r="H750" t="inlineStr"/>
+      <c r="I750" t="inlineStr"/>
+      <c r="J750" t="inlineStr"/>
+      <c r="K750" t="inlineStr"/>
+      <c r="L750" t="inlineStr"/>
+      <c r="M750" t="inlineStr"/>
+      <c r="N750" t="inlineStr"/>
+      <c r="O750" t="inlineStr"/>
+      <c r="P750" t="inlineStr"/>
+      <c r="Q750" t="inlineStr"/>
+      <c r="R750" t="inlineStr"/>
+    </row>
+    <row r="751">
+      <c r="A751" t="n">
+        <v>750</v>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>Bauleiter und Poliere Rohbau/Fassade/Dach/Innenausbau/Modulmontage (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>Daiwa House Modular Europe Gmbh</t>
+        </is>
+      </c>
+      <c r="D751" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E751" t="b">
+        <v>0</v>
+      </c>
+      <c r="F751" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/daiwa-house-modular-europe-gmbh/bauleiter-und-poliere-rohbau-fassade-dach-innenausbau-modulmontage-berlin-360968</t>
+        </is>
+      </c>
+      <c r="G751" t="inlineStr"/>
+      <c r="H751" t="inlineStr"/>
+      <c r="I751" t="inlineStr"/>
+      <c r="J751" t="inlineStr"/>
+      <c r="K751" t="inlineStr"/>
+      <c r="L751" t="inlineStr"/>
+      <c r="M751" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N751" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O751" t="n">
+        <v>70</v>
+      </c>
+      <c r="P751" t="inlineStr"/>
+      <c r="Q751" t="inlineStr"/>
+      <c r="R751" t="inlineStr"/>
+    </row>
+    <row r="752">
+      <c r="A752" t="n">
+        <v>751</v>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>Technischer Property Manager (m/w/d) Gewerbe - bis ca. 72.000 € Jahresgehalt - 100% Remote</t>
+        </is>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>Qtalents - Real Estate Recruiting</t>
+        </is>
+      </c>
+      <c r="D752" t="inlineStr">
+        <is>
+          <t>Leipzig</t>
+        </is>
+      </c>
+      <c r="E752" t="b">
+        <v>0</v>
+      </c>
+      <c r="F752" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/qtalents-real-estate-recruiting/technischer-property-manager-gewerbe-bis-ca-72000-eur-jahresgehalt-100-remote-leipzig-251204</t>
+        </is>
+      </c>
+      <c r="G752" t="inlineStr"/>
+      <c r="H752" t="inlineStr"/>
+      <c r="I752" t="inlineStr"/>
+      <c r="J752" t="inlineStr"/>
+      <c r="K752" t="inlineStr"/>
+      <c r="L752" t="inlineStr"/>
+      <c r="M752" t="inlineStr"/>
+      <c r="N752" t="inlineStr"/>
+      <c r="O752" t="inlineStr"/>
+      <c r="P752" t="inlineStr"/>
+      <c r="Q752" t="inlineStr"/>
+      <c r="R752" t="inlineStr"/>
+    </row>
+    <row r="753">
+      <c r="A753" t="n">
+        <v>752</v>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>Telefonist (m/w/d) im Bewerbermanagement - Remote, Teilzeit oder Vollzeit</t>
+        </is>
+      </c>
+      <c r="C753" t="inlineStr">
+        <is>
+          <t>Visionactive Gmbh</t>
+        </is>
+      </c>
+      <c r="D753" t="inlineStr">
+        <is>
+          <t>Essen</t>
+        </is>
+      </c>
+      <c r="E753" t="b">
+        <v>1</v>
+      </c>
+      <c r="F753" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/visionactive-gmbh/telefonist-im-bewerbermanagement-remote-teilzeit-oder-vollzeit-essen-147176</t>
+        </is>
+      </c>
+      <c r="G753" t="inlineStr"/>
+      <c r="H753" t="inlineStr"/>
+      <c r="I753" t="inlineStr"/>
+      <c r="J753" t="inlineStr"/>
+      <c r="K753" t="inlineStr"/>
+      <c r="L753" t="inlineStr"/>
+      <c r="M753" t="inlineStr"/>
+      <c r="N753" t="inlineStr"/>
+      <c r="O753" t="inlineStr"/>
+      <c r="P753" t="inlineStr"/>
+      <c r="Q753" t="inlineStr"/>
+      <c r="R753" t="inlineStr"/>
+    </row>
+    <row r="754">
+      <c r="A754" t="n">
+        <v>753</v>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>Werkstudent (m/w/d) Customer Support</t>
+        </is>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>Oatsome Gmbh</t>
+        </is>
+      </c>
+      <c r="D754" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E754" t="b">
+        <v>0</v>
+      </c>
+      <c r="F754" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/oatsome-gmbh/werkstudent-customer-support-frankfurt-268420</t>
+        </is>
+      </c>
+      <c r="G754" t="inlineStr"/>
+      <c r="H754" t="inlineStr"/>
+      <c r="I754" t="inlineStr"/>
+      <c r="J754" t="inlineStr"/>
+      <c r="K754" t="inlineStr"/>
+      <c r="L754" t="inlineStr"/>
+      <c r="M754" t="inlineStr"/>
+      <c r="N754" t="inlineStr"/>
+      <c r="O754" t="inlineStr"/>
+      <c r="P754" t="inlineStr"/>
+      <c r="Q754" t="inlineStr"/>
+      <c r="R754" t="inlineStr"/>
+    </row>
+    <row r="755">
+      <c r="A755" t="n">
+        <v>754</v>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>Community &amp; Partnership Manager:in</t>
+        </is>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>Ki Bundesverband</t>
+        </is>
+      </c>
+      <c r="D755" t="inlineStr">
+        <is>
+          <t>Heilbronn</t>
+        </is>
+      </c>
+      <c r="E755" t="b">
+        <v>0</v>
+      </c>
+      <c r="F755" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ki-bundesverband/community-partnership-managerin-heilbronn-50870</t>
+        </is>
+      </c>
+      <c r="G755" t="inlineStr"/>
+      <c r="H755" t="inlineStr"/>
+      <c r="I755" t="inlineStr"/>
+      <c r="J755" t="inlineStr"/>
+      <c r="K755" t="inlineStr"/>
+      <c r="L755" t="inlineStr"/>
+      <c r="M755" t="inlineStr"/>
+      <c r="N755" t="inlineStr"/>
+      <c r="O755" t="inlineStr"/>
+      <c r="P755" t="inlineStr"/>
+      <c r="Q755" t="inlineStr"/>
+      <c r="R755" t="inlineStr"/>
+    </row>
+    <row r="756">
+      <c r="A756" t="n">
+        <v>755</v>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>Mediengestalter:in (w/m/d)</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>Federhenschneider</t>
+        </is>
+      </c>
+      <c r="D756" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E756" t="b">
+        <v>0</v>
+      </c>
+      <c r="F756" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/federhenschneider/mediengestalterin-cologne-211533</t>
+        </is>
+      </c>
+      <c r="G756" t="inlineStr"/>
+      <c r="H756" t="inlineStr"/>
+      <c r="I756" t="inlineStr"/>
+      <c r="J756" t="inlineStr"/>
+      <c r="K756" t="inlineStr"/>
+      <c r="L756" t="inlineStr"/>
+      <c r="M756" t="inlineStr"/>
+      <c r="N756" t="inlineStr"/>
+      <c r="O756" t="inlineStr"/>
+      <c r="P756" t="inlineStr"/>
+      <c r="Q756" t="inlineStr"/>
+      <c r="R756" t="inlineStr"/>
+    </row>
+    <row r="757">
+      <c r="A757" t="n">
+        <v>756</v>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>Leiter:in Finanz- und Rechnungswesen (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>Gefeba Engineering Gmbh</t>
+        </is>
+      </c>
+      <c r="D757" t="inlineStr">
+        <is>
+          <t>Gladbeck</t>
+        </is>
+      </c>
+      <c r="E757" t="b">
+        <v>0</v>
+      </c>
+      <c r="F757" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/gefeba-engineering-gmbh/leiterin-finanz-und-rechnungswesen-gladbeck-432818</t>
+        </is>
+      </c>
+      <c r="G757" t="inlineStr"/>
+      <c r="H757" t="inlineStr"/>
+      <c r="I757" t="inlineStr"/>
+      <c r="J757" t="inlineStr"/>
+      <c r="K757" t="inlineStr"/>
+      <c r="L757" t="inlineStr"/>
+      <c r="M757" t="inlineStr"/>
+      <c r="N757" t="inlineStr"/>
+      <c r="O757" t="inlineStr"/>
+      <c r="P757" t="inlineStr"/>
+      <c r="Q757" t="inlineStr"/>
+      <c r="R757" t="inlineStr"/>
+    </row>
+    <row r="758">
+      <c r="A758" t="n">
+        <v>757</v>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>Technischer Redakteur (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C758" t="inlineStr">
+        <is>
+          <t>D+P, Dosier- U. Prüftechnik Gmbh</t>
+        </is>
+      </c>
+      <c r="D758" t="inlineStr">
+        <is>
+          <t>Nördlingen</t>
+        </is>
+      </c>
+      <c r="E758" t="b">
+        <v>0</v>
+      </c>
+      <c r="F758" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/dp-dosier-u-pruftechnik-gmbh/technischer-redakteur-nordlingen-80546</t>
+        </is>
+      </c>
+      <c r="G758" t="inlineStr"/>
+      <c r="H758" t="inlineStr"/>
+      <c r="I758" t="inlineStr"/>
+      <c r="J758" t="inlineStr"/>
+      <c r="K758" t="inlineStr"/>
+      <c r="L758" t="inlineStr"/>
+      <c r="M758" t="inlineStr"/>
+      <c r="N758" t="inlineStr"/>
+      <c r="O758" t="inlineStr"/>
+      <c r="P758" t="inlineStr"/>
+      <c r="Q758" t="inlineStr"/>
+      <c r="R758" t="inlineStr"/>
+    </row>
+    <row r="759">
+      <c r="A759" t="n">
+        <v>758</v>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>SEO Manager:in (m/w/d) in Voll- oder Teilzeit</t>
+        </is>
+      </c>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>Skoobe</t>
+        </is>
+      </c>
+      <c r="D759" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="E759" t="b">
+        <v>0</v>
+      </c>
+      <c r="F759" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/skoobe/seo-managerin-in-voll-oder-teilzeit-munich-6952</t>
+        </is>
+      </c>
+      <c r="G759" t="inlineStr"/>
+      <c r="H759" t="inlineStr"/>
+      <c r="I759" t="inlineStr"/>
+      <c r="J759" t="inlineStr"/>
+      <c r="K759" t="inlineStr"/>
+      <c r="L759" t="inlineStr"/>
+      <c r="M759" t="inlineStr"/>
+      <c r="N759" t="inlineStr"/>
+      <c r="O759" t="inlineStr"/>
+      <c r="P759" t="inlineStr"/>
+      <c r="Q759" t="inlineStr"/>
+      <c r="R759" t="inlineStr"/>
+    </row>
+    <row r="760">
+      <c r="A760" t="n">
+        <v>759</v>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>Fullstack Entwickler:in (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C760" t="inlineStr">
+        <is>
+          <t>Stadt.Werk</t>
+        </is>
+      </c>
+      <c r="D760" t="inlineStr">
+        <is>
+          <t>Kiel</t>
+        </is>
+      </c>
+      <c r="E760" t="b">
+        <v>1</v>
+      </c>
+      <c r="F760" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/stadtwerk/fullstack-entwicklerin-kiel-462938</t>
+        </is>
+      </c>
+      <c r="G760" t="inlineStr"/>
+      <c r="H760" t="inlineStr"/>
+      <c r="I760" t="inlineStr"/>
+      <c r="J760" t="inlineStr"/>
+      <c r="K760" t="inlineStr"/>
+      <c r="L760" t="inlineStr"/>
+      <c r="M760" t="inlineStr"/>
+      <c r="N760" t="inlineStr"/>
+      <c r="O760" t="inlineStr"/>
+      <c r="P760" t="inlineStr"/>
+      <c r="Q760" t="inlineStr"/>
+      <c r="R760" t="inlineStr"/>
+    </row>
+    <row r="761">
+      <c r="A761" t="n">
+        <v>760</v>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>Trainee Product Manager (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C761" t="inlineStr">
+        <is>
+          <t>Digitale Leute | Blue Ocean Media Gmbh</t>
+        </is>
+      </c>
+      <c r="D761" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E761" t="b">
+        <v>0</v>
+      </c>
+      <c r="F761" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/digitale-leute-blue-ocean-media-gmbh/trainee-product-manager-cologne-197080</t>
+        </is>
+      </c>
+      <c r="G761" t="inlineStr"/>
+      <c r="H761" t="inlineStr"/>
+      <c r="I761" t="inlineStr"/>
+      <c r="J761" t="inlineStr"/>
+      <c r="K761" t="inlineStr"/>
+      <c r="L761" t="inlineStr"/>
+      <c r="M761" t="inlineStr"/>
+      <c r="N761" t="inlineStr"/>
+      <c r="O761" t="inlineStr"/>
+      <c r="P761" t="inlineStr"/>
+      <c r="Q761" t="inlineStr"/>
+      <c r="R761" t="inlineStr"/>
+    </row>
+    <row r="762">
+      <c r="A762" t="n">
+        <v>761</v>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>Kreditexperte/ Kreditexpertin (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>Jobsmatter</t>
+        </is>
+      </c>
+      <c r="D762" t="inlineStr">
+        <is>
+          <t>Münster</t>
+        </is>
+      </c>
+      <c r="E762" t="b">
+        <v>0</v>
+      </c>
+      <c r="F762" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/jobsmatter/kreditexperte-kreditexpertin-munster-160763</t>
+        </is>
+      </c>
+      <c r="G762" t="inlineStr"/>
+      <c r="H762" t="inlineStr"/>
+      <c r="I762" t="inlineStr"/>
+      <c r="J762" t="inlineStr"/>
+      <c r="K762" t="inlineStr"/>
+      <c r="L762" t="inlineStr"/>
+      <c r="M762" t="inlineStr"/>
+      <c r="N762" t="inlineStr"/>
+      <c r="O762" t="inlineStr"/>
+      <c r="P762" t="inlineStr"/>
+      <c r="Q762" t="inlineStr"/>
+      <c r="R762" t="inlineStr"/>
+    </row>
+    <row r="763">
+      <c r="A763" t="n">
+        <v>762</v>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>Trainee Product Manager (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>Digitale Leute | Blue Ocean Media Gmbh</t>
+        </is>
+      </c>
+      <c r="D763" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E763" t="b">
+        <v>0</v>
+      </c>
+      <c r="F763" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/digitale-leute-blue-ocean-media-gmbh/trainee-product-manager-berlin-284242</t>
+        </is>
+      </c>
+      <c r="G763" t="inlineStr"/>
+      <c r="H763" t="inlineStr"/>
+      <c r="I763" t="inlineStr"/>
+      <c r="J763" t="inlineStr"/>
+      <c r="K763" t="inlineStr"/>
+      <c r="L763" t="inlineStr"/>
+      <c r="M763" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N763" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O763" t="n">
+        <v>70</v>
+      </c>
+      <c r="P763" t="inlineStr"/>
+      <c r="Q763" t="inlineStr"/>
+      <c r="R763" t="inlineStr"/>
+    </row>
+    <row r="764">
+      <c r="A764" t="n">
+        <v>763</v>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>Trainee Product Manager (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>Digitale Leute | Blue Ocean Media Gmbh</t>
+        </is>
+      </c>
+      <c r="D764" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="E764" t="b">
+        <v>0</v>
+      </c>
+      <c r="F764" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/digitale-leute-blue-ocean-media-gmbh/trainee-product-manager-munich-116323</t>
+        </is>
+      </c>
+      <c r="G764" t="inlineStr"/>
+      <c r="H764" t="inlineStr"/>
+      <c r="I764" t="inlineStr"/>
+      <c r="J764" t="inlineStr"/>
+      <c r="K764" t="inlineStr"/>
+      <c r="L764" t="inlineStr"/>
+      <c r="M764" t="inlineStr"/>
+      <c r="N764" t="inlineStr"/>
+      <c r="O764" t="inlineStr"/>
+      <c r="P764" t="inlineStr"/>
+      <c r="Q764" t="inlineStr"/>
+      <c r="R764" t="inlineStr"/>
+    </row>
+    <row r="765">
+      <c r="A765" t="n">
+        <v>764</v>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>Trainee Product Manager (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t>Digitale Leute | Blue Ocean Media Gmbh</t>
+        </is>
+      </c>
+      <c r="D765" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E765" t="b">
+        <v>1</v>
+      </c>
+      <c r="F765" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/digitale-leute-blue-ocean-media-gmbh/trainee-product-manager-cologne-202315</t>
+        </is>
+      </c>
+      <c r="G765" t="inlineStr"/>
+      <c r="H765" t="inlineStr"/>
+      <c r="I765" t="inlineStr"/>
+      <c r="J765" t="inlineStr"/>
+      <c r="K765" t="inlineStr"/>
+      <c r="L765" t="inlineStr"/>
+      <c r="M765" t="inlineStr"/>
+      <c r="N765" t="inlineStr"/>
+      <c r="O765" t="inlineStr"/>
+      <c r="P765" t="inlineStr"/>
+      <c r="Q765" t="inlineStr"/>
+      <c r="R765" t="inlineStr"/>
+    </row>
+    <row r="766">
+      <c r="A766" t="n">
+        <v>765</v>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>Trainee Product Manager (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C766" t="inlineStr">
+        <is>
+          <t>Digitale Leute | Blue Ocean Media Gmbh</t>
+        </is>
+      </c>
+      <c r="D766" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E766" t="b">
+        <v>0</v>
+      </c>
+      <c r="F766" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/digitale-leute-blue-ocean-media-gmbh/trainee-product-manager-hamburg-282111</t>
+        </is>
+      </c>
+      <c r="G766" t="inlineStr"/>
+      <c r="H766" t="inlineStr"/>
+      <c r="I766" t="inlineStr"/>
+      <c r="J766" t="inlineStr"/>
+      <c r="K766" t="inlineStr"/>
+      <c r="L766" t="inlineStr"/>
+      <c r="M766" t="inlineStr"/>
+      <c r="N766" t="inlineStr"/>
+      <c r="O766" t="inlineStr"/>
+      <c r="P766" t="inlineStr"/>
+      <c r="Q766" t="inlineStr"/>
+      <c r="R766" t="inlineStr"/>
+    </row>
+    <row r="767">
+      <c r="A767" t="n">
+        <v>766</v>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>Technischer Zeicher (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C767" t="inlineStr">
+        <is>
+          <t>Stock - B.I.G. Gmbh</t>
+        </is>
+      </c>
+      <c r="D767" t="inlineStr">
+        <is>
+          <t>Siek</t>
+        </is>
+      </c>
+      <c r="E767" t="b">
+        <v>1</v>
+      </c>
+      <c r="F767" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/stock-big-gmbh/technischer-zeicher-siek-381851</t>
+        </is>
+      </c>
+      <c r="G767" t="inlineStr"/>
+      <c r="H767" t="inlineStr"/>
+      <c r="I767" t="inlineStr"/>
+      <c r="J767" t="inlineStr"/>
+      <c r="K767" t="inlineStr"/>
+      <c r="L767" t="inlineStr"/>
+      <c r="M767" t="inlineStr"/>
+      <c r="N767" t="inlineStr"/>
+      <c r="O767" t="inlineStr"/>
+      <c r="P767" t="inlineStr"/>
+      <c r="Q767" t="inlineStr"/>
+      <c r="R767" t="inlineStr"/>
+    </row>
+    <row r="768">
+      <c r="A768" t="n">
+        <v>767</v>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>Vermögensberaterin ESG (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C768" t="inlineStr">
+        <is>
+          <t>Die Matcherin - Marie Kornhoff</t>
+        </is>
+      </c>
+      <c r="D768" t="inlineStr">
+        <is>
+          <t>Bonn</t>
+        </is>
+      </c>
+      <c r="E768" t="b">
+        <v>0</v>
+      </c>
+      <c r="F768" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/die-matcherin-marie-kornhoff/vermogensberaterin-esg-bonn-332066</t>
+        </is>
+      </c>
+      <c r="G768" t="inlineStr"/>
+      <c r="H768" t="inlineStr"/>
+      <c r="I768" t="inlineStr"/>
+      <c r="J768" t="inlineStr"/>
+      <c r="K768" t="inlineStr"/>
+      <c r="L768" t="inlineStr"/>
+      <c r="M768" t="inlineStr"/>
+      <c r="N768" t="inlineStr"/>
+      <c r="O768" t="inlineStr"/>
+      <c r="P768" t="inlineStr"/>
+      <c r="Q768" t="inlineStr"/>
+      <c r="R768" t="inlineStr"/>
+    </row>
+    <row r="769">
+      <c r="A769" t="n">
+        <v>768</v>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>Systemadministrator:in im Außendienst (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C769" t="inlineStr">
+        <is>
+          <t>Frings Solutions Deutschland Gmbh</t>
+        </is>
+      </c>
+      <c r="D769" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E769" t="b">
+        <v>0</v>
+      </c>
+      <c r="F769" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/frings-solutions-deutschland-gmbh/systemadministratorin-im-aussendienst-hamburg-226679</t>
+        </is>
+      </c>
+      <c r="G769" t="inlineStr"/>
+      <c r="H769" t="inlineStr"/>
+      <c r="I769" t="inlineStr"/>
+      <c r="J769" t="inlineStr"/>
+      <c r="K769" t="inlineStr"/>
+      <c r="L769" t="inlineStr"/>
+      <c r="M769" t="inlineStr"/>
+      <c r="N769" t="inlineStr"/>
+      <c r="O769" t="inlineStr"/>
+      <c r="P769" t="inlineStr"/>
+      <c r="Q769" t="inlineStr"/>
+      <c r="R769" t="inlineStr"/>
+    </row>
+    <row r="770">
+      <c r="A770" t="n">
+        <v>769</v>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>Projektleiter Industriebau (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C770" t="inlineStr">
+        <is>
+          <t>Die Matcherin - Marie Kornhoff</t>
+        </is>
+      </c>
+      <c r="D770" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E770" t="b">
+        <v>1</v>
+      </c>
+      <c r="F770" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/die-matcherin-marie-kornhoff/projektleiter-industriebau-cologne-27449</t>
+        </is>
+      </c>
+      <c r="G770" t="inlineStr"/>
+      <c r="H770" t="inlineStr"/>
+      <c r="I770" t="inlineStr"/>
+      <c r="J770" t="inlineStr"/>
+      <c r="K770" t="inlineStr"/>
+      <c r="L770" t="inlineStr"/>
+      <c r="M770" t="inlineStr"/>
+      <c r="N770" t="inlineStr"/>
+      <c r="O770" t="inlineStr"/>
+      <c r="P770" t="inlineStr"/>
+      <c r="Q770" t="inlineStr"/>
+      <c r="R770" t="inlineStr"/>
+    </row>
+    <row r="771">
+      <c r="A771" t="n">
+        <v>770</v>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>(Senior) Consultant (m/w/d) für IT Transformation</t>
+        </is>
+      </c>
+      <c r="C771" t="inlineStr">
+        <is>
+          <t>Sirius Consulting &amp; Training Gmbh</t>
+        </is>
+      </c>
+      <c r="D771" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E771" t="b">
+        <v>1</v>
+      </c>
+      <c r="F771" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/sirius-consulting-training-gmbh/senior-consultant-fur-it-transformation-frankfurt-398713</t>
+        </is>
+      </c>
+      <c r="G771" t="inlineStr"/>
+      <c r="H771" t="inlineStr"/>
+      <c r="I771" t="inlineStr"/>
+      <c r="J771" t="inlineStr"/>
+      <c r="K771" t="inlineStr"/>
+      <c r="L771" t="inlineStr"/>
+      <c r="M771" t="inlineStr"/>
+      <c r="N771" t="inlineStr"/>
+      <c r="O771" t="inlineStr"/>
+      <c r="P771" t="inlineStr"/>
+      <c r="Q771" t="inlineStr"/>
+      <c r="R771" t="inlineStr"/>
+    </row>
+    <row r="772">
+      <c r="A772" t="n">
+        <v>771</v>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>Mitarbeiter Innendienst (m/w/d) - Flexibles Arbeiten + HO-Möglichkeit 2.300 - 2.700€ p.a.</t>
+        </is>
+      </c>
+      <c r="C772" t="inlineStr">
+        <is>
+          <t>Riverstate Premium Recruiting</t>
+        </is>
+      </c>
+      <c r="D772" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E772" t="b">
+        <v>0</v>
+      </c>
+      <c r="F772" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/riverstate-premium-recruiting/mitarbeiter-innendienst-flexibles-arbeiten-ho-moglichkeit-2300-2700eur-pa-cologne-20960</t>
+        </is>
+      </c>
+      <c r="G772" t="inlineStr"/>
+      <c r="H772" t="inlineStr"/>
+      <c r="I772" t="inlineStr"/>
+      <c r="J772" t="inlineStr"/>
+      <c r="K772" t="inlineStr"/>
+      <c r="L772" t="inlineStr"/>
+      <c r="M772" t="inlineStr"/>
+      <c r="N772" t="inlineStr"/>
+      <c r="O772" t="inlineStr"/>
+      <c r="P772" t="inlineStr"/>
+      <c r="Q772" t="inlineStr"/>
+      <c r="R772" t="inlineStr"/>
+    </row>
+    <row r="773">
+      <c r="A773" t="n">
+        <v>772</v>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>Werkstudent (m/w/d) im Bereich QA &amp; Entwicklung</t>
+        </is>
+      </c>
+      <c r="C773" t="inlineStr">
+        <is>
+          <t>Garoma Gmbh</t>
+        </is>
+      </c>
+      <c r="D773" t="inlineStr">
+        <is>
+          <t>Karlsruhe</t>
+        </is>
+      </c>
+      <c r="E773" t="b">
+        <v>1</v>
+      </c>
+      <c r="F773" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/garoma-gmbh/werkstudent-im-bereich-qa-entwicklung-karlsruhe-3818</t>
+        </is>
+      </c>
+      <c r="G773" t="inlineStr"/>
+      <c r="H773" t="inlineStr"/>
+      <c r="I773" t="inlineStr"/>
+      <c r="J773" t="inlineStr"/>
+      <c r="K773" t="inlineStr"/>
+      <c r="L773" t="inlineStr"/>
+      <c r="M773" t="inlineStr"/>
+      <c r="N773" t="inlineStr"/>
+      <c r="O773" t="inlineStr"/>
+      <c r="P773" t="inlineStr"/>
+      <c r="Q773" t="inlineStr"/>
+      <c r="R773" t="inlineStr"/>
+    </row>
+    <row r="774">
+      <c r="A774" t="n">
+        <v>773</v>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>Stellv. Leiter Finanz- und Rechnungswesen</t>
+        </is>
+      </c>
+      <c r="C774" t="inlineStr">
+        <is>
+          <t>Bridger</t>
+        </is>
+      </c>
+      <c r="D774" t="inlineStr">
+        <is>
+          <t>Lohne</t>
+        </is>
+      </c>
+      <c r="E774" t="b">
+        <v>0</v>
+      </c>
+      <c r="F774" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/bridger/stellv-leiter-finanz-und-rechnungswesen-lohne-198884</t>
+        </is>
+      </c>
+      <c r="G774" t="inlineStr"/>
+      <c r="H774" t="inlineStr"/>
+      <c r="I774" t="inlineStr"/>
+      <c r="J774" t="inlineStr"/>
+      <c r="K774" t="inlineStr"/>
+      <c r="L774" t="inlineStr"/>
+      <c r="M774" t="inlineStr"/>
+      <c r="N774" t="inlineStr"/>
+      <c r="O774" t="inlineStr"/>
+      <c r="P774" t="inlineStr"/>
+      <c r="Q774" t="inlineStr"/>
+      <c r="R774" t="inlineStr"/>
+    </row>
+    <row r="775">
+      <c r="A775" t="n">
+        <v>774</v>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>Reinzeichner (m/w/d) in Vollzeit</t>
+        </is>
+      </c>
+      <c r="C775" t="inlineStr">
+        <is>
+          <t>United Labels Ag</t>
+        </is>
+      </c>
+      <c r="D775" t="inlineStr">
+        <is>
+          <t>Münster</t>
+        </is>
+      </c>
+      <c r="E775" t="b">
+        <v>0</v>
+      </c>
+      <c r="F775" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/united-labels-ag/reinzeichner-in-vollzeit-munster-429046</t>
+        </is>
+      </c>
+      <c r="G775" t="inlineStr"/>
+      <c r="H775" t="inlineStr"/>
+      <c r="I775" t="inlineStr"/>
+      <c r="J775" t="inlineStr"/>
+      <c r="K775" t="inlineStr"/>
+      <c r="L775" t="inlineStr"/>
+      <c r="M775" t="inlineStr"/>
+      <c r="N775" t="inlineStr"/>
+      <c r="O775" t="inlineStr"/>
+      <c r="P775" t="inlineStr"/>
+      <c r="Q775" t="inlineStr"/>
+      <c r="R775" t="inlineStr"/>
+    </row>
+    <row r="776">
+      <c r="A776" t="n">
+        <v>775</v>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>Software Engineer Python</t>
+        </is>
+      </c>
+      <c r="C776" t="inlineStr">
+        <is>
+          <t>Simi Reality Motion Systems Gmbh</t>
+        </is>
+      </c>
+      <c r="D776" t="inlineStr">
+        <is>
+          <t>Unterschleißheim</t>
+        </is>
+      </c>
+      <c r="E776" t="b">
+        <v>0</v>
+      </c>
+      <c r="F776" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/simi-reality-motion-systems-gmbh/software-engineer-python-unterschleissheim-114996</t>
+        </is>
+      </c>
+      <c r="G776" t="inlineStr"/>
+      <c r="H776" t="inlineStr"/>
+      <c r="I776" t="inlineStr"/>
+      <c r="J776" t="inlineStr"/>
+      <c r="K776" t="inlineStr"/>
+      <c r="L776" t="inlineStr"/>
+      <c r="M776" t="inlineStr"/>
+      <c r="N776" t="inlineStr"/>
+      <c r="O776" t="inlineStr"/>
+      <c r="P776" t="inlineStr"/>
+      <c r="Q776" t="inlineStr"/>
+      <c r="R776" t="inlineStr"/>
+    </row>
+    <row r="777">
+      <c r="A777" t="n">
+        <v>776</v>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>Prüfungsleiter Audit / Wirtschaftsprüfung (m/w/d/)</t>
+        </is>
+      </c>
+      <c r="C777" t="inlineStr">
+        <is>
+          <t>Advanta Gmbh Wirtschaftsprüfungsgesellschaft</t>
+        </is>
+      </c>
+      <c r="D777" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E777" t="b">
+        <v>0</v>
+      </c>
+      <c r="F777" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/advanta-gmbh-wirtschaftsprufungsgesellschaft/prufungsleiter-audit-wirtschaftsprufung-frankfurt-481024</t>
+        </is>
+      </c>
+      <c r="G777" t="inlineStr"/>
+      <c r="H777" t="inlineStr"/>
+      <c r="I777" t="inlineStr"/>
+      <c r="J777" t="inlineStr"/>
+      <c r="K777" t="inlineStr"/>
+      <c r="L777" t="inlineStr"/>
+      <c r="M777" t="inlineStr"/>
+      <c r="N777" t="inlineStr"/>
+      <c r="O777" t="inlineStr"/>
+      <c r="P777" t="inlineStr"/>
+      <c r="Q777" t="inlineStr"/>
+      <c r="R777" t="inlineStr"/>
+    </row>
+    <row r="778">
+      <c r="A778" t="n">
+        <v>777</v>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>Steuerfachangestellter / Buchhalter (m/d/w)</t>
+        </is>
+      </c>
+      <c r="C778" t="inlineStr">
+        <is>
+          <t>Prime Hr Agentur®</t>
+        </is>
+      </c>
+      <c r="D778" t="inlineStr">
+        <is>
+          <t>Ingolstadt</t>
+        </is>
+      </c>
+      <c r="E778" t="b">
+        <v>0</v>
+      </c>
+      <c r="F778" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/prime-hr-agentur/steuerfachangestellter-buchhalter-ingolstadt-360476</t>
+        </is>
+      </c>
+      <c r="G778" t="inlineStr"/>
+      <c r="H778" t="inlineStr"/>
+      <c r="I778" t="inlineStr"/>
+      <c r="J778" t="inlineStr"/>
+      <c r="K778" t="inlineStr"/>
+      <c r="L778" t="inlineStr"/>
+      <c r="M778" t="inlineStr"/>
+      <c r="N778" t="inlineStr"/>
+      <c r="O778" t="inlineStr"/>
+      <c r="P778" t="inlineStr"/>
+      <c r="Q778" t="inlineStr"/>
+      <c r="R778" t="inlineStr"/>
+    </row>
+    <row r="779">
+      <c r="A779" t="n">
+        <v>778</v>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>Steuerfachangestellter / Buchhalter (m/d/w)</t>
+        </is>
+      </c>
+      <c r="C779" t="inlineStr">
+        <is>
+          <t>Prime Hr Agentur®</t>
+        </is>
+      </c>
+      <c r="D779" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="E779" t="b">
+        <v>0</v>
+      </c>
+      <c r="F779" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/prime-hr-agentur/steuerfachangestellter-buchhalter-augsburg-396291</t>
+        </is>
+      </c>
+      <c r="G779" t="inlineStr"/>
+      <c r="H779" t="inlineStr"/>
+      <c r="I779" t="inlineStr"/>
+      <c r="J779" t="inlineStr"/>
+      <c r="K779" t="inlineStr"/>
+      <c r="L779" t="inlineStr"/>
+      <c r="M779" t="inlineStr"/>
+      <c r="N779" t="inlineStr"/>
+      <c r="O779" t="inlineStr"/>
+      <c r="P779" t="inlineStr"/>
+      <c r="Q779" t="inlineStr"/>
+      <c r="R779" t="inlineStr"/>
+    </row>
+    <row r="780">
+      <c r="A780" t="n">
+        <v>779</v>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>Service-Assistent/in (m/w/d), befristet für 2 Jahre</t>
+        </is>
+      </c>
+      <c r="C780" t="inlineStr">
+        <is>
+          <t>Stellantis &amp;You Deutschland Gmbh</t>
+        </is>
+      </c>
+      <c r="D780" t="inlineStr">
+        <is>
+          <t>Wiesbaden</t>
+        </is>
+      </c>
+      <c r="E780" t="b">
+        <v>0</v>
+      </c>
+      <c r="F780" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/stellantis-you-deutschland-gmbh/service-assistent-in-befristet-fur-2-jahre-wiesbaden-431465</t>
+        </is>
+      </c>
+      <c r="G780" t="inlineStr"/>
+      <c r="H780" t="inlineStr"/>
+      <c r="I780" t="inlineStr"/>
+      <c r="J780" t="inlineStr"/>
+      <c r="K780" t="inlineStr"/>
+      <c r="L780" t="inlineStr"/>
+      <c r="M780" t="inlineStr"/>
+      <c r="N780" t="inlineStr"/>
+      <c r="O780" t="inlineStr"/>
+      <c r="P780" t="inlineStr"/>
+      <c r="Q780" t="inlineStr"/>
+      <c r="R780" t="inlineStr"/>
+    </row>
+    <row r="781">
+      <c r="A781" t="n">
+        <v>780</v>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>Search Consultants (All Genders) - Hamburg</t>
+        </is>
+      </c>
+      <c r="C781" t="inlineStr">
+        <is>
+          <t>Digitl Gmbh</t>
+        </is>
+      </c>
+      <c r="D781" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E781" t="b">
+        <v>0</v>
+      </c>
+      <c r="F781" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/digitl-gmbh/search-consultants-all-genders-hamburg-12231</t>
+        </is>
+      </c>
+      <c r="G781" t="inlineStr"/>
+      <c r="H781" t="inlineStr"/>
+      <c r="I781" t="inlineStr"/>
+      <c r="J781" t="inlineStr"/>
+      <c r="K781" t="inlineStr"/>
+      <c r="L781" t="inlineStr"/>
+      <c r="M781" t="inlineStr"/>
+      <c r="N781" t="inlineStr"/>
+      <c r="O781" t="inlineStr"/>
+      <c r="P781" t="inlineStr"/>
+      <c r="Q781" t="inlineStr"/>
+      <c r="R781" t="inlineStr"/>
+    </row>
+    <row r="782">
+      <c r="A782" t="n">
+        <v>781</v>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>Search Consultants (All Genders) - Munich</t>
+        </is>
+      </c>
+      <c r="C782" t="inlineStr">
+        <is>
+          <t>Digitl Gmbh</t>
+        </is>
+      </c>
+      <c r="D782" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="E782" t="b">
+        <v>0</v>
+      </c>
+      <c r="F782" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/digitl-gmbh/search-consultants-all-genders-munich-73212</t>
+        </is>
+      </c>
+      <c r="G782" t="inlineStr"/>
+      <c r="H782" t="inlineStr"/>
+      <c r="I782" t="inlineStr"/>
+      <c r="J782" t="inlineStr"/>
+      <c r="K782" t="inlineStr"/>
+      <c r="L782" t="inlineStr"/>
+      <c r="M782" t="inlineStr"/>
+      <c r="N782" t="inlineStr"/>
+      <c r="O782" t="inlineStr"/>
+      <c r="P782" t="inlineStr"/>
+      <c r="Q782" t="inlineStr"/>
+      <c r="R782" t="inlineStr"/>
+    </row>
+    <row r="783">
+      <c r="A783" t="n">
+        <v>782</v>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>Sachbearbeiter Buchhaltung (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C783" t="inlineStr">
+        <is>
+          <t>Think About It Gmbh</t>
+        </is>
+      </c>
+      <c r="D783" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="E783" t="b">
+        <v>0</v>
+      </c>
+      <c r="F783" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/think-about-it-gmbh/sachbearbeiter-buchhaltung-bochum-29105</t>
+        </is>
+      </c>
+      <c r="G783" t="inlineStr"/>
+      <c r="H783" t="inlineStr"/>
+      <c r="I783" t="inlineStr"/>
+      <c r="J783" t="inlineStr"/>
+      <c r="K783" t="inlineStr"/>
+      <c r="L783" t="inlineStr"/>
+      <c r="M783" t="inlineStr"/>
+      <c r="N783" t="inlineStr"/>
+      <c r="O783" t="inlineStr"/>
+      <c r="P783" t="inlineStr"/>
+      <c r="Q783" t="inlineStr"/>
+      <c r="R783" t="inlineStr"/>
+    </row>
+    <row r="784">
+      <c r="A784" t="n">
+        <v>783</v>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>IT Administrator (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C784" t="inlineStr">
+        <is>
+          <t>Enloc</t>
+        </is>
+      </c>
+      <c r="D784" t="inlineStr">
+        <is>
+          <t>Dresden</t>
+        </is>
+      </c>
+      <c r="E784" t="b">
+        <v>0</v>
+      </c>
+      <c r="F784" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/enloc/it-administrator-dresden-357487</t>
+        </is>
+      </c>
+      <c r="G784" t="inlineStr"/>
+      <c r="H784" t="inlineStr"/>
+      <c r="I784" t="inlineStr"/>
+      <c r="J784" t="inlineStr"/>
+      <c r="K784" t="inlineStr"/>
+      <c r="L784" t="inlineStr"/>
+      <c r="M784" t="inlineStr"/>
+      <c r="N784" t="inlineStr"/>
+      <c r="O784" t="inlineStr"/>
+      <c r="P784" t="inlineStr"/>
+      <c r="Q784" t="inlineStr"/>
+      <c r="R784" t="inlineStr"/>
+    </row>
+    <row r="785">
+      <c r="A785" t="n">
+        <v>784</v>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>Senior Elektroingenieur (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C785" t="inlineStr">
+        <is>
+          <t>Kopani Consulting Gmbh</t>
+        </is>
+      </c>
+      <c r="D785" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E785" t="b">
+        <v>0</v>
+      </c>
+      <c r="F785" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/kopani-consulting-gmbh/senior-elektroingenieur-hamburg-149664</t>
+        </is>
+      </c>
+      <c r="G785" t="inlineStr"/>
+      <c r="H785" t="inlineStr"/>
+      <c r="I785" t="inlineStr"/>
+      <c r="J785" t="inlineStr"/>
+      <c r="K785" t="inlineStr"/>
+      <c r="L785" t="inlineStr"/>
+      <c r="M785" t="inlineStr"/>
+      <c r="N785" t="inlineStr"/>
+      <c r="O785" t="inlineStr"/>
+      <c r="P785" t="inlineStr"/>
+      <c r="Q785" t="inlineStr"/>
+      <c r="R785" t="inlineStr"/>
+    </row>
+    <row r="786">
+      <c r="A786" t="n">
+        <v>785</v>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>Werkstudent/ Pflichtpraktikant Customer Support (all genders)</t>
+        </is>
+      </c>
+      <c r="C786" t="inlineStr">
+        <is>
+          <t>Synaos Gmbh</t>
+        </is>
+      </c>
+      <c r="D786" t="inlineStr">
+        <is>
+          <t>Hanover</t>
+        </is>
+      </c>
+      <c r="E786" t="b">
+        <v>1</v>
+      </c>
+      <c r="F786" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/synaos-gmbh/werkstudent-pflichtpraktikant-customer-support-all-genders-hanover-142055</t>
+        </is>
+      </c>
+      <c r="G786" t="inlineStr"/>
+      <c r="H786" t="inlineStr"/>
+      <c r="I786" t="inlineStr"/>
+      <c r="J786" t="inlineStr"/>
+      <c r="K786" t="inlineStr"/>
+      <c r="L786" t="inlineStr"/>
+      <c r="M786" t="inlineStr"/>
+      <c r="N786" t="inlineStr"/>
+      <c r="O786" t="inlineStr"/>
+      <c r="P786" t="inlineStr"/>
+      <c r="Q786" t="inlineStr"/>
+      <c r="R786" t="inlineStr"/>
+    </row>
+    <row r="787">
+      <c r="A787" t="n">
+        <v>786</v>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>Groß- und Außenhandelskaufmann - Elektrotechnik (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C787" t="inlineStr">
+        <is>
+          <t>Eltrok Elektrotechnik Gmbh &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="D787" t="inlineStr">
+        <is>
+          <t>Erfurt</t>
+        </is>
+      </c>
+      <c r="E787" t="b">
+        <v>0</v>
+      </c>
+      <c r="F787" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/eltrok-elektrotechnik-gmbh-co-kg/gross-und-aussenhandelskaufmann-elektrotechnik-erfurt-57527</t>
+        </is>
+      </c>
+      <c r="G787" t="inlineStr"/>
+      <c r="H787" t="inlineStr"/>
+      <c r="I787" t="inlineStr"/>
+      <c r="J787" t="inlineStr"/>
+      <c r="K787" t="inlineStr"/>
+      <c r="L787" t="inlineStr"/>
+      <c r="M787" t="inlineStr"/>
+      <c r="N787" t="inlineStr"/>
+      <c r="O787" t="inlineStr"/>
+      <c r="P787" t="inlineStr"/>
+      <c r="Q787" t="inlineStr"/>
+      <c r="R787" t="inlineStr"/>
+    </row>
+    <row r="788">
+      <c r="A788" t="n">
+        <v>787</v>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>Entgeltabrechner (w/m/d) mit Homeoffice und 35-Stunden-Woche</t>
+        </is>
+      </c>
+      <c r="C788" t="inlineStr">
+        <is>
+          <t>Fischer &amp; Partner Gesellschaft Für Personal Mbh</t>
+        </is>
+      </c>
+      <c r="D788" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E788" t="b">
+        <v>0</v>
+      </c>
+      <c r="F788" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/fischer-partner-gesellschaft-fur-personal-mbh/entgeltabrechner-mit-homeoffice-und-35-stunden-woche-stuttgart-36661</t>
+        </is>
+      </c>
+      <c r="G788" t="inlineStr"/>
+      <c r="H788" t="inlineStr"/>
+      <c r="I788" t="inlineStr"/>
+      <c r="J788" t="inlineStr"/>
+      <c r="K788" t="inlineStr"/>
+      <c r="L788" t="inlineStr"/>
+      <c r="M788" t="inlineStr"/>
+      <c r="N788" t="inlineStr"/>
+      <c r="O788" t="inlineStr"/>
+      <c r="P788" t="inlineStr"/>
+      <c r="Q788" t="inlineStr"/>
+      <c r="R788" t="inlineStr"/>
+    </row>
+    <row r="789">
+      <c r="A789" t="n">
+        <v>788</v>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>Investment Manager Capital Markets (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C789" t="inlineStr">
+        <is>
+          <t>3E Capital Group</t>
+        </is>
+      </c>
+      <c r="D789" t="inlineStr">
+        <is>
+          <t>Düsseldorf</t>
+        </is>
+      </c>
+      <c r="E789" t="b">
+        <v>0</v>
+      </c>
+      <c r="F789" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/3e-capital-group/investment-manager-capital-markets-dusseldorf-375590</t>
+        </is>
+      </c>
+      <c r="G789" t="inlineStr"/>
+      <c r="H789" t="inlineStr"/>
+      <c r="I789" t="inlineStr"/>
+      <c r="J789" t="inlineStr"/>
+      <c r="K789" t="inlineStr"/>
+      <c r="L789" t="inlineStr"/>
+      <c r="M789" t="inlineStr"/>
+      <c r="N789" t="inlineStr"/>
+      <c r="O789" t="inlineStr"/>
+      <c r="P789" t="inlineStr"/>
+      <c r="Q789" t="inlineStr"/>
+      <c r="R789" t="inlineStr"/>
+    </row>
+    <row r="790">
+      <c r="A790" t="n">
+        <v>789</v>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>In 30 Sekunden bewerben - Account Manager (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C790" t="inlineStr">
+        <is>
+          <t>Efly Marketplace Services Gmbh</t>
+        </is>
+      </c>
+      <c r="D790" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E790" t="b">
+        <v>0</v>
+      </c>
+      <c r="F790" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/efly-marketplace-services-gmbh/in-30-sekunden-bewerben-account-manager-stuttgart-93518</t>
+        </is>
+      </c>
+      <c r="G790" t="inlineStr"/>
+      <c r="H790" t="inlineStr"/>
+      <c r="I790" t="inlineStr"/>
+      <c r="J790" t="inlineStr"/>
+      <c r="K790" t="inlineStr"/>
+      <c r="L790" t="inlineStr"/>
+      <c r="M790" t="inlineStr"/>
+      <c r="N790" t="inlineStr"/>
+      <c r="O790" t="inlineStr"/>
+      <c r="P790" t="inlineStr"/>
+      <c r="Q790" t="inlineStr"/>
+      <c r="R790" t="inlineStr"/>
+    </row>
+    <row r="791">
+      <c r="A791" t="n">
+        <v>790</v>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>Grafikdesigner (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C791" t="inlineStr">
+        <is>
+          <t>Efly Marketplace Services Gmbh</t>
+        </is>
+      </c>
+      <c r="D791" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E791" t="b">
+        <v>0</v>
+      </c>
+      <c r="F791" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/efly-marketplace-services-gmbh/grafikdesigner-stuttgart-107471</t>
+        </is>
+      </c>
+      <c r="G791" t="inlineStr"/>
+      <c r="H791" t="inlineStr"/>
+      <c r="I791" t="inlineStr"/>
+      <c r="J791" t="inlineStr"/>
+      <c r="K791" t="inlineStr"/>
+      <c r="L791" t="inlineStr"/>
+      <c r="M791" t="inlineStr"/>
+      <c r="N791" t="inlineStr"/>
+      <c r="O791" t="inlineStr"/>
+      <c r="P791" t="inlineStr"/>
+      <c r="Q791" t="inlineStr"/>
+      <c r="R791" t="inlineStr"/>
+    </row>
+    <row r="792">
+      <c r="A792" t="n">
+        <v>791</v>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>SAP-Anwendungsbetreuer (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C792" t="inlineStr">
+        <is>
+          <t>Think About It Gmbh</t>
+        </is>
+      </c>
+      <c r="D792" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="E792" t="b">
+        <v>0</v>
+      </c>
+      <c r="F792" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/think-about-it-gmbh/sap-anwendungsbetreuer-bochum-357862</t>
+        </is>
+      </c>
+      <c r="G792" t="inlineStr"/>
+      <c r="H792" t="inlineStr"/>
+      <c r="I792" t="inlineStr"/>
+      <c r="J792" t="inlineStr"/>
+      <c r="K792" t="inlineStr"/>
+      <c r="L792" t="inlineStr"/>
+      <c r="M792" t="inlineStr"/>
+      <c r="N792" t="inlineStr"/>
+      <c r="O792" t="inlineStr"/>
+      <c r="P792" t="inlineStr"/>
+      <c r="Q792" t="inlineStr"/>
+      <c r="R792" t="inlineStr"/>
+    </row>
+    <row r="793">
+      <c r="A793" t="n">
+        <v>792</v>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>Praktikum im Grafikdesign (Remote)</t>
+        </is>
+      </c>
+      <c r="C793" t="inlineStr">
+        <is>
+          <t>Efly Marketplace Services Gmbh</t>
+        </is>
+      </c>
+      <c r="D793" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E793" t="b">
+        <v>0</v>
+      </c>
+      <c r="F793" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/efly-marketplace-services-gmbh/praktikum-im-grafikdesign-remote-stuttgart-338804</t>
+        </is>
+      </c>
+      <c r="G793" t="inlineStr"/>
+      <c r="H793" t="inlineStr"/>
+      <c r="I793" t="inlineStr"/>
+      <c r="J793" t="inlineStr"/>
+      <c r="K793" t="inlineStr"/>
+      <c r="L793" t="inlineStr"/>
+      <c r="M793" t="inlineStr"/>
+      <c r="N793" t="inlineStr"/>
+      <c r="O793" t="inlineStr"/>
+      <c r="P793" t="inlineStr"/>
+      <c r="Q793" t="inlineStr"/>
+      <c r="R793" t="inlineStr"/>
+    </row>
+    <row r="794">
+      <c r="A794" t="n">
+        <v>793</v>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>Werkstudent Grafikdesign (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>Efly Marketplace Services Gmbh</t>
+        </is>
+      </c>
+      <c r="D794" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E794" t="b">
+        <v>0</v>
+      </c>
+      <c r="F794" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/efly-marketplace-services-gmbh/werkstudent-grafikdesign-stuttgart-478314</t>
+        </is>
+      </c>
+      <c r="G794" t="inlineStr"/>
+      <c r="H794" t="inlineStr"/>
+      <c r="I794" t="inlineStr"/>
+      <c r="J794" t="inlineStr"/>
+      <c r="K794" t="inlineStr"/>
+      <c r="L794" t="inlineStr"/>
+      <c r="M794" t="inlineStr"/>
+      <c r="N794" t="inlineStr"/>
+      <c r="O794" t="inlineStr"/>
+      <c r="P794" t="inlineStr"/>
+      <c r="Q794" t="inlineStr"/>
+      <c r="R794" t="inlineStr"/>
+    </row>
+    <row r="795">
+      <c r="A795" t="n">
+        <v>794</v>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>SAP Entwickler (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C795" t="inlineStr">
+        <is>
+          <t>Think About It Gmbh</t>
+        </is>
+      </c>
+      <c r="D795" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="E795" t="b">
+        <v>0</v>
+      </c>
+      <c r="F795" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/think-about-it-gmbh/sap-entwickler-bochum-464250</t>
+        </is>
+      </c>
+      <c r="G795" t="inlineStr"/>
+      <c r="H795" t="inlineStr"/>
+      <c r="I795" t="inlineStr"/>
+      <c r="J795" t="inlineStr"/>
+      <c r="K795" t="inlineStr"/>
+      <c r="L795" t="inlineStr"/>
+      <c r="M795" t="inlineStr"/>
+      <c r="N795" t="inlineStr"/>
+      <c r="O795" t="inlineStr"/>
+      <c r="P795" t="inlineStr"/>
+      <c r="Q795" t="inlineStr"/>
+      <c r="R795" t="inlineStr"/>
+    </row>
+    <row r="796">
+      <c r="A796" t="n">
+        <v>795</v>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>Senior Finance Manager m/w/d</t>
+        </is>
+      </c>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>K11 Consulting Gmbh</t>
+        </is>
+      </c>
+      <c r="D796" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="E796" t="b">
+        <v>0</v>
+      </c>
+      <c r="F796" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/k11-consulting-gmbh/senior-finance-manager-munich-10078</t>
+        </is>
+      </c>
+      <c r="G796" t="inlineStr"/>
+      <c r="H796" t="inlineStr"/>
+      <c r="I796" t="inlineStr"/>
+      <c r="J796" t="inlineStr"/>
+      <c r="K796" t="inlineStr"/>
+      <c r="L796" t="inlineStr"/>
+      <c r="M796" t="inlineStr"/>
+      <c r="N796" t="inlineStr"/>
+      <c r="O796" t="inlineStr"/>
+      <c r="P796" t="inlineStr"/>
+      <c r="Q796" t="inlineStr"/>
+      <c r="R796" t="inlineStr"/>
+    </row>
+    <row r="797">
+      <c r="A797" t="n">
+        <v>796</v>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>IT-Systemelektroniker (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C797" t="inlineStr">
+        <is>
+          <t>Think About It Gmbh</t>
+        </is>
+      </c>
+      <c r="D797" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="E797" t="b">
+        <v>0</v>
+      </c>
+      <c r="F797" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/think-about-it-gmbh/it-systemelektroniker-bochum-406780</t>
+        </is>
+      </c>
+      <c r="G797" t="inlineStr"/>
+      <c r="H797" t="inlineStr"/>
+      <c r="I797" t="inlineStr"/>
+      <c r="J797" t="inlineStr"/>
+      <c r="K797" t="inlineStr"/>
+      <c r="L797" t="inlineStr"/>
+      <c r="M797" t="inlineStr"/>
+      <c r="N797" t="inlineStr"/>
+      <c r="O797" t="inlineStr"/>
+      <c r="P797" t="inlineStr"/>
+      <c r="Q797" t="inlineStr"/>
+      <c r="R797" t="inlineStr"/>
+    </row>
+    <row r="798">
+      <c r="A798" t="n">
+        <v>797</v>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>Online Marketing Manager (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C798" t="inlineStr">
+        <is>
+          <t>Efly Marketplace Services Gmbh</t>
+        </is>
+      </c>
+      <c r="D798" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E798" t="b">
+        <v>0</v>
+      </c>
+      <c r="F798" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/efly-marketplace-services-gmbh/online-marketing-manager-stuttgart-222424</t>
+        </is>
+      </c>
+      <c r="G798" t="inlineStr"/>
+      <c r="H798" t="inlineStr"/>
+      <c r="I798" t="inlineStr"/>
+      <c r="J798" t="inlineStr"/>
+      <c r="K798" t="inlineStr"/>
+      <c r="L798" t="inlineStr"/>
+      <c r="M798" t="inlineStr"/>
+      <c r="N798" t="inlineStr"/>
+      <c r="O798" t="inlineStr"/>
+      <c r="P798" t="inlineStr"/>
+      <c r="Q798" t="inlineStr"/>
+      <c r="R798" t="inlineStr"/>
+    </row>
+    <row r="799">
+      <c r="A799" t="n">
+        <v>798</v>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>Digital Marketing Manager (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C799" t="inlineStr">
+        <is>
+          <t>Efly Marketplace Services Gmbh</t>
+        </is>
+      </c>
+      <c r="D799" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E799" t="b">
+        <v>0</v>
+      </c>
+      <c r="F799" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/efly-marketplace-services-gmbh/digital-marketing-manager-stuttgart-367677</t>
+        </is>
+      </c>
+      <c r="G799" t="inlineStr"/>
+      <c r="H799" t="inlineStr"/>
+      <c r="I799" t="inlineStr"/>
+      <c r="J799" t="inlineStr"/>
+      <c r="K799" t="inlineStr"/>
+      <c r="L799" t="inlineStr"/>
+      <c r="M799" t="inlineStr"/>
+      <c r="N799" t="inlineStr"/>
+      <c r="O799" t="inlineStr"/>
+      <c r="P799" t="inlineStr"/>
+      <c r="Q799" t="inlineStr"/>
+      <c r="R799" t="inlineStr"/>
+    </row>
+    <row r="800">
+      <c r="A800" t="n">
+        <v>799</v>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>IT-Systemadministrator (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C800" t="inlineStr">
+        <is>
+          <t>Think About It Gmbh</t>
+        </is>
+      </c>
+      <c r="D800" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="E800" t="b">
+        <v>0</v>
+      </c>
+      <c r="F800" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/think-about-it-gmbh/it-systemadministrator-bochum-42233</t>
+        </is>
+      </c>
+      <c r="G800" t="inlineStr"/>
+      <c r="H800" t="inlineStr"/>
+      <c r="I800" t="inlineStr"/>
+      <c r="J800" t="inlineStr"/>
+      <c r="K800" t="inlineStr"/>
+      <c r="L800" t="inlineStr"/>
+      <c r="M800" t="inlineStr"/>
+      <c r="N800" t="inlineStr"/>
+      <c r="O800" t="inlineStr"/>
+      <c r="P800" t="inlineStr"/>
+      <c r="Q800" t="inlineStr"/>
+      <c r="R800" t="inlineStr"/>
+    </row>
+    <row r="801">
+      <c r="A801" t="n">
+        <v>800</v>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>Praktikum Marketing Manager (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C801" t="inlineStr">
+        <is>
+          <t>Efly Marketplace Services Gmbh</t>
+        </is>
+      </c>
+      <c r="D801" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E801" t="b">
+        <v>0</v>
+      </c>
+      <c r="F801" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/efly-marketplace-services-gmbh/praktikum-marketing-manager-stuttgart-59640</t>
+        </is>
+      </c>
+      <c r="G801" t="inlineStr"/>
+      <c r="H801" t="inlineStr"/>
+      <c r="I801" t="inlineStr"/>
+      <c r="J801" t="inlineStr"/>
+      <c r="K801" t="inlineStr"/>
+      <c r="L801" t="inlineStr"/>
+      <c r="M801" t="inlineStr"/>
+      <c r="N801" t="inlineStr"/>
+      <c r="O801" t="inlineStr"/>
+      <c r="P801" t="inlineStr"/>
+      <c r="Q801" t="inlineStr"/>
+      <c r="R801" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/static/enriched_data/enriched_data.xlsx
+++ b/src/static/enriched_data/enriched_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R801"/>
+  <dimension ref="A1:R901"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33535,6 +33535,4176 @@
       <c r="Q801" t="inlineStr"/>
       <c r="R801" t="inlineStr"/>
     </row>
+    <row r="802">
+      <c r="A802" t="n">
+        <v>801</v>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>M&amp;E Operations Manager (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C802" t="inlineStr">
+        <is>
+          <t>Radisson Hotel Group</t>
+        </is>
+      </c>
+      <c r="D802" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E802" t="b">
+        <v>0</v>
+      </c>
+      <c r="F802" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/radisson-hotel-group/me-operations-manager-berlin-137670</t>
+        </is>
+      </c>
+      <c r="G802" t="inlineStr"/>
+      <c r="H802" t="inlineStr"/>
+      <c r="I802" t="inlineStr"/>
+      <c r="J802" t="inlineStr"/>
+      <c r="K802" t="inlineStr"/>
+      <c r="L802" t="inlineStr"/>
+      <c r="M802" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N802" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O802" t="n">
+        <v>70</v>
+      </c>
+      <c r="P802" t="inlineStr"/>
+      <c r="Q802" t="inlineStr"/>
+      <c r="R802" t="inlineStr"/>
+    </row>
+    <row r="803">
+      <c r="A803" t="n">
+        <v>802</v>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>SAP GRC &amp; Security Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C803" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D803" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E803" t="b">
+        <v>0</v>
+      </c>
+      <c r="F803" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-grc-security-berater-remote-heidelberg-487134</t>
+        </is>
+      </c>
+      <c r="G803" t="inlineStr"/>
+      <c r="H803" t="inlineStr"/>
+      <c r="I803" t="inlineStr"/>
+      <c r="J803" t="inlineStr"/>
+      <c r="K803" t="inlineStr"/>
+      <c r="L803" t="inlineStr"/>
+      <c r="M803" t="inlineStr"/>
+      <c r="N803" t="inlineStr"/>
+      <c r="O803" t="inlineStr"/>
+      <c r="P803" t="inlineStr"/>
+      <c r="Q803" t="inlineStr"/>
+      <c r="R803" t="inlineStr"/>
+    </row>
+    <row r="804">
+      <c r="A804" t="n">
+        <v>803</v>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>SAP GRC &amp; Security Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C804" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D804" t="inlineStr">
+        <is>
+          <t>Frankfurt am Main</t>
+        </is>
+      </c>
+      <c r="E804" t="b">
+        <v>0</v>
+      </c>
+      <c r="F804" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-grc-security-berater-remote-frankfurt-am-main-1677</t>
+        </is>
+      </c>
+      <c r="G804" t="inlineStr"/>
+      <c r="H804" t="inlineStr"/>
+      <c r="I804" t="inlineStr"/>
+      <c r="J804" t="inlineStr"/>
+      <c r="K804" t="inlineStr"/>
+      <c r="L804" t="inlineStr"/>
+      <c r="M804" t="inlineStr"/>
+      <c r="N804" t="inlineStr"/>
+      <c r="O804" t="inlineStr"/>
+      <c r="P804" t="inlineStr"/>
+      <c r="Q804" t="inlineStr"/>
+      <c r="R804" t="inlineStr"/>
+    </row>
+    <row r="805">
+      <c r="A805" t="n">
+        <v>804</v>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>SAP Solution Manager/Cloud ALM Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C805" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D805" t="inlineStr">
+        <is>
+          <t>Mannheim</t>
+        </is>
+      </c>
+      <c r="E805" t="b">
+        <v>0</v>
+      </c>
+      <c r="F805" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-solution-manager-cloud-alm-berater-remote-mannheim-260590</t>
+        </is>
+      </c>
+      <c r="G805" t="inlineStr"/>
+      <c r="H805" t="inlineStr"/>
+      <c r="I805" t="inlineStr"/>
+      <c r="J805" t="inlineStr"/>
+      <c r="K805" t="inlineStr"/>
+      <c r="L805" t="inlineStr"/>
+      <c r="M805" t="inlineStr"/>
+      <c r="N805" t="inlineStr"/>
+      <c r="O805" t="inlineStr"/>
+      <c r="P805" t="inlineStr"/>
+      <c r="Q805" t="inlineStr"/>
+      <c r="R805" t="inlineStr"/>
+    </row>
+    <row r="806">
+      <c r="A806" t="n">
+        <v>805</v>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>SAP Solution Manager/Cloud ALM Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C806" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D806" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E806" t="b">
+        <v>0</v>
+      </c>
+      <c r="F806" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-solution-manager-cloud-alm-berater-remote-heidelberg-212391</t>
+        </is>
+      </c>
+      <c r="G806" t="inlineStr"/>
+      <c r="H806" t="inlineStr"/>
+      <c r="I806" t="inlineStr"/>
+      <c r="J806" t="inlineStr"/>
+      <c r="K806" t="inlineStr"/>
+      <c r="L806" t="inlineStr"/>
+      <c r="M806" t="inlineStr"/>
+      <c r="N806" t="inlineStr"/>
+      <c r="O806" t="inlineStr"/>
+      <c r="P806" t="inlineStr"/>
+      <c r="Q806" t="inlineStr"/>
+      <c r="R806" t="inlineStr"/>
+    </row>
+    <row r="807">
+      <c r="A807" t="n">
+        <v>806</v>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>SAP Logistik Berater (MM/SD/) (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C807" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D807" t="inlineStr">
+        <is>
+          <t>Frankfurt am Main</t>
+        </is>
+      </c>
+      <c r="E807" t="b">
+        <v>0</v>
+      </c>
+      <c r="F807" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-logistik-berater-mm-sd-remote-frankfurt-am-main-255475</t>
+        </is>
+      </c>
+      <c r="G807" t="inlineStr"/>
+      <c r="H807" t="inlineStr"/>
+      <c r="I807" t="inlineStr"/>
+      <c r="J807" t="inlineStr"/>
+      <c r="K807" t="inlineStr"/>
+      <c r="L807" t="inlineStr"/>
+      <c r="M807" t="inlineStr"/>
+      <c r="N807" t="inlineStr"/>
+      <c r="O807" t="inlineStr"/>
+      <c r="P807" t="inlineStr"/>
+      <c r="Q807" t="inlineStr"/>
+      <c r="R807" t="inlineStr"/>
+    </row>
+    <row r="808">
+      <c r="A808" t="n">
+        <v>807</v>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>SAP Logistik Berater (MM/SD/) (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D808" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E808" t="b">
+        <v>0</v>
+      </c>
+      <c r="F808" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-logistik-berater-mm-sd-remote-cologne-69634</t>
+        </is>
+      </c>
+      <c r="G808" t="inlineStr"/>
+      <c r="H808" t="inlineStr"/>
+      <c r="I808" t="inlineStr"/>
+      <c r="J808" t="inlineStr"/>
+      <c r="K808" t="inlineStr"/>
+      <c r="L808" t="inlineStr"/>
+      <c r="M808" t="inlineStr"/>
+      <c r="N808" t="inlineStr"/>
+      <c r="O808" t="inlineStr"/>
+      <c r="P808" t="inlineStr"/>
+      <c r="Q808" t="inlineStr"/>
+      <c r="R808" t="inlineStr"/>
+    </row>
+    <row r="809">
+      <c r="A809" t="n">
+        <v>808</v>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>SAP Logistik Berater (MM/SD/) (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C809" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D809" t="inlineStr">
+        <is>
+          <t>Mannheim</t>
+        </is>
+      </c>
+      <c r="E809" t="b">
+        <v>0</v>
+      </c>
+      <c r="F809" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-logistik-berater-mm-sd-remote-mannheim-77067</t>
+        </is>
+      </c>
+      <c r="G809" t="inlineStr"/>
+      <c r="H809" t="inlineStr"/>
+      <c r="I809" t="inlineStr"/>
+      <c r="J809" t="inlineStr"/>
+      <c r="K809" t="inlineStr"/>
+      <c r="L809" t="inlineStr"/>
+      <c r="M809" t="inlineStr"/>
+      <c r="N809" t="inlineStr"/>
+      <c r="O809" t="inlineStr"/>
+      <c r="P809" t="inlineStr"/>
+      <c r="Q809" t="inlineStr"/>
+      <c r="R809" t="inlineStr"/>
+    </row>
+    <row r="810">
+      <c r="A810" t="n">
+        <v>809</v>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>SAP Logistik Berater (MM/SD/) (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C810" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D810" t="inlineStr">
+        <is>
+          <t>Düsseldorf</t>
+        </is>
+      </c>
+      <c r="E810" t="b">
+        <v>0</v>
+      </c>
+      <c r="F810" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-logistik-berater-mm-sd-remote-dusseldorf-225440</t>
+        </is>
+      </c>
+      <c r="G810" t="inlineStr"/>
+      <c r="H810" t="inlineStr"/>
+      <c r="I810" t="inlineStr"/>
+      <c r="J810" t="inlineStr"/>
+      <c r="K810" t="inlineStr"/>
+      <c r="L810" t="inlineStr"/>
+      <c r="M810" t="inlineStr"/>
+      <c r="N810" t="inlineStr"/>
+      <c r="O810" t="inlineStr"/>
+      <c r="P810" t="inlineStr"/>
+      <c r="Q810" t="inlineStr"/>
+      <c r="R810" t="inlineStr"/>
+    </row>
+    <row r="811">
+      <c r="A811" t="n">
+        <v>810</v>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>SAP Logistik Berater (MM/SD/) (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C811" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D811" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E811" t="b">
+        <v>0</v>
+      </c>
+      <c r="F811" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-logistik-berater-mm-sd-remote-heidelberg-23573</t>
+        </is>
+      </c>
+      <c r="G811" t="inlineStr"/>
+      <c r="H811" t="inlineStr"/>
+      <c r="I811" t="inlineStr"/>
+      <c r="J811" t="inlineStr"/>
+      <c r="K811" t="inlineStr"/>
+      <c r="L811" t="inlineStr"/>
+      <c r="M811" t="inlineStr"/>
+      <c r="N811" t="inlineStr"/>
+      <c r="O811" t="inlineStr"/>
+      <c r="P811" t="inlineStr"/>
+      <c r="Q811" t="inlineStr"/>
+      <c r="R811" t="inlineStr"/>
+    </row>
+    <row r="812">
+      <c r="A812" t="n">
+        <v>811</v>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>(Senior) SAP HCM Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C812" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D812" t="inlineStr">
+        <is>
+          <t>Düsseldorf</t>
+        </is>
+      </c>
+      <c r="E812" t="b">
+        <v>0</v>
+      </c>
+      <c r="F812" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-sap-hcm-berater-remote-dusseldorf-567</t>
+        </is>
+      </c>
+      <c r="G812" t="inlineStr"/>
+      <c r="H812" t="inlineStr"/>
+      <c r="I812" t="inlineStr"/>
+      <c r="J812" t="inlineStr"/>
+      <c r="K812" t="inlineStr"/>
+      <c r="L812" t="inlineStr"/>
+      <c r="M812" t="inlineStr"/>
+      <c r="N812" t="inlineStr"/>
+      <c r="O812" t="inlineStr"/>
+      <c r="P812" t="inlineStr"/>
+      <c r="Q812" t="inlineStr"/>
+      <c r="R812" t="inlineStr"/>
+    </row>
+    <row r="813">
+      <c r="A813" t="n">
+        <v>812</v>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>(Senior) SAP HCM Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C813" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D813" t="inlineStr">
+        <is>
+          <t>Frankfurt am Main</t>
+        </is>
+      </c>
+      <c r="E813" t="b">
+        <v>0</v>
+      </c>
+      <c r="F813" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-sap-hcm-berater-remote-frankfurt-am-main-462634</t>
+        </is>
+      </c>
+      <c r="G813" t="inlineStr"/>
+      <c r="H813" t="inlineStr"/>
+      <c r="I813" t="inlineStr"/>
+      <c r="J813" t="inlineStr"/>
+      <c r="K813" t="inlineStr"/>
+      <c r="L813" t="inlineStr"/>
+      <c r="M813" t="inlineStr"/>
+      <c r="N813" t="inlineStr"/>
+      <c r="O813" t="inlineStr"/>
+      <c r="P813" t="inlineStr"/>
+      <c r="Q813" t="inlineStr"/>
+      <c r="R813" t="inlineStr"/>
+    </row>
+    <row r="814">
+      <c r="A814" t="n">
+        <v>813</v>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>(Senior) SAP HCM Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C814" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D814" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E814" t="b">
+        <v>0</v>
+      </c>
+      <c r="F814" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-sap-hcm-berater-remote-cologne-347384</t>
+        </is>
+      </c>
+      <c r="G814" t="inlineStr"/>
+      <c r="H814" t="inlineStr"/>
+      <c r="I814" t="inlineStr"/>
+      <c r="J814" t="inlineStr"/>
+      <c r="K814" t="inlineStr"/>
+      <c r="L814" t="inlineStr"/>
+      <c r="M814" t="inlineStr"/>
+      <c r="N814" t="inlineStr"/>
+      <c r="O814" t="inlineStr"/>
+      <c r="P814" t="inlineStr"/>
+      <c r="Q814" t="inlineStr"/>
+      <c r="R814" t="inlineStr"/>
+    </row>
+    <row r="815">
+      <c r="A815" t="n">
+        <v>814</v>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>(Senior) SAP HCM Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C815" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D815" t="inlineStr">
+        <is>
+          <t>Mannheim</t>
+        </is>
+      </c>
+      <c r="E815" t="b">
+        <v>0</v>
+      </c>
+      <c r="F815" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-sap-hcm-berater-remote-mannheim-413850</t>
+        </is>
+      </c>
+      <c r="G815" t="inlineStr"/>
+      <c r="H815" t="inlineStr"/>
+      <c r="I815" t="inlineStr"/>
+      <c r="J815" t="inlineStr"/>
+      <c r="K815" t="inlineStr"/>
+      <c r="L815" t="inlineStr"/>
+      <c r="M815" t="inlineStr"/>
+      <c r="N815" t="inlineStr"/>
+      <c r="O815" t="inlineStr"/>
+      <c r="P815" t="inlineStr"/>
+      <c r="Q815" t="inlineStr"/>
+      <c r="R815" t="inlineStr"/>
+    </row>
+    <row r="816">
+      <c r="A816" t="n">
+        <v>815</v>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>(Senior) SAP HCM Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C816" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D816" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E816" t="b">
+        <v>0</v>
+      </c>
+      <c r="F816" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-sap-hcm-berater-remote-heidelberg-271264</t>
+        </is>
+      </c>
+      <c r="G816" t="inlineStr"/>
+      <c r="H816" t="inlineStr"/>
+      <c r="I816" t="inlineStr"/>
+      <c r="J816" t="inlineStr"/>
+      <c r="K816" t="inlineStr"/>
+      <c r="L816" t="inlineStr"/>
+      <c r="M816" t="inlineStr"/>
+      <c r="N816" t="inlineStr"/>
+      <c r="O816" t="inlineStr"/>
+      <c r="P816" t="inlineStr"/>
+      <c r="Q816" t="inlineStr"/>
+      <c r="R816" t="inlineStr"/>
+    </row>
+    <row r="817">
+      <c r="A817" t="n">
+        <v>816</v>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>Social Media &amp; Content Creator (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C817" t="inlineStr">
+        <is>
+          <t>Dcp Digitaldruck &amp; Profiltechnik Gmbh &amp; Co.Kg</t>
+        </is>
+      </c>
+      <c r="D817" t="inlineStr">
+        <is>
+          <t>Gütersloh</t>
+        </is>
+      </c>
+      <c r="E817" t="b">
+        <v>0</v>
+      </c>
+      <c r="F817" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/dcp-digitaldruck-profiltechnik-gmbh-cokg/social-media-content-creator-gutersloh-355458</t>
+        </is>
+      </c>
+      <c r="G817" t="inlineStr"/>
+      <c r="H817" t="inlineStr"/>
+      <c r="I817" t="inlineStr"/>
+      <c r="J817" t="inlineStr"/>
+      <c r="K817" t="inlineStr"/>
+      <c r="L817" t="inlineStr"/>
+      <c r="M817" t="inlineStr"/>
+      <c r="N817" t="inlineStr"/>
+      <c r="O817" t="inlineStr"/>
+      <c r="P817" t="inlineStr"/>
+      <c r="Q817" t="inlineStr"/>
+      <c r="R817" t="inlineStr"/>
+    </row>
+    <row r="818">
+      <c r="A818" t="n">
+        <v>817</v>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>(Senior) SuccessFactors Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D818" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E818" t="b">
+        <v>0</v>
+      </c>
+      <c r="F818" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-successfactors-berater-remote-heidelberg-165309</t>
+        </is>
+      </c>
+      <c r="G818" t="inlineStr"/>
+      <c r="H818" t="inlineStr"/>
+      <c r="I818" t="inlineStr"/>
+      <c r="J818" t="inlineStr"/>
+      <c r="K818" t="inlineStr"/>
+      <c r="L818" t="inlineStr"/>
+      <c r="M818" t="inlineStr"/>
+      <c r="N818" t="inlineStr"/>
+      <c r="O818" t="inlineStr"/>
+      <c r="P818" t="inlineStr"/>
+      <c r="Q818" t="inlineStr"/>
+      <c r="R818" t="inlineStr"/>
+    </row>
+    <row r="819">
+      <c r="A819" t="n">
+        <v>818</v>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>(Senior) SuccessFactors Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C819" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D819" t="inlineStr">
+        <is>
+          <t>Mannheim</t>
+        </is>
+      </c>
+      <c r="E819" t="b">
+        <v>0</v>
+      </c>
+      <c r="F819" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-successfactors-berater-remote-mannheim-129077</t>
+        </is>
+      </c>
+      <c r="G819" t="inlineStr"/>
+      <c r="H819" t="inlineStr"/>
+      <c r="I819" t="inlineStr"/>
+      <c r="J819" t="inlineStr"/>
+      <c r="K819" t="inlineStr"/>
+      <c r="L819" t="inlineStr"/>
+      <c r="M819" t="inlineStr"/>
+      <c r="N819" t="inlineStr"/>
+      <c r="O819" t="inlineStr"/>
+      <c r="P819" t="inlineStr"/>
+      <c r="Q819" t="inlineStr"/>
+      <c r="R819" t="inlineStr"/>
+    </row>
+    <row r="820">
+      <c r="A820" t="n">
+        <v>819</v>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>(Senior) SuccessFactors Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C820" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D820" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E820" t="b">
+        <v>0</v>
+      </c>
+      <c r="F820" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-successfactors-berater-remote-cologne-488544</t>
+        </is>
+      </c>
+      <c r="G820" t="inlineStr"/>
+      <c r="H820" t="inlineStr"/>
+      <c r="I820" t="inlineStr"/>
+      <c r="J820" t="inlineStr"/>
+      <c r="K820" t="inlineStr"/>
+      <c r="L820" t="inlineStr"/>
+      <c r="M820" t="inlineStr"/>
+      <c r="N820" t="inlineStr"/>
+      <c r="O820" t="inlineStr"/>
+      <c r="P820" t="inlineStr"/>
+      <c r="Q820" t="inlineStr"/>
+      <c r="R820" t="inlineStr"/>
+    </row>
+    <row r="821">
+      <c r="A821" t="n">
+        <v>820</v>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>(Senior) SuccessFactors Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D821" t="inlineStr">
+        <is>
+          <t>Frankfurt am Main</t>
+        </is>
+      </c>
+      <c r="E821" t="b">
+        <v>0</v>
+      </c>
+      <c r="F821" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-successfactors-berater-remote-frankfurt-am-main-235148</t>
+        </is>
+      </c>
+      <c r="G821" t="inlineStr"/>
+      <c r="H821" t="inlineStr"/>
+      <c r="I821" t="inlineStr"/>
+      <c r="J821" t="inlineStr"/>
+      <c r="K821" t="inlineStr"/>
+      <c r="L821" t="inlineStr"/>
+      <c r="M821" t="inlineStr"/>
+      <c r="N821" t="inlineStr"/>
+      <c r="O821" t="inlineStr"/>
+      <c r="P821" t="inlineStr"/>
+      <c r="Q821" t="inlineStr"/>
+      <c r="R821" t="inlineStr"/>
+    </row>
+    <row r="822">
+      <c r="A822" t="n">
+        <v>821</v>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>(Senior) SuccessFactors Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C822" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D822" t="inlineStr">
+        <is>
+          <t>Düsseldorf</t>
+        </is>
+      </c>
+      <c r="E822" t="b">
+        <v>0</v>
+      </c>
+      <c r="F822" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-successfactors-berater-remote-dusseldorf-277908</t>
+        </is>
+      </c>
+      <c r="G822" t="inlineStr"/>
+      <c r="H822" t="inlineStr"/>
+      <c r="I822" t="inlineStr"/>
+      <c r="J822" t="inlineStr"/>
+      <c r="K822" t="inlineStr"/>
+      <c r="L822" t="inlineStr"/>
+      <c r="M822" t="inlineStr"/>
+      <c r="N822" t="inlineStr"/>
+      <c r="O822" t="inlineStr"/>
+      <c r="P822" t="inlineStr"/>
+      <c r="Q822" t="inlineStr"/>
+      <c r="R822" t="inlineStr"/>
+    </row>
+    <row r="823">
+      <c r="A823" t="n">
+        <v>822</v>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>SAP FI/CO im Beratungsumfeld (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C823" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D823" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E823" t="b">
+        <v>0</v>
+      </c>
+      <c r="F823" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-fi-co-im-beratungsumfeld-remote-heidelberg-14855</t>
+        </is>
+      </c>
+      <c r="G823" t="inlineStr"/>
+      <c r="H823" t="inlineStr"/>
+      <c r="I823" t="inlineStr"/>
+      <c r="J823" t="inlineStr"/>
+      <c r="K823" t="inlineStr"/>
+      <c r="L823" t="inlineStr"/>
+      <c r="M823" t="inlineStr"/>
+      <c r="N823" t="inlineStr"/>
+      <c r="O823" t="inlineStr"/>
+      <c r="P823" t="inlineStr"/>
+      <c r="Q823" t="inlineStr"/>
+      <c r="R823" t="inlineStr"/>
+    </row>
+    <row r="824">
+      <c r="A824" t="n">
+        <v>823</v>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>SAP FI/CO im Beratungsumfeld (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C824" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D824" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E824" t="b">
+        <v>0</v>
+      </c>
+      <c r="F824" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-fi-co-im-beratungsumfeld-remote-cologne-317025</t>
+        </is>
+      </c>
+      <c r="G824" t="inlineStr"/>
+      <c r="H824" t="inlineStr"/>
+      <c r="I824" t="inlineStr"/>
+      <c r="J824" t="inlineStr"/>
+      <c r="K824" t="inlineStr"/>
+      <c r="L824" t="inlineStr"/>
+      <c r="M824" t="inlineStr"/>
+      <c r="N824" t="inlineStr"/>
+      <c r="O824" t="inlineStr"/>
+      <c r="P824" t="inlineStr"/>
+      <c r="Q824" t="inlineStr"/>
+      <c r="R824" t="inlineStr"/>
+    </row>
+    <row r="825">
+      <c r="A825" t="n">
+        <v>824</v>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>SAP FI/CO im Beratungsumfeld (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C825" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D825" t="inlineStr">
+        <is>
+          <t>Mannheim</t>
+        </is>
+      </c>
+      <c r="E825" t="b">
+        <v>0</v>
+      </c>
+      <c r="F825" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-fi-co-im-beratungsumfeld-remote-mannheim-147547</t>
+        </is>
+      </c>
+      <c r="G825" t="inlineStr"/>
+      <c r="H825" t="inlineStr"/>
+      <c r="I825" t="inlineStr"/>
+      <c r="J825" t="inlineStr"/>
+      <c r="K825" t="inlineStr"/>
+      <c r="L825" t="inlineStr"/>
+      <c r="M825" t="inlineStr"/>
+      <c r="N825" t="inlineStr"/>
+      <c r="O825" t="inlineStr"/>
+      <c r="P825" t="inlineStr"/>
+      <c r="Q825" t="inlineStr"/>
+      <c r="R825" t="inlineStr"/>
+    </row>
+    <row r="826">
+      <c r="A826" t="n">
+        <v>825</v>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>Staff Engineer .NET (f/m/d)</t>
+        </is>
+      </c>
+      <c r="C826" t="inlineStr">
+        <is>
+          <t>Apaleo</t>
+        </is>
+      </c>
+      <c r="D826" t="inlineStr">
+        <is>
+          <t>München, Bavaria, Germany</t>
+        </is>
+      </c>
+      <c r="E826" t="b">
+        <v>0</v>
+      </c>
+      <c r="F826" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/apaleo/staff-engineer-net-munchen-142700</t>
+        </is>
+      </c>
+      <c r="G826" t="inlineStr"/>
+      <c r="H826" t="inlineStr"/>
+      <c r="I826" t="inlineStr"/>
+      <c r="J826" t="inlineStr"/>
+      <c r="K826" t="inlineStr"/>
+      <c r="L826" t="inlineStr"/>
+      <c r="M826" t="inlineStr"/>
+      <c r="N826" t="inlineStr"/>
+      <c r="O826" t="inlineStr"/>
+      <c r="P826" t="inlineStr"/>
+      <c r="Q826" t="inlineStr"/>
+      <c r="R826" t="inlineStr"/>
+    </row>
+    <row r="827">
+      <c r="A827" t="n">
+        <v>826</v>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>Minijob im Recruiting (m/w/d) - 100% Remote</t>
+        </is>
+      </c>
+      <c r="C827" t="inlineStr">
+        <is>
+          <t>Recruiting Sonia</t>
+        </is>
+      </c>
+      <c r="D827" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E827" t="b">
+        <v>1</v>
+      </c>
+      <c r="F827" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/recruiting-sonia/minijob-im-recruiting-100-remote-berlin-339267</t>
+        </is>
+      </c>
+      <c r="G827" t="inlineStr"/>
+      <c r="H827" t="inlineStr"/>
+      <c r="I827" t="inlineStr"/>
+      <c r="J827" t="inlineStr"/>
+      <c r="K827" t="inlineStr"/>
+      <c r="L827" t="inlineStr"/>
+      <c r="M827" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N827" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O827" t="n">
+        <v>70</v>
+      </c>
+      <c r="P827" t="inlineStr"/>
+      <c r="Q827" t="inlineStr"/>
+      <c r="R827" t="inlineStr"/>
+    </row>
+    <row r="828">
+      <c r="A828" t="n">
+        <v>827</v>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>Werkstudent:in im Recruiting (m/w/d) - 100% Remote</t>
+        </is>
+      </c>
+      <c r="C828" t="inlineStr">
+        <is>
+          <t>Recruiting Sonia</t>
+        </is>
+      </c>
+      <c r="D828" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E828" t="b">
+        <v>1</v>
+      </c>
+      <c r="F828" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/recruiting-sonia/werkstudentin-im-recruiting-100-remote-berlin-246579</t>
+        </is>
+      </c>
+      <c r="G828" t="inlineStr"/>
+      <c r="H828" t="inlineStr"/>
+      <c r="I828" t="inlineStr"/>
+      <c r="J828" t="inlineStr"/>
+      <c r="K828" t="inlineStr"/>
+      <c r="L828" t="inlineStr"/>
+      <c r="M828" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N828" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O828" t="n">
+        <v>70</v>
+      </c>
+      <c r="P828" t="inlineStr"/>
+      <c r="Q828" t="inlineStr"/>
+      <c r="R828" t="inlineStr"/>
+    </row>
+    <row r="829">
+      <c r="A829" t="n">
+        <v>828</v>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>Lead Engineer Full-Stack (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C829" t="inlineStr">
+        <is>
+          <t>42Matches Gmbh</t>
+        </is>
+      </c>
+      <c r="D829" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E829" t="b">
+        <v>0</v>
+      </c>
+      <c r="F829" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/42matches-gmbh/lead-engineer-full-stack-hamburg-140652</t>
+        </is>
+      </c>
+      <c r="G829" t="inlineStr"/>
+      <c r="H829" t="inlineStr"/>
+      <c r="I829" t="inlineStr"/>
+      <c r="J829" t="inlineStr"/>
+      <c r="K829" t="inlineStr"/>
+      <c r="L829" t="inlineStr"/>
+      <c r="M829" t="inlineStr"/>
+      <c r="N829" t="inlineStr"/>
+      <c r="O829" t="inlineStr"/>
+      <c r="P829" t="inlineStr"/>
+      <c r="Q829" t="inlineStr"/>
+      <c r="R829" t="inlineStr"/>
+    </row>
+    <row r="830">
+      <c r="A830" t="n">
+        <v>829</v>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>Serviceleiter (m/w/d) für große Autohaus-Gruppe - Hauptstandort in Bergedorf</t>
+        </is>
+      </c>
+      <c r="C830" t="inlineStr">
+        <is>
+          <t>Michael Krohn Consulting</t>
+        </is>
+      </c>
+      <c r="D830" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E830" t="b">
+        <v>0</v>
+      </c>
+      <c r="F830" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/michael-krohn-consulting/serviceleiter-fur-grosse-autohaus-gruppe-hauptstandort-in-bergedorf-hamburg-168628</t>
+        </is>
+      </c>
+      <c r="G830" t="inlineStr"/>
+      <c r="H830" t="inlineStr"/>
+      <c r="I830" t="inlineStr"/>
+      <c r="J830" t="inlineStr"/>
+      <c r="K830" t="inlineStr"/>
+      <c r="L830" t="inlineStr"/>
+      <c r="M830" t="inlineStr"/>
+      <c r="N830" t="inlineStr"/>
+      <c r="O830" t="inlineStr"/>
+      <c r="P830" t="inlineStr"/>
+      <c r="Q830" t="inlineStr"/>
+      <c r="R830" t="inlineStr"/>
+    </row>
+    <row r="831">
+      <c r="A831" t="n">
+        <v>830</v>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>Serviceberater Nutzfahrzeuge (m/w/d) für mittelständische Autohaus-Gruppe</t>
+        </is>
+      </c>
+      <c r="C831" t="inlineStr">
+        <is>
+          <t>Michael Krohn Consulting</t>
+        </is>
+      </c>
+      <c r="D831" t="inlineStr">
+        <is>
+          <t>Elmshorn</t>
+        </is>
+      </c>
+      <c r="E831" t="b">
+        <v>0</v>
+      </c>
+      <c r="F831" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/michael-krohn-consulting/serviceberater-nutzfahrzeuge-fur-mittelstandische-autohaus-gruppe-elmshorn-451815</t>
+        </is>
+      </c>
+      <c r="G831" t="inlineStr"/>
+      <c r="H831" t="inlineStr"/>
+      <c r="I831" t="inlineStr"/>
+      <c r="J831" t="inlineStr"/>
+      <c r="K831" t="inlineStr"/>
+      <c r="L831" t="inlineStr"/>
+      <c r="M831" t="inlineStr"/>
+      <c r="N831" t="inlineStr"/>
+      <c r="O831" t="inlineStr"/>
+      <c r="P831" t="inlineStr"/>
+      <c r="Q831" t="inlineStr"/>
+      <c r="R831" t="inlineStr"/>
+    </row>
+    <row r="832">
+      <c r="A832" t="n">
+        <v>831</v>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>System Engineer (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C832" t="inlineStr">
+        <is>
+          <t>Indeno Deutschland</t>
+        </is>
+      </c>
+      <c r="D832" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E832" t="b">
+        <v>1</v>
+      </c>
+      <c r="F832" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/indeno-deutschland/system-engineer-stuttgart-197991</t>
+        </is>
+      </c>
+      <c r="G832" t="inlineStr"/>
+      <c r="H832" t="inlineStr"/>
+      <c r="I832" t="inlineStr"/>
+      <c r="J832" t="inlineStr"/>
+      <c r="K832" t="inlineStr"/>
+      <c r="L832" t="inlineStr"/>
+      <c r="M832" t="inlineStr"/>
+      <c r="N832" t="inlineStr"/>
+      <c r="O832" t="inlineStr"/>
+      <c r="P832" t="inlineStr"/>
+      <c r="Q832" t="inlineStr"/>
+      <c r="R832" t="inlineStr"/>
+    </row>
+    <row r="833">
+      <c r="A833" t="n">
+        <v>832</v>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>Senior Backend Entwickler (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C833" t="inlineStr">
+        <is>
+          <t>Axontic Gmbh</t>
+        </is>
+      </c>
+      <c r="D833" t="inlineStr">
+        <is>
+          <t>Bremen</t>
+        </is>
+      </c>
+      <c r="E833" t="b">
+        <v>0</v>
+      </c>
+      <c r="F833" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/axontic-gmbh/senior-backend-entwickler-bremen-454155</t>
+        </is>
+      </c>
+      <c r="G833" t="inlineStr"/>
+      <c r="H833" t="inlineStr"/>
+      <c r="I833" t="inlineStr"/>
+      <c r="J833" t="inlineStr"/>
+      <c r="K833" t="inlineStr"/>
+      <c r="L833" t="inlineStr"/>
+      <c r="M833" t="inlineStr"/>
+      <c r="N833" t="inlineStr"/>
+      <c r="O833" t="inlineStr"/>
+      <c r="P833" t="inlineStr"/>
+      <c r="Q833" t="inlineStr"/>
+      <c r="R833" t="inlineStr"/>
+    </row>
+    <row r="834">
+      <c r="A834" t="n">
+        <v>833</v>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>Modern Workplace Engineer - Microsoft 365 (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C834" t="inlineStr">
+        <is>
+          <t>Indeno Deutschland</t>
+        </is>
+      </c>
+      <c r="D834" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E834" t="b">
+        <v>1</v>
+      </c>
+      <c r="F834" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/indeno-deutschland/modern-workplace-engineer-microsoft-365-stuttgart-40528</t>
+        </is>
+      </c>
+      <c r="G834" t="inlineStr"/>
+      <c r="H834" t="inlineStr"/>
+      <c r="I834" t="inlineStr"/>
+      <c r="J834" t="inlineStr"/>
+      <c r="K834" t="inlineStr"/>
+      <c r="L834" t="inlineStr"/>
+      <c r="M834" t="inlineStr"/>
+      <c r="N834" t="inlineStr"/>
+      <c r="O834" t="inlineStr"/>
+      <c r="P834" t="inlineStr"/>
+      <c r="Q834" t="inlineStr"/>
+      <c r="R834" t="inlineStr"/>
+    </row>
+    <row r="835">
+      <c r="A835" t="n">
+        <v>834</v>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>Bauleiter (m/w/d) mit Schwerpunkt Sanierung von Wohnimmobilien</t>
+        </is>
+      </c>
+      <c r="C835" t="inlineStr">
+        <is>
+          <t>Brickup Gmbh</t>
+        </is>
+      </c>
+      <c r="D835" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E835" t="b">
+        <v>0</v>
+      </c>
+      <c r="F835" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/brickup-gmbh/bauleiter-mit-schwerpunkt-sanierung-von-wohnimmobilien-hamburg-435577</t>
+        </is>
+      </c>
+      <c r="G835" t="inlineStr"/>
+      <c r="H835" t="inlineStr"/>
+      <c r="I835" t="inlineStr"/>
+      <c r="J835" t="inlineStr"/>
+      <c r="K835" t="inlineStr"/>
+      <c r="L835" t="inlineStr"/>
+      <c r="M835" t="inlineStr"/>
+      <c r="N835" t="inlineStr"/>
+      <c r="O835" t="inlineStr"/>
+      <c r="P835" t="inlineStr"/>
+      <c r="Q835" t="inlineStr"/>
+      <c r="R835" t="inlineStr"/>
+    </row>
+    <row r="836">
+      <c r="A836" t="n">
+        <v>835</v>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>IT Application Manager (m/w/d) Systembetrieb &amp; Prozessmanagement - Remote</t>
+        </is>
+      </c>
+      <c r="C836" t="inlineStr">
+        <is>
+          <t>Shaarconsulting</t>
+        </is>
+      </c>
+      <c r="D836" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E836" t="b">
+        <v>1</v>
+      </c>
+      <c r="F836" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/shaarconsulting/it-application-manager-systembetrieb-prozessmanagement-remote-berlin-109584</t>
+        </is>
+      </c>
+      <c r="G836" t="inlineStr"/>
+      <c r="H836" t="inlineStr"/>
+      <c r="I836" t="inlineStr"/>
+      <c r="J836" t="inlineStr"/>
+      <c r="K836" t="inlineStr"/>
+      <c r="L836" t="inlineStr"/>
+      <c r="M836" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N836" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O836" t="n">
+        <v>70</v>
+      </c>
+      <c r="P836" t="inlineStr"/>
+      <c r="Q836" t="inlineStr"/>
+      <c r="R836" t="inlineStr"/>
+    </row>
+    <row r="837">
+      <c r="A837" t="n">
+        <v>836</v>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>IT Techniker (m/w/d) Windows Client/ Serverumgebungen</t>
+        </is>
+      </c>
+      <c r="C837" t="inlineStr">
+        <is>
+          <t>Shaarconsulting</t>
+        </is>
+      </c>
+      <c r="D837" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E837" t="b">
+        <v>0</v>
+      </c>
+      <c r="F837" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/shaarconsulting/it-techniker-windows-client-serverumgebungen-berlin-40236</t>
+        </is>
+      </c>
+      <c r="G837" t="inlineStr"/>
+      <c r="H837" t="inlineStr"/>
+      <c r="I837" t="inlineStr"/>
+      <c r="J837" t="inlineStr"/>
+      <c r="K837" t="inlineStr"/>
+      <c r="L837" t="inlineStr"/>
+      <c r="M837" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N837" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O837" t="n">
+        <v>70</v>
+      </c>
+      <c r="P837" t="inlineStr"/>
+      <c r="Q837" t="inlineStr"/>
+      <c r="R837" t="inlineStr"/>
+    </row>
+    <row r="838">
+      <c r="A838" t="n">
+        <v>837</v>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>Junior Automation Experten (m/w/d) für KI-Strategieberatung</t>
+        </is>
+      </c>
+      <c r="C838" t="inlineStr">
+        <is>
+          <t>Neurawork</t>
+        </is>
+      </c>
+      <c r="D838" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E838" t="b">
+        <v>1</v>
+      </c>
+      <c r="F838" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/neurawork/junior-automation-experten-fur-ki-strategieberatung-berlin-418823</t>
+        </is>
+      </c>
+      <c r="G838" t="inlineStr"/>
+      <c r="H838" t="inlineStr"/>
+      <c r="I838" t="inlineStr"/>
+      <c r="J838" t="inlineStr"/>
+      <c r="K838" t="inlineStr"/>
+      <c r="L838" t="inlineStr"/>
+      <c r="M838" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N838" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O838" t="n">
+        <v>70</v>
+      </c>
+      <c r="P838" t="inlineStr"/>
+      <c r="Q838" t="inlineStr"/>
+      <c r="R838" t="inlineStr"/>
+    </row>
+    <row r="839">
+      <c r="A839" t="n">
+        <v>838</v>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>(Senior) Projektmanager SAP S/4HANA (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C839" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D839" t="inlineStr">
+        <is>
+          <t>Mannheim</t>
+        </is>
+      </c>
+      <c r="E839" t="b">
+        <v>0</v>
+      </c>
+      <c r="F839" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-projektmanager-sap-s-4hana-remote-mannheim-67062</t>
+        </is>
+      </c>
+      <c r="G839" t="inlineStr"/>
+      <c r="H839" t="inlineStr"/>
+      <c r="I839" t="inlineStr"/>
+      <c r="J839" t="inlineStr"/>
+      <c r="K839" t="inlineStr"/>
+      <c r="L839" t="inlineStr"/>
+      <c r="M839" t="inlineStr"/>
+      <c r="N839" t="inlineStr"/>
+      <c r="O839" t="inlineStr"/>
+      <c r="P839" t="inlineStr"/>
+      <c r="Q839" t="inlineStr"/>
+      <c r="R839" t="inlineStr"/>
+    </row>
+    <row r="840">
+      <c r="A840" t="n">
+        <v>839</v>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>(Senior) Projektmanager SAP S/4HANA (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C840" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D840" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E840" t="b">
+        <v>0</v>
+      </c>
+      <c r="F840" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-projektmanager-sap-s-4hana-remote-cologne-288258</t>
+        </is>
+      </c>
+      <c r="G840" t="inlineStr"/>
+      <c r="H840" t="inlineStr"/>
+      <c r="I840" t="inlineStr"/>
+      <c r="J840" t="inlineStr"/>
+      <c r="K840" t="inlineStr"/>
+      <c r="L840" t="inlineStr"/>
+      <c r="M840" t="inlineStr"/>
+      <c r="N840" t="inlineStr"/>
+      <c r="O840" t="inlineStr"/>
+      <c r="P840" t="inlineStr"/>
+      <c r="Q840" t="inlineStr"/>
+      <c r="R840" t="inlineStr"/>
+    </row>
+    <row r="841">
+      <c r="A841" t="n">
+        <v>840</v>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>(Senior) Projektmanager SAP S/4HANA (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C841" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D841" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E841" t="b">
+        <v>0</v>
+      </c>
+      <c r="F841" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-projektmanager-sap-s-4hana-remote-heidelberg-393651</t>
+        </is>
+      </c>
+      <c r="G841" t="inlineStr"/>
+      <c r="H841" t="inlineStr"/>
+      <c r="I841" t="inlineStr"/>
+      <c r="J841" t="inlineStr"/>
+      <c r="K841" t="inlineStr"/>
+      <c r="L841" t="inlineStr"/>
+      <c r="M841" t="inlineStr"/>
+      <c r="N841" t="inlineStr"/>
+      <c r="O841" t="inlineStr"/>
+      <c r="P841" t="inlineStr"/>
+      <c r="Q841" t="inlineStr"/>
+      <c r="R841" t="inlineStr"/>
+    </row>
+    <row r="842">
+      <c r="A842" t="n">
+        <v>841</v>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>Telefonischer Kundenberater / Call Center Agent m/w/d Krankenversicherung</t>
+        </is>
+      </c>
+      <c r="C842" t="inlineStr">
+        <is>
+          <t>W&amp;W Human Resources -  Ivonne Wresch -</t>
+        </is>
+      </c>
+      <c r="D842" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E842" t="b">
+        <v>0</v>
+      </c>
+      <c r="F842" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ww-human-resources-ivonne-wresch/telefonischer-kundenberater-call-center-agent-krankenversicherung-hamburg-332750</t>
+        </is>
+      </c>
+      <c r="G842" t="inlineStr"/>
+      <c r="H842" t="inlineStr"/>
+      <c r="I842" t="inlineStr"/>
+      <c r="J842" t="inlineStr"/>
+      <c r="K842" t="inlineStr"/>
+      <c r="L842" t="inlineStr"/>
+      <c r="M842" t="inlineStr"/>
+      <c r="N842" t="inlineStr"/>
+      <c r="O842" t="inlineStr"/>
+      <c r="P842" t="inlineStr"/>
+      <c r="Q842" t="inlineStr"/>
+      <c r="R842" t="inlineStr"/>
+    </row>
+    <row r="843">
+      <c r="A843" t="n">
+        <v>842</v>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>2350-2800 € Telefonischer Kundenbetreuer  m/w/d Kundenservice Mo-Fr</t>
+        </is>
+      </c>
+      <c r="C843" t="inlineStr">
+        <is>
+          <t>W&amp;W Human Resources -  Ivonne Wresch -</t>
+        </is>
+      </c>
+      <c r="D843" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E843" t="b">
+        <v>0</v>
+      </c>
+      <c r="F843" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ww-human-resources-ivonne-wresch/2350-2800-eur-telefonischer-kundenbetreuer-kundenservice-mo-fr-berlin-114921</t>
+        </is>
+      </c>
+      <c r="G843" t="inlineStr"/>
+      <c r="H843" t="inlineStr"/>
+      <c r="I843" t="inlineStr"/>
+      <c r="J843" t="inlineStr"/>
+      <c r="K843" t="inlineStr"/>
+      <c r="L843" t="inlineStr"/>
+      <c r="M843" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N843" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O843" t="n">
+        <v>70</v>
+      </c>
+      <c r="P843" t="inlineStr"/>
+      <c r="Q843" t="inlineStr"/>
+      <c r="R843" t="inlineStr"/>
+    </row>
+    <row r="844">
+      <c r="A844" t="n">
+        <v>843</v>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>Call Center Agent  m/w/d Kundenservice</t>
+        </is>
+      </c>
+      <c r="C844" t="inlineStr">
+        <is>
+          <t>W&amp;W Human Resources -  Ivonne Wresch -</t>
+        </is>
+      </c>
+      <c r="D844" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E844" t="b">
+        <v>0</v>
+      </c>
+      <c r="F844" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ww-human-resources-ivonne-wresch/call-center-agent-kundenservice-berlin-218147</t>
+        </is>
+      </c>
+      <c r="G844" t="inlineStr"/>
+      <c r="H844" t="inlineStr"/>
+      <c r="I844" t="inlineStr"/>
+      <c r="J844" t="inlineStr"/>
+      <c r="K844" t="inlineStr"/>
+      <c r="L844" t="inlineStr"/>
+      <c r="M844" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N844" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O844" t="n">
+        <v>70</v>
+      </c>
+      <c r="P844" t="inlineStr"/>
+      <c r="Q844" t="inlineStr"/>
+      <c r="R844" t="inlineStr"/>
+    </row>
+    <row r="845">
+      <c r="A845" t="n">
+        <v>844</v>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>Telefonischer Kundenberater / Call Center Agent m/w/d  Mo-Fr VZ/TZ</t>
+        </is>
+      </c>
+      <c r="C845" t="inlineStr">
+        <is>
+          <t>W&amp;W Human Resources -  Ivonne Wresch -</t>
+        </is>
+      </c>
+      <c r="D845" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E845" t="b">
+        <v>0</v>
+      </c>
+      <c r="F845" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ww-human-resources-ivonne-wresch/telefonischer-kundenberater-call-center-agent-mo-fr-vz-tz-hamburg-400889</t>
+        </is>
+      </c>
+      <c r="G845" t="inlineStr"/>
+      <c r="H845" t="inlineStr"/>
+      <c r="I845" t="inlineStr"/>
+      <c r="J845" t="inlineStr"/>
+      <c r="K845" t="inlineStr"/>
+      <c r="L845" t="inlineStr"/>
+      <c r="M845" t="inlineStr"/>
+      <c r="N845" t="inlineStr"/>
+      <c r="O845" t="inlineStr"/>
+      <c r="P845" t="inlineStr"/>
+      <c r="Q845" t="inlineStr"/>
+      <c r="R845" t="inlineStr"/>
+    </row>
+    <row r="846">
+      <c r="A846" t="n">
+        <v>845</v>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Frankfurt am Main, auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C846" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D846" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E846" t="b">
+        <v>0</v>
+      </c>
+      <c r="F846" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-frankfurt-am-main-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-55850</t>
+        </is>
+      </c>
+      <c r="G846" t="inlineStr"/>
+      <c r="H846" t="inlineStr"/>
+      <c r="I846" t="inlineStr"/>
+      <c r="J846" t="inlineStr"/>
+      <c r="K846" t="inlineStr"/>
+      <c r="L846" t="inlineStr"/>
+      <c r="M846" t="inlineStr"/>
+      <c r="N846" t="inlineStr"/>
+      <c r="O846" t="inlineStr"/>
+      <c r="P846" t="inlineStr"/>
+      <c r="Q846" t="inlineStr"/>
+      <c r="R846" t="inlineStr"/>
+    </row>
+    <row r="847">
+      <c r="A847" t="n">
+        <v>846</v>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>Creative Communications Designer (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C847" t="inlineStr">
+        <is>
+          <t>Dxm Gmbh &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="D847" t="inlineStr">
+        <is>
+          <t>Düsseldorf</t>
+        </is>
+      </c>
+      <c r="E847" t="b">
+        <v>0</v>
+      </c>
+      <c r="F847" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/dxm-gmbh-co-kg/creative-communications-designer-dusseldorf-492273</t>
+        </is>
+      </c>
+      <c r="G847" t="inlineStr"/>
+      <c r="H847" t="inlineStr"/>
+      <c r="I847" t="inlineStr"/>
+      <c r="J847" t="inlineStr"/>
+      <c r="K847" t="inlineStr"/>
+      <c r="L847" t="inlineStr"/>
+      <c r="M847" t="inlineStr"/>
+      <c r="N847" t="inlineStr"/>
+      <c r="O847" t="inlineStr"/>
+      <c r="P847" t="inlineStr"/>
+      <c r="Q847" t="inlineStr"/>
+      <c r="R847" t="inlineStr"/>
+    </row>
+    <row r="848">
+      <c r="A848" t="n">
+        <v>847</v>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>(Junior)JavaScript-Entwickler (m/w/d) 100% REMOTE</t>
+        </is>
+      </c>
+      <c r="C848" t="inlineStr">
+        <is>
+          <t>Powerprozesse</t>
+        </is>
+      </c>
+      <c r="D848" t="inlineStr">
+        <is>
+          <t>Worms</t>
+        </is>
+      </c>
+      <c r="E848" t="b">
+        <v>1</v>
+      </c>
+      <c r="F848" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/powerprozesse/juniorjavascript-entwickler-100-remote-worms-136587</t>
+        </is>
+      </c>
+      <c r="G848" t="inlineStr"/>
+      <c r="H848" t="inlineStr"/>
+      <c r="I848" t="inlineStr"/>
+      <c r="J848" t="inlineStr"/>
+      <c r="K848" t="inlineStr"/>
+      <c r="L848" t="inlineStr"/>
+      <c r="M848" t="inlineStr"/>
+      <c r="N848" t="inlineStr"/>
+      <c r="O848" t="inlineStr"/>
+      <c r="P848" t="inlineStr"/>
+      <c r="Q848" t="inlineStr"/>
+      <c r="R848" t="inlineStr"/>
+    </row>
+    <row r="849">
+      <c r="A849" t="n">
+        <v>848</v>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>Callcenteragent als Vorprüfer (m/w/d) für Unternehmen in Krisensituationen | 100 % Home Office</t>
+        </is>
+      </c>
+      <c r="C849" t="inlineStr">
+        <is>
+          <t>Perspektive Zukunft E.V.</t>
+        </is>
+      </c>
+      <c r="D849" t="inlineStr">
+        <is>
+          <t>Hanover</t>
+        </is>
+      </c>
+      <c r="E849" t="b">
+        <v>1</v>
+      </c>
+      <c r="F849" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/perspektive-zukunft-ev/callcenteragent-als-vorprufer-fur-unternehmen-in-krisensituationen-100-home-office-hanover-362782</t>
+        </is>
+      </c>
+      <c r="G849" t="inlineStr"/>
+      <c r="H849" t="inlineStr"/>
+      <c r="I849" t="inlineStr"/>
+      <c r="J849" t="inlineStr"/>
+      <c r="K849" t="inlineStr"/>
+      <c r="L849" t="inlineStr"/>
+      <c r="M849" t="inlineStr"/>
+      <c r="N849" t="inlineStr"/>
+      <c r="O849" t="inlineStr"/>
+      <c r="P849" t="inlineStr"/>
+      <c r="Q849" t="inlineStr"/>
+      <c r="R849" t="inlineStr"/>
+    </row>
+    <row r="850">
+      <c r="A850" t="n">
+        <v>849</v>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Nürnberg, auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C850" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D850" t="inlineStr">
+        <is>
+          <t>Nuremberg</t>
+        </is>
+      </c>
+      <c r="E850" t="b">
+        <v>0</v>
+      </c>
+      <c r="F850" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-nurnberg-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-nuremberg-268112</t>
+        </is>
+      </c>
+      <c r="G850" t="inlineStr"/>
+      <c r="H850" t="inlineStr"/>
+      <c r="I850" t="inlineStr"/>
+      <c r="J850" t="inlineStr"/>
+      <c r="K850" t="inlineStr"/>
+      <c r="L850" t="inlineStr"/>
+      <c r="M850" t="inlineStr"/>
+      <c r="N850" t="inlineStr"/>
+      <c r="O850" t="inlineStr"/>
+      <c r="P850" t="inlineStr"/>
+      <c r="Q850" t="inlineStr"/>
+      <c r="R850" t="inlineStr"/>
+    </row>
+    <row r="851">
+      <c r="A851" t="n">
+        <v>850</v>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>Personalreferent mit Macherqualität (m/w/d) | 100 % Home Office</t>
+        </is>
+      </c>
+      <c r="C851" t="inlineStr">
+        <is>
+          <t>Perspektive Zukunft E.V.</t>
+        </is>
+      </c>
+      <c r="D851" t="inlineStr">
+        <is>
+          <t>Hanover</t>
+        </is>
+      </c>
+      <c r="E851" t="b">
+        <v>1</v>
+      </c>
+      <c r="F851" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/perspektive-zukunft-ev/personalreferent-mit-macherqualitat-100-home-office-hanover-48391</t>
+        </is>
+      </c>
+      <c r="G851" t="inlineStr"/>
+      <c r="H851" t="inlineStr"/>
+      <c r="I851" t="inlineStr"/>
+      <c r="J851" t="inlineStr"/>
+      <c r="K851" t="inlineStr"/>
+      <c r="L851" t="inlineStr"/>
+      <c r="M851" t="inlineStr"/>
+      <c r="N851" t="inlineStr"/>
+      <c r="O851" t="inlineStr"/>
+      <c r="P851" t="inlineStr"/>
+      <c r="Q851" t="inlineStr"/>
+      <c r="R851" t="inlineStr"/>
+    </row>
+    <row r="852">
+      <c r="A852" t="n">
+        <v>851</v>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>Videograf / Fotograf (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C852" t="inlineStr">
+        <is>
+          <t>Taxit Consulting Gmbh</t>
+        </is>
+      </c>
+      <c r="D852" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E852" t="b">
+        <v>0</v>
+      </c>
+      <c r="F852" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxit-consulting-gmbh/videograf-fotograf-stuttgart-292819</t>
+        </is>
+      </c>
+      <c r="G852" t="inlineStr"/>
+      <c r="H852" t="inlineStr"/>
+      <c r="I852" t="inlineStr"/>
+      <c r="J852" t="inlineStr"/>
+      <c r="K852" t="inlineStr"/>
+      <c r="L852" t="inlineStr"/>
+      <c r="M852" t="inlineStr"/>
+      <c r="N852" t="inlineStr"/>
+      <c r="O852" t="inlineStr"/>
+      <c r="P852" t="inlineStr"/>
+      <c r="Q852" t="inlineStr"/>
+      <c r="R852" t="inlineStr"/>
+    </row>
+    <row r="853">
+      <c r="A853" t="n">
+        <v>852</v>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>(Pflicht-) Praktikum / Praxissemester Videograf / Fotograf (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C853" t="inlineStr">
+        <is>
+          <t>Taxit Consulting Gmbh</t>
+        </is>
+      </c>
+      <c r="D853" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E853" t="b">
+        <v>0</v>
+      </c>
+      <c r="F853" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxit-consulting-gmbh/pflicht-praktikum-praxissemester-videograf-fotograf-stuttgart-380286</t>
+        </is>
+      </c>
+      <c r="G853" t="inlineStr"/>
+      <c r="H853" t="inlineStr"/>
+      <c r="I853" t="inlineStr"/>
+      <c r="J853" t="inlineStr"/>
+      <c r="K853" t="inlineStr"/>
+      <c r="L853" t="inlineStr"/>
+      <c r="M853" t="inlineStr"/>
+      <c r="N853" t="inlineStr"/>
+      <c r="O853" t="inlineStr"/>
+      <c r="P853" t="inlineStr"/>
+      <c r="Q853" t="inlineStr"/>
+      <c r="R853" t="inlineStr"/>
+    </row>
+    <row r="854">
+      <c r="A854" t="n">
+        <v>853</v>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>Managing Director Corporate Finance/M&amp;A (all genders)</t>
+        </is>
+      </c>
+      <c r="C854" t="inlineStr">
+        <is>
+          <t>Banking Consult Executive Search</t>
+        </is>
+      </c>
+      <c r="D854" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E854" t="b">
+        <v>0</v>
+      </c>
+      <c r="F854" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/banking-consult-executive-search/managing-director-corporate-finance-ma-all-genders-frankfurt-395941</t>
+        </is>
+      </c>
+      <c r="G854" t="inlineStr"/>
+      <c r="H854" t="inlineStr"/>
+      <c r="I854" t="inlineStr"/>
+      <c r="J854" t="inlineStr"/>
+      <c r="K854" t="inlineStr"/>
+      <c r="L854" t="inlineStr"/>
+      <c r="M854" t="inlineStr"/>
+      <c r="N854" t="inlineStr"/>
+      <c r="O854" t="inlineStr"/>
+      <c r="P854" t="inlineStr"/>
+      <c r="Q854" t="inlineStr"/>
+      <c r="R854" t="inlineStr"/>
+    </row>
+    <row r="855">
+      <c r="A855" t="n">
+        <v>854</v>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>Heilpraktikerin für Ästhetische | Regenerative Medizin</t>
+        </is>
+      </c>
+      <c r="C855" t="inlineStr">
+        <is>
+          <t>Inanna Gmbh</t>
+        </is>
+      </c>
+      <c r="D855" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E855" t="b">
+        <v>0</v>
+      </c>
+      <c r="F855" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/inanna-gmbh/heilpraktikerin-fur-asthetische-regenerative-medizin-berlin-225137</t>
+        </is>
+      </c>
+      <c r="G855" t="inlineStr"/>
+      <c r="H855" t="inlineStr"/>
+      <c r="I855" t="inlineStr"/>
+      <c r="J855" t="inlineStr"/>
+      <c r="K855" t="inlineStr"/>
+      <c r="L855" t="inlineStr"/>
+      <c r="M855" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N855" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O855" t="n">
+        <v>70</v>
+      </c>
+      <c r="P855" t="inlineStr"/>
+      <c r="Q855" t="inlineStr"/>
+      <c r="R855" t="inlineStr"/>
+    </row>
+    <row r="856">
+      <c r="A856" t="n">
+        <v>855</v>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>Teamleiter:in Grundbau und Vermessung Projekte (w/m/d)</t>
+        </is>
+      </c>
+      <c r="C856" t="inlineStr">
+        <is>
+          <t>Deutsche Reihenhaus Ag</t>
+        </is>
+      </c>
+      <c r="D856" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E856" t="b">
+        <v>0</v>
+      </c>
+      <c r="F856" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutsche-reihenhaus-ag/teamleiterin-grundbau-und-vermessung-projekte-cologne-262008</t>
+        </is>
+      </c>
+      <c r="G856" t="inlineStr"/>
+      <c r="H856" t="inlineStr"/>
+      <c r="I856" t="inlineStr"/>
+      <c r="J856" t="inlineStr"/>
+      <c r="K856" t="inlineStr"/>
+      <c r="L856" t="inlineStr"/>
+      <c r="M856" t="inlineStr"/>
+      <c r="N856" t="inlineStr"/>
+      <c r="O856" t="inlineStr"/>
+      <c r="P856" t="inlineStr"/>
+      <c r="Q856" t="inlineStr"/>
+      <c r="R856" t="inlineStr"/>
+    </row>
+    <row r="857">
+      <c r="A857" t="n">
+        <v>856</v>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>Mechanical Integration Specialist</t>
+        </is>
+      </c>
+      <c r="C857" t="inlineStr">
+        <is>
+          <t>Landa Corporation</t>
+        </is>
+      </c>
+      <c r="D857" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="E857" t="b">
+        <v>1</v>
+      </c>
+      <c r="F857" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/landa-corporation/remote-mechanical-integration-specialist-munich-417122</t>
+        </is>
+      </c>
+      <c r="G857" t="inlineStr"/>
+      <c r="H857" t="inlineStr"/>
+      <c r="I857" t="inlineStr"/>
+      <c r="J857" t="inlineStr"/>
+      <c r="K857" t="inlineStr"/>
+      <c r="L857" t="inlineStr"/>
+      <c r="M857" t="inlineStr"/>
+      <c r="N857" t="inlineStr"/>
+      <c r="O857" t="inlineStr"/>
+      <c r="P857" t="inlineStr"/>
+      <c r="Q857" t="inlineStr"/>
+      <c r="R857" t="inlineStr"/>
+    </row>
+    <row r="858">
+      <c r="A858" t="n">
+        <v>857</v>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>Master Stylist (m/w/d) bei WunderHaar Friseure Berlin</t>
+        </is>
+      </c>
+      <c r="C858" t="inlineStr">
+        <is>
+          <t>Wunderhaar Friseure Berlin</t>
+        </is>
+      </c>
+      <c r="D858" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E858" t="b">
+        <v>0</v>
+      </c>
+      <c r="F858" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/wunderhaar-friseure-berlin/master-stylist-bei-wunderhaar-friseure-berlin-172014</t>
+        </is>
+      </c>
+      <c r="G858" t="inlineStr"/>
+      <c r="H858" t="inlineStr"/>
+      <c r="I858" t="inlineStr"/>
+      <c r="J858" t="inlineStr"/>
+      <c r="K858" t="inlineStr"/>
+      <c r="L858" t="inlineStr"/>
+      <c r="M858" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N858" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O858" t="n">
+        <v>70</v>
+      </c>
+      <c r="P858" t="inlineStr"/>
+      <c r="Q858" t="inlineStr"/>
+      <c r="R858" t="inlineStr"/>
+    </row>
+    <row r="859">
+      <c r="A859" t="n">
+        <v>858</v>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>Technical Account Manager</t>
+        </is>
+      </c>
+      <c r="C859" t="inlineStr">
+        <is>
+          <t>Wolt - English</t>
+        </is>
+      </c>
+      <c r="D859" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E859" t="b">
+        <v>0</v>
+      </c>
+      <c r="F859" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/wolt-english/technical-account-manager-berlin-464839</t>
+        </is>
+      </c>
+      <c r="G859" t="inlineStr"/>
+      <c r="H859" t="inlineStr"/>
+      <c r="I859" t="inlineStr"/>
+      <c r="J859" t="inlineStr"/>
+      <c r="K859" t="inlineStr"/>
+      <c r="L859" t="inlineStr"/>
+      <c r="M859" t="inlineStr"/>
+      <c r="N859" t="inlineStr"/>
+      <c r="O859" t="inlineStr"/>
+      <c r="P859" t="inlineStr"/>
+      <c r="Q859" t="inlineStr"/>
+      <c r="R859" t="inlineStr"/>
+    </row>
+    <row r="860">
+      <c r="A860" t="n">
+        <v>859</v>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>Social Media - Manager:in</t>
+        </is>
+      </c>
+      <c r="C860" t="inlineStr">
+        <is>
+          <t>Ld Media</t>
+        </is>
+      </c>
+      <c r="D860" t="inlineStr">
+        <is>
+          <t>Schwäbisch Hall</t>
+        </is>
+      </c>
+      <c r="E860" t="b">
+        <v>0</v>
+      </c>
+      <c r="F860" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ld-media/social-media-managerin-schwabisch-hall-107265</t>
+        </is>
+      </c>
+      <c r="G860" t="inlineStr"/>
+      <c r="H860" t="inlineStr"/>
+      <c r="I860" t="inlineStr"/>
+      <c r="J860" t="inlineStr"/>
+      <c r="K860" t="inlineStr"/>
+      <c r="L860" t="inlineStr"/>
+      <c r="M860" t="inlineStr"/>
+      <c r="N860" t="inlineStr"/>
+      <c r="O860" t="inlineStr"/>
+      <c r="P860" t="inlineStr"/>
+      <c r="Q860" t="inlineStr"/>
+      <c r="R860" t="inlineStr"/>
+    </row>
+    <row r="861">
+      <c r="A861" t="n">
+        <v>860</v>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>Film - / Video - Cutter</t>
+        </is>
+      </c>
+      <c r="C861" t="inlineStr">
+        <is>
+          <t>Ld Media</t>
+        </is>
+      </c>
+      <c r="D861" t="inlineStr">
+        <is>
+          <t>Schwäbisch Hall</t>
+        </is>
+      </c>
+      <c r="E861" t="b">
+        <v>0</v>
+      </c>
+      <c r="F861" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ld-media/film-video-cutter-schwabisch-hall-357203</t>
+        </is>
+      </c>
+      <c r="G861" t="inlineStr"/>
+      <c r="H861" t="inlineStr"/>
+      <c r="I861" t="inlineStr"/>
+      <c r="J861" t="inlineStr"/>
+      <c r="K861" t="inlineStr"/>
+      <c r="L861" t="inlineStr"/>
+      <c r="M861" t="inlineStr"/>
+      <c r="N861" t="inlineStr"/>
+      <c r="O861" t="inlineStr"/>
+      <c r="P861" t="inlineStr"/>
+      <c r="Q861" t="inlineStr"/>
+      <c r="R861" t="inlineStr"/>
+    </row>
+    <row r="862">
+      <c r="A862" t="n">
+        <v>861</v>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>Praktikant (m/w/d) für Praktikum in Social Media Marketing Agentur</t>
+        </is>
+      </c>
+      <c r="C862" t="inlineStr">
+        <is>
+          <t>Strehlow Media Gmbh</t>
+        </is>
+      </c>
+      <c r="D862" t="inlineStr">
+        <is>
+          <t>Kiel</t>
+        </is>
+      </c>
+      <c r="E862" t="b">
+        <v>0</v>
+      </c>
+      <c r="F862" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/strehlow-media-gmbh/praktikant-fur-praktikum-in-social-media-marketing-agentur-kiel-186432</t>
+        </is>
+      </c>
+      <c r="G862" t="inlineStr"/>
+      <c r="H862" t="inlineStr"/>
+      <c r="I862" t="inlineStr"/>
+      <c r="J862" t="inlineStr"/>
+      <c r="K862" t="inlineStr"/>
+      <c r="L862" t="inlineStr"/>
+      <c r="M862" t="inlineStr"/>
+      <c r="N862" t="inlineStr"/>
+      <c r="O862" t="inlineStr"/>
+      <c r="P862" t="inlineStr"/>
+      <c r="Q862" t="inlineStr"/>
+      <c r="R862" t="inlineStr"/>
+    </row>
+    <row r="863">
+      <c r="A863" t="n">
+        <v>862</v>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Würzburg, auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C863" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D863" t="inlineStr">
+        <is>
+          <t>Würzburg</t>
+        </is>
+      </c>
+      <c r="E863" t="b">
+        <v>0</v>
+      </c>
+      <c r="F863" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-wurzburg-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-110253</t>
+        </is>
+      </c>
+      <c r="G863" t="inlineStr"/>
+      <c r="H863" t="inlineStr"/>
+      <c r="I863" t="inlineStr"/>
+      <c r="J863" t="inlineStr"/>
+      <c r="K863" t="inlineStr"/>
+      <c r="L863" t="inlineStr"/>
+      <c r="M863" t="inlineStr"/>
+      <c r="N863" t="inlineStr"/>
+      <c r="O863" t="inlineStr"/>
+      <c r="P863" t="inlineStr"/>
+      <c r="Q863" t="inlineStr"/>
+      <c r="R863" t="inlineStr"/>
+    </row>
+    <row r="864">
+      <c r="A864" t="n">
+        <v>863</v>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Augsburg , auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C864" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D864" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="E864" t="b">
+        <v>0</v>
+      </c>
+      <c r="F864" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-augsburg-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-431485</t>
+        </is>
+      </c>
+      <c r="G864" t="inlineStr"/>
+      <c r="H864" t="inlineStr"/>
+      <c r="I864" t="inlineStr"/>
+      <c r="J864" t="inlineStr"/>
+      <c r="K864" t="inlineStr"/>
+      <c r="L864" t="inlineStr"/>
+      <c r="M864" t="inlineStr"/>
+      <c r="N864" t="inlineStr"/>
+      <c r="O864" t="inlineStr"/>
+      <c r="P864" t="inlineStr"/>
+      <c r="Q864" t="inlineStr"/>
+      <c r="R864" t="inlineStr"/>
+    </row>
+    <row r="865">
+      <c r="A865" t="n">
+        <v>864</v>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>Part-time CTO</t>
+        </is>
+      </c>
+      <c r="C865" t="inlineStr">
+        <is>
+          <t>Paintgun</t>
+        </is>
+      </c>
+      <c r="D865" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E865" t="b">
+        <v>1</v>
+      </c>
+      <c r="F865" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/paintgun/part-time-cto-berlin-236359</t>
+        </is>
+      </c>
+      <c r="G865" t="inlineStr"/>
+      <c r="H865" t="inlineStr"/>
+      <c r="I865" t="inlineStr"/>
+      <c r="J865" t="inlineStr"/>
+      <c r="K865" t="inlineStr"/>
+      <c r="L865" t="inlineStr"/>
+      <c r="M865" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N865" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O865" t="n">
+        <v>70</v>
+      </c>
+      <c r="P865" t="inlineStr"/>
+      <c r="Q865" t="inlineStr"/>
+      <c r="R865" t="inlineStr"/>
+    </row>
+    <row r="866">
+      <c r="A866" t="n">
+        <v>865</v>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>German-speaking E-commerce assistant</t>
+        </is>
+      </c>
+      <c r="C866" t="inlineStr">
+        <is>
+          <t>Paintgun</t>
+        </is>
+      </c>
+      <c r="D866" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E866" t="b">
+        <v>0</v>
+      </c>
+      <c r="F866" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/paintgun/german-speaking-e-commerce-assistant-berlin-360379</t>
+        </is>
+      </c>
+      <c r="G866" t="inlineStr"/>
+      <c r="H866" t="inlineStr"/>
+      <c r="I866" t="inlineStr"/>
+      <c r="J866" t="inlineStr"/>
+      <c r="K866" t="inlineStr"/>
+      <c r="L866" t="inlineStr"/>
+      <c r="M866" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N866" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O866" t="n">
+        <v>70</v>
+      </c>
+      <c r="P866" t="inlineStr"/>
+      <c r="Q866" t="inlineStr"/>
+      <c r="R866" t="inlineStr"/>
+    </row>
+    <row r="867">
+      <c r="A867" t="n">
+        <v>866</v>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Neuried, auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C867" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D867" t="inlineStr">
+        <is>
+          <t>Neuried</t>
+        </is>
+      </c>
+      <c r="E867" t="b">
+        <v>0</v>
+      </c>
+      <c r="F867" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-neuried-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-365025</t>
+        </is>
+      </c>
+      <c r="G867" t="inlineStr"/>
+      <c r="H867" t="inlineStr"/>
+      <c r="I867" t="inlineStr"/>
+      <c r="J867" t="inlineStr"/>
+      <c r="K867" t="inlineStr"/>
+      <c r="L867" t="inlineStr"/>
+      <c r="M867" t="inlineStr"/>
+      <c r="N867" t="inlineStr"/>
+      <c r="O867" t="inlineStr"/>
+      <c r="P867" t="inlineStr"/>
+      <c r="Q867" t="inlineStr"/>
+      <c r="R867" t="inlineStr"/>
+    </row>
+    <row r="868">
+      <c r="A868" t="n">
+        <v>867</v>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Unterhaching , auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D868" t="inlineStr">
+        <is>
+          <t>Unterhaching</t>
+        </is>
+      </c>
+      <c r="E868" t="b">
+        <v>0</v>
+      </c>
+      <c r="F868" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-unterhaching-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-230790</t>
+        </is>
+      </c>
+      <c r="G868" t="inlineStr"/>
+      <c r="H868" t="inlineStr"/>
+      <c r="I868" t="inlineStr"/>
+      <c r="J868" t="inlineStr"/>
+      <c r="K868" t="inlineStr"/>
+      <c r="L868" t="inlineStr"/>
+      <c r="M868" t="inlineStr"/>
+      <c r="N868" t="inlineStr"/>
+      <c r="O868" t="inlineStr"/>
+      <c r="P868" t="inlineStr"/>
+      <c r="Q868" t="inlineStr"/>
+      <c r="R868" t="inlineStr"/>
+    </row>
+    <row r="869">
+      <c r="A869" t="n">
+        <v>868</v>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>Creative Producer @ Ad Creative Agency (Freelance)</t>
+        </is>
+      </c>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>Paintgun</t>
+        </is>
+      </c>
+      <c r="D869" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E869" t="b">
+        <v>1</v>
+      </c>
+      <c r="F869" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/paintgun/creative-producer-at-ad-creative-agency-freelance-berlin-392817</t>
+        </is>
+      </c>
+      <c r="G869" t="inlineStr"/>
+      <c r="H869" t="inlineStr"/>
+      <c r="I869" t="inlineStr"/>
+      <c r="J869" t="inlineStr"/>
+      <c r="K869" t="inlineStr"/>
+      <c r="L869" t="inlineStr"/>
+      <c r="M869" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N869" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O869" t="n">
+        <v>70</v>
+      </c>
+      <c r="P869" t="inlineStr"/>
+      <c r="Q869" t="inlineStr"/>
+      <c r="R869" t="inlineStr"/>
+    </row>
+    <row r="870">
+      <c r="A870" t="n">
+        <v>869</v>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Karlsfeld , auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C870" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D870" t="inlineStr">
+        <is>
+          <t>Karlsfeld</t>
+        </is>
+      </c>
+      <c r="E870" t="b">
+        <v>0</v>
+      </c>
+      <c r="F870" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-karlsfeld-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-61449</t>
+        </is>
+      </c>
+      <c r="G870" t="inlineStr"/>
+      <c r="H870" t="inlineStr"/>
+      <c r="I870" t="inlineStr"/>
+      <c r="J870" t="inlineStr"/>
+      <c r="K870" t="inlineStr"/>
+      <c r="L870" t="inlineStr"/>
+      <c r="M870" t="inlineStr"/>
+      <c r="N870" t="inlineStr"/>
+      <c r="O870" t="inlineStr"/>
+      <c r="P870" t="inlineStr"/>
+      <c r="Q870" t="inlineStr"/>
+      <c r="R870" t="inlineStr"/>
+    </row>
+    <row r="871">
+      <c r="A871" t="n">
+        <v>870</v>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>Ad Creative Strategist (Freelance)</t>
+        </is>
+      </c>
+      <c r="C871" t="inlineStr">
+        <is>
+          <t>Paintgun</t>
+        </is>
+      </c>
+      <c r="D871" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E871" t="b">
+        <v>1</v>
+      </c>
+      <c r="F871" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/paintgun/ad-creative-strategist-freelance-berlin-36774</t>
+        </is>
+      </c>
+      <c r="G871" t="inlineStr"/>
+      <c r="H871" t="inlineStr"/>
+      <c r="I871" t="inlineStr"/>
+      <c r="J871" t="inlineStr"/>
+      <c r="K871" t="inlineStr"/>
+      <c r="L871" t="inlineStr"/>
+      <c r="M871" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N871" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O871" t="n">
+        <v>70</v>
+      </c>
+      <c r="P871" t="inlineStr"/>
+      <c r="Q871" t="inlineStr"/>
+      <c r="R871" t="inlineStr"/>
+    </row>
+    <row r="872">
+      <c r="A872" t="n">
+        <v>871</v>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in München, auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C872" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D872" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="E872" t="b">
+        <v>0</v>
+      </c>
+      <c r="F872" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-munchen-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-munich-178223</t>
+        </is>
+      </c>
+      <c r="G872" t="inlineStr"/>
+      <c r="H872" t="inlineStr"/>
+      <c r="I872" t="inlineStr"/>
+      <c r="J872" t="inlineStr"/>
+      <c r="K872" t="inlineStr"/>
+      <c r="L872" t="inlineStr"/>
+      <c r="M872" t="inlineStr"/>
+      <c r="N872" t="inlineStr"/>
+      <c r="O872" t="inlineStr"/>
+      <c r="P872" t="inlineStr"/>
+      <c r="Q872" t="inlineStr"/>
+      <c r="R872" t="inlineStr"/>
+    </row>
+    <row r="873">
+      <c r="A873" t="n">
+        <v>872</v>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>Senior SAP Consultant mit Karriereambitionen - jetzt mit uns voll durchstarten! (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C873" t="inlineStr">
+        <is>
+          <t>Auralis Partners Gmbh</t>
+        </is>
+      </c>
+      <c r="D873" t="inlineStr">
+        <is>
+          <t>Markt Indersdorf</t>
+        </is>
+      </c>
+      <c r="E873" t="b">
+        <v>1</v>
+      </c>
+      <c r="F873" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/auralis-partners-gmbh/senior-sap-consultant-mit-karriereambitionen-jetzt-mit-uns-voll-durchstarten-markt-indersdorf-403458</t>
+        </is>
+      </c>
+      <c r="G873" t="inlineStr"/>
+      <c r="H873" t="inlineStr"/>
+      <c r="I873" t="inlineStr"/>
+      <c r="J873" t="inlineStr"/>
+      <c r="K873" t="inlineStr"/>
+      <c r="L873" t="inlineStr"/>
+      <c r="M873" t="inlineStr"/>
+      <c r="N873" t="inlineStr"/>
+      <c r="O873" t="inlineStr"/>
+      <c r="P873" t="inlineStr"/>
+      <c r="Q873" t="inlineStr"/>
+      <c r="R873" t="inlineStr"/>
+    </row>
+    <row r="874">
+      <c r="A874" t="n">
+        <v>873</v>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Heidelberg, auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C874" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D874" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E874" t="b">
+        <v>0</v>
+      </c>
+      <c r="F874" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-heidelberg-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-188516</t>
+        </is>
+      </c>
+      <c r="G874" t="inlineStr"/>
+      <c r="H874" t="inlineStr"/>
+      <c r="I874" t="inlineStr"/>
+      <c r="J874" t="inlineStr"/>
+      <c r="K874" t="inlineStr"/>
+      <c r="L874" t="inlineStr"/>
+      <c r="M874" t="inlineStr"/>
+      <c r="N874" t="inlineStr"/>
+      <c r="O874" t="inlineStr"/>
+      <c r="P874" t="inlineStr"/>
+      <c r="Q874" t="inlineStr"/>
+      <c r="R874" t="inlineStr"/>
+    </row>
+    <row r="875">
+      <c r="A875" t="n">
+        <v>874</v>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Mannheim, auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C875" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D875" t="inlineStr">
+        <is>
+          <t>Mannheim</t>
+        </is>
+      </c>
+      <c r="E875" t="b">
+        <v>0</v>
+      </c>
+      <c r="F875" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-mannheim-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-191853</t>
+        </is>
+      </c>
+      <c r="G875" t="inlineStr"/>
+      <c r="H875" t="inlineStr"/>
+      <c r="I875" t="inlineStr"/>
+      <c r="J875" t="inlineStr"/>
+      <c r="K875" t="inlineStr"/>
+      <c r="L875" t="inlineStr"/>
+      <c r="M875" t="inlineStr"/>
+      <c r="N875" t="inlineStr"/>
+      <c r="O875" t="inlineStr"/>
+      <c r="P875" t="inlineStr"/>
+      <c r="Q875" t="inlineStr"/>
+      <c r="R875" t="inlineStr"/>
+    </row>
+    <row r="876">
+      <c r="A876" t="n">
+        <v>875</v>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>WerkstudentIn</t>
+        </is>
+      </c>
+      <c r="C876" t="inlineStr">
+        <is>
+          <t>Digitaleheimat Gmbh</t>
+        </is>
+      </c>
+      <c r="D876" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E876" t="b">
+        <v>1</v>
+      </c>
+      <c r="F876" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/digitaleheimat-gmbh/werkstudentin-berlin-290614</t>
+        </is>
+      </c>
+      <c r="G876" t="inlineStr"/>
+      <c r="H876" t="inlineStr"/>
+      <c r="I876" t="inlineStr"/>
+      <c r="J876" t="inlineStr"/>
+      <c r="K876" t="inlineStr"/>
+      <c r="L876" t="inlineStr"/>
+      <c r="M876" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N876" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O876" t="n">
+        <v>70</v>
+      </c>
+      <c r="P876" t="inlineStr"/>
+      <c r="Q876" t="inlineStr"/>
+      <c r="R876" t="inlineStr"/>
+    </row>
+    <row r="877">
+      <c r="A877" t="n">
+        <v>876</v>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>Werkstudent: Embedded Software Developer</t>
+        </is>
+      </c>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>Software Engineering Weber Gmbh</t>
+        </is>
+      </c>
+      <c r="D877" t="inlineStr">
+        <is>
+          <t>Kempten</t>
+        </is>
+      </c>
+      <c r="E877" t="b">
+        <v>0</v>
+      </c>
+      <c r="F877" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/software-engineering-weber-gmbh/werkstudent-embedded-software-developer-kempten-170327</t>
+        </is>
+      </c>
+      <c r="G877" t="inlineStr"/>
+      <c r="H877" t="inlineStr"/>
+      <c r="I877" t="inlineStr"/>
+      <c r="J877" t="inlineStr"/>
+      <c r="K877" t="inlineStr"/>
+      <c r="L877" t="inlineStr"/>
+      <c r="M877" t="inlineStr"/>
+      <c r="N877" t="inlineStr"/>
+      <c r="O877" t="inlineStr"/>
+      <c r="P877" t="inlineStr"/>
+      <c r="Q877" t="inlineStr"/>
+      <c r="R877" t="inlineStr"/>
+    </row>
+    <row r="878">
+      <c r="A878" t="n">
+        <v>877</v>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>Verkauf altersgerechete Badsanierung (m/w/d) in Voll- oder Teilzeit</t>
+        </is>
+      </c>
+      <c r="C878" t="inlineStr">
+        <is>
+          <t>Besser Zuhause Gmbh</t>
+        </is>
+      </c>
+      <c r="D878" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E878" t="b">
+        <v>0</v>
+      </c>
+      <c r="F878" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/besser-zuhause-gmbh/verkauf-altersgerechete-badsanierung-in-voll-oder-teilzeit-hamburg-224565</t>
+        </is>
+      </c>
+      <c r="G878" t="inlineStr"/>
+      <c r="H878" t="inlineStr"/>
+      <c r="I878" t="inlineStr"/>
+      <c r="J878" t="inlineStr"/>
+      <c r="K878" t="inlineStr"/>
+      <c r="L878" t="inlineStr"/>
+      <c r="M878" t="inlineStr"/>
+      <c r="N878" t="inlineStr"/>
+      <c r="O878" t="inlineStr"/>
+      <c r="P878" t="inlineStr"/>
+      <c r="Q878" t="inlineStr"/>
+      <c r="R878" t="inlineStr"/>
+    </row>
+    <row r="879">
+      <c r="A879" t="n">
+        <v>878</v>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>Messtechniker (m/w/d) im Qualitätswesen Weltmarktführer an der Mosel</t>
+        </is>
+      </c>
+      <c r="C879" t="inlineStr">
+        <is>
+          <t>Heads4Solution</t>
+        </is>
+      </c>
+      <c r="D879" t="inlineStr">
+        <is>
+          <t>Zell</t>
+        </is>
+      </c>
+      <c r="E879" t="b">
+        <v>0</v>
+      </c>
+      <c r="F879" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/heads4solution/messtechniker-im-qualitatswesen-weltmarktfuhrer-an-der-mosel-zell-109369</t>
+        </is>
+      </c>
+      <c r="G879" t="inlineStr"/>
+      <c r="H879" t="inlineStr"/>
+      <c r="I879" t="inlineStr"/>
+      <c r="J879" t="inlineStr"/>
+      <c r="K879" t="inlineStr"/>
+      <c r="L879" t="inlineStr"/>
+      <c r="M879" t="inlineStr"/>
+      <c r="N879" t="inlineStr"/>
+      <c r="O879" t="inlineStr"/>
+      <c r="P879" t="inlineStr"/>
+      <c r="Q879" t="inlineStr"/>
+      <c r="R879" t="inlineStr"/>
+    </row>
+    <row r="880">
+      <c r="A880" t="n">
+        <v>879</v>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>2350-2800 € Telefonischer Kundenbetreuer  m/w/d Kundenservice Mo-Fr</t>
+        </is>
+      </c>
+      <c r="C880" t="inlineStr">
+        <is>
+          <t>W&amp;W Human Resources -  Ivonne Wresch -</t>
+        </is>
+      </c>
+      <c r="D880" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E880" t="b">
+        <v>0</v>
+      </c>
+      <c r="F880" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ww-human-resources-ivonne-wresch/2350-2800-eur-telefonischer-kundenbetreuer-kundenservice-mo-fr-berlin-75306</t>
+        </is>
+      </c>
+      <c r="G880" t="inlineStr"/>
+      <c r="H880" t="inlineStr"/>
+      <c r="I880" t="inlineStr"/>
+      <c r="J880" t="inlineStr"/>
+      <c r="K880" t="inlineStr"/>
+      <c r="L880" t="inlineStr"/>
+      <c r="M880" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N880" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O880" t="n">
+        <v>70</v>
+      </c>
+      <c r="P880" t="inlineStr"/>
+      <c r="Q880" t="inlineStr"/>
+      <c r="R880" t="inlineStr"/>
+    </row>
+    <row r="881">
+      <c r="A881" t="n">
+        <v>880</v>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>Werkstudent:In Admin HR (m/w/d) Hamburg</t>
+        </is>
+      </c>
+      <c r="C881" t="inlineStr">
+        <is>
+          <t>Eta Plus Gmbh</t>
+        </is>
+      </c>
+      <c r="D881" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E881" t="b">
+        <v>0</v>
+      </c>
+      <c r="F881" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/eta-plus-gmbh/werkstudentin-admin-hr-hamburg-74868</t>
+        </is>
+      </c>
+      <c r="G881" t="inlineStr"/>
+      <c r="H881" t="inlineStr"/>
+      <c r="I881" t="inlineStr"/>
+      <c r="J881" t="inlineStr"/>
+      <c r="K881" t="inlineStr"/>
+      <c r="L881" t="inlineStr"/>
+      <c r="M881" t="inlineStr"/>
+      <c r="N881" t="inlineStr"/>
+      <c r="O881" t="inlineStr"/>
+      <c r="P881" t="inlineStr"/>
+      <c r="Q881" t="inlineStr"/>
+      <c r="R881" t="inlineStr"/>
+    </row>
+    <row r="882">
+      <c r="A882" t="n">
+        <v>881</v>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>English Native Speaker mit perfekten Deutsch Kenntnissen</t>
+        </is>
+      </c>
+      <c r="C882" t="inlineStr">
+        <is>
+          <t>Gito Mbh Verlag</t>
+        </is>
+      </c>
+      <c r="D882" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E882" t="b">
+        <v>0</v>
+      </c>
+      <c r="F882" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/gito-mbh-verlag/english-native-speaker-mit-perfekten-deutsch-kenntnissen-berlin-377251</t>
+        </is>
+      </c>
+      <c r="G882" t="inlineStr"/>
+      <c r="H882" t="inlineStr"/>
+      <c r="I882" t="inlineStr"/>
+      <c r="J882" t="inlineStr"/>
+      <c r="K882" t="inlineStr"/>
+      <c r="L882" t="inlineStr"/>
+      <c r="M882" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N882" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O882" t="n">
+        <v>70</v>
+      </c>
+      <c r="P882" t="inlineStr"/>
+      <c r="Q882" t="inlineStr"/>
+      <c r="R882" t="inlineStr"/>
+    </row>
+    <row r="883">
+      <c r="A883" t="n">
+        <v>882</v>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>Produktionsmanager:in (m/w/d) mit Chance auf Stellvertretung als Produktionsleitung</t>
+        </is>
+      </c>
+      <c r="C883" t="inlineStr">
+        <is>
+          <t>Jobsmatter</t>
+        </is>
+      </c>
+      <c r="D883" t="inlineStr">
+        <is>
+          <t>Giessen</t>
+        </is>
+      </c>
+      <c r="E883" t="b">
+        <v>0</v>
+      </c>
+      <c r="F883" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/jobsmatter/produktionsmanagerin-mit-chance-auf-stellvertretung-als-produktionsleitung-giessen-128509</t>
+        </is>
+      </c>
+      <c r="G883" t="inlineStr"/>
+      <c r="H883" t="inlineStr"/>
+      <c r="I883" t="inlineStr"/>
+      <c r="J883" t="inlineStr"/>
+      <c r="K883" t="inlineStr"/>
+      <c r="L883" t="inlineStr"/>
+      <c r="M883" t="inlineStr"/>
+      <c r="N883" t="inlineStr"/>
+      <c r="O883" t="inlineStr"/>
+      <c r="P883" t="inlineStr"/>
+      <c r="Q883" t="inlineStr"/>
+      <c r="R883" t="inlineStr"/>
+    </row>
+    <row r="884">
+      <c r="A884" t="n">
+        <v>883</v>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>Enterprise Account Director</t>
+        </is>
+      </c>
+      <c r="C884" t="inlineStr">
+        <is>
+          <t>Retailnext</t>
+        </is>
+      </c>
+      <c r="D884" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E884" t="b">
+        <v>0</v>
+      </c>
+      <c r="F884" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/retailnext/enterprise-account-director-berlin-114252</t>
+        </is>
+      </c>
+      <c r="G884" t="inlineStr"/>
+      <c r="H884" t="inlineStr"/>
+      <c r="I884" t="inlineStr"/>
+      <c r="J884" t="inlineStr"/>
+      <c r="K884" t="inlineStr"/>
+      <c r="L884" t="inlineStr"/>
+      <c r="M884" t="inlineStr"/>
+      <c r="N884" t="inlineStr"/>
+      <c r="O884" t="inlineStr"/>
+      <c r="P884" t="inlineStr"/>
+      <c r="Q884" t="inlineStr"/>
+      <c r="R884" t="inlineStr"/>
+    </row>
+    <row r="885">
+      <c r="A885" t="n">
+        <v>884</v>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>Epic Trips Brand Director</t>
+        </is>
+      </c>
+      <c r="C885" t="inlineStr">
+        <is>
+          <t>Ventura Travel</t>
+        </is>
+      </c>
+      <c r="D885" t="inlineStr">
+        <is>
+          <t>Munich, Bavaria, Germany</t>
+        </is>
+      </c>
+      <c r="E885" t="b">
+        <v>0</v>
+      </c>
+      <c r="F885" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ventura-travel/epic-trips-brand-director-munich-88355</t>
+        </is>
+      </c>
+      <c r="G885" t="inlineStr"/>
+      <c r="H885" t="inlineStr"/>
+      <c r="I885" t="inlineStr"/>
+      <c r="J885" t="inlineStr"/>
+      <c r="K885" t="inlineStr"/>
+      <c r="L885" t="inlineStr"/>
+      <c r="M885" t="inlineStr"/>
+      <c r="N885" t="inlineStr"/>
+      <c r="O885" t="inlineStr"/>
+      <c r="P885" t="inlineStr"/>
+      <c r="Q885" t="inlineStr"/>
+      <c r="R885" t="inlineStr"/>
+    </row>
+    <row r="886">
+      <c r="A886" t="n">
+        <v>885</v>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>Travel Specialist for Central America (German Market)</t>
+        </is>
+      </c>
+      <c r="C886" t="inlineStr">
+        <is>
+          <t>Ventura Travel</t>
+        </is>
+      </c>
+      <c r="D886" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E886" t="b">
+        <v>0</v>
+      </c>
+      <c r="F886" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ventura-travel/travel-specialist-for-central-america-german-market-berlin-474628</t>
+        </is>
+      </c>
+      <c r="G886" t="inlineStr"/>
+      <c r="H886" t="inlineStr"/>
+      <c r="I886" t="inlineStr"/>
+      <c r="J886" t="inlineStr"/>
+      <c r="K886" t="inlineStr"/>
+      <c r="L886" t="inlineStr"/>
+      <c r="M886" t="inlineStr"/>
+      <c r="N886" t="inlineStr"/>
+      <c r="O886" t="inlineStr"/>
+      <c r="P886" t="inlineStr"/>
+      <c r="Q886" t="inlineStr"/>
+      <c r="R886" t="inlineStr"/>
+    </row>
+    <row r="887">
+      <c r="A887" t="n">
+        <v>886</v>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>Finance Systems Administrator &amp; Developer, IBM TM1</t>
+        </is>
+      </c>
+      <c r="C887" t="inlineStr">
+        <is>
+          <t>Wolt - English</t>
+        </is>
+      </c>
+      <c r="D887" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E887" t="b">
+        <v>0</v>
+      </c>
+      <c r="F887" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/wolt-english/finance-systems-administrator-developer-ibm-tm1-berlin-139411</t>
+        </is>
+      </c>
+      <c r="G887" t="inlineStr"/>
+      <c r="H887" t="inlineStr"/>
+      <c r="I887" t="inlineStr"/>
+      <c r="J887" t="inlineStr"/>
+      <c r="K887" t="inlineStr"/>
+      <c r="L887" t="inlineStr"/>
+      <c r="M887" t="inlineStr"/>
+      <c r="N887" t="inlineStr"/>
+      <c r="O887" t="inlineStr"/>
+      <c r="P887" t="inlineStr"/>
+      <c r="Q887" t="inlineStr"/>
+      <c r="R887" t="inlineStr"/>
+    </row>
+    <row r="888">
+      <c r="A888" t="n">
+        <v>887</v>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>Influencer Partnership Manager (all genders) (Junior / Senior)</t>
+        </is>
+      </c>
+      <c r="C888" t="inlineStr">
+        <is>
+          <t>Brainbook</t>
+        </is>
+      </c>
+      <c r="D888" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E888" t="b">
+        <v>1</v>
+      </c>
+      <c r="F888" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/brainbook/influencer-partnership-manager-all-genders-junior-senior-frankfurt-179076</t>
+        </is>
+      </c>
+      <c r="G888" t="inlineStr"/>
+      <c r="H888" t="inlineStr"/>
+      <c r="I888" t="inlineStr"/>
+      <c r="J888" t="inlineStr"/>
+      <c r="K888" t="inlineStr"/>
+      <c r="L888" t="inlineStr"/>
+      <c r="M888" t="inlineStr"/>
+      <c r="N888" t="inlineStr"/>
+      <c r="O888" t="inlineStr"/>
+      <c r="P888" t="inlineStr"/>
+      <c r="Q888" t="inlineStr"/>
+      <c r="R888" t="inlineStr"/>
+    </row>
+    <row r="889">
+      <c r="A889" t="n">
+        <v>888</v>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>Product Owner (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C889" t="inlineStr">
+        <is>
+          <t>Cannaleo Digital Gmbh</t>
+        </is>
+      </c>
+      <c r="D889" t="inlineStr">
+        <is>
+          <t>Saarbrücken</t>
+        </is>
+      </c>
+      <c r="E889" t="b">
+        <v>1</v>
+      </c>
+      <c r="F889" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/cannaleo-digital-gmbh/product-owner-saarbrucken-98262</t>
+        </is>
+      </c>
+      <c r="G889" t="inlineStr"/>
+      <c r="H889" t="inlineStr"/>
+      <c r="I889" t="inlineStr"/>
+      <c r="J889" t="inlineStr"/>
+      <c r="K889" t="inlineStr"/>
+      <c r="L889" t="inlineStr"/>
+      <c r="M889" t="inlineStr"/>
+      <c r="N889" t="inlineStr"/>
+      <c r="O889" t="inlineStr"/>
+      <c r="P889" t="inlineStr"/>
+      <c r="Q889" t="inlineStr"/>
+      <c r="R889" t="inlineStr"/>
+    </row>
+    <row r="890">
+      <c r="A890" t="n">
+        <v>889</v>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>UX/UI Designer (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C890" t="inlineStr">
+        <is>
+          <t>Cannaleo Digital Gmbh</t>
+        </is>
+      </c>
+      <c r="D890" t="inlineStr">
+        <is>
+          <t>Saarbrücken</t>
+        </is>
+      </c>
+      <c r="E890" t="b">
+        <v>1</v>
+      </c>
+      <c r="F890" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/cannaleo-digital-gmbh/ux-ui-designer-saarbrucken-56590</t>
+        </is>
+      </c>
+      <c r="G890" t="inlineStr"/>
+      <c r="H890" t="inlineStr"/>
+      <c r="I890" t="inlineStr"/>
+      <c r="J890" t="inlineStr"/>
+      <c r="K890" t="inlineStr"/>
+      <c r="L890" t="inlineStr"/>
+      <c r="M890" t="inlineStr"/>
+      <c r="N890" t="inlineStr"/>
+      <c r="O890" t="inlineStr"/>
+      <c r="P890" t="inlineStr"/>
+      <c r="Q890" t="inlineStr"/>
+      <c r="R890" t="inlineStr"/>
+    </row>
+    <row r="891">
+      <c r="A891" t="n">
+        <v>890</v>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>Frontend Developer (m/w/d) - NodeJS / TypeScript / Angular / Next.js</t>
+        </is>
+      </c>
+      <c r="C891" t="inlineStr">
+        <is>
+          <t>Cannaleo Digital Gmbh</t>
+        </is>
+      </c>
+      <c r="D891" t="inlineStr">
+        <is>
+          <t>Saarbrücken</t>
+        </is>
+      </c>
+      <c r="E891" t="b">
+        <v>1</v>
+      </c>
+      <c r="F891" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/cannaleo-digital-gmbh/frontend-developer-nodejs-typescript-angular-nextjs-saarbrucken-187102</t>
+        </is>
+      </c>
+      <c r="G891" t="inlineStr"/>
+      <c r="H891" t="inlineStr"/>
+      <c r="I891" t="inlineStr"/>
+      <c r="J891" t="inlineStr"/>
+      <c r="K891" t="inlineStr"/>
+      <c r="L891" t="inlineStr"/>
+      <c r="M891" t="inlineStr"/>
+      <c r="N891" t="inlineStr"/>
+      <c r="O891" t="inlineStr"/>
+      <c r="P891" t="inlineStr"/>
+      <c r="Q891" t="inlineStr"/>
+      <c r="R891" t="inlineStr"/>
+    </row>
+    <row r="892">
+      <c r="A892" t="n">
+        <v>891</v>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>Senior Back-End Engineer (Node.js / TypeScript / NestJS)</t>
+        </is>
+      </c>
+      <c r="C892" t="inlineStr">
+        <is>
+          <t>Funded.Club</t>
+        </is>
+      </c>
+      <c r="D892" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E892" t="b">
+        <v>0</v>
+      </c>
+      <c r="F892" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/fundedclub/senior-back-end-engineer-nodejs-typescript-nestjs-berlin-38774</t>
+        </is>
+      </c>
+      <c r="G892" t="inlineStr"/>
+      <c r="H892" t="inlineStr"/>
+      <c r="I892" t="inlineStr"/>
+      <c r="J892" t="inlineStr"/>
+      <c r="K892" t="inlineStr"/>
+      <c r="L892" t="inlineStr"/>
+      <c r="M892" t="inlineStr"/>
+      <c r="N892" t="inlineStr"/>
+      <c r="O892" t="inlineStr"/>
+      <c r="P892" t="inlineStr"/>
+      <c r="Q892" t="inlineStr"/>
+      <c r="R892" t="inlineStr"/>
+    </row>
+    <row r="893">
+      <c r="A893" t="n">
+        <v>892</v>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>ImmoPixels sucht Fotografen/Videografen (m/w/d) aus der Region Mannheim/Speyer/ Neustadt - in Teilzeit/Vollzeit</t>
+        </is>
+      </c>
+      <c r="C893" t="inlineStr">
+        <is>
+          <t>Immopixels</t>
+        </is>
+      </c>
+      <c r="D893" t="inlineStr">
+        <is>
+          <t>Hettenleidelheim</t>
+        </is>
+      </c>
+      <c r="E893" t="b">
+        <v>1</v>
+      </c>
+      <c r="F893" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/immopixels/immopixels-sucht-fotografen-videografen-aus-der-region-mannheim-speyer-neustadt-in-teilzeit-vollzeit-hettenleidelheim-66473</t>
+        </is>
+      </c>
+      <c r="G893" t="inlineStr"/>
+      <c r="H893" t="inlineStr"/>
+      <c r="I893" t="inlineStr"/>
+      <c r="J893" t="inlineStr"/>
+      <c r="K893" t="inlineStr"/>
+      <c r="L893" t="inlineStr"/>
+      <c r="M893" t="inlineStr"/>
+      <c r="N893" t="inlineStr"/>
+      <c r="O893" t="inlineStr"/>
+      <c r="P893" t="inlineStr"/>
+      <c r="Q893" t="inlineStr"/>
+      <c r="R893" t="inlineStr"/>
+    </row>
+    <row r="894">
+      <c r="A894" t="n">
+        <v>893</v>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>Junior Produkt Manger (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C894" t="inlineStr">
+        <is>
+          <t>Secupay Ag</t>
+        </is>
+      </c>
+      <c r="D894" t="inlineStr">
+        <is>
+          <t>Pulsnitz</t>
+        </is>
+      </c>
+      <c r="E894" t="b">
+        <v>0</v>
+      </c>
+      <c r="F894" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/secupay-ag/junior-produkt-manger-pulsnitz-150192</t>
+        </is>
+      </c>
+      <c r="G894" t="inlineStr"/>
+      <c r="H894" t="inlineStr"/>
+      <c r="I894" t="inlineStr"/>
+      <c r="J894" t="inlineStr"/>
+      <c r="K894" t="inlineStr"/>
+      <c r="L894" t="inlineStr"/>
+      <c r="M894" t="inlineStr"/>
+      <c r="N894" t="inlineStr"/>
+      <c r="O894" t="inlineStr"/>
+      <c r="P894" t="inlineStr"/>
+      <c r="Q894" t="inlineStr"/>
+      <c r="R894" t="inlineStr"/>
+    </row>
+    <row r="895">
+      <c r="A895" t="n">
+        <v>894</v>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>Senior Projektleitung (m/f/d)</t>
+        </is>
+      </c>
+      <c r="C895" t="inlineStr">
+        <is>
+          <t>Mimacom Deutschland Gmbh</t>
+        </is>
+      </c>
+      <c r="D895" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E895" t="b">
+        <v>0</v>
+      </c>
+      <c r="F895" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/mimacom-deutschland-gmbh/senior-projektleitung-stuttgart-72417</t>
+        </is>
+      </c>
+      <c r="G895" t="inlineStr"/>
+      <c r="H895" t="inlineStr"/>
+      <c r="I895" t="inlineStr"/>
+      <c r="J895" t="inlineStr"/>
+      <c r="K895" t="inlineStr"/>
+      <c r="L895" t="inlineStr"/>
+      <c r="M895" t="inlineStr"/>
+      <c r="N895" t="inlineStr"/>
+      <c r="O895" t="inlineStr"/>
+      <c r="P895" t="inlineStr"/>
+      <c r="Q895" t="inlineStr"/>
+      <c r="R895" t="inlineStr"/>
+    </row>
+    <row r="896">
+      <c r="A896" t="n">
+        <v>895</v>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>Kosmetik Product Manager (m/w/d) Vollzeit</t>
+        </is>
+      </c>
+      <c r="C896" t="inlineStr">
+        <is>
+          <t>Crispy Cousins C.C. Gmbh</t>
+        </is>
+      </c>
+      <c r="D896" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E896" t="b">
+        <v>0</v>
+      </c>
+      <c r="F896" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/crispy-cousins-cc-gmbh/kosmetik-product-manager-vollzeit-frankfurt-166026</t>
+        </is>
+      </c>
+      <c r="G896" t="inlineStr"/>
+      <c r="H896" t="inlineStr"/>
+      <c r="I896" t="inlineStr"/>
+      <c r="J896" t="inlineStr"/>
+      <c r="K896" t="inlineStr"/>
+      <c r="L896" t="inlineStr"/>
+      <c r="M896" t="inlineStr"/>
+      <c r="N896" t="inlineStr"/>
+      <c r="O896" t="inlineStr"/>
+      <c r="P896" t="inlineStr"/>
+      <c r="Q896" t="inlineStr"/>
+      <c r="R896" t="inlineStr"/>
+    </row>
+    <row r="897">
+      <c r="A897" t="n">
+        <v>896</v>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>Community Manager (m/w/d) bei Crispy Cousins</t>
+        </is>
+      </c>
+      <c r="C897" t="inlineStr">
+        <is>
+          <t>Crispy Cousins C.C. Gmbh</t>
+        </is>
+      </c>
+      <c r="D897" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E897" t="b">
+        <v>0</v>
+      </c>
+      <c r="F897" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/crispy-cousins-cc-gmbh/community-manager-bei-crispy-cousins-frankfurt-6556</t>
+        </is>
+      </c>
+      <c r="G897" t="inlineStr"/>
+      <c r="H897" t="inlineStr"/>
+      <c r="I897" t="inlineStr"/>
+      <c r="J897" t="inlineStr"/>
+      <c r="K897" t="inlineStr"/>
+      <c r="L897" t="inlineStr"/>
+      <c r="M897" t="inlineStr"/>
+      <c r="N897" t="inlineStr"/>
+      <c r="O897" t="inlineStr"/>
+      <c r="P897" t="inlineStr"/>
+      <c r="Q897" t="inlineStr"/>
+      <c r="R897" t="inlineStr"/>
+    </row>
+    <row r="898">
+      <c r="A898" t="n">
+        <v>897</v>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>Advanced Analyst (w/m/d)</t>
+        </is>
+      </c>
+      <c r="C898" t="inlineStr">
+        <is>
+          <t>Billie</t>
+        </is>
+      </c>
+      <c r="D898" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E898" t="b">
+        <v>0</v>
+      </c>
+      <c r="F898" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/billie/advanced-analyst-berlin-140843</t>
+        </is>
+      </c>
+      <c r="G898" t="inlineStr"/>
+      <c r="H898" t="inlineStr"/>
+      <c r="I898" t="inlineStr"/>
+      <c r="J898" t="inlineStr"/>
+      <c r="K898" t="inlineStr"/>
+      <c r="L898" t="inlineStr"/>
+      <c r="M898" t="inlineStr"/>
+      <c r="N898" t="inlineStr"/>
+      <c r="O898" t="inlineStr"/>
+      <c r="P898" t="inlineStr"/>
+      <c r="Q898" t="inlineStr"/>
+      <c r="R898" t="inlineStr"/>
+    </row>
+    <row r="899">
+      <c r="A899" t="n">
+        <v>898</v>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>Data Science Analyst (w/m/d)</t>
+        </is>
+      </c>
+      <c r="C899" t="inlineStr">
+        <is>
+          <t>Billie</t>
+        </is>
+      </c>
+      <c r="D899" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E899" t="b">
+        <v>0</v>
+      </c>
+      <c r="F899" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/billie/data-science-analyst-berlin-192781</t>
+        </is>
+      </c>
+      <c r="G899" t="inlineStr"/>
+      <c r="H899" t="inlineStr"/>
+      <c r="I899" t="inlineStr"/>
+      <c r="J899" t="inlineStr"/>
+      <c r="K899" t="inlineStr"/>
+      <c r="L899" t="inlineStr"/>
+      <c r="M899" t="inlineStr"/>
+      <c r="N899" t="inlineStr"/>
+      <c r="O899" t="inlineStr"/>
+      <c r="P899" t="inlineStr"/>
+      <c r="Q899" t="inlineStr"/>
+      <c r="R899" t="inlineStr"/>
+    </row>
+    <row r="900">
+      <c r="A900" t="n">
+        <v>899</v>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>Werkstudent (w/m/d) HR/People Team</t>
+        </is>
+      </c>
+      <c r="C900" t="inlineStr">
+        <is>
+          <t>Clariness</t>
+        </is>
+      </c>
+      <c r="D900" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E900" t="b">
+        <v>0</v>
+      </c>
+      <c r="F900" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/clariness/werkstudent-hr-people-team-berlin-377662</t>
+        </is>
+      </c>
+      <c r="G900" t="inlineStr"/>
+      <c r="H900" t="inlineStr"/>
+      <c r="I900" t="inlineStr"/>
+      <c r="J900" t="inlineStr"/>
+      <c r="K900" t="inlineStr"/>
+      <c r="L900" t="inlineStr"/>
+      <c r="M900" t="inlineStr"/>
+      <c r="N900" t="inlineStr"/>
+      <c r="O900" t="inlineStr"/>
+      <c r="P900" t="inlineStr"/>
+      <c r="Q900" t="inlineStr"/>
+      <c r="R900" t="inlineStr"/>
+    </row>
+    <row r="901">
+      <c r="A901" t="n">
+        <v>900</v>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>Lead Software Engineer</t>
+        </is>
+      </c>
+      <c r="C901" t="inlineStr">
+        <is>
+          <t>Gradle Inc.</t>
+        </is>
+      </c>
+      <c r="D901" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E901" t="b">
+        <v>0</v>
+      </c>
+      <c r="F901" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/gradle-inc/lead-software-engineer-berlin-314054</t>
+        </is>
+      </c>
+      <c r="G901" t="inlineStr"/>
+      <c r="H901" t="inlineStr"/>
+      <c r="I901" t="inlineStr"/>
+      <c r="J901" t="inlineStr"/>
+      <c r="K901" t="inlineStr"/>
+      <c r="L901" t="inlineStr"/>
+      <c r="M901" t="inlineStr"/>
+      <c r="N901" t="inlineStr"/>
+      <c r="O901" t="inlineStr"/>
+      <c r="P901" t="inlineStr"/>
+      <c r="Q901" t="inlineStr"/>
+      <c r="R901" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/static/enriched_data/enriched_data.xlsx
+++ b/src/static/enriched_data/enriched_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R901"/>
+  <dimension ref="A1:R1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37705,6 +37705,4176 @@
       <c r="Q901" t="inlineStr"/>
       <c r="R901" t="inlineStr"/>
     </row>
+    <row r="902">
+      <c r="A902" t="n">
+        <v>901</v>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>Buchhalter(in)/Steuerfachangestellte(r) Teilzeit Remote (ca. 10 Stunden pro Woche)</t>
+        </is>
+      </c>
+      <c r="C902" t="inlineStr">
+        <is>
+          <t>Livello Gmbh</t>
+        </is>
+      </c>
+      <c r="D902" t="inlineStr">
+        <is>
+          <t>Düsseldorf</t>
+        </is>
+      </c>
+      <c r="E902" t="b">
+        <v>1</v>
+      </c>
+      <c r="F902" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/livello-gmbh/buchhalterin-steuerfachangestellter-teilzeit-remote-ca-10-stunden-pro-woche-dusseldorf-43194</t>
+        </is>
+      </c>
+      <c r="G902" t="inlineStr"/>
+      <c r="H902" t="inlineStr"/>
+      <c r="I902" t="inlineStr"/>
+      <c r="J902" t="inlineStr"/>
+      <c r="K902" t="inlineStr"/>
+      <c r="L902" t="inlineStr"/>
+      <c r="M902" t="inlineStr"/>
+      <c r="N902" t="inlineStr"/>
+      <c r="O902" t="inlineStr"/>
+      <c r="P902" t="inlineStr"/>
+      <c r="Q902" t="inlineStr"/>
+      <c r="R902" t="inlineStr"/>
+    </row>
+    <row r="903">
+      <c r="A903" t="n">
+        <v>902</v>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>M&amp;E Operations Manager (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C903" t="inlineStr">
+        <is>
+          <t>Radisson Hotel Group</t>
+        </is>
+      </c>
+      <c r="D903" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E903" t="b">
+        <v>0</v>
+      </c>
+      <c r="F903" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/radisson-hotel-group/me-operations-manager-berlin-137670</t>
+        </is>
+      </c>
+      <c r="G903" t="inlineStr"/>
+      <c r="H903" t="inlineStr"/>
+      <c r="I903" t="inlineStr"/>
+      <c r="J903" t="inlineStr"/>
+      <c r="K903" t="inlineStr"/>
+      <c r="L903" t="inlineStr"/>
+      <c r="M903" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N903" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O903" t="n">
+        <v>70</v>
+      </c>
+      <c r="P903" t="inlineStr"/>
+      <c r="Q903" t="inlineStr"/>
+      <c r="R903" t="inlineStr"/>
+    </row>
+    <row r="904">
+      <c r="A904" t="n">
+        <v>903</v>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>SAP GRC &amp; Security Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C904" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D904" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E904" t="b">
+        <v>0</v>
+      </c>
+      <c r="F904" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-grc-security-berater-remote-heidelberg-487134</t>
+        </is>
+      </c>
+      <c r="G904" t="inlineStr"/>
+      <c r="H904" t="inlineStr"/>
+      <c r="I904" t="inlineStr"/>
+      <c r="J904" t="inlineStr"/>
+      <c r="K904" t="inlineStr"/>
+      <c r="L904" t="inlineStr"/>
+      <c r="M904" t="inlineStr"/>
+      <c r="N904" t="inlineStr"/>
+      <c r="O904" t="inlineStr"/>
+      <c r="P904" t="inlineStr"/>
+      <c r="Q904" t="inlineStr"/>
+      <c r="R904" t="inlineStr"/>
+    </row>
+    <row r="905">
+      <c r="A905" t="n">
+        <v>904</v>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>SAP GRC &amp; Security Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C905" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D905" t="inlineStr">
+        <is>
+          <t>Frankfurt am Main</t>
+        </is>
+      </c>
+      <c r="E905" t="b">
+        <v>0</v>
+      </c>
+      <c r="F905" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-grc-security-berater-remote-frankfurt-am-main-1677</t>
+        </is>
+      </c>
+      <c r="G905" t="inlineStr"/>
+      <c r="H905" t="inlineStr"/>
+      <c r="I905" t="inlineStr"/>
+      <c r="J905" t="inlineStr"/>
+      <c r="K905" t="inlineStr"/>
+      <c r="L905" t="inlineStr"/>
+      <c r="M905" t="inlineStr"/>
+      <c r="N905" t="inlineStr"/>
+      <c r="O905" t="inlineStr"/>
+      <c r="P905" t="inlineStr"/>
+      <c r="Q905" t="inlineStr"/>
+      <c r="R905" t="inlineStr"/>
+    </row>
+    <row r="906">
+      <c r="A906" t="n">
+        <v>905</v>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>SAP Solution Manager/Cloud ALM Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C906" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D906" t="inlineStr">
+        <is>
+          <t>Mannheim</t>
+        </is>
+      </c>
+      <c r="E906" t="b">
+        <v>0</v>
+      </c>
+      <c r="F906" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-solution-manager-cloud-alm-berater-remote-mannheim-260590</t>
+        </is>
+      </c>
+      <c r="G906" t="inlineStr"/>
+      <c r="H906" t="inlineStr"/>
+      <c r="I906" t="inlineStr"/>
+      <c r="J906" t="inlineStr"/>
+      <c r="K906" t="inlineStr"/>
+      <c r="L906" t="inlineStr"/>
+      <c r="M906" t="inlineStr"/>
+      <c r="N906" t="inlineStr"/>
+      <c r="O906" t="inlineStr"/>
+      <c r="P906" t="inlineStr"/>
+      <c r="Q906" t="inlineStr"/>
+      <c r="R906" t="inlineStr"/>
+    </row>
+    <row r="907">
+      <c r="A907" t="n">
+        <v>906</v>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>SAP Solution Manager/Cloud ALM Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C907" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D907" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E907" t="b">
+        <v>0</v>
+      </c>
+      <c r="F907" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-solution-manager-cloud-alm-berater-remote-heidelberg-212391</t>
+        </is>
+      </c>
+      <c r="G907" t="inlineStr"/>
+      <c r="H907" t="inlineStr"/>
+      <c r="I907" t="inlineStr"/>
+      <c r="J907" t="inlineStr"/>
+      <c r="K907" t="inlineStr"/>
+      <c r="L907" t="inlineStr"/>
+      <c r="M907" t="inlineStr"/>
+      <c r="N907" t="inlineStr"/>
+      <c r="O907" t="inlineStr"/>
+      <c r="P907" t="inlineStr"/>
+      <c r="Q907" t="inlineStr"/>
+      <c r="R907" t="inlineStr"/>
+    </row>
+    <row r="908">
+      <c r="A908" t="n">
+        <v>907</v>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>SAP Logistik Berater (MM/SD/) (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C908" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D908" t="inlineStr">
+        <is>
+          <t>Frankfurt am Main</t>
+        </is>
+      </c>
+      <c r="E908" t="b">
+        <v>0</v>
+      </c>
+      <c r="F908" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-logistik-berater-mm-sd-remote-frankfurt-am-main-255475</t>
+        </is>
+      </c>
+      <c r="G908" t="inlineStr"/>
+      <c r="H908" t="inlineStr"/>
+      <c r="I908" t="inlineStr"/>
+      <c r="J908" t="inlineStr"/>
+      <c r="K908" t="inlineStr"/>
+      <c r="L908" t="inlineStr"/>
+      <c r="M908" t="inlineStr"/>
+      <c r="N908" t="inlineStr"/>
+      <c r="O908" t="inlineStr"/>
+      <c r="P908" t="inlineStr"/>
+      <c r="Q908" t="inlineStr"/>
+      <c r="R908" t="inlineStr"/>
+    </row>
+    <row r="909">
+      <c r="A909" t="n">
+        <v>908</v>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>SAP Logistik Berater (MM/SD/) (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C909" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D909" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E909" t="b">
+        <v>0</v>
+      </c>
+      <c r="F909" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-logistik-berater-mm-sd-remote-cologne-69634</t>
+        </is>
+      </c>
+      <c r="G909" t="inlineStr"/>
+      <c r="H909" t="inlineStr"/>
+      <c r="I909" t="inlineStr"/>
+      <c r="J909" t="inlineStr"/>
+      <c r="K909" t="inlineStr"/>
+      <c r="L909" t="inlineStr"/>
+      <c r="M909" t="inlineStr"/>
+      <c r="N909" t="inlineStr"/>
+      <c r="O909" t="inlineStr"/>
+      <c r="P909" t="inlineStr"/>
+      <c r="Q909" t="inlineStr"/>
+      <c r="R909" t="inlineStr"/>
+    </row>
+    <row r="910">
+      <c r="A910" t="n">
+        <v>909</v>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>SAP Logistik Berater (MM/SD/) (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C910" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D910" t="inlineStr">
+        <is>
+          <t>Mannheim</t>
+        </is>
+      </c>
+      <c r="E910" t="b">
+        <v>0</v>
+      </c>
+      <c r="F910" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-logistik-berater-mm-sd-remote-mannheim-77067</t>
+        </is>
+      </c>
+      <c r="G910" t="inlineStr"/>
+      <c r="H910" t="inlineStr"/>
+      <c r="I910" t="inlineStr"/>
+      <c r="J910" t="inlineStr"/>
+      <c r="K910" t="inlineStr"/>
+      <c r="L910" t="inlineStr"/>
+      <c r="M910" t="inlineStr"/>
+      <c r="N910" t="inlineStr"/>
+      <c r="O910" t="inlineStr"/>
+      <c r="P910" t="inlineStr"/>
+      <c r="Q910" t="inlineStr"/>
+      <c r="R910" t="inlineStr"/>
+    </row>
+    <row r="911">
+      <c r="A911" t="n">
+        <v>910</v>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>SAP Logistik Berater (MM/SD/) (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C911" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D911" t="inlineStr">
+        <is>
+          <t>Düsseldorf</t>
+        </is>
+      </c>
+      <c r="E911" t="b">
+        <v>0</v>
+      </c>
+      <c r="F911" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-logistik-berater-mm-sd-remote-dusseldorf-225440</t>
+        </is>
+      </c>
+      <c r="G911" t="inlineStr"/>
+      <c r="H911" t="inlineStr"/>
+      <c r="I911" t="inlineStr"/>
+      <c r="J911" t="inlineStr"/>
+      <c r="K911" t="inlineStr"/>
+      <c r="L911" t="inlineStr"/>
+      <c r="M911" t="inlineStr"/>
+      <c r="N911" t="inlineStr"/>
+      <c r="O911" t="inlineStr"/>
+      <c r="P911" t="inlineStr"/>
+      <c r="Q911" t="inlineStr"/>
+      <c r="R911" t="inlineStr"/>
+    </row>
+    <row r="912">
+      <c r="A912" t="n">
+        <v>911</v>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>SAP Logistik Berater (MM/SD/) (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C912" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D912" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E912" t="b">
+        <v>0</v>
+      </c>
+      <c r="F912" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-logistik-berater-mm-sd-remote-heidelberg-23573</t>
+        </is>
+      </c>
+      <c r="G912" t="inlineStr"/>
+      <c r="H912" t="inlineStr"/>
+      <c r="I912" t="inlineStr"/>
+      <c r="J912" t="inlineStr"/>
+      <c r="K912" t="inlineStr"/>
+      <c r="L912" t="inlineStr"/>
+      <c r="M912" t="inlineStr"/>
+      <c r="N912" t="inlineStr"/>
+      <c r="O912" t="inlineStr"/>
+      <c r="P912" t="inlineStr"/>
+      <c r="Q912" t="inlineStr"/>
+      <c r="R912" t="inlineStr"/>
+    </row>
+    <row r="913">
+      <c r="A913" t="n">
+        <v>912</v>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>(Senior) SAP HCM Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C913" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D913" t="inlineStr">
+        <is>
+          <t>Düsseldorf</t>
+        </is>
+      </c>
+      <c r="E913" t="b">
+        <v>0</v>
+      </c>
+      <c r="F913" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-sap-hcm-berater-remote-dusseldorf-567</t>
+        </is>
+      </c>
+      <c r="G913" t="inlineStr"/>
+      <c r="H913" t="inlineStr"/>
+      <c r="I913" t="inlineStr"/>
+      <c r="J913" t="inlineStr"/>
+      <c r="K913" t="inlineStr"/>
+      <c r="L913" t="inlineStr"/>
+      <c r="M913" t="inlineStr"/>
+      <c r="N913" t="inlineStr"/>
+      <c r="O913" t="inlineStr"/>
+      <c r="P913" t="inlineStr"/>
+      <c r="Q913" t="inlineStr"/>
+      <c r="R913" t="inlineStr"/>
+    </row>
+    <row r="914">
+      <c r="A914" t="n">
+        <v>913</v>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>(Senior) SAP HCM Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C914" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D914" t="inlineStr">
+        <is>
+          <t>Frankfurt am Main</t>
+        </is>
+      </c>
+      <c r="E914" t="b">
+        <v>0</v>
+      </c>
+      <c r="F914" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-sap-hcm-berater-remote-frankfurt-am-main-462634</t>
+        </is>
+      </c>
+      <c r="G914" t="inlineStr"/>
+      <c r="H914" t="inlineStr"/>
+      <c r="I914" t="inlineStr"/>
+      <c r="J914" t="inlineStr"/>
+      <c r="K914" t="inlineStr"/>
+      <c r="L914" t="inlineStr"/>
+      <c r="M914" t="inlineStr"/>
+      <c r="N914" t="inlineStr"/>
+      <c r="O914" t="inlineStr"/>
+      <c r="P914" t="inlineStr"/>
+      <c r="Q914" t="inlineStr"/>
+      <c r="R914" t="inlineStr"/>
+    </row>
+    <row r="915">
+      <c r="A915" t="n">
+        <v>914</v>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>(Senior) SAP HCM Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C915" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D915" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E915" t="b">
+        <v>0</v>
+      </c>
+      <c r="F915" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-sap-hcm-berater-remote-cologne-347384</t>
+        </is>
+      </c>
+      <c r="G915" t="inlineStr"/>
+      <c r="H915" t="inlineStr"/>
+      <c r="I915" t="inlineStr"/>
+      <c r="J915" t="inlineStr"/>
+      <c r="K915" t="inlineStr"/>
+      <c r="L915" t="inlineStr"/>
+      <c r="M915" t="inlineStr"/>
+      <c r="N915" t="inlineStr"/>
+      <c r="O915" t="inlineStr"/>
+      <c r="P915" t="inlineStr"/>
+      <c r="Q915" t="inlineStr"/>
+      <c r="R915" t="inlineStr"/>
+    </row>
+    <row r="916">
+      <c r="A916" t="n">
+        <v>915</v>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>(Senior) SAP HCM Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C916" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D916" t="inlineStr">
+        <is>
+          <t>Mannheim</t>
+        </is>
+      </c>
+      <c r="E916" t="b">
+        <v>0</v>
+      </c>
+      <c r="F916" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-sap-hcm-berater-remote-mannheim-413850</t>
+        </is>
+      </c>
+      <c r="G916" t="inlineStr"/>
+      <c r="H916" t="inlineStr"/>
+      <c r="I916" t="inlineStr"/>
+      <c r="J916" t="inlineStr"/>
+      <c r="K916" t="inlineStr"/>
+      <c r="L916" t="inlineStr"/>
+      <c r="M916" t="inlineStr"/>
+      <c r="N916" t="inlineStr"/>
+      <c r="O916" t="inlineStr"/>
+      <c r="P916" t="inlineStr"/>
+      <c r="Q916" t="inlineStr"/>
+      <c r="R916" t="inlineStr"/>
+    </row>
+    <row r="917">
+      <c r="A917" t="n">
+        <v>916</v>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>(Senior) SAP HCM Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C917" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D917" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E917" t="b">
+        <v>0</v>
+      </c>
+      <c r="F917" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-sap-hcm-berater-remote-heidelberg-271264</t>
+        </is>
+      </c>
+      <c r="G917" t="inlineStr"/>
+      <c r="H917" t="inlineStr"/>
+      <c r="I917" t="inlineStr"/>
+      <c r="J917" t="inlineStr"/>
+      <c r="K917" t="inlineStr"/>
+      <c r="L917" t="inlineStr"/>
+      <c r="M917" t="inlineStr"/>
+      <c r="N917" t="inlineStr"/>
+      <c r="O917" t="inlineStr"/>
+      <c r="P917" t="inlineStr"/>
+      <c r="Q917" t="inlineStr"/>
+      <c r="R917" t="inlineStr"/>
+    </row>
+    <row r="918">
+      <c r="A918" t="n">
+        <v>917</v>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>Social Media &amp; Content Creator (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C918" t="inlineStr">
+        <is>
+          <t>Dcp Digitaldruck &amp; Profiltechnik Gmbh &amp; Co.Kg</t>
+        </is>
+      </c>
+      <c r="D918" t="inlineStr">
+        <is>
+          <t>Gütersloh</t>
+        </is>
+      </c>
+      <c r="E918" t="b">
+        <v>0</v>
+      </c>
+      <c r="F918" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/dcp-digitaldruck-profiltechnik-gmbh-cokg/social-media-content-creator-gutersloh-355458</t>
+        </is>
+      </c>
+      <c r="G918" t="inlineStr"/>
+      <c r="H918" t="inlineStr"/>
+      <c r="I918" t="inlineStr"/>
+      <c r="J918" t="inlineStr"/>
+      <c r="K918" t="inlineStr"/>
+      <c r="L918" t="inlineStr"/>
+      <c r="M918" t="inlineStr"/>
+      <c r="N918" t="inlineStr"/>
+      <c r="O918" t="inlineStr"/>
+      <c r="P918" t="inlineStr"/>
+      <c r="Q918" t="inlineStr"/>
+      <c r="R918" t="inlineStr"/>
+    </row>
+    <row r="919">
+      <c r="A919" t="n">
+        <v>918</v>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>(Senior) SuccessFactors Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C919" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D919" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E919" t="b">
+        <v>0</v>
+      </c>
+      <c r="F919" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-successfactors-berater-remote-heidelberg-165309</t>
+        </is>
+      </c>
+      <c r="G919" t="inlineStr"/>
+      <c r="H919" t="inlineStr"/>
+      <c r="I919" t="inlineStr"/>
+      <c r="J919" t="inlineStr"/>
+      <c r="K919" t="inlineStr"/>
+      <c r="L919" t="inlineStr"/>
+      <c r="M919" t="inlineStr"/>
+      <c r="N919" t="inlineStr"/>
+      <c r="O919" t="inlineStr"/>
+      <c r="P919" t="inlineStr"/>
+      <c r="Q919" t="inlineStr"/>
+      <c r="R919" t="inlineStr"/>
+    </row>
+    <row r="920">
+      <c r="A920" t="n">
+        <v>919</v>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>(Senior) SuccessFactors Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C920" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D920" t="inlineStr">
+        <is>
+          <t>Mannheim</t>
+        </is>
+      </c>
+      <c r="E920" t="b">
+        <v>0</v>
+      </c>
+      <c r="F920" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-successfactors-berater-remote-mannheim-129077</t>
+        </is>
+      </c>
+      <c r="G920" t="inlineStr"/>
+      <c r="H920" t="inlineStr"/>
+      <c r="I920" t="inlineStr"/>
+      <c r="J920" t="inlineStr"/>
+      <c r="K920" t="inlineStr"/>
+      <c r="L920" t="inlineStr"/>
+      <c r="M920" t="inlineStr"/>
+      <c r="N920" t="inlineStr"/>
+      <c r="O920" t="inlineStr"/>
+      <c r="P920" t="inlineStr"/>
+      <c r="Q920" t="inlineStr"/>
+      <c r="R920" t="inlineStr"/>
+    </row>
+    <row r="921">
+      <c r="A921" t="n">
+        <v>920</v>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>(Senior) SuccessFactors Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C921" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D921" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E921" t="b">
+        <v>0</v>
+      </c>
+      <c r="F921" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-successfactors-berater-remote-cologne-488544</t>
+        </is>
+      </c>
+      <c r="G921" t="inlineStr"/>
+      <c r="H921" t="inlineStr"/>
+      <c r="I921" t="inlineStr"/>
+      <c r="J921" t="inlineStr"/>
+      <c r="K921" t="inlineStr"/>
+      <c r="L921" t="inlineStr"/>
+      <c r="M921" t="inlineStr"/>
+      <c r="N921" t="inlineStr"/>
+      <c r="O921" t="inlineStr"/>
+      <c r="P921" t="inlineStr"/>
+      <c r="Q921" t="inlineStr"/>
+      <c r="R921" t="inlineStr"/>
+    </row>
+    <row r="922">
+      <c r="A922" t="n">
+        <v>921</v>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>(Senior) SuccessFactors Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C922" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D922" t="inlineStr">
+        <is>
+          <t>Frankfurt am Main</t>
+        </is>
+      </c>
+      <c r="E922" t="b">
+        <v>0</v>
+      </c>
+      <c r="F922" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-successfactors-berater-remote-frankfurt-am-main-235148</t>
+        </is>
+      </c>
+      <c r="G922" t="inlineStr"/>
+      <c r="H922" t="inlineStr"/>
+      <c r="I922" t="inlineStr"/>
+      <c r="J922" t="inlineStr"/>
+      <c r="K922" t="inlineStr"/>
+      <c r="L922" t="inlineStr"/>
+      <c r="M922" t="inlineStr"/>
+      <c r="N922" t="inlineStr"/>
+      <c r="O922" t="inlineStr"/>
+      <c r="P922" t="inlineStr"/>
+      <c r="Q922" t="inlineStr"/>
+      <c r="R922" t="inlineStr"/>
+    </row>
+    <row r="923">
+      <c r="A923" t="n">
+        <v>922</v>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>(Senior) SuccessFactors Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C923" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D923" t="inlineStr">
+        <is>
+          <t>Düsseldorf</t>
+        </is>
+      </c>
+      <c r="E923" t="b">
+        <v>0</v>
+      </c>
+      <c r="F923" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-successfactors-berater-remote-dusseldorf-277908</t>
+        </is>
+      </c>
+      <c r="G923" t="inlineStr"/>
+      <c r="H923" t="inlineStr"/>
+      <c r="I923" t="inlineStr"/>
+      <c r="J923" t="inlineStr"/>
+      <c r="K923" t="inlineStr"/>
+      <c r="L923" t="inlineStr"/>
+      <c r="M923" t="inlineStr"/>
+      <c r="N923" t="inlineStr"/>
+      <c r="O923" t="inlineStr"/>
+      <c r="P923" t="inlineStr"/>
+      <c r="Q923" t="inlineStr"/>
+      <c r="R923" t="inlineStr"/>
+    </row>
+    <row r="924">
+      <c r="A924" t="n">
+        <v>923</v>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>SAP FI/CO im Beratungsumfeld (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C924" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D924" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E924" t="b">
+        <v>0</v>
+      </c>
+      <c r="F924" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-fi-co-im-beratungsumfeld-remote-heidelberg-14855</t>
+        </is>
+      </c>
+      <c r="G924" t="inlineStr"/>
+      <c r="H924" t="inlineStr"/>
+      <c r="I924" t="inlineStr"/>
+      <c r="J924" t="inlineStr"/>
+      <c r="K924" t="inlineStr"/>
+      <c r="L924" t="inlineStr"/>
+      <c r="M924" t="inlineStr"/>
+      <c r="N924" t="inlineStr"/>
+      <c r="O924" t="inlineStr"/>
+      <c r="P924" t="inlineStr"/>
+      <c r="Q924" t="inlineStr"/>
+      <c r="R924" t="inlineStr"/>
+    </row>
+    <row r="925">
+      <c r="A925" t="n">
+        <v>924</v>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>SAP FI/CO im Beratungsumfeld (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C925" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D925" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E925" t="b">
+        <v>0</v>
+      </c>
+      <c r="F925" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-fi-co-im-beratungsumfeld-remote-cologne-317025</t>
+        </is>
+      </c>
+      <c r="G925" t="inlineStr"/>
+      <c r="H925" t="inlineStr"/>
+      <c r="I925" t="inlineStr"/>
+      <c r="J925" t="inlineStr"/>
+      <c r="K925" t="inlineStr"/>
+      <c r="L925" t="inlineStr"/>
+      <c r="M925" t="inlineStr"/>
+      <c r="N925" t="inlineStr"/>
+      <c r="O925" t="inlineStr"/>
+      <c r="P925" t="inlineStr"/>
+      <c r="Q925" t="inlineStr"/>
+      <c r="R925" t="inlineStr"/>
+    </row>
+    <row r="926">
+      <c r="A926" t="n">
+        <v>925</v>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>SAP FI/CO im Beratungsumfeld (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C926" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D926" t="inlineStr">
+        <is>
+          <t>Mannheim</t>
+        </is>
+      </c>
+      <c r="E926" t="b">
+        <v>0</v>
+      </c>
+      <c r="F926" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-fi-co-im-beratungsumfeld-remote-mannheim-147547</t>
+        </is>
+      </c>
+      <c r="G926" t="inlineStr"/>
+      <c r="H926" t="inlineStr"/>
+      <c r="I926" t="inlineStr"/>
+      <c r="J926" t="inlineStr"/>
+      <c r="K926" t="inlineStr"/>
+      <c r="L926" t="inlineStr"/>
+      <c r="M926" t="inlineStr"/>
+      <c r="N926" t="inlineStr"/>
+      <c r="O926" t="inlineStr"/>
+      <c r="P926" t="inlineStr"/>
+      <c r="Q926" t="inlineStr"/>
+      <c r="R926" t="inlineStr"/>
+    </row>
+    <row r="927">
+      <c r="A927" t="n">
+        <v>926</v>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>Staff Engineer .NET (f/m/d)</t>
+        </is>
+      </c>
+      <c r="C927" t="inlineStr">
+        <is>
+          <t>Apaleo</t>
+        </is>
+      </c>
+      <c r="D927" t="inlineStr">
+        <is>
+          <t>München, Bavaria, Germany</t>
+        </is>
+      </c>
+      <c r="E927" t="b">
+        <v>0</v>
+      </c>
+      <c r="F927" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/apaleo/staff-engineer-net-munchen-142700</t>
+        </is>
+      </c>
+      <c r="G927" t="inlineStr"/>
+      <c r="H927" t="inlineStr"/>
+      <c r="I927" t="inlineStr"/>
+      <c r="J927" t="inlineStr"/>
+      <c r="K927" t="inlineStr"/>
+      <c r="L927" t="inlineStr"/>
+      <c r="M927" t="inlineStr"/>
+      <c r="N927" t="inlineStr"/>
+      <c r="O927" t="inlineStr"/>
+      <c r="P927" t="inlineStr"/>
+      <c r="Q927" t="inlineStr"/>
+      <c r="R927" t="inlineStr"/>
+    </row>
+    <row r="928">
+      <c r="A928" t="n">
+        <v>927</v>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>Minijob im Recruiting (m/w/d) - 100% Remote</t>
+        </is>
+      </c>
+      <c r="C928" t="inlineStr">
+        <is>
+          <t>Recruiting Sonia</t>
+        </is>
+      </c>
+      <c r="D928" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E928" t="b">
+        <v>1</v>
+      </c>
+      <c r="F928" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/recruiting-sonia/minijob-im-recruiting-100-remote-berlin-339267</t>
+        </is>
+      </c>
+      <c r="G928" t="inlineStr"/>
+      <c r="H928" t="inlineStr"/>
+      <c r="I928" t="inlineStr"/>
+      <c r="J928" t="inlineStr"/>
+      <c r="K928" t="inlineStr"/>
+      <c r="L928" t="inlineStr"/>
+      <c r="M928" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N928" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O928" t="n">
+        <v>70</v>
+      </c>
+      <c r="P928" t="inlineStr"/>
+      <c r="Q928" t="inlineStr"/>
+      <c r="R928" t="inlineStr"/>
+    </row>
+    <row r="929">
+      <c r="A929" t="n">
+        <v>928</v>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>Werkstudent:in im Recruiting (m/w/d) - 100% Remote</t>
+        </is>
+      </c>
+      <c r="C929" t="inlineStr">
+        <is>
+          <t>Recruiting Sonia</t>
+        </is>
+      </c>
+      <c r="D929" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E929" t="b">
+        <v>1</v>
+      </c>
+      <c r="F929" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/recruiting-sonia/werkstudentin-im-recruiting-100-remote-berlin-246579</t>
+        </is>
+      </c>
+      <c r="G929" t="inlineStr"/>
+      <c r="H929" t="inlineStr"/>
+      <c r="I929" t="inlineStr"/>
+      <c r="J929" t="inlineStr"/>
+      <c r="K929" t="inlineStr"/>
+      <c r="L929" t="inlineStr"/>
+      <c r="M929" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N929" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O929" t="n">
+        <v>70</v>
+      </c>
+      <c r="P929" t="inlineStr"/>
+      <c r="Q929" t="inlineStr"/>
+      <c r="R929" t="inlineStr"/>
+    </row>
+    <row r="930">
+      <c r="A930" t="n">
+        <v>929</v>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>Lead Engineer Full-Stack (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C930" t="inlineStr">
+        <is>
+          <t>42Matches Gmbh</t>
+        </is>
+      </c>
+      <c r="D930" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E930" t="b">
+        <v>0</v>
+      </c>
+      <c r="F930" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/42matches-gmbh/lead-engineer-full-stack-hamburg-140652</t>
+        </is>
+      </c>
+      <c r="G930" t="inlineStr"/>
+      <c r="H930" t="inlineStr"/>
+      <c r="I930" t="inlineStr"/>
+      <c r="J930" t="inlineStr"/>
+      <c r="K930" t="inlineStr"/>
+      <c r="L930" t="inlineStr"/>
+      <c r="M930" t="inlineStr"/>
+      <c r="N930" t="inlineStr"/>
+      <c r="O930" t="inlineStr"/>
+      <c r="P930" t="inlineStr"/>
+      <c r="Q930" t="inlineStr"/>
+      <c r="R930" t="inlineStr"/>
+    </row>
+    <row r="931">
+      <c r="A931" t="n">
+        <v>930</v>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>Serviceleiter (m/w/d) für große Autohaus-Gruppe - Hauptstandort in Bergedorf</t>
+        </is>
+      </c>
+      <c r="C931" t="inlineStr">
+        <is>
+          <t>Michael Krohn Consulting</t>
+        </is>
+      </c>
+      <c r="D931" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E931" t="b">
+        <v>0</v>
+      </c>
+      <c r="F931" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/michael-krohn-consulting/serviceleiter-fur-grosse-autohaus-gruppe-hauptstandort-in-bergedorf-hamburg-168628</t>
+        </is>
+      </c>
+      <c r="G931" t="inlineStr"/>
+      <c r="H931" t="inlineStr"/>
+      <c r="I931" t="inlineStr"/>
+      <c r="J931" t="inlineStr"/>
+      <c r="K931" t="inlineStr"/>
+      <c r="L931" t="inlineStr"/>
+      <c r="M931" t="inlineStr"/>
+      <c r="N931" t="inlineStr"/>
+      <c r="O931" t="inlineStr"/>
+      <c r="P931" t="inlineStr"/>
+      <c r="Q931" t="inlineStr"/>
+      <c r="R931" t="inlineStr"/>
+    </row>
+    <row r="932">
+      <c r="A932" t="n">
+        <v>931</v>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>Serviceberater Nutzfahrzeuge (m/w/d) für mittelständische Autohaus-Gruppe</t>
+        </is>
+      </c>
+      <c r="C932" t="inlineStr">
+        <is>
+          <t>Michael Krohn Consulting</t>
+        </is>
+      </c>
+      <c r="D932" t="inlineStr">
+        <is>
+          <t>Elmshorn</t>
+        </is>
+      </c>
+      <c r="E932" t="b">
+        <v>0</v>
+      </c>
+      <c r="F932" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/michael-krohn-consulting/serviceberater-nutzfahrzeuge-fur-mittelstandische-autohaus-gruppe-elmshorn-451815</t>
+        </is>
+      </c>
+      <c r="G932" t="inlineStr"/>
+      <c r="H932" t="inlineStr"/>
+      <c r="I932" t="inlineStr"/>
+      <c r="J932" t="inlineStr"/>
+      <c r="K932" t="inlineStr"/>
+      <c r="L932" t="inlineStr"/>
+      <c r="M932" t="inlineStr"/>
+      <c r="N932" t="inlineStr"/>
+      <c r="O932" t="inlineStr"/>
+      <c r="P932" t="inlineStr"/>
+      <c r="Q932" t="inlineStr"/>
+      <c r="R932" t="inlineStr"/>
+    </row>
+    <row r="933">
+      <c r="A933" t="n">
+        <v>932</v>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>System Engineer (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C933" t="inlineStr">
+        <is>
+          <t>Indeno Deutschland</t>
+        </is>
+      </c>
+      <c r="D933" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E933" t="b">
+        <v>1</v>
+      </c>
+      <c r="F933" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/indeno-deutschland/system-engineer-stuttgart-197991</t>
+        </is>
+      </c>
+      <c r="G933" t="inlineStr"/>
+      <c r="H933" t="inlineStr"/>
+      <c r="I933" t="inlineStr"/>
+      <c r="J933" t="inlineStr"/>
+      <c r="K933" t="inlineStr"/>
+      <c r="L933" t="inlineStr"/>
+      <c r="M933" t="inlineStr"/>
+      <c r="N933" t="inlineStr"/>
+      <c r="O933" t="inlineStr"/>
+      <c r="P933" t="inlineStr"/>
+      <c r="Q933" t="inlineStr"/>
+      <c r="R933" t="inlineStr"/>
+    </row>
+    <row r="934">
+      <c r="A934" t="n">
+        <v>933</v>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>Senior Backend Entwickler (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C934" t="inlineStr">
+        <is>
+          <t>Axontic Gmbh</t>
+        </is>
+      </c>
+      <c r="D934" t="inlineStr">
+        <is>
+          <t>Bremen</t>
+        </is>
+      </c>
+      <c r="E934" t="b">
+        <v>0</v>
+      </c>
+      <c r="F934" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/axontic-gmbh/senior-backend-entwickler-bremen-454155</t>
+        </is>
+      </c>
+      <c r="G934" t="inlineStr"/>
+      <c r="H934" t="inlineStr"/>
+      <c r="I934" t="inlineStr"/>
+      <c r="J934" t="inlineStr"/>
+      <c r="K934" t="inlineStr"/>
+      <c r="L934" t="inlineStr"/>
+      <c r="M934" t="inlineStr"/>
+      <c r="N934" t="inlineStr"/>
+      <c r="O934" t="inlineStr"/>
+      <c r="P934" t="inlineStr"/>
+      <c r="Q934" t="inlineStr"/>
+      <c r="R934" t="inlineStr"/>
+    </row>
+    <row r="935">
+      <c r="A935" t="n">
+        <v>934</v>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>Modern Workplace Engineer - Microsoft 365 (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C935" t="inlineStr">
+        <is>
+          <t>Indeno Deutschland</t>
+        </is>
+      </c>
+      <c r="D935" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E935" t="b">
+        <v>1</v>
+      </c>
+      <c r="F935" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/indeno-deutschland/modern-workplace-engineer-microsoft-365-stuttgart-40528</t>
+        </is>
+      </c>
+      <c r="G935" t="inlineStr"/>
+      <c r="H935" t="inlineStr"/>
+      <c r="I935" t="inlineStr"/>
+      <c r="J935" t="inlineStr"/>
+      <c r="K935" t="inlineStr"/>
+      <c r="L935" t="inlineStr"/>
+      <c r="M935" t="inlineStr"/>
+      <c r="N935" t="inlineStr"/>
+      <c r="O935" t="inlineStr"/>
+      <c r="P935" t="inlineStr"/>
+      <c r="Q935" t="inlineStr"/>
+      <c r="R935" t="inlineStr"/>
+    </row>
+    <row r="936">
+      <c r="A936" t="n">
+        <v>935</v>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>Bauleiter (m/w/d) mit Schwerpunkt Sanierung von Wohnimmobilien</t>
+        </is>
+      </c>
+      <c r="C936" t="inlineStr">
+        <is>
+          <t>Brickup Gmbh</t>
+        </is>
+      </c>
+      <c r="D936" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E936" t="b">
+        <v>0</v>
+      </c>
+      <c r="F936" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/brickup-gmbh/bauleiter-mit-schwerpunkt-sanierung-von-wohnimmobilien-hamburg-435577</t>
+        </is>
+      </c>
+      <c r="G936" t="inlineStr"/>
+      <c r="H936" t="inlineStr"/>
+      <c r="I936" t="inlineStr"/>
+      <c r="J936" t="inlineStr"/>
+      <c r="K936" t="inlineStr"/>
+      <c r="L936" t="inlineStr"/>
+      <c r="M936" t="inlineStr"/>
+      <c r="N936" t="inlineStr"/>
+      <c r="O936" t="inlineStr"/>
+      <c r="P936" t="inlineStr"/>
+      <c r="Q936" t="inlineStr"/>
+      <c r="R936" t="inlineStr"/>
+    </row>
+    <row r="937">
+      <c r="A937" t="n">
+        <v>936</v>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>IT Application Manager (m/w/d) Systembetrieb &amp; Prozessmanagement - Remote</t>
+        </is>
+      </c>
+      <c r="C937" t="inlineStr">
+        <is>
+          <t>Shaarconsulting</t>
+        </is>
+      </c>
+      <c r="D937" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E937" t="b">
+        <v>1</v>
+      </c>
+      <c r="F937" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/shaarconsulting/it-application-manager-systembetrieb-prozessmanagement-remote-berlin-109584</t>
+        </is>
+      </c>
+      <c r="G937" t="inlineStr"/>
+      <c r="H937" t="inlineStr"/>
+      <c r="I937" t="inlineStr"/>
+      <c r="J937" t="inlineStr"/>
+      <c r="K937" t="inlineStr"/>
+      <c r="L937" t="inlineStr"/>
+      <c r="M937" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N937" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O937" t="n">
+        <v>70</v>
+      </c>
+      <c r="P937" t="inlineStr"/>
+      <c r="Q937" t="inlineStr"/>
+      <c r="R937" t="inlineStr"/>
+    </row>
+    <row r="938">
+      <c r="A938" t="n">
+        <v>937</v>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>IT Techniker (m/w/d) Windows Client/ Serverumgebungen</t>
+        </is>
+      </c>
+      <c r="C938" t="inlineStr">
+        <is>
+          <t>Shaarconsulting</t>
+        </is>
+      </c>
+      <c r="D938" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E938" t="b">
+        <v>0</v>
+      </c>
+      <c r="F938" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/shaarconsulting/it-techniker-windows-client-serverumgebungen-berlin-40236</t>
+        </is>
+      </c>
+      <c r="G938" t="inlineStr"/>
+      <c r="H938" t="inlineStr"/>
+      <c r="I938" t="inlineStr"/>
+      <c r="J938" t="inlineStr"/>
+      <c r="K938" t="inlineStr"/>
+      <c r="L938" t="inlineStr"/>
+      <c r="M938" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N938" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O938" t="n">
+        <v>70</v>
+      </c>
+      <c r="P938" t="inlineStr"/>
+      <c r="Q938" t="inlineStr"/>
+      <c r="R938" t="inlineStr"/>
+    </row>
+    <row r="939">
+      <c r="A939" t="n">
+        <v>938</v>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>Junior Automation Experten (m/w/d) für KI-Strategieberatung</t>
+        </is>
+      </c>
+      <c r="C939" t="inlineStr">
+        <is>
+          <t>Neurawork</t>
+        </is>
+      </c>
+      <c r="D939" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E939" t="b">
+        <v>1</v>
+      </c>
+      <c r="F939" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/neurawork/junior-automation-experten-fur-ki-strategieberatung-berlin-418823</t>
+        </is>
+      </c>
+      <c r="G939" t="inlineStr"/>
+      <c r="H939" t="inlineStr"/>
+      <c r="I939" t="inlineStr"/>
+      <c r="J939" t="inlineStr"/>
+      <c r="K939" t="inlineStr"/>
+      <c r="L939" t="inlineStr"/>
+      <c r="M939" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N939" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O939" t="n">
+        <v>70</v>
+      </c>
+      <c r="P939" t="inlineStr"/>
+      <c r="Q939" t="inlineStr"/>
+      <c r="R939" t="inlineStr"/>
+    </row>
+    <row r="940">
+      <c r="A940" t="n">
+        <v>939</v>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>(Senior) Projektmanager SAP S/4HANA (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C940" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D940" t="inlineStr">
+        <is>
+          <t>Mannheim</t>
+        </is>
+      </c>
+      <c r="E940" t="b">
+        <v>0</v>
+      </c>
+      <c r="F940" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-projektmanager-sap-s-4hana-remote-mannheim-67062</t>
+        </is>
+      </c>
+      <c r="G940" t="inlineStr"/>
+      <c r="H940" t="inlineStr"/>
+      <c r="I940" t="inlineStr"/>
+      <c r="J940" t="inlineStr"/>
+      <c r="K940" t="inlineStr"/>
+      <c r="L940" t="inlineStr"/>
+      <c r="M940" t="inlineStr"/>
+      <c r="N940" t="inlineStr"/>
+      <c r="O940" t="inlineStr"/>
+      <c r="P940" t="inlineStr"/>
+      <c r="Q940" t="inlineStr"/>
+      <c r="R940" t="inlineStr"/>
+    </row>
+    <row r="941">
+      <c r="A941" t="n">
+        <v>940</v>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>(Senior) Projektmanager SAP S/4HANA (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C941" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D941" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E941" t="b">
+        <v>0</v>
+      </c>
+      <c r="F941" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-projektmanager-sap-s-4hana-remote-cologne-288258</t>
+        </is>
+      </c>
+      <c r="G941" t="inlineStr"/>
+      <c r="H941" t="inlineStr"/>
+      <c r="I941" t="inlineStr"/>
+      <c r="J941" t="inlineStr"/>
+      <c r="K941" t="inlineStr"/>
+      <c r="L941" t="inlineStr"/>
+      <c r="M941" t="inlineStr"/>
+      <c r="N941" t="inlineStr"/>
+      <c r="O941" t="inlineStr"/>
+      <c r="P941" t="inlineStr"/>
+      <c r="Q941" t="inlineStr"/>
+      <c r="R941" t="inlineStr"/>
+    </row>
+    <row r="942">
+      <c r="A942" t="n">
+        <v>941</v>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>(Senior) Projektmanager SAP S/4HANA (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C942" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D942" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E942" t="b">
+        <v>0</v>
+      </c>
+      <c r="F942" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-projektmanager-sap-s-4hana-remote-heidelberg-393651</t>
+        </is>
+      </c>
+      <c r="G942" t="inlineStr"/>
+      <c r="H942" t="inlineStr"/>
+      <c r="I942" t="inlineStr"/>
+      <c r="J942" t="inlineStr"/>
+      <c r="K942" t="inlineStr"/>
+      <c r="L942" t="inlineStr"/>
+      <c r="M942" t="inlineStr"/>
+      <c r="N942" t="inlineStr"/>
+      <c r="O942" t="inlineStr"/>
+      <c r="P942" t="inlineStr"/>
+      <c r="Q942" t="inlineStr"/>
+      <c r="R942" t="inlineStr"/>
+    </row>
+    <row r="943">
+      <c r="A943" t="n">
+        <v>942</v>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>Telefonischer Kundenberater / Call Center Agent m/w/d Krankenversicherung</t>
+        </is>
+      </c>
+      <c r="C943" t="inlineStr">
+        <is>
+          <t>W&amp;W Human Resources -  Ivonne Wresch -</t>
+        </is>
+      </c>
+      <c r="D943" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E943" t="b">
+        <v>0</v>
+      </c>
+      <c r="F943" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ww-human-resources-ivonne-wresch/telefonischer-kundenberater-call-center-agent-krankenversicherung-hamburg-332750</t>
+        </is>
+      </c>
+      <c r="G943" t="inlineStr"/>
+      <c r="H943" t="inlineStr"/>
+      <c r="I943" t="inlineStr"/>
+      <c r="J943" t="inlineStr"/>
+      <c r="K943" t="inlineStr"/>
+      <c r="L943" t="inlineStr"/>
+      <c r="M943" t="inlineStr"/>
+      <c r="N943" t="inlineStr"/>
+      <c r="O943" t="inlineStr"/>
+      <c r="P943" t="inlineStr"/>
+      <c r="Q943" t="inlineStr"/>
+      <c r="R943" t="inlineStr"/>
+    </row>
+    <row r="944">
+      <c r="A944" t="n">
+        <v>943</v>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>2350-2800 € Telefonischer Kundenbetreuer  m/w/d Kundenservice Mo-Fr</t>
+        </is>
+      </c>
+      <c r="C944" t="inlineStr">
+        <is>
+          <t>W&amp;W Human Resources -  Ivonne Wresch -</t>
+        </is>
+      </c>
+      <c r="D944" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E944" t="b">
+        <v>0</v>
+      </c>
+      <c r="F944" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ww-human-resources-ivonne-wresch/2350-2800-eur-telefonischer-kundenbetreuer-kundenservice-mo-fr-berlin-114921</t>
+        </is>
+      </c>
+      <c r="G944" t="inlineStr"/>
+      <c r="H944" t="inlineStr"/>
+      <c r="I944" t="inlineStr"/>
+      <c r="J944" t="inlineStr"/>
+      <c r="K944" t="inlineStr"/>
+      <c r="L944" t="inlineStr"/>
+      <c r="M944" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N944" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O944" t="n">
+        <v>70</v>
+      </c>
+      <c r="P944" t="inlineStr"/>
+      <c r="Q944" t="inlineStr"/>
+      <c r="R944" t="inlineStr"/>
+    </row>
+    <row r="945">
+      <c r="A945" t="n">
+        <v>944</v>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t>Call Center Agent  m/w/d Kundenservice</t>
+        </is>
+      </c>
+      <c r="C945" t="inlineStr">
+        <is>
+          <t>W&amp;W Human Resources -  Ivonne Wresch -</t>
+        </is>
+      </c>
+      <c r="D945" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E945" t="b">
+        <v>0</v>
+      </c>
+      <c r="F945" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ww-human-resources-ivonne-wresch/call-center-agent-kundenservice-berlin-218147</t>
+        </is>
+      </c>
+      <c r="G945" t="inlineStr"/>
+      <c r="H945" t="inlineStr"/>
+      <c r="I945" t="inlineStr"/>
+      <c r="J945" t="inlineStr"/>
+      <c r="K945" t="inlineStr"/>
+      <c r="L945" t="inlineStr"/>
+      <c r="M945" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N945" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O945" t="n">
+        <v>70</v>
+      </c>
+      <c r="P945" t="inlineStr"/>
+      <c r="Q945" t="inlineStr"/>
+      <c r="R945" t="inlineStr"/>
+    </row>
+    <row r="946">
+      <c r="A946" t="n">
+        <v>945</v>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t>Telefonischer Kundenberater / Call Center Agent m/w/d  Mo-Fr VZ/TZ</t>
+        </is>
+      </c>
+      <c r="C946" t="inlineStr">
+        <is>
+          <t>W&amp;W Human Resources -  Ivonne Wresch -</t>
+        </is>
+      </c>
+      <c r="D946" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E946" t="b">
+        <v>0</v>
+      </c>
+      <c r="F946" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ww-human-resources-ivonne-wresch/telefonischer-kundenberater-call-center-agent-mo-fr-vz-tz-hamburg-400889</t>
+        </is>
+      </c>
+      <c r="G946" t="inlineStr"/>
+      <c r="H946" t="inlineStr"/>
+      <c r="I946" t="inlineStr"/>
+      <c r="J946" t="inlineStr"/>
+      <c r="K946" t="inlineStr"/>
+      <c r="L946" t="inlineStr"/>
+      <c r="M946" t="inlineStr"/>
+      <c r="N946" t="inlineStr"/>
+      <c r="O946" t="inlineStr"/>
+      <c r="P946" t="inlineStr"/>
+      <c r="Q946" t="inlineStr"/>
+      <c r="R946" t="inlineStr"/>
+    </row>
+    <row r="947">
+      <c r="A947" t="n">
+        <v>946</v>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Frankfurt am Main, auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C947" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D947" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E947" t="b">
+        <v>0</v>
+      </c>
+      <c r="F947" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-frankfurt-am-main-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-55850</t>
+        </is>
+      </c>
+      <c r="G947" t="inlineStr"/>
+      <c r="H947" t="inlineStr"/>
+      <c r="I947" t="inlineStr"/>
+      <c r="J947" t="inlineStr"/>
+      <c r="K947" t="inlineStr"/>
+      <c r="L947" t="inlineStr"/>
+      <c r="M947" t="inlineStr"/>
+      <c r="N947" t="inlineStr"/>
+      <c r="O947" t="inlineStr"/>
+      <c r="P947" t="inlineStr"/>
+      <c r="Q947" t="inlineStr"/>
+      <c r="R947" t="inlineStr"/>
+    </row>
+    <row r="948">
+      <c r="A948" t="n">
+        <v>947</v>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t>Creative Communications Designer (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C948" t="inlineStr">
+        <is>
+          <t>Dxm Gmbh &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="D948" t="inlineStr">
+        <is>
+          <t>Düsseldorf</t>
+        </is>
+      </c>
+      <c r="E948" t="b">
+        <v>0</v>
+      </c>
+      <c r="F948" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/dxm-gmbh-co-kg/creative-communications-designer-dusseldorf-492273</t>
+        </is>
+      </c>
+      <c r="G948" t="inlineStr"/>
+      <c r="H948" t="inlineStr"/>
+      <c r="I948" t="inlineStr"/>
+      <c r="J948" t="inlineStr"/>
+      <c r="K948" t="inlineStr"/>
+      <c r="L948" t="inlineStr"/>
+      <c r="M948" t="inlineStr"/>
+      <c r="N948" t="inlineStr"/>
+      <c r="O948" t="inlineStr"/>
+      <c r="P948" t="inlineStr"/>
+      <c r="Q948" t="inlineStr"/>
+      <c r="R948" t="inlineStr"/>
+    </row>
+    <row r="949">
+      <c r="A949" t="n">
+        <v>948</v>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t>(Junior)JavaScript-Entwickler (m/w/d) 100% REMOTE</t>
+        </is>
+      </c>
+      <c r="C949" t="inlineStr">
+        <is>
+          <t>Powerprozesse</t>
+        </is>
+      </c>
+      <c r="D949" t="inlineStr">
+        <is>
+          <t>Worms</t>
+        </is>
+      </c>
+      <c r="E949" t="b">
+        <v>1</v>
+      </c>
+      <c r="F949" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/powerprozesse/juniorjavascript-entwickler-100-remote-worms-136587</t>
+        </is>
+      </c>
+      <c r="G949" t="inlineStr"/>
+      <c r="H949" t="inlineStr"/>
+      <c r="I949" t="inlineStr"/>
+      <c r="J949" t="inlineStr"/>
+      <c r="K949" t="inlineStr"/>
+      <c r="L949" t="inlineStr"/>
+      <c r="M949" t="inlineStr"/>
+      <c r="N949" t="inlineStr"/>
+      <c r="O949" t="inlineStr"/>
+      <c r="P949" t="inlineStr"/>
+      <c r="Q949" t="inlineStr"/>
+      <c r="R949" t="inlineStr"/>
+    </row>
+    <row r="950">
+      <c r="A950" t="n">
+        <v>949</v>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t>Callcenteragent als Vorprüfer (m/w/d) für Unternehmen in Krisensituationen | 100 % Home Office</t>
+        </is>
+      </c>
+      <c r="C950" t="inlineStr">
+        <is>
+          <t>Perspektive Zukunft E.V.</t>
+        </is>
+      </c>
+      <c r="D950" t="inlineStr">
+        <is>
+          <t>Hanover</t>
+        </is>
+      </c>
+      <c r="E950" t="b">
+        <v>1</v>
+      </c>
+      <c r="F950" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/perspektive-zukunft-ev/callcenteragent-als-vorprufer-fur-unternehmen-in-krisensituationen-100-home-office-hanover-362782</t>
+        </is>
+      </c>
+      <c r="G950" t="inlineStr"/>
+      <c r="H950" t="inlineStr"/>
+      <c r="I950" t="inlineStr"/>
+      <c r="J950" t="inlineStr"/>
+      <c r="K950" t="inlineStr"/>
+      <c r="L950" t="inlineStr"/>
+      <c r="M950" t="inlineStr"/>
+      <c r="N950" t="inlineStr"/>
+      <c r="O950" t="inlineStr"/>
+      <c r="P950" t="inlineStr"/>
+      <c r="Q950" t="inlineStr"/>
+      <c r="R950" t="inlineStr"/>
+    </row>
+    <row r="951">
+      <c r="A951" t="n">
+        <v>950</v>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Nürnberg, auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C951" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D951" t="inlineStr">
+        <is>
+          <t>Nuremberg</t>
+        </is>
+      </c>
+      <c r="E951" t="b">
+        <v>0</v>
+      </c>
+      <c r="F951" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-nurnberg-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-nuremberg-268112</t>
+        </is>
+      </c>
+      <c r="G951" t="inlineStr"/>
+      <c r="H951" t="inlineStr"/>
+      <c r="I951" t="inlineStr"/>
+      <c r="J951" t="inlineStr"/>
+      <c r="K951" t="inlineStr"/>
+      <c r="L951" t="inlineStr"/>
+      <c r="M951" t="inlineStr"/>
+      <c r="N951" t="inlineStr"/>
+      <c r="O951" t="inlineStr"/>
+      <c r="P951" t="inlineStr"/>
+      <c r="Q951" t="inlineStr"/>
+      <c r="R951" t="inlineStr"/>
+    </row>
+    <row r="952">
+      <c r="A952" t="n">
+        <v>951</v>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>Personalreferent mit Macherqualität (m/w/d) | 100 % Home Office</t>
+        </is>
+      </c>
+      <c r="C952" t="inlineStr">
+        <is>
+          <t>Perspektive Zukunft E.V.</t>
+        </is>
+      </c>
+      <c r="D952" t="inlineStr">
+        <is>
+          <t>Hanover</t>
+        </is>
+      </c>
+      <c r="E952" t="b">
+        <v>1</v>
+      </c>
+      <c r="F952" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/perspektive-zukunft-ev/personalreferent-mit-macherqualitat-100-home-office-hanover-48391</t>
+        </is>
+      </c>
+      <c r="G952" t="inlineStr"/>
+      <c r="H952" t="inlineStr"/>
+      <c r="I952" t="inlineStr"/>
+      <c r="J952" t="inlineStr"/>
+      <c r="K952" t="inlineStr"/>
+      <c r="L952" t="inlineStr"/>
+      <c r="M952" t="inlineStr"/>
+      <c r="N952" t="inlineStr"/>
+      <c r="O952" t="inlineStr"/>
+      <c r="P952" t="inlineStr"/>
+      <c r="Q952" t="inlineStr"/>
+      <c r="R952" t="inlineStr"/>
+    </row>
+    <row r="953">
+      <c r="A953" t="n">
+        <v>952</v>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>Videograf / Fotograf (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C953" t="inlineStr">
+        <is>
+          <t>Taxit Consulting Gmbh</t>
+        </is>
+      </c>
+      <c r="D953" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E953" t="b">
+        <v>0</v>
+      </c>
+      <c r="F953" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxit-consulting-gmbh/videograf-fotograf-stuttgart-292819</t>
+        </is>
+      </c>
+      <c r="G953" t="inlineStr"/>
+      <c r="H953" t="inlineStr"/>
+      <c r="I953" t="inlineStr"/>
+      <c r="J953" t="inlineStr"/>
+      <c r="K953" t="inlineStr"/>
+      <c r="L953" t="inlineStr"/>
+      <c r="M953" t="inlineStr"/>
+      <c r="N953" t="inlineStr"/>
+      <c r="O953" t="inlineStr"/>
+      <c r="P953" t="inlineStr"/>
+      <c r="Q953" t="inlineStr"/>
+      <c r="R953" t="inlineStr"/>
+    </row>
+    <row r="954">
+      <c r="A954" t="n">
+        <v>953</v>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>(Pflicht-) Praktikum / Praxissemester Videograf / Fotograf (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C954" t="inlineStr">
+        <is>
+          <t>Taxit Consulting Gmbh</t>
+        </is>
+      </c>
+      <c r="D954" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E954" t="b">
+        <v>0</v>
+      </c>
+      <c r="F954" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxit-consulting-gmbh/pflicht-praktikum-praxissemester-videograf-fotograf-stuttgart-380286</t>
+        </is>
+      </c>
+      <c r="G954" t="inlineStr"/>
+      <c r="H954" t="inlineStr"/>
+      <c r="I954" t="inlineStr"/>
+      <c r="J954" t="inlineStr"/>
+      <c r="K954" t="inlineStr"/>
+      <c r="L954" t="inlineStr"/>
+      <c r="M954" t="inlineStr"/>
+      <c r="N954" t="inlineStr"/>
+      <c r="O954" t="inlineStr"/>
+      <c r="P954" t="inlineStr"/>
+      <c r="Q954" t="inlineStr"/>
+      <c r="R954" t="inlineStr"/>
+    </row>
+    <row r="955">
+      <c r="A955" t="n">
+        <v>954</v>
+      </c>
+      <c r="B955" t="inlineStr">
+        <is>
+          <t>Managing Director Corporate Finance/M&amp;A (all genders)</t>
+        </is>
+      </c>
+      <c r="C955" t="inlineStr">
+        <is>
+          <t>Banking Consult Executive Search</t>
+        </is>
+      </c>
+      <c r="D955" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E955" t="b">
+        <v>0</v>
+      </c>
+      <c r="F955" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/banking-consult-executive-search/managing-director-corporate-finance-ma-all-genders-frankfurt-395941</t>
+        </is>
+      </c>
+      <c r="G955" t="inlineStr"/>
+      <c r="H955" t="inlineStr"/>
+      <c r="I955" t="inlineStr"/>
+      <c r="J955" t="inlineStr"/>
+      <c r="K955" t="inlineStr"/>
+      <c r="L955" t="inlineStr"/>
+      <c r="M955" t="inlineStr"/>
+      <c r="N955" t="inlineStr"/>
+      <c r="O955" t="inlineStr"/>
+      <c r="P955" t="inlineStr"/>
+      <c r="Q955" t="inlineStr"/>
+      <c r="R955" t="inlineStr"/>
+    </row>
+    <row r="956">
+      <c r="A956" t="n">
+        <v>955</v>
+      </c>
+      <c r="B956" t="inlineStr">
+        <is>
+          <t>Heilpraktikerin für Ästhetische | Regenerative Medizin</t>
+        </is>
+      </c>
+      <c r="C956" t="inlineStr">
+        <is>
+          <t>Inanna Gmbh</t>
+        </is>
+      </c>
+      <c r="D956" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E956" t="b">
+        <v>0</v>
+      </c>
+      <c r="F956" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/inanna-gmbh/heilpraktikerin-fur-asthetische-regenerative-medizin-berlin-225137</t>
+        </is>
+      </c>
+      <c r="G956" t="inlineStr"/>
+      <c r="H956" t="inlineStr"/>
+      <c r="I956" t="inlineStr"/>
+      <c r="J956" t="inlineStr"/>
+      <c r="K956" t="inlineStr"/>
+      <c r="L956" t="inlineStr"/>
+      <c r="M956" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N956" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O956" t="n">
+        <v>70</v>
+      </c>
+      <c r="P956" t="inlineStr"/>
+      <c r="Q956" t="inlineStr"/>
+      <c r="R956" t="inlineStr"/>
+    </row>
+    <row r="957">
+      <c r="A957" t="n">
+        <v>956</v>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>Teamleiter:in Grundbau und Vermessung Projekte (w/m/d)</t>
+        </is>
+      </c>
+      <c r="C957" t="inlineStr">
+        <is>
+          <t>Deutsche Reihenhaus Ag</t>
+        </is>
+      </c>
+      <c r="D957" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E957" t="b">
+        <v>0</v>
+      </c>
+      <c r="F957" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutsche-reihenhaus-ag/teamleiterin-grundbau-und-vermessung-projekte-cologne-262008</t>
+        </is>
+      </c>
+      <c r="G957" t="inlineStr"/>
+      <c r="H957" t="inlineStr"/>
+      <c r="I957" t="inlineStr"/>
+      <c r="J957" t="inlineStr"/>
+      <c r="K957" t="inlineStr"/>
+      <c r="L957" t="inlineStr"/>
+      <c r="M957" t="inlineStr"/>
+      <c r="N957" t="inlineStr"/>
+      <c r="O957" t="inlineStr"/>
+      <c r="P957" t="inlineStr"/>
+      <c r="Q957" t="inlineStr"/>
+      <c r="R957" t="inlineStr"/>
+    </row>
+    <row r="958">
+      <c r="A958" t="n">
+        <v>957</v>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>Mechanical Integration Specialist</t>
+        </is>
+      </c>
+      <c r="C958" t="inlineStr">
+        <is>
+          <t>Landa Corporation</t>
+        </is>
+      </c>
+      <c r="D958" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="E958" t="b">
+        <v>1</v>
+      </c>
+      <c r="F958" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/landa-corporation/remote-mechanical-integration-specialist-munich-417122</t>
+        </is>
+      </c>
+      <c r="G958" t="inlineStr"/>
+      <c r="H958" t="inlineStr"/>
+      <c r="I958" t="inlineStr"/>
+      <c r="J958" t="inlineStr"/>
+      <c r="K958" t="inlineStr"/>
+      <c r="L958" t="inlineStr"/>
+      <c r="M958" t="inlineStr"/>
+      <c r="N958" t="inlineStr"/>
+      <c r="O958" t="inlineStr"/>
+      <c r="P958" t="inlineStr"/>
+      <c r="Q958" t="inlineStr"/>
+      <c r="R958" t="inlineStr"/>
+    </row>
+    <row r="959">
+      <c r="A959" t="n">
+        <v>958</v>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>Master Stylist (m/w/d) bei WunderHaar Friseure Berlin</t>
+        </is>
+      </c>
+      <c r="C959" t="inlineStr">
+        <is>
+          <t>Wunderhaar Friseure Berlin</t>
+        </is>
+      </c>
+      <c r="D959" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E959" t="b">
+        <v>0</v>
+      </c>
+      <c r="F959" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/wunderhaar-friseure-berlin/master-stylist-bei-wunderhaar-friseure-berlin-172014</t>
+        </is>
+      </c>
+      <c r="G959" t="inlineStr"/>
+      <c r="H959" t="inlineStr"/>
+      <c r="I959" t="inlineStr"/>
+      <c r="J959" t="inlineStr"/>
+      <c r="K959" t="inlineStr"/>
+      <c r="L959" t="inlineStr"/>
+      <c r="M959" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N959" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O959" t="n">
+        <v>70</v>
+      </c>
+      <c r="P959" t="inlineStr"/>
+      <c r="Q959" t="inlineStr"/>
+      <c r="R959" t="inlineStr"/>
+    </row>
+    <row r="960">
+      <c r="A960" t="n">
+        <v>959</v>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t>Technical Account Manager</t>
+        </is>
+      </c>
+      <c r="C960" t="inlineStr">
+        <is>
+          <t>Wolt - English</t>
+        </is>
+      </c>
+      <c r="D960" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E960" t="b">
+        <v>0</v>
+      </c>
+      <c r="F960" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/wolt-english/technical-account-manager-berlin-464839</t>
+        </is>
+      </c>
+      <c r="G960" t="inlineStr"/>
+      <c r="H960" t="inlineStr"/>
+      <c r="I960" t="inlineStr"/>
+      <c r="J960" t="inlineStr"/>
+      <c r="K960" t="inlineStr"/>
+      <c r="L960" t="inlineStr"/>
+      <c r="M960" t="inlineStr"/>
+      <c r="N960" t="inlineStr"/>
+      <c r="O960" t="inlineStr"/>
+      <c r="P960" t="inlineStr"/>
+      <c r="Q960" t="inlineStr"/>
+      <c r="R960" t="inlineStr"/>
+    </row>
+    <row r="961">
+      <c r="A961" t="n">
+        <v>960</v>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>Social Media - Manager:in</t>
+        </is>
+      </c>
+      <c r="C961" t="inlineStr">
+        <is>
+          <t>Ld Media</t>
+        </is>
+      </c>
+      <c r="D961" t="inlineStr">
+        <is>
+          <t>Schwäbisch Hall</t>
+        </is>
+      </c>
+      <c r="E961" t="b">
+        <v>0</v>
+      </c>
+      <c r="F961" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ld-media/social-media-managerin-schwabisch-hall-107265</t>
+        </is>
+      </c>
+      <c r="G961" t="inlineStr"/>
+      <c r="H961" t="inlineStr"/>
+      <c r="I961" t="inlineStr"/>
+      <c r="J961" t="inlineStr"/>
+      <c r="K961" t="inlineStr"/>
+      <c r="L961" t="inlineStr"/>
+      <c r="M961" t="inlineStr"/>
+      <c r="N961" t="inlineStr"/>
+      <c r="O961" t="inlineStr"/>
+      <c r="P961" t="inlineStr"/>
+      <c r="Q961" t="inlineStr"/>
+      <c r="R961" t="inlineStr"/>
+    </row>
+    <row r="962">
+      <c r="A962" t="n">
+        <v>961</v>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>Film - / Video - Cutter</t>
+        </is>
+      </c>
+      <c r="C962" t="inlineStr">
+        <is>
+          <t>Ld Media</t>
+        </is>
+      </c>
+      <c r="D962" t="inlineStr">
+        <is>
+          <t>Schwäbisch Hall</t>
+        </is>
+      </c>
+      <c r="E962" t="b">
+        <v>0</v>
+      </c>
+      <c r="F962" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ld-media/film-video-cutter-schwabisch-hall-357203</t>
+        </is>
+      </c>
+      <c r="G962" t="inlineStr"/>
+      <c r="H962" t="inlineStr"/>
+      <c r="I962" t="inlineStr"/>
+      <c r="J962" t="inlineStr"/>
+      <c r="K962" t="inlineStr"/>
+      <c r="L962" t="inlineStr"/>
+      <c r="M962" t="inlineStr"/>
+      <c r="N962" t="inlineStr"/>
+      <c r="O962" t="inlineStr"/>
+      <c r="P962" t="inlineStr"/>
+      <c r="Q962" t="inlineStr"/>
+      <c r="R962" t="inlineStr"/>
+    </row>
+    <row r="963">
+      <c r="A963" t="n">
+        <v>962</v>
+      </c>
+      <c r="B963" t="inlineStr">
+        <is>
+          <t>Praktikant (m/w/d) für Praktikum in Social Media Marketing Agentur</t>
+        </is>
+      </c>
+      <c r="C963" t="inlineStr">
+        <is>
+          <t>Strehlow Media Gmbh</t>
+        </is>
+      </c>
+      <c r="D963" t="inlineStr">
+        <is>
+          <t>Kiel</t>
+        </is>
+      </c>
+      <c r="E963" t="b">
+        <v>0</v>
+      </c>
+      <c r="F963" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/strehlow-media-gmbh/praktikant-fur-praktikum-in-social-media-marketing-agentur-kiel-186432</t>
+        </is>
+      </c>
+      <c r="G963" t="inlineStr"/>
+      <c r="H963" t="inlineStr"/>
+      <c r="I963" t="inlineStr"/>
+      <c r="J963" t="inlineStr"/>
+      <c r="K963" t="inlineStr"/>
+      <c r="L963" t="inlineStr"/>
+      <c r="M963" t="inlineStr"/>
+      <c r="N963" t="inlineStr"/>
+      <c r="O963" t="inlineStr"/>
+      <c r="P963" t="inlineStr"/>
+      <c r="Q963" t="inlineStr"/>
+      <c r="R963" t="inlineStr"/>
+    </row>
+    <row r="964">
+      <c r="A964" t="n">
+        <v>963</v>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Würzburg, auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C964" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D964" t="inlineStr">
+        <is>
+          <t>Würzburg</t>
+        </is>
+      </c>
+      <c r="E964" t="b">
+        <v>0</v>
+      </c>
+      <c r="F964" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-wurzburg-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-110253</t>
+        </is>
+      </c>
+      <c r="G964" t="inlineStr"/>
+      <c r="H964" t="inlineStr"/>
+      <c r="I964" t="inlineStr"/>
+      <c r="J964" t="inlineStr"/>
+      <c r="K964" t="inlineStr"/>
+      <c r="L964" t="inlineStr"/>
+      <c r="M964" t="inlineStr"/>
+      <c r="N964" t="inlineStr"/>
+      <c r="O964" t="inlineStr"/>
+      <c r="P964" t="inlineStr"/>
+      <c r="Q964" t="inlineStr"/>
+      <c r="R964" t="inlineStr"/>
+    </row>
+    <row r="965">
+      <c r="A965" t="n">
+        <v>964</v>
+      </c>
+      <c r="B965" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Augsburg , auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C965" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D965" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="E965" t="b">
+        <v>0</v>
+      </c>
+      <c r="F965" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-augsburg-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-431485</t>
+        </is>
+      </c>
+      <c r="G965" t="inlineStr"/>
+      <c r="H965" t="inlineStr"/>
+      <c r="I965" t="inlineStr"/>
+      <c r="J965" t="inlineStr"/>
+      <c r="K965" t="inlineStr"/>
+      <c r="L965" t="inlineStr"/>
+      <c r="M965" t="inlineStr"/>
+      <c r="N965" t="inlineStr"/>
+      <c r="O965" t="inlineStr"/>
+      <c r="P965" t="inlineStr"/>
+      <c r="Q965" t="inlineStr"/>
+      <c r="R965" t="inlineStr"/>
+    </row>
+    <row r="966">
+      <c r="A966" t="n">
+        <v>965</v>
+      </c>
+      <c r="B966" t="inlineStr">
+        <is>
+          <t>Part-time CTO</t>
+        </is>
+      </c>
+      <c r="C966" t="inlineStr">
+        <is>
+          <t>Paintgun</t>
+        </is>
+      </c>
+      <c r="D966" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E966" t="b">
+        <v>1</v>
+      </c>
+      <c r="F966" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/paintgun/part-time-cto-berlin-236359</t>
+        </is>
+      </c>
+      <c r="G966" t="inlineStr"/>
+      <c r="H966" t="inlineStr"/>
+      <c r="I966" t="inlineStr"/>
+      <c r="J966" t="inlineStr"/>
+      <c r="K966" t="inlineStr"/>
+      <c r="L966" t="inlineStr"/>
+      <c r="M966" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N966" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O966" t="n">
+        <v>70</v>
+      </c>
+      <c r="P966" t="inlineStr"/>
+      <c r="Q966" t="inlineStr"/>
+      <c r="R966" t="inlineStr"/>
+    </row>
+    <row r="967">
+      <c r="A967" t="n">
+        <v>966</v>
+      </c>
+      <c r="B967" t="inlineStr">
+        <is>
+          <t>German-speaking E-commerce assistant</t>
+        </is>
+      </c>
+      <c r="C967" t="inlineStr">
+        <is>
+          <t>Paintgun</t>
+        </is>
+      </c>
+      <c r="D967" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E967" t="b">
+        <v>0</v>
+      </c>
+      <c r="F967" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/paintgun/german-speaking-e-commerce-assistant-berlin-360379</t>
+        </is>
+      </c>
+      <c r="G967" t="inlineStr"/>
+      <c r="H967" t="inlineStr"/>
+      <c r="I967" t="inlineStr"/>
+      <c r="J967" t="inlineStr"/>
+      <c r="K967" t="inlineStr"/>
+      <c r="L967" t="inlineStr"/>
+      <c r="M967" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N967" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O967" t="n">
+        <v>70</v>
+      </c>
+      <c r="P967" t="inlineStr"/>
+      <c r="Q967" t="inlineStr"/>
+      <c r="R967" t="inlineStr"/>
+    </row>
+    <row r="968">
+      <c r="A968" t="n">
+        <v>967</v>
+      </c>
+      <c r="B968" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Neuried, auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C968" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D968" t="inlineStr">
+        <is>
+          <t>Neuried</t>
+        </is>
+      </c>
+      <c r="E968" t="b">
+        <v>0</v>
+      </c>
+      <c r="F968" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-neuried-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-365025</t>
+        </is>
+      </c>
+      <c r="G968" t="inlineStr"/>
+      <c r="H968" t="inlineStr"/>
+      <c r="I968" t="inlineStr"/>
+      <c r="J968" t="inlineStr"/>
+      <c r="K968" t="inlineStr"/>
+      <c r="L968" t="inlineStr"/>
+      <c r="M968" t="inlineStr"/>
+      <c r="N968" t="inlineStr"/>
+      <c r="O968" t="inlineStr"/>
+      <c r="P968" t="inlineStr"/>
+      <c r="Q968" t="inlineStr"/>
+      <c r="R968" t="inlineStr"/>
+    </row>
+    <row r="969">
+      <c r="A969" t="n">
+        <v>968</v>
+      </c>
+      <c r="B969" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Unterhaching , auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C969" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D969" t="inlineStr">
+        <is>
+          <t>Unterhaching</t>
+        </is>
+      </c>
+      <c r="E969" t="b">
+        <v>0</v>
+      </c>
+      <c r="F969" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-unterhaching-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-230790</t>
+        </is>
+      </c>
+      <c r="G969" t="inlineStr"/>
+      <c r="H969" t="inlineStr"/>
+      <c r="I969" t="inlineStr"/>
+      <c r="J969" t="inlineStr"/>
+      <c r="K969" t="inlineStr"/>
+      <c r="L969" t="inlineStr"/>
+      <c r="M969" t="inlineStr"/>
+      <c r="N969" t="inlineStr"/>
+      <c r="O969" t="inlineStr"/>
+      <c r="P969" t="inlineStr"/>
+      <c r="Q969" t="inlineStr"/>
+      <c r="R969" t="inlineStr"/>
+    </row>
+    <row r="970">
+      <c r="A970" t="n">
+        <v>969</v>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t>Creative Producer @ Ad Creative Agency (Freelance)</t>
+        </is>
+      </c>
+      <c r="C970" t="inlineStr">
+        <is>
+          <t>Paintgun</t>
+        </is>
+      </c>
+      <c r="D970" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E970" t="b">
+        <v>1</v>
+      </c>
+      <c r="F970" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/paintgun/creative-producer-at-ad-creative-agency-freelance-berlin-392817</t>
+        </is>
+      </c>
+      <c r="G970" t="inlineStr"/>
+      <c r="H970" t="inlineStr"/>
+      <c r="I970" t="inlineStr"/>
+      <c r="J970" t="inlineStr"/>
+      <c r="K970" t="inlineStr"/>
+      <c r="L970" t="inlineStr"/>
+      <c r="M970" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N970" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O970" t="n">
+        <v>70</v>
+      </c>
+      <c r="P970" t="inlineStr"/>
+      <c r="Q970" t="inlineStr"/>
+      <c r="R970" t="inlineStr"/>
+    </row>
+    <row r="971">
+      <c r="A971" t="n">
+        <v>970</v>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Karlsfeld , auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C971" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D971" t="inlineStr">
+        <is>
+          <t>Karlsfeld</t>
+        </is>
+      </c>
+      <c r="E971" t="b">
+        <v>0</v>
+      </c>
+      <c r="F971" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-karlsfeld-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-61449</t>
+        </is>
+      </c>
+      <c r="G971" t="inlineStr"/>
+      <c r="H971" t="inlineStr"/>
+      <c r="I971" t="inlineStr"/>
+      <c r="J971" t="inlineStr"/>
+      <c r="K971" t="inlineStr"/>
+      <c r="L971" t="inlineStr"/>
+      <c r="M971" t="inlineStr"/>
+      <c r="N971" t="inlineStr"/>
+      <c r="O971" t="inlineStr"/>
+      <c r="P971" t="inlineStr"/>
+      <c r="Q971" t="inlineStr"/>
+      <c r="R971" t="inlineStr"/>
+    </row>
+    <row r="972">
+      <c r="A972" t="n">
+        <v>971</v>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>Ad Creative Strategist (Freelance)</t>
+        </is>
+      </c>
+      <c r="C972" t="inlineStr">
+        <is>
+          <t>Paintgun</t>
+        </is>
+      </c>
+      <c r="D972" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E972" t="b">
+        <v>1</v>
+      </c>
+      <c r="F972" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/paintgun/ad-creative-strategist-freelance-berlin-36774</t>
+        </is>
+      </c>
+      <c r="G972" t="inlineStr"/>
+      <c r="H972" t="inlineStr"/>
+      <c r="I972" t="inlineStr"/>
+      <c r="J972" t="inlineStr"/>
+      <c r="K972" t="inlineStr"/>
+      <c r="L972" t="inlineStr"/>
+      <c r="M972" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N972" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O972" t="n">
+        <v>70</v>
+      </c>
+      <c r="P972" t="inlineStr"/>
+      <c r="Q972" t="inlineStr"/>
+      <c r="R972" t="inlineStr"/>
+    </row>
+    <row r="973">
+      <c r="A973" t="n">
+        <v>972</v>
+      </c>
+      <c r="B973" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in München, auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C973" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D973" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="E973" t="b">
+        <v>0</v>
+      </c>
+      <c r="F973" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-munchen-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-munich-178223</t>
+        </is>
+      </c>
+      <c r="G973" t="inlineStr"/>
+      <c r="H973" t="inlineStr"/>
+      <c r="I973" t="inlineStr"/>
+      <c r="J973" t="inlineStr"/>
+      <c r="K973" t="inlineStr"/>
+      <c r="L973" t="inlineStr"/>
+      <c r="M973" t="inlineStr"/>
+      <c r="N973" t="inlineStr"/>
+      <c r="O973" t="inlineStr"/>
+      <c r="P973" t="inlineStr"/>
+      <c r="Q973" t="inlineStr"/>
+      <c r="R973" t="inlineStr"/>
+    </row>
+    <row r="974">
+      <c r="A974" t="n">
+        <v>973</v>
+      </c>
+      <c r="B974" t="inlineStr">
+        <is>
+          <t>Senior SAP Consultant mit Karriereambitionen - jetzt mit uns voll durchstarten! (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C974" t="inlineStr">
+        <is>
+          <t>Auralis Partners Gmbh</t>
+        </is>
+      </c>
+      <c r="D974" t="inlineStr">
+        <is>
+          <t>Markt Indersdorf</t>
+        </is>
+      </c>
+      <c r="E974" t="b">
+        <v>1</v>
+      </c>
+      <c r="F974" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/auralis-partners-gmbh/senior-sap-consultant-mit-karriereambitionen-jetzt-mit-uns-voll-durchstarten-markt-indersdorf-403458</t>
+        </is>
+      </c>
+      <c r="G974" t="inlineStr"/>
+      <c r="H974" t="inlineStr"/>
+      <c r="I974" t="inlineStr"/>
+      <c r="J974" t="inlineStr"/>
+      <c r="K974" t="inlineStr"/>
+      <c r="L974" t="inlineStr"/>
+      <c r="M974" t="inlineStr"/>
+      <c r="N974" t="inlineStr"/>
+      <c r="O974" t="inlineStr"/>
+      <c r="P974" t="inlineStr"/>
+      <c r="Q974" t="inlineStr"/>
+      <c r="R974" t="inlineStr"/>
+    </row>
+    <row r="975">
+      <c r="A975" t="n">
+        <v>974</v>
+      </c>
+      <c r="B975" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Heidelberg, auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C975" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D975" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E975" t="b">
+        <v>0</v>
+      </c>
+      <c r="F975" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-heidelberg-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-188516</t>
+        </is>
+      </c>
+      <c r="G975" t="inlineStr"/>
+      <c r="H975" t="inlineStr"/>
+      <c r="I975" t="inlineStr"/>
+      <c r="J975" t="inlineStr"/>
+      <c r="K975" t="inlineStr"/>
+      <c r="L975" t="inlineStr"/>
+      <c r="M975" t="inlineStr"/>
+      <c r="N975" t="inlineStr"/>
+      <c r="O975" t="inlineStr"/>
+      <c r="P975" t="inlineStr"/>
+      <c r="Q975" t="inlineStr"/>
+      <c r="R975" t="inlineStr"/>
+    </row>
+    <row r="976">
+      <c r="A976" t="n">
+        <v>975</v>
+      </c>
+      <c r="B976" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Mannheim, auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C976" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D976" t="inlineStr">
+        <is>
+          <t>Mannheim</t>
+        </is>
+      </c>
+      <c r="E976" t="b">
+        <v>0</v>
+      </c>
+      <c r="F976" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-mannheim-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-191853</t>
+        </is>
+      </c>
+      <c r="G976" t="inlineStr"/>
+      <c r="H976" t="inlineStr"/>
+      <c r="I976" t="inlineStr"/>
+      <c r="J976" t="inlineStr"/>
+      <c r="K976" t="inlineStr"/>
+      <c r="L976" t="inlineStr"/>
+      <c r="M976" t="inlineStr"/>
+      <c r="N976" t="inlineStr"/>
+      <c r="O976" t="inlineStr"/>
+      <c r="P976" t="inlineStr"/>
+      <c r="Q976" t="inlineStr"/>
+      <c r="R976" t="inlineStr"/>
+    </row>
+    <row r="977">
+      <c r="A977" t="n">
+        <v>976</v>
+      </c>
+      <c r="B977" t="inlineStr">
+        <is>
+          <t>WerkstudentIn</t>
+        </is>
+      </c>
+      <c r="C977" t="inlineStr">
+        <is>
+          <t>Digitaleheimat Gmbh</t>
+        </is>
+      </c>
+      <c r="D977" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E977" t="b">
+        <v>1</v>
+      </c>
+      <c r="F977" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/digitaleheimat-gmbh/werkstudentin-berlin-290614</t>
+        </is>
+      </c>
+      <c r="G977" t="inlineStr"/>
+      <c r="H977" t="inlineStr"/>
+      <c r="I977" t="inlineStr"/>
+      <c r="J977" t="inlineStr"/>
+      <c r="K977" t="inlineStr"/>
+      <c r="L977" t="inlineStr"/>
+      <c r="M977" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N977" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O977" t="n">
+        <v>70</v>
+      </c>
+      <c r="P977" t="inlineStr"/>
+      <c r="Q977" t="inlineStr"/>
+      <c r="R977" t="inlineStr"/>
+    </row>
+    <row r="978">
+      <c r="A978" t="n">
+        <v>977</v>
+      </c>
+      <c r="B978" t="inlineStr">
+        <is>
+          <t>Werkstudent: Embedded Software Developer</t>
+        </is>
+      </c>
+      <c r="C978" t="inlineStr">
+        <is>
+          <t>Software Engineering Weber Gmbh</t>
+        </is>
+      </c>
+      <c r="D978" t="inlineStr">
+        <is>
+          <t>Kempten</t>
+        </is>
+      </c>
+      <c r="E978" t="b">
+        <v>0</v>
+      </c>
+      <c r="F978" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/software-engineering-weber-gmbh/werkstudent-embedded-software-developer-kempten-170327</t>
+        </is>
+      </c>
+      <c r="G978" t="inlineStr"/>
+      <c r="H978" t="inlineStr"/>
+      <c r="I978" t="inlineStr"/>
+      <c r="J978" t="inlineStr"/>
+      <c r="K978" t="inlineStr"/>
+      <c r="L978" t="inlineStr"/>
+      <c r="M978" t="inlineStr"/>
+      <c r="N978" t="inlineStr"/>
+      <c r="O978" t="inlineStr"/>
+      <c r="P978" t="inlineStr"/>
+      <c r="Q978" t="inlineStr"/>
+      <c r="R978" t="inlineStr"/>
+    </row>
+    <row r="979">
+      <c r="A979" t="n">
+        <v>978</v>
+      </c>
+      <c r="B979" t="inlineStr">
+        <is>
+          <t>Verkauf altersgerechete Badsanierung (m/w/d) in Voll- oder Teilzeit</t>
+        </is>
+      </c>
+      <c r="C979" t="inlineStr">
+        <is>
+          <t>Besser Zuhause Gmbh</t>
+        </is>
+      </c>
+      <c r="D979" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E979" t="b">
+        <v>0</v>
+      </c>
+      <c r="F979" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/besser-zuhause-gmbh/verkauf-altersgerechete-badsanierung-in-voll-oder-teilzeit-hamburg-224565</t>
+        </is>
+      </c>
+      <c r="G979" t="inlineStr"/>
+      <c r="H979" t="inlineStr"/>
+      <c r="I979" t="inlineStr"/>
+      <c r="J979" t="inlineStr"/>
+      <c r="K979" t="inlineStr"/>
+      <c r="L979" t="inlineStr"/>
+      <c r="M979" t="inlineStr"/>
+      <c r="N979" t="inlineStr"/>
+      <c r="O979" t="inlineStr"/>
+      <c r="P979" t="inlineStr"/>
+      <c r="Q979" t="inlineStr"/>
+      <c r="R979" t="inlineStr"/>
+    </row>
+    <row r="980">
+      <c r="A980" t="n">
+        <v>979</v>
+      </c>
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>Messtechniker (m/w/d) im Qualitätswesen Weltmarktführer an der Mosel</t>
+        </is>
+      </c>
+      <c r="C980" t="inlineStr">
+        <is>
+          <t>Heads4Solution</t>
+        </is>
+      </c>
+      <c r="D980" t="inlineStr">
+        <is>
+          <t>Zell</t>
+        </is>
+      </c>
+      <c r="E980" t="b">
+        <v>0</v>
+      </c>
+      <c r="F980" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/heads4solution/messtechniker-im-qualitatswesen-weltmarktfuhrer-an-der-mosel-zell-109369</t>
+        </is>
+      </c>
+      <c r="G980" t="inlineStr"/>
+      <c r="H980" t="inlineStr"/>
+      <c r="I980" t="inlineStr"/>
+      <c r="J980" t="inlineStr"/>
+      <c r="K980" t="inlineStr"/>
+      <c r="L980" t="inlineStr"/>
+      <c r="M980" t="inlineStr"/>
+      <c r="N980" t="inlineStr"/>
+      <c r="O980" t="inlineStr"/>
+      <c r="P980" t="inlineStr"/>
+      <c r="Q980" t="inlineStr"/>
+      <c r="R980" t="inlineStr"/>
+    </row>
+    <row r="981">
+      <c r="A981" t="n">
+        <v>980</v>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>2350-2800 € Telefonischer Kundenbetreuer  m/w/d Kundenservice Mo-Fr</t>
+        </is>
+      </c>
+      <c r="C981" t="inlineStr">
+        <is>
+          <t>W&amp;W Human Resources -  Ivonne Wresch -</t>
+        </is>
+      </c>
+      <c r="D981" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E981" t="b">
+        <v>0</v>
+      </c>
+      <c r="F981" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ww-human-resources-ivonne-wresch/2350-2800-eur-telefonischer-kundenbetreuer-kundenservice-mo-fr-berlin-75306</t>
+        </is>
+      </c>
+      <c r="G981" t="inlineStr"/>
+      <c r="H981" t="inlineStr"/>
+      <c r="I981" t="inlineStr"/>
+      <c r="J981" t="inlineStr"/>
+      <c r="K981" t="inlineStr"/>
+      <c r="L981" t="inlineStr"/>
+      <c r="M981" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N981" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O981" t="n">
+        <v>70</v>
+      </c>
+      <c r="P981" t="inlineStr"/>
+      <c r="Q981" t="inlineStr"/>
+      <c r="R981" t="inlineStr"/>
+    </row>
+    <row r="982">
+      <c r="A982" t="n">
+        <v>981</v>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>Werkstudent:In Admin HR (m/w/d) Hamburg</t>
+        </is>
+      </c>
+      <c r="C982" t="inlineStr">
+        <is>
+          <t>Eta Plus Gmbh</t>
+        </is>
+      </c>
+      <c r="D982" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E982" t="b">
+        <v>0</v>
+      </c>
+      <c r="F982" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/eta-plus-gmbh/werkstudentin-admin-hr-hamburg-74868</t>
+        </is>
+      </c>
+      <c r="G982" t="inlineStr"/>
+      <c r="H982" t="inlineStr"/>
+      <c r="I982" t="inlineStr"/>
+      <c r="J982" t="inlineStr"/>
+      <c r="K982" t="inlineStr"/>
+      <c r="L982" t="inlineStr"/>
+      <c r="M982" t="inlineStr"/>
+      <c r="N982" t="inlineStr"/>
+      <c r="O982" t="inlineStr"/>
+      <c r="P982" t="inlineStr"/>
+      <c r="Q982" t="inlineStr"/>
+      <c r="R982" t="inlineStr"/>
+    </row>
+    <row r="983">
+      <c r="A983" t="n">
+        <v>982</v>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>English Native Speaker mit perfekten Deutsch Kenntnissen</t>
+        </is>
+      </c>
+      <c r="C983" t="inlineStr">
+        <is>
+          <t>Gito Mbh Verlag</t>
+        </is>
+      </c>
+      <c r="D983" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E983" t="b">
+        <v>0</v>
+      </c>
+      <c r="F983" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/gito-mbh-verlag/english-native-speaker-mit-perfekten-deutsch-kenntnissen-berlin-377251</t>
+        </is>
+      </c>
+      <c r="G983" t="inlineStr"/>
+      <c r="H983" t="inlineStr"/>
+      <c r="I983" t="inlineStr"/>
+      <c r="J983" t="inlineStr"/>
+      <c r="K983" t="inlineStr"/>
+      <c r="L983" t="inlineStr"/>
+      <c r="M983" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N983" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O983" t="n">
+        <v>70</v>
+      </c>
+      <c r="P983" t="inlineStr"/>
+      <c r="Q983" t="inlineStr"/>
+      <c r="R983" t="inlineStr"/>
+    </row>
+    <row r="984">
+      <c r="A984" t="n">
+        <v>983</v>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>Produktionsmanager:in (m/w/d) mit Chance auf Stellvertretung als Produktionsleitung</t>
+        </is>
+      </c>
+      <c r="C984" t="inlineStr">
+        <is>
+          <t>Jobsmatter</t>
+        </is>
+      </c>
+      <c r="D984" t="inlineStr">
+        <is>
+          <t>Giessen</t>
+        </is>
+      </c>
+      <c r="E984" t="b">
+        <v>0</v>
+      </c>
+      <c r="F984" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/jobsmatter/produktionsmanagerin-mit-chance-auf-stellvertretung-als-produktionsleitung-giessen-128509</t>
+        </is>
+      </c>
+      <c r="G984" t="inlineStr"/>
+      <c r="H984" t="inlineStr"/>
+      <c r="I984" t="inlineStr"/>
+      <c r="J984" t="inlineStr"/>
+      <c r="K984" t="inlineStr"/>
+      <c r="L984" t="inlineStr"/>
+      <c r="M984" t="inlineStr"/>
+      <c r="N984" t="inlineStr"/>
+      <c r="O984" t="inlineStr"/>
+      <c r="P984" t="inlineStr"/>
+      <c r="Q984" t="inlineStr"/>
+      <c r="R984" t="inlineStr"/>
+    </row>
+    <row r="985">
+      <c r="A985" t="n">
+        <v>984</v>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>Enterprise Account Director</t>
+        </is>
+      </c>
+      <c r="C985" t="inlineStr">
+        <is>
+          <t>Retailnext</t>
+        </is>
+      </c>
+      <c r="D985" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E985" t="b">
+        <v>0</v>
+      </c>
+      <c r="F985" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/retailnext/enterprise-account-director-berlin-114252</t>
+        </is>
+      </c>
+      <c r="G985" t="inlineStr"/>
+      <c r="H985" t="inlineStr"/>
+      <c r="I985" t="inlineStr"/>
+      <c r="J985" t="inlineStr"/>
+      <c r="K985" t="inlineStr"/>
+      <c r="L985" t="inlineStr"/>
+      <c r="M985" t="inlineStr"/>
+      <c r="N985" t="inlineStr"/>
+      <c r="O985" t="inlineStr"/>
+      <c r="P985" t="inlineStr"/>
+      <c r="Q985" t="inlineStr"/>
+      <c r="R985" t="inlineStr"/>
+    </row>
+    <row r="986">
+      <c r="A986" t="n">
+        <v>985</v>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>Epic Trips Brand Director</t>
+        </is>
+      </c>
+      <c r="C986" t="inlineStr">
+        <is>
+          <t>Ventura Travel</t>
+        </is>
+      </c>
+      <c r="D986" t="inlineStr">
+        <is>
+          <t>Munich, Bavaria, Germany</t>
+        </is>
+      </c>
+      <c r="E986" t="b">
+        <v>0</v>
+      </c>
+      <c r="F986" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ventura-travel/epic-trips-brand-director-munich-88355</t>
+        </is>
+      </c>
+      <c r="G986" t="inlineStr"/>
+      <c r="H986" t="inlineStr"/>
+      <c r="I986" t="inlineStr"/>
+      <c r="J986" t="inlineStr"/>
+      <c r="K986" t="inlineStr"/>
+      <c r="L986" t="inlineStr"/>
+      <c r="M986" t="inlineStr"/>
+      <c r="N986" t="inlineStr"/>
+      <c r="O986" t="inlineStr"/>
+      <c r="P986" t="inlineStr"/>
+      <c r="Q986" t="inlineStr"/>
+      <c r="R986" t="inlineStr"/>
+    </row>
+    <row r="987">
+      <c r="A987" t="n">
+        <v>986</v>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>Travel Specialist for Central America (German Market)</t>
+        </is>
+      </c>
+      <c r="C987" t="inlineStr">
+        <is>
+          <t>Ventura Travel</t>
+        </is>
+      </c>
+      <c r="D987" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E987" t="b">
+        <v>0</v>
+      </c>
+      <c r="F987" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ventura-travel/travel-specialist-for-central-america-german-market-berlin-474628</t>
+        </is>
+      </c>
+      <c r="G987" t="inlineStr"/>
+      <c r="H987" t="inlineStr"/>
+      <c r="I987" t="inlineStr"/>
+      <c r="J987" t="inlineStr"/>
+      <c r="K987" t="inlineStr"/>
+      <c r="L987" t="inlineStr"/>
+      <c r="M987" t="inlineStr"/>
+      <c r="N987" t="inlineStr"/>
+      <c r="O987" t="inlineStr"/>
+      <c r="P987" t="inlineStr"/>
+      <c r="Q987" t="inlineStr"/>
+      <c r="R987" t="inlineStr"/>
+    </row>
+    <row r="988">
+      <c r="A988" t="n">
+        <v>987</v>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t>Finance Systems Administrator &amp; Developer, IBM TM1</t>
+        </is>
+      </c>
+      <c r="C988" t="inlineStr">
+        <is>
+          <t>Wolt - English</t>
+        </is>
+      </c>
+      <c r="D988" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E988" t="b">
+        <v>0</v>
+      </c>
+      <c r="F988" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/wolt-english/finance-systems-administrator-developer-ibm-tm1-berlin-139411</t>
+        </is>
+      </c>
+      <c r="G988" t="inlineStr"/>
+      <c r="H988" t="inlineStr"/>
+      <c r="I988" t="inlineStr"/>
+      <c r="J988" t="inlineStr"/>
+      <c r="K988" t="inlineStr"/>
+      <c r="L988" t="inlineStr"/>
+      <c r="M988" t="inlineStr"/>
+      <c r="N988" t="inlineStr"/>
+      <c r="O988" t="inlineStr"/>
+      <c r="P988" t="inlineStr"/>
+      <c r="Q988" t="inlineStr"/>
+      <c r="R988" t="inlineStr"/>
+    </row>
+    <row r="989">
+      <c r="A989" t="n">
+        <v>988</v>
+      </c>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t>Influencer Partnership Manager (all genders) (Junior / Senior)</t>
+        </is>
+      </c>
+      <c r="C989" t="inlineStr">
+        <is>
+          <t>Brainbook</t>
+        </is>
+      </c>
+      <c r="D989" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E989" t="b">
+        <v>1</v>
+      </c>
+      <c r="F989" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/brainbook/influencer-partnership-manager-all-genders-junior-senior-frankfurt-179076</t>
+        </is>
+      </c>
+      <c r="G989" t="inlineStr"/>
+      <c r="H989" t="inlineStr"/>
+      <c r="I989" t="inlineStr"/>
+      <c r="J989" t="inlineStr"/>
+      <c r="K989" t="inlineStr"/>
+      <c r="L989" t="inlineStr"/>
+      <c r="M989" t="inlineStr"/>
+      <c r="N989" t="inlineStr"/>
+      <c r="O989" t="inlineStr"/>
+      <c r="P989" t="inlineStr"/>
+      <c r="Q989" t="inlineStr"/>
+      <c r="R989" t="inlineStr"/>
+    </row>
+    <row r="990">
+      <c r="A990" t="n">
+        <v>989</v>
+      </c>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t>Product Owner (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C990" t="inlineStr">
+        <is>
+          <t>Cannaleo Digital Gmbh</t>
+        </is>
+      </c>
+      <c r="D990" t="inlineStr">
+        <is>
+          <t>Saarbrücken</t>
+        </is>
+      </c>
+      <c r="E990" t="b">
+        <v>1</v>
+      </c>
+      <c r="F990" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/cannaleo-digital-gmbh/product-owner-saarbrucken-98262</t>
+        </is>
+      </c>
+      <c r="G990" t="inlineStr"/>
+      <c r="H990" t="inlineStr"/>
+      <c r="I990" t="inlineStr"/>
+      <c r="J990" t="inlineStr"/>
+      <c r="K990" t="inlineStr"/>
+      <c r="L990" t="inlineStr"/>
+      <c r="M990" t="inlineStr"/>
+      <c r="N990" t="inlineStr"/>
+      <c r="O990" t="inlineStr"/>
+      <c r="P990" t="inlineStr"/>
+      <c r="Q990" t="inlineStr"/>
+      <c r="R990" t="inlineStr"/>
+    </row>
+    <row r="991">
+      <c r="A991" t="n">
+        <v>990</v>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t>UX/UI Designer (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C991" t="inlineStr">
+        <is>
+          <t>Cannaleo Digital Gmbh</t>
+        </is>
+      </c>
+      <c r="D991" t="inlineStr">
+        <is>
+          <t>Saarbrücken</t>
+        </is>
+      </c>
+      <c r="E991" t="b">
+        <v>1</v>
+      </c>
+      <c r="F991" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/cannaleo-digital-gmbh/ux-ui-designer-saarbrucken-56590</t>
+        </is>
+      </c>
+      <c r="G991" t="inlineStr"/>
+      <c r="H991" t="inlineStr"/>
+      <c r="I991" t="inlineStr"/>
+      <c r="J991" t="inlineStr"/>
+      <c r="K991" t="inlineStr"/>
+      <c r="L991" t="inlineStr"/>
+      <c r="M991" t="inlineStr"/>
+      <c r="N991" t="inlineStr"/>
+      <c r="O991" t="inlineStr"/>
+      <c r="P991" t="inlineStr"/>
+      <c r="Q991" t="inlineStr"/>
+      <c r="R991" t="inlineStr"/>
+    </row>
+    <row r="992">
+      <c r="A992" t="n">
+        <v>991</v>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>Frontend Developer (m/w/d) - NodeJS / TypeScript / Angular / Next.js</t>
+        </is>
+      </c>
+      <c r="C992" t="inlineStr">
+        <is>
+          <t>Cannaleo Digital Gmbh</t>
+        </is>
+      </c>
+      <c r="D992" t="inlineStr">
+        <is>
+          <t>Saarbrücken</t>
+        </is>
+      </c>
+      <c r="E992" t="b">
+        <v>1</v>
+      </c>
+      <c r="F992" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/cannaleo-digital-gmbh/frontend-developer-nodejs-typescript-angular-nextjs-saarbrucken-187102</t>
+        </is>
+      </c>
+      <c r="G992" t="inlineStr"/>
+      <c r="H992" t="inlineStr"/>
+      <c r="I992" t="inlineStr"/>
+      <c r="J992" t="inlineStr"/>
+      <c r="K992" t="inlineStr"/>
+      <c r="L992" t="inlineStr"/>
+      <c r="M992" t="inlineStr"/>
+      <c r="N992" t="inlineStr"/>
+      <c r="O992" t="inlineStr"/>
+      <c r="P992" t="inlineStr"/>
+      <c r="Q992" t="inlineStr"/>
+      <c r="R992" t="inlineStr"/>
+    </row>
+    <row r="993">
+      <c r="A993" t="n">
+        <v>992</v>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t>Senior Back-End Engineer (Node.js / TypeScript / NestJS)</t>
+        </is>
+      </c>
+      <c r="C993" t="inlineStr">
+        <is>
+          <t>Funded.Club</t>
+        </is>
+      </c>
+      <c r="D993" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E993" t="b">
+        <v>0</v>
+      </c>
+      <c r="F993" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/fundedclub/senior-back-end-engineer-nodejs-typescript-nestjs-berlin-38774</t>
+        </is>
+      </c>
+      <c r="G993" t="inlineStr"/>
+      <c r="H993" t="inlineStr"/>
+      <c r="I993" t="inlineStr"/>
+      <c r="J993" t="inlineStr"/>
+      <c r="K993" t="inlineStr"/>
+      <c r="L993" t="inlineStr"/>
+      <c r="M993" t="inlineStr"/>
+      <c r="N993" t="inlineStr"/>
+      <c r="O993" t="inlineStr"/>
+      <c r="P993" t="inlineStr"/>
+      <c r="Q993" t="inlineStr"/>
+      <c r="R993" t="inlineStr"/>
+    </row>
+    <row r="994">
+      <c r="A994" t="n">
+        <v>993</v>
+      </c>
+      <c r="B994" t="inlineStr">
+        <is>
+          <t>ImmoPixels sucht Fotografen/Videografen (m/w/d) aus der Region Mannheim/Speyer/ Neustadt - in Teilzeit/Vollzeit</t>
+        </is>
+      </c>
+      <c r="C994" t="inlineStr">
+        <is>
+          <t>Immopixels</t>
+        </is>
+      </c>
+      <c r="D994" t="inlineStr">
+        <is>
+          <t>Hettenleidelheim</t>
+        </is>
+      </c>
+      <c r="E994" t="b">
+        <v>1</v>
+      </c>
+      <c r="F994" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/immopixels/immopixels-sucht-fotografen-videografen-aus-der-region-mannheim-speyer-neustadt-in-teilzeit-vollzeit-hettenleidelheim-66473</t>
+        </is>
+      </c>
+      <c r="G994" t="inlineStr"/>
+      <c r="H994" t="inlineStr"/>
+      <c r="I994" t="inlineStr"/>
+      <c r="J994" t="inlineStr"/>
+      <c r="K994" t="inlineStr"/>
+      <c r="L994" t="inlineStr"/>
+      <c r="M994" t="inlineStr"/>
+      <c r="N994" t="inlineStr"/>
+      <c r="O994" t="inlineStr"/>
+      <c r="P994" t="inlineStr"/>
+      <c r="Q994" t="inlineStr"/>
+      <c r="R994" t="inlineStr"/>
+    </row>
+    <row r="995">
+      <c r="A995" t="n">
+        <v>994</v>
+      </c>
+      <c r="B995" t="inlineStr">
+        <is>
+          <t>Junior Produkt Manger (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C995" t="inlineStr">
+        <is>
+          <t>Secupay Ag</t>
+        </is>
+      </c>
+      <c r="D995" t="inlineStr">
+        <is>
+          <t>Pulsnitz</t>
+        </is>
+      </c>
+      <c r="E995" t="b">
+        <v>0</v>
+      </c>
+      <c r="F995" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/secupay-ag/junior-produkt-manger-pulsnitz-150192</t>
+        </is>
+      </c>
+      <c r="G995" t="inlineStr"/>
+      <c r="H995" t="inlineStr"/>
+      <c r="I995" t="inlineStr"/>
+      <c r="J995" t="inlineStr"/>
+      <c r="K995" t="inlineStr"/>
+      <c r="L995" t="inlineStr"/>
+      <c r="M995" t="inlineStr"/>
+      <c r="N995" t="inlineStr"/>
+      <c r="O995" t="inlineStr"/>
+      <c r="P995" t="inlineStr"/>
+      <c r="Q995" t="inlineStr"/>
+      <c r="R995" t="inlineStr"/>
+    </row>
+    <row r="996">
+      <c r="A996" t="n">
+        <v>995</v>
+      </c>
+      <c r="B996" t="inlineStr">
+        <is>
+          <t>Senior Projektleitung (m/f/d)</t>
+        </is>
+      </c>
+      <c r="C996" t="inlineStr">
+        <is>
+          <t>Mimacom Deutschland Gmbh</t>
+        </is>
+      </c>
+      <c r="D996" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E996" t="b">
+        <v>0</v>
+      </c>
+      <c r="F996" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/mimacom-deutschland-gmbh/senior-projektleitung-stuttgart-72417</t>
+        </is>
+      </c>
+      <c r="G996" t="inlineStr"/>
+      <c r="H996" t="inlineStr"/>
+      <c r="I996" t="inlineStr"/>
+      <c r="J996" t="inlineStr"/>
+      <c r="K996" t="inlineStr"/>
+      <c r="L996" t="inlineStr"/>
+      <c r="M996" t="inlineStr"/>
+      <c r="N996" t="inlineStr"/>
+      <c r="O996" t="inlineStr"/>
+      <c r="P996" t="inlineStr"/>
+      <c r="Q996" t="inlineStr"/>
+      <c r="R996" t="inlineStr"/>
+    </row>
+    <row r="997">
+      <c r="A997" t="n">
+        <v>996</v>
+      </c>
+      <c r="B997" t="inlineStr">
+        <is>
+          <t>Kosmetik Product Manager (m/w/d) Vollzeit</t>
+        </is>
+      </c>
+      <c r="C997" t="inlineStr">
+        <is>
+          <t>Crispy Cousins C.C. Gmbh</t>
+        </is>
+      </c>
+      <c r="D997" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E997" t="b">
+        <v>0</v>
+      </c>
+      <c r="F997" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/crispy-cousins-cc-gmbh/kosmetik-product-manager-vollzeit-frankfurt-166026</t>
+        </is>
+      </c>
+      <c r="G997" t="inlineStr"/>
+      <c r="H997" t="inlineStr"/>
+      <c r="I997" t="inlineStr"/>
+      <c r="J997" t="inlineStr"/>
+      <c r="K997" t="inlineStr"/>
+      <c r="L997" t="inlineStr"/>
+      <c r="M997" t="inlineStr"/>
+      <c r="N997" t="inlineStr"/>
+      <c r="O997" t="inlineStr"/>
+      <c r="P997" t="inlineStr"/>
+      <c r="Q997" t="inlineStr"/>
+      <c r="R997" t="inlineStr"/>
+    </row>
+    <row r="998">
+      <c r="A998" t="n">
+        <v>997</v>
+      </c>
+      <c r="B998" t="inlineStr">
+        <is>
+          <t>Community Manager (m/w/d) bei Crispy Cousins</t>
+        </is>
+      </c>
+      <c r="C998" t="inlineStr">
+        <is>
+          <t>Crispy Cousins C.C. Gmbh</t>
+        </is>
+      </c>
+      <c r="D998" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E998" t="b">
+        <v>0</v>
+      </c>
+      <c r="F998" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/crispy-cousins-cc-gmbh/community-manager-bei-crispy-cousins-frankfurt-6556</t>
+        </is>
+      </c>
+      <c r="G998" t="inlineStr"/>
+      <c r="H998" t="inlineStr"/>
+      <c r="I998" t="inlineStr"/>
+      <c r="J998" t="inlineStr"/>
+      <c r="K998" t="inlineStr"/>
+      <c r="L998" t="inlineStr"/>
+      <c r="M998" t="inlineStr"/>
+      <c r="N998" t="inlineStr"/>
+      <c r="O998" t="inlineStr"/>
+      <c r="P998" t="inlineStr"/>
+      <c r="Q998" t="inlineStr"/>
+      <c r="R998" t="inlineStr"/>
+    </row>
+    <row r="999">
+      <c r="A999" t="n">
+        <v>998</v>
+      </c>
+      <c r="B999" t="inlineStr">
+        <is>
+          <t>Advanced Analyst (w/m/d)</t>
+        </is>
+      </c>
+      <c r="C999" t="inlineStr">
+        <is>
+          <t>Billie</t>
+        </is>
+      </c>
+      <c r="D999" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E999" t="b">
+        <v>0</v>
+      </c>
+      <c r="F999" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/billie/advanced-analyst-berlin-140843</t>
+        </is>
+      </c>
+      <c r="G999" t="inlineStr"/>
+      <c r="H999" t="inlineStr"/>
+      <c r="I999" t="inlineStr"/>
+      <c r="J999" t="inlineStr"/>
+      <c r="K999" t="inlineStr"/>
+      <c r="L999" t="inlineStr"/>
+      <c r="M999" t="inlineStr"/>
+      <c r="N999" t="inlineStr"/>
+      <c r="O999" t="inlineStr"/>
+      <c r="P999" t="inlineStr"/>
+      <c r="Q999" t="inlineStr"/>
+      <c r="R999" t="inlineStr"/>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="n">
+        <v>999</v>
+      </c>
+      <c r="B1000" t="inlineStr">
+        <is>
+          <t>Data Science Analyst (w/m/d)</t>
+        </is>
+      </c>
+      <c r="C1000" t="inlineStr">
+        <is>
+          <t>Billie</t>
+        </is>
+      </c>
+      <c r="D1000" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E1000" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1000" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/billie/data-science-analyst-berlin-192781</t>
+        </is>
+      </c>
+      <c r="G1000" t="inlineStr"/>
+      <c r="H1000" t="inlineStr"/>
+      <c r="I1000" t="inlineStr"/>
+      <c r="J1000" t="inlineStr"/>
+      <c r="K1000" t="inlineStr"/>
+      <c r="L1000" t="inlineStr"/>
+      <c r="M1000" t="inlineStr"/>
+      <c r="N1000" t="inlineStr"/>
+      <c r="O1000" t="inlineStr"/>
+      <c r="P1000" t="inlineStr"/>
+      <c r="Q1000" t="inlineStr"/>
+      <c r="R1000" t="inlineStr"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B1001" t="inlineStr">
+        <is>
+          <t>Werkstudent (w/m/d) HR/People Team</t>
+        </is>
+      </c>
+      <c r="C1001" t="inlineStr">
+        <is>
+          <t>Clariness</t>
+        </is>
+      </c>
+      <c r="D1001" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E1001" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1001" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/clariness/werkstudent-hr-people-team-berlin-377662</t>
+        </is>
+      </c>
+      <c r="G1001" t="inlineStr"/>
+      <c r="H1001" t="inlineStr"/>
+      <c r="I1001" t="inlineStr"/>
+      <c r="J1001" t="inlineStr"/>
+      <c r="K1001" t="inlineStr"/>
+      <c r="L1001" t="inlineStr"/>
+      <c r="M1001" t="inlineStr"/>
+      <c r="N1001" t="inlineStr"/>
+      <c r="O1001" t="inlineStr"/>
+      <c r="P1001" t="inlineStr"/>
+      <c r="Q1001" t="inlineStr"/>
+      <c r="R1001" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/static/enriched_data/enriched_data.xlsx
+++ b/src/static/enriched_data/enriched_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1001"/>
+  <dimension ref="A1:R1101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41875,6 +41875,4176 @@
       <c r="Q1001" t="inlineStr"/>
       <c r="R1001" t="inlineStr"/>
     </row>
+    <row r="1002">
+      <c r="A1002" t="n">
+        <v>1001</v>
+      </c>
+      <c r="B1002" t="inlineStr">
+        <is>
+          <t>Buchhalter(in)/Steuerfachangestellte(r) Teilzeit Remote (ca. 10 Stunden pro Woche)</t>
+        </is>
+      </c>
+      <c r="C1002" t="inlineStr">
+        <is>
+          <t>Livello Gmbh</t>
+        </is>
+      </c>
+      <c r="D1002" t="inlineStr">
+        <is>
+          <t>Düsseldorf</t>
+        </is>
+      </c>
+      <c r="E1002" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1002" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/livello-gmbh/buchhalterin-steuerfachangestellter-teilzeit-remote-ca-10-stunden-pro-woche-dusseldorf-43194</t>
+        </is>
+      </c>
+      <c r="G1002" t="inlineStr"/>
+      <c r="H1002" t="inlineStr"/>
+      <c r="I1002" t="inlineStr"/>
+      <c r="J1002" t="inlineStr"/>
+      <c r="K1002" t="inlineStr"/>
+      <c r="L1002" t="inlineStr"/>
+      <c r="M1002" t="inlineStr"/>
+      <c r="N1002" t="inlineStr"/>
+      <c r="O1002" t="inlineStr"/>
+      <c r="P1002" t="inlineStr"/>
+      <c r="Q1002" t="inlineStr"/>
+      <c r="R1002" t="inlineStr"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="n">
+        <v>1002</v>
+      </c>
+      <c r="B1003" t="inlineStr">
+        <is>
+          <t>M&amp;E Operations Manager (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C1003" t="inlineStr">
+        <is>
+          <t>Radisson Hotel Group</t>
+        </is>
+      </c>
+      <c r="D1003" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1003" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1003" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/radisson-hotel-group/me-operations-manager-berlin-137670</t>
+        </is>
+      </c>
+      <c r="G1003" t="inlineStr"/>
+      <c r="H1003" t="inlineStr"/>
+      <c r="I1003" t="inlineStr"/>
+      <c r="J1003" t="inlineStr"/>
+      <c r="K1003" t="inlineStr"/>
+      <c r="L1003" t="inlineStr"/>
+      <c r="M1003" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N1003" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O1003" t="n">
+        <v>70</v>
+      </c>
+      <c r="P1003" t="inlineStr"/>
+      <c r="Q1003" t="inlineStr"/>
+      <c r="R1003" t="inlineStr"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="n">
+        <v>1003</v>
+      </c>
+      <c r="B1004" t="inlineStr">
+        <is>
+          <t>SAP GRC &amp; Security Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1004" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1004" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E1004" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1004" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-grc-security-berater-remote-heidelberg-487134</t>
+        </is>
+      </c>
+      <c r="G1004" t="inlineStr"/>
+      <c r="H1004" t="inlineStr"/>
+      <c r="I1004" t="inlineStr"/>
+      <c r="J1004" t="inlineStr"/>
+      <c r="K1004" t="inlineStr"/>
+      <c r="L1004" t="inlineStr"/>
+      <c r="M1004" t="inlineStr"/>
+      <c r="N1004" t="inlineStr"/>
+      <c r="O1004" t="inlineStr"/>
+      <c r="P1004" t="inlineStr"/>
+      <c r="Q1004" t="inlineStr"/>
+      <c r="R1004" t="inlineStr"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="n">
+        <v>1004</v>
+      </c>
+      <c r="B1005" t="inlineStr">
+        <is>
+          <t>SAP GRC &amp; Security Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1005" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1005" t="inlineStr">
+        <is>
+          <t>Frankfurt am Main</t>
+        </is>
+      </c>
+      <c r="E1005" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1005" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-grc-security-berater-remote-frankfurt-am-main-1677</t>
+        </is>
+      </c>
+      <c r="G1005" t="inlineStr"/>
+      <c r="H1005" t="inlineStr"/>
+      <c r="I1005" t="inlineStr"/>
+      <c r="J1005" t="inlineStr"/>
+      <c r="K1005" t="inlineStr"/>
+      <c r="L1005" t="inlineStr"/>
+      <c r="M1005" t="inlineStr"/>
+      <c r="N1005" t="inlineStr"/>
+      <c r="O1005" t="inlineStr"/>
+      <c r="P1005" t="inlineStr"/>
+      <c r="Q1005" t="inlineStr"/>
+      <c r="R1005" t="inlineStr"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="n">
+        <v>1005</v>
+      </c>
+      <c r="B1006" t="inlineStr">
+        <is>
+          <t>SAP Solution Manager/Cloud ALM Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1006" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1006" t="inlineStr">
+        <is>
+          <t>Mannheim</t>
+        </is>
+      </c>
+      <c r="E1006" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1006" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-solution-manager-cloud-alm-berater-remote-mannheim-260590</t>
+        </is>
+      </c>
+      <c r="G1006" t="inlineStr"/>
+      <c r="H1006" t="inlineStr"/>
+      <c r="I1006" t="inlineStr"/>
+      <c r="J1006" t="inlineStr"/>
+      <c r="K1006" t="inlineStr"/>
+      <c r="L1006" t="inlineStr"/>
+      <c r="M1006" t="inlineStr"/>
+      <c r="N1006" t="inlineStr"/>
+      <c r="O1006" t="inlineStr"/>
+      <c r="P1006" t="inlineStr"/>
+      <c r="Q1006" t="inlineStr"/>
+      <c r="R1006" t="inlineStr"/>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="n">
+        <v>1006</v>
+      </c>
+      <c r="B1007" t="inlineStr">
+        <is>
+          <t>SAP Solution Manager/Cloud ALM Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1007" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1007" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E1007" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1007" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-solution-manager-cloud-alm-berater-remote-heidelberg-212391</t>
+        </is>
+      </c>
+      <c r="G1007" t="inlineStr"/>
+      <c r="H1007" t="inlineStr"/>
+      <c r="I1007" t="inlineStr"/>
+      <c r="J1007" t="inlineStr"/>
+      <c r="K1007" t="inlineStr"/>
+      <c r="L1007" t="inlineStr"/>
+      <c r="M1007" t="inlineStr"/>
+      <c r="N1007" t="inlineStr"/>
+      <c r="O1007" t="inlineStr"/>
+      <c r="P1007" t="inlineStr"/>
+      <c r="Q1007" t="inlineStr"/>
+      <c r="R1007" t="inlineStr"/>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="n">
+        <v>1007</v>
+      </c>
+      <c r="B1008" t="inlineStr">
+        <is>
+          <t>SAP Logistik Berater (MM/SD/) (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1008" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1008" t="inlineStr">
+        <is>
+          <t>Frankfurt am Main</t>
+        </is>
+      </c>
+      <c r="E1008" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1008" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-logistik-berater-mm-sd-remote-frankfurt-am-main-255475</t>
+        </is>
+      </c>
+      <c r="G1008" t="inlineStr"/>
+      <c r="H1008" t="inlineStr"/>
+      <c r="I1008" t="inlineStr"/>
+      <c r="J1008" t="inlineStr"/>
+      <c r="K1008" t="inlineStr"/>
+      <c r="L1008" t="inlineStr"/>
+      <c r="M1008" t="inlineStr"/>
+      <c r="N1008" t="inlineStr"/>
+      <c r="O1008" t="inlineStr"/>
+      <c r="P1008" t="inlineStr"/>
+      <c r="Q1008" t="inlineStr"/>
+      <c r="R1008" t="inlineStr"/>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="n">
+        <v>1008</v>
+      </c>
+      <c r="B1009" t="inlineStr">
+        <is>
+          <t>SAP Logistik Berater (MM/SD/) (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1009" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1009" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E1009" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1009" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-logistik-berater-mm-sd-remote-cologne-69634</t>
+        </is>
+      </c>
+      <c r="G1009" t="inlineStr"/>
+      <c r="H1009" t="inlineStr"/>
+      <c r="I1009" t="inlineStr"/>
+      <c r="J1009" t="inlineStr"/>
+      <c r="K1009" t="inlineStr"/>
+      <c r="L1009" t="inlineStr"/>
+      <c r="M1009" t="inlineStr"/>
+      <c r="N1009" t="inlineStr"/>
+      <c r="O1009" t="inlineStr"/>
+      <c r="P1009" t="inlineStr"/>
+      <c r="Q1009" t="inlineStr"/>
+      <c r="R1009" t="inlineStr"/>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1010" t="inlineStr">
+        <is>
+          <t>SAP Logistik Berater (MM/SD/) (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1010" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1010" t="inlineStr">
+        <is>
+          <t>Mannheim</t>
+        </is>
+      </c>
+      <c r="E1010" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1010" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-logistik-berater-mm-sd-remote-mannheim-77067</t>
+        </is>
+      </c>
+      <c r="G1010" t="inlineStr"/>
+      <c r="H1010" t="inlineStr"/>
+      <c r="I1010" t="inlineStr"/>
+      <c r="J1010" t="inlineStr"/>
+      <c r="K1010" t="inlineStr"/>
+      <c r="L1010" t="inlineStr"/>
+      <c r="M1010" t="inlineStr"/>
+      <c r="N1010" t="inlineStr"/>
+      <c r="O1010" t="inlineStr"/>
+      <c r="P1010" t="inlineStr"/>
+      <c r="Q1010" t="inlineStr"/>
+      <c r="R1010" t="inlineStr"/>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="n">
+        <v>1010</v>
+      </c>
+      <c r="B1011" t="inlineStr">
+        <is>
+          <t>SAP Logistik Berater (MM/SD/) (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1011" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1011" t="inlineStr">
+        <is>
+          <t>Düsseldorf</t>
+        </is>
+      </c>
+      <c r="E1011" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1011" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-logistik-berater-mm-sd-remote-dusseldorf-225440</t>
+        </is>
+      </c>
+      <c r="G1011" t="inlineStr"/>
+      <c r="H1011" t="inlineStr"/>
+      <c r="I1011" t="inlineStr"/>
+      <c r="J1011" t="inlineStr"/>
+      <c r="K1011" t="inlineStr"/>
+      <c r="L1011" t="inlineStr"/>
+      <c r="M1011" t="inlineStr"/>
+      <c r="N1011" t="inlineStr"/>
+      <c r="O1011" t="inlineStr"/>
+      <c r="P1011" t="inlineStr"/>
+      <c r="Q1011" t="inlineStr"/>
+      <c r="R1011" t="inlineStr"/>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B1012" t="inlineStr">
+        <is>
+          <t>SAP Logistik Berater (MM/SD/) (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1012" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1012" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E1012" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1012" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-logistik-berater-mm-sd-remote-heidelberg-23573</t>
+        </is>
+      </c>
+      <c r="G1012" t="inlineStr"/>
+      <c r="H1012" t="inlineStr"/>
+      <c r="I1012" t="inlineStr"/>
+      <c r="J1012" t="inlineStr"/>
+      <c r="K1012" t="inlineStr"/>
+      <c r="L1012" t="inlineStr"/>
+      <c r="M1012" t="inlineStr"/>
+      <c r="N1012" t="inlineStr"/>
+      <c r="O1012" t="inlineStr"/>
+      <c r="P1012" t="inlineStr"/>
+      <c r="Q1012" t="inlineStr"/>
+      <c r="R1012" t="inlineStr"/>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="n">
+        <v>1012</v>
+      </c>
+      <c r="B1013" t="inlineStr">
+        <is>
+          <t>(Senior) SAP HCM Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1013" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1013" t="inlineStr">
+        <is>
+          <t>Düsseldorf</t>
+        </is>
+      </c>
+      <c r="E1013" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1013" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-sap-hcm-berater-remote-dusseldorf-567</t>
+        </is>
+      </c>
+      <c r="G1013" t="inlineStr"/>
+      <c r="H1013" t="inlineStr"/>
+      <c r="I1013" t="inlineStr"/>
+      <c r="J1013" t="inlineStr"/>
+      <c r="K1013" t="inlineStr"/>
+      <c r="L1013" t="inlineStr"/>
+      <c r="M1013" t="inlineStr"/>
+      <c r="N1013" t="inlineStr"/>
+      <c r="O1013" t="inlineStr"/>
+      <c r="P1013" t="inlineStr"/>
+      <c r="Q1013" t="inlineStr"/>
+      <c r="R1013" t="inlineStr"/>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="n">
+        <v>1013</v>
+      </c>
+      <c r="B1014" t="inlineStr">
+        <is>
+          <t>(Senior) SAP HCM Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1014" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1014" t="inlineStr">
+        <is>
+          <t>Frankfurt am Main</t>
+        </is>
+      </c>
+      <c r="E1014" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1014" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-sap-hcm-berater-remote-frankfurt-am-main-462634</t>
+        </is>
+      </c>
+      <c r="G1014" t="inlineStr"/>
+      <c r="H1014" t="inlineStr"/>
+      <c r="I1014" t="inlineStr"/>
+      <c r="J1014" t="inlineStr"/>
+      <c r="K1014" t="inlineStr"/>
+      <c r="L1014" t="inlineStr"/>
+      <c r="M1014" t="inlineStr"/>
+      <c r="N1014" t="inlineStr"/>
+      <c r="O1014" t="inlineStr"/>
+      <c r="P1014" t="inlineStr"/>
+      <c r="Q1014" t="inlineStr"/>
+      <c r="R1014" t="inlineStr"/>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="n">
+        <v>1014</v>
+      </c>
+      <c r="B1015" t="inlineStr">
+        <is>
+          <t>(Senior) SAP HCM Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1015" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1015" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E1015" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1015" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-sap-hcm-berater-remote-cologne-347384</t>
+        </is>
+      </c>
+      <c r="G1015" t="inlineStr"/>
+      <c r="H1015" t="inlineStr"/>
+      <c r="I1015" t="inlineStr"/>
+      <c r="J1015" t="inlineStr"/>
+      <c r="K1015" t="inlineStr"/>
+      <c r="L1015" t="inlineStr"/>
+      <c r="M1015" t="inlineStr"/>
+      <c r="N1015" t="inlineStr"/>
+      <c r="O1015" t="inlineStr"/>
+      <c r="P1015" t="inlineStr"/>
+      <c r="Q1015" t="inlineStr"/>
+      <c r="R1015" t="inlineStr"/>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="n">
+        <v>1015</v>
+      </c>
+      <c r="B1016" t="inlineStr">
+        <is>
+          <t>(Senior) SAP HCM Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1016" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1016" t="inlineStr">
+        <is>
+          <t>Mannheim</t>
+        </is>
+      </c>
+      <c r="E1016" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1016" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-sap-hcm-berater-remote-mannheim-413850</t>
+        </is>
+      </c>
+      <c r="G1016" t="inlineStr"/>
+      <c r="H1016" t="inlineStr"/>
+      <c r="I1016" t="inlineStr"/>
+      <c r="J1016" t="inlineStr"/>
+      <c r="K1016" t="inlineStr"/>
+      <c r="L1016" t="inlineStr"/>
+      <c r="M1016" t="inlineStr"/>
+      <c r="N1016" t="inlineStr"/>
+      <c r="O1016" t="inlineStr"/>
+      <c r="P1016" t="inlineStr"/>
+      <c r="Q1016" t="inlineStr"/>
+      <c r="R1016" t="inlineStr"/>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1017" t="inlineStr">
+        <is>
+          <t>(Senior) SAP HCM Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1017" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1017" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E1017" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1017" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-sap-hcm-berater-remote-heidelberg-271264</t>
+        </is>
+      </c>
+      <c r="G1017" t="inlineStr"/>
+      <c r="H1017" t="inlineStr"/>
+      <c r="I1017" t="inlineStr"/>
+      <c r="J1017" t="inlineStr"/>
+      <c r="K1017" t="inlineStr"/>
+      <c r="L1017" t="inlineStr"/>
+      <c r="M1017" t="inlineStr"/>
+      <c r="N1017" t="inlineStr"/>
+      <c r="O1017" t="inlineStr"/>
+      <c r="P1017" t="inlineStr"/>
+      <c r="Q1017" t="inlineStr"/>
+      <c r="R1017" t="inlineStr"/>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="n">
+        <v>1017</v>
+      </c>
+      <c r="B1018" t="inlineStr">
+        <is>
+          <t>Social Media &amp; Content Creator (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C1018" t="inlineStr">
+        <is>
+          <t>Dcp Digitaldruck &amp; Profiltechnik Gmbh &amp; Co.Kg</t>
+        </is>
+      </c>
+      <c r="D1018" t="inlineStr">
+        <is>
+          <t>Gütersloh</t>
+        </is>
+      </c>
+      <c r="E1018" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1018" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/dcp-digitaldruck-profiltechnik-gmbh-cokg/social-media-content-creator-gutersloh-355458</t>
+        </is>
+      </c>
+      <c r="G1018" t="inlineStr"/>
+      <c r="H1018" t="inlineStr"/>
+      <c r="I1018" t="inlineStr"/>
+      <c r="J1018" t="inlineStr"/>
+      <c r="K1018" t="inlineStr"/>
+      <c r="L1018" t="inlineStr"/>
+      <c r="M1018" t="inlineStr"/>
+      <c r="N1018" t="inlineStr"/>
+      <c r="O1018" t="inlineStr"/>
+      <c r="P1018" t="inlineStr"/>
+      <c r="Q1018" t="inlineStr"/>
+      <c r="R1018" t="inlineStr"/>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="n">
+        <v>1018</v>
+      </c>
+      <c r="B1019" t="inlineStr">
+        <is>
+          <t>(Senior) SuccessFactors Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1019" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1019" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E1019" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1019" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-successfactors-berater-remote-heidelberg-165309</t>
+        </is>
+      </c>
+      <c r="G1019" t="inlineStr"/>
+      <c r="H1019" t="inlineStr"/>
+      <c r="I1019" t="inlineStr"/>
+      <c r="J1019" t="inlineStr"/>
+      <c r="K1019" t="inlineStr"/>
+      <c r="L1019" t="inlineStr"/>
+      <c r="M1019" t="inlineStr"/>
+      <c r="N1019" t="inlineStr"/>
+      <c r="O1019" t="inlineStr"/>
+      <c r="P1019" t="inlineStr"/>
+      <c r="Q1019" t="inlineStr"/>
+      <c r="R1019" t="inlineStr"/>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="n">
+        <v>1019</v>
+      </c>
+      <c r="B1020" t="inlineStr">
+        <is>
+          <t>(Senior) SuccessFactors Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1020" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1020" t="inlineStr">
+        <is>
+          <t>Mannheim</t>
+        </is>
+      </c>
+      <c r="E1020" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1020" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-successfactors-berater-remote-mannheim-129077</t>
+        </is>
+      </c>
+      <c r="G1020" t="inlineStr"/>
+      <c r="H1020" t="inlineStr"/>
+      <c r="I1020" t="inlineStr"/>
+      <c r="J1020" t="inlineStr"/>
+      <c r="K1020" t="inlineStr"/>
+      <c r="L1020" t="inlineStr"/>
+      <c r="M1020" t="inlineStr"/>
+      <c r="N1020" t="inlineStr"/>
+      <c r="O1020" t="inlineStr"/>
+      <c r="P1020" t="inlineStr"/>
+      <c r="Q1020" t="inlineStr"/>
+      <c r="R1020" t="inlineStr"/>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="n">
+        <v>1020</v>
+      </c>
+      <c r="B1021" t="inlineStr">
+        <is>
+          <t>(Senior) SuccessFactors Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1021" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1021" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E1021" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1021" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-successfactors-berater-remote-cologne-488544</t>
+        </is>
+      </c>
+      <c r="G1021" t="inlineStr"/>
+      <c r="H1021" t="inlineStr"/>
+      <c r="I1021" t="inlineStr"/>
+      <c r="J1021" t="inlineStr"/>
+      <c r="K1021" t="inlineStr"/>
+      <c r="L1021" t="inlineStr"/>
+      <c r="M1021" t="inlineStr"/>
+      <c r="N1021" t="inlineStr"/>
+      <c r="O1021" t="inlineStr"/>
+      <c r="P1021" t="inlineStr"/>
+      <c r="Q1021" t="inlineStr"/>
+      <c r="R1021" t="inlineStr"/>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="n">
+        <v>1021</v>
+      </c>
+      <c r="B1022" t="inlineStr">
+        <is>
+          <t>(Senior) SuccessFactors Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1022" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1022" t="inlineStr">
+        <is>
+          <t>Frankfurt am Main</t>
+        </is>
+      </c>
+      <c r="E1022" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1022" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-successfactors-berater-remote-frankfurt-am-main-235148</t>
+        </is>
+      </c>
+      <c r="G1022" t="inlineStr"/>
+      <c r="H1022" t="inlineStr"/>
+      <c r="I1022" t="inlineStr"/>
+      <c r="J1022" t="inlineStr"/>
+      <c r="K1022" t="inlineStr"/>
+      <c r="L1022" t="inlineStr"/>
+      <c r="M1022" t="inlineStr"/>
+      <c r="N1022" t="inlineStr"/>
+      <c r="O1022" t="inlineStr"/>
+      <c r="P1022" t="inlineStr"/>
+      <c r="Q1022" t="inlineStr"/>
+      <c r="R1022" t="inlineStr"/>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="n">
+        <v>1022</v>
+      </c>
+      <c r="B1023" t="inlineStr">
+        <is>
+          <t>(Senior) SuccessFactors Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1023" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1023" t="inlineStr">
+        <is>
+          <t>Düsseldorf</t>
+        </is>
+      </c>
+      <c r="E1023" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1023" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-successfactors-berater-remote-dusseldorf-277908</t>
+        </is>
+      </c>
+      <c r="G1023" t="inlineStr"/>
+      <c r="H1023" t="inlineStr"/>
+      <c r="I1023" t="inlineStr"/>
+      <c r="J1023" t="inlineStr"/>
+      <c r="K1023" t="inlineStr"/>
+      <c r="L1023" t="inlineStr"/>
+      <c r="M1023" t="inlineStr"/>
+      <c r="N1023" t="inlineStr"/>
+      <c r="O1023" t="inlineStr"/>
+      <c r="P1023" t="inlineStr"/>
+      <c r="Q1023" t="inlineStr"/>
+      <c r="R1023" t="inlineStr"/>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1024" t="inlineStr">
+        <is>
+          <t>SAP FI/CO im Beratungsumfeld (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1024" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1024" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E1024" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1024" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-fi-co-im-beratungsumfeld-remote-heidelberg-14855</t>
+        </is>
+      </c>
+      <c r="G1024" t="inlineStr"/>
+      <c r="H1024" t="inlineStr"/>
+      <c r="I1024" t="inlineStr"/>
+      <c r="J1024" t="inlineStr"/>
+      <c r="K1024" t="inlineStr"/>
+      <c r="L1024" t="inlineStr"/>
+      <c r="M1024" t="inlineStr"/>
+      <c r="N1024" t="inlineStr"/>
+      <c r="O1024" t="inlineStr"/>
+      <c r="P1024" t="inlineStr"/>
+      <c r="Q1024" t="inlineStr"/>
+      <c r="R1024" t="inlineStr"/>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="n">
+        <v>1024</v>
+      </c>
+      <c r="B1025" t="inlineStr">
+        <is>
+          <t>SAP FI/CO im Beratungsumfeld (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1025" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1025" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E1025" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1025" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-fi-co-im-beratungsumfeld-remote-cologne-317025</t>
+        </is>
+      </c>
+      <c r="G1025" t="inlineStr"/>
+      <c r="H1025" t="inlineStr"/>
+      <c r="I1025" t="inlineStr"/>
+      <c r="J1025" t="inlineStr"/>
+      <c r="K1025" t="inlineStr"/>
+      <c r="L1025" t="inlineStr"/>
+      <c r="M1025" t="inlineStr"/>
+      <c r="N1025" t="inlineStr"/>
+      <c r="O1025" t="inlineStr"/>
+      <c r="P1025" t="inlineStr"/>
+      <c r="Q1025" t="inlineStr"/>
+      <c r="R1025" t="inlineStr"/>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="n">
+        <v>1025</v>
+      </c>
+      <c r="B1026" t="inlineStr">
+        <is>
+          <t>SAP FI/CO im Beratungsumfeld (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1026" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1026" t="inlineStr">
+        <is>
+          <t>Mannheim</t>
+        </is>
+      </c>
+      <c r="E1026" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1026" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-fi-co-im-beratungsumfeld-remote-mannheim-147547</t>
+        </is>
+      </c>
+      <c r="G1026" t="inlineStr"/>
+      <c r="H1026" t="inlineStr"/>
+      <c r="I1026" t="inlineStr"/>
+      <c r="J1026" t="inlineStr"/>
+      <c r="K1026" t="inlineStr"/>
+      <c r="L1026" t="inlineStr"/>
+      <c r="M1026" t="inlineStr"/>
+      <c r="N1026" t="inlineStr"/>
+      <c r="O1026" t="inlineStr"/>
+      <c r="P1026" t="inlineStr"/>
+      <c r="Q1026" t="inlineStr"/>
+      <c r="R1026" t="inlineStr"/>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="n">
+        <v>1026</v>
+      </c>
+      <c r="B1027" t="inlineStr">
+        <is>
+          <t>Staff Engineer .NET (f/m/d)</t>
+        </is>
+      </c>
+      <c r="C1027" t="inlineStr">
+        <is>
+          <t>Apaleo</t>
+        </is>
+      </c>
+      <c r="D1027" t="inlineStr">
+        <is>
+          <t>München, Bavaria, Germany</t>
+        </is>
+      </c>
+      <c r="E1027" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1027" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/apaleo/staff-engineer-net-munchen-142700</t>
+        </is>
+      </c>
+      <c r="G1027" t="inlineStr"/>
+      <c r="H1027" t="inlineStr"/>
+      <c r="I1027" t="inlineStr"/>
+      <c r="J1027" t="inlineStr"/>
+      <c r="K1027" t="inlineStr"/>
+      <c r="L1027" t="inlineStr"/>
+      <c r="M1027" t="inlineStr"/>
+      <c r="N1027" t="inlineStr"/>
+      <c r="O1027" t="inlineStr"/>
+      <c r="P1027" t="inlineStr"/>
+      <c r="Q1027" t="inlineStr"/>
+      <c r="R1027" t="inlineStr"/>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="n">
+        <v>1027</v>
+      </c>
+      <c r="B1028" t="inlineStr">
+        <is>
+          <t>Minijob im Recruiting (m/w/d) - 100% Remote</t>
+        </is>
+      </c>
+      <c r="C1028" t="inlineStr">
+        <is>
+          <t>Recruiting Sonia</t>
+        </is>
+      </c>
+      <c r="D1028" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1028" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1028" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/recruiting-sonia/minijob-im-recruiting-100-remote-berlin-339267</t>
+        </is>
+      </c>
+      <c r="G1028" t="inlineStr"/>
+      <c r="H1028" t="inlineStr"/>
+      <c r="I1028" t="inlineStr"/>
+      <c r="J1028" t="inlineStr"/>
+      <c r="K1028" t="inlineStr"/>
+      <c r="L1028" t="inlineStr"/>
+      <c r="M1028" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N1028" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O1028" t="n">
+        <v>70</v>
+      </c>
+      <c r="P1028" t="inlineStr"/>
+      <c r="Q1028" t="inlineStr"/>
+      <c r="R1028" t="inlineStr"/>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="n">
+        <v>1028</v>
+      </c>
+      <c r="B1029" t="inlineStr">
+        <is>
+          <t>Werkstudent:in im Recruiting (m/w/d) - 100% Remote</t>
+        </is>
+      </c>
+      <c r="C1029" t="inlineStr">
+        <is>
+          <t>Recruiting Sonia</t>
+        </is>
+      </c>
+      <c r="D1029" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1029" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1029" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/recruiting-sonia/werkstudentin-im-recruiting-100-remote-berlin-246579</t>
+        </is>
+      </c>
+      <c r="G1029" t="inlineStr"/>
+      <c r="H1029" t="inlineStr"/>
+      <c r="I1029" t="inlineStr"/>
+      <c r="J1029" t="inlineStr"/>
+      <c r="K1029" t="inlineStr"/>
+      <c r="L1029" t="inlineStr"/>
+      <c r="M1029" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N1029" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O1029" t="n">
+        <v>70</v>
+      </c>
+      <c r="P1029" t="inlineStr"/>
+      <c r="Q1029" t="inlineStr"/>
+      <c r="R1029" t="inlineStr"/>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="n">
+        <v>1029</v>
+      </c>
+      <c r="B1030" t="inlineStr">
+        <is>
+          <t>Lead Engineer Full-Stack (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C1030" t="inlineStr">
+        <is>
+          <t>42Matches Gmbh</t>
+        </is>
+      </c>
+      <c r="D1030" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E1030" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1030" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/42matches-gmbh/lead-engineer-full-stack-hamburg-140652</t>
+        </is>
+      </c>
+      <c r="G1030" t="inlineStr"/>
+      <c r="H1030" t="inlineStr"/>
+      <c r="I1030" t="inlineStr"/>
+      <c r="J1030" t="inlineStr"/>
+      <c r="K1030" t="inlineStr"/>
+      <c r="L1030" t="inlineStr"/>
+      <c r="M1030" t="inlineStr"/>
+      <c r="N1030" t="inlineStr"/>
+      <c r="O1030" t="inlineStr"/>
+      <c r="P1030" t="inlineStr"/>
+      <c r="Q1030" t="inlineStr"/>
+      <c r="R1030" t="inlineStr"/>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="n">
+        <v>1030</v>
+      </c>
+      <c r="B1031" t="inlineStr">
+        <is>
+          <t>Serviceleiter (m/w/d) für große Autohaus-Gruppe - Hauptstandort in Bergedorf</t>
+        </is>
+      </c>
+      <c r="C1031" t="inlineStr">
+        <is>
+          <t>Michael Krohn Consulting</t>
+        </is>
+      </c>
+      <c r="D1031" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E1031" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1031" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/michael-krohn-consulting/serviceleiter-fur-grosse-autohaus-gruppe-hauptstandort-in-bergedorf-hamburg-168628</t>
+        </is>
+      </c>
+      <c r="G1031" t="inlineStr"/>
+      <c r="H1031" t="inlineStr"/>
+      <c r="I1031" t="inlineStr"/>
+      <c r="J1031" t="inlineStr"/>
+      <c r="K1031" t="inlineStr"/>
+      <c r="L1031" t="inlineStr"/>
+      <c r="M1031" t="inlineStr"/>
+      <c r="N1031" t="inlineStr"/>
+      <c r="O1031" t="inlineStr"/>
+      <c r="P1031" t="inlineStr"/>
+      <c r="Q1031" t="inlineStr"/>
+      <c r="R1031" t="inlineStr"/>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B1032" t="inlineStr">
+        <is>
+          <t>Serviceberater Nutzfahrzeuge (m/w/d) für mittelständische Autohaus-Gruppe</t>
+        </is>
+      </c>
+      <c r="C1032" t="inlineStr">
+        <is>
+          <t>Michael Krohn Consulting</t>
+        </is>
+      </c>
+      <c r="D1032" t="inlineStr">
+        <is>
+          <t>Elmshorn</t>
+        </is>
+      </c>
+      <c r="E1032" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1032" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/michael-krohn-consulting/serviceberater-nutzfahrzeuge-fur-mittelstandische-autohaus-gruppe-elmshorn-451815</t>
+        </is>
+      </c>
+      <c r="G1032" t="inlineStr"/>
+      <c r="H1032" t="inlineStr"/>
+      <c r="I1032" t="inlineStr"/>
+      <c r="J1032" t="inlineStr"/>
+      <c r="K1032" t="inlineStr"/>
+      <c r="L1032" t="inlineStr"/>
+      <c r="M1032" t="inlineStr"/>
+      <c r="N1032" t="inlineStr"/>
+      <c r="O1032" t="inlineStr"/>
+      <c r="P1032" t="inlineStr"/>
+      <c r="Q1032" t="inlineStr"/>
+      <c r="R1032" t="inlineStr"/>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="n">
+        <v>1032</v>
+      </c>
+      <c r="B1033" t="inlineStr">
+        <is>
+          <t>System Engineer (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C1033" t="inlineStr">
+        <is>
+          <t>Indeno Deutschland</t>
+        </is>
+      </c>
+      <c r="D1033" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E1033" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1033" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/indeno-deutschland/system-engineer-stuttgart-197991</t>
+        </is>
+      </c>
+      <c r="G1033" t="inlineStr"/>
+      <c r="H1033" t="inlineStr"/>
+      <c r="I1033" t="inlineStr"/>
+      <c r="J1033" t="inlineStr"/>
+      <c r="K1033" t="inlineStr"/>
+      <c r="L1033" t="inlineStr"/>
+      <c r="M1033" t="inlineStr"/>
+      <c r="N1033" t="inlineStr"/>
+      <c r="O1033" t="inlineStr"/>
+      <c r="P1033" t="inlineStr"/>
+      <c r="Q1033" t="inlineStr"/>
+      <c r="R1033" t="inlineStr"/>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="n">
+        <v>1033</v>
+      </c>
+      <c r="B1034" t="inlineStr">
+        <is>
+          <t>Senior Backend Entwickler (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C1034" t="inlineStr">
+        <is>
+          <t>Axontic Gmbh</t>
+        </is>
+      </c>
+      <c r="D1034" t="inlineStr">
+        <is>
+          <t>Bremen</t>
+        </is>
+      </c>
+      <c r="E1034" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1034" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/axontic-gmbh/senior-backend-entwickler-bremen-454155</t>
+        </is>
+      </c>
+      <c r="G1034" t="inlineStr"/>
+      <c r="H1034" t="inlineStr"/>
+      <c r="I1034" t="inlineStr"/>
+      <c r="J1034" t="inlineStr"/>
+      <c r="K1034" t="inlineStr"/>
+      <c r="L1034" t="inlineStr"/>
+      <c r="M1034" t="inlineStr"/>
+      <c r="N1034" t="inlineStr"/>
+      <c r="O1034" t="inlineStr"/>
+      <c r="P1034" t="inlineStr"/>
+      <c r="Q1034" t="inlineStr"/>
+      <c r="R1034" t="inlineStr"/>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="n">
+        <v>1034</v>
+      </c>
+      <c r="B1035" t="inlineStr">
+        <is>
+          <t>Modern Workplace Engineer - Microsoft 365 (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C1035" t="inlineStr">
+        <is>
+          <t>Indeno Deutschland</t>
+        </is>
+      </c>
+      <c r="D1035" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E1035" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1035" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/indeno-deutschland/modern-workplace-engineer-microsoft-365-stuttgart-40528</t>
+        </is>
+      </c>
+      <c r="G1035" t="inlineStr"/>
+      <c r="H1035" t="inlineStr"/>
+      <c r="I1035" t="inlineStr"/>
+      <c r="J1035" t="inlineStr"/>
+      <c r="K1035" t="inlineStr"/>
+      <c r="L1035" t="inlineStr"/>
+      <c r="M1035" t="inlineStr"/>
+      <c r="N1035" t="inlineStr"/>
+      <c r="O1035" t="inlineStr"/>
+      <c r="P1035" t="inlineStr"/>
+      <c r="Q1035" t="inlineStr"/>
+      <c r="R1035" t="inlineStr"/>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="n">
+        <v>1035</v>
+      </c>
+      <c r="B1036" t="inlineStr">
+        <is>
+          <t>Bauleiter (m/w/d) mit Schwerpunkt Sanierung von Wohnimmobilien</t>
+        </is>
+      </c>
+      <c r="C1036" t="inlineStr">
+        <is>
+          <t>Brickup Gmbh</t>
+        </is>
+      </c>
+      <c r="D1036" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E1036" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1036" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/brickup-gmbh/bauleiter-mit-schwerpunkt-sanierung-von-wohnimmobilien-hamburg-435577</t>
+        </is>
+      </c>
+      <c r="G1036" t="inlineStr"/>
+      <c r="H1036" t="inlineStr"/>
+      <c r="I1036" t="inlineStr"/>
+      <c r="J1036" t="inlineStr"/>
+      <c r="K1036" t="inlineStr"/>
+      <c r="L1036" t="inlineStr"/>
+      <c r="M1036" t="inlineStr"/>
+      <c r="N1036" t="inlineStr"/>
+      <c r="O1036" t="inlineStr"/>
+      <c r="P1036" t="inlineStr"/>
+      <c r="Q1036" t="inlineStr"/>
+      <c r="R1036" t="inlineStr"/>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="n">
+        <v>1036</v>
+      </c>
+      <c r="B1037" t="inlineStr">
+        <is>
+          <t>IT Application Manager (m/w/d) Systembetrieb &amp; Prozessmanagement - Remote</t>
+        </is>
+      </c>
+      <c r="C1037" t="inlineStr">
+        <is>
+          <t>Shaarconsulting</t>
+        </is>
+      </c>
+      <c r="D1037" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1037" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1037" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/shaarconsulting/it-application-manager-systembetrieb-prozessmanagement-remote-berlin-109584</t>
+        </is>
+      </c>
+      <c r="G1037" t="inlineStr"/>
+      <c r="H1037" t="inlineStr"/>
+      <c r="I1037" t="inlineStr"/>
+      <c r="J1037" t="inlineStr"/>
+      <c r="K1037" t="inlineStr"/>
+      <c r="L1037" t="inlineStr"/>
+      <c r="M1037" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N1037" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O1037" t="n">
+        <v>70</v>
+      </c>
+      <c r="P1037" t="inlineStr"/>
+      <c r="Q1037" t="inlineStr"/>
+      <c r="R1037" t="inlineStr"/>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="n">
+        <v>1037</v>
+      </c>
+      <c r="B1038" t="inlineStr">
+        <is>
+          <t>IT Techniker (m/w/d) Windows Client/ Serverumgebungen</t>
+        </is>
+      </c>
+      <c r="C1038" t="inlineStr">
+        <is>
+          <t>Shaarconsulting</t>
+        </is>
+      </c>
+      <c r="D1038" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1038" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1038" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/shaarconsulting/it-techniker-windows-client-serverumgebungen-berlin-40236</t>
+        </is>
+      </c>
+      <c r="G1038" t="inlineStr"/>
+      <c r="H1038" t="inlineStr"/>
+      <c r="I1038" t="inlineStr"/>
+      <c r="J1038" t="inlineStr"/>
+      <c r="K1038" t="inlineStr"/>
+      <c r="L1038" t="inlineStr"/>
+      <c r="M1038" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N1038" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O1038" t="n">
+        <v>70</v>
+      </c>
+      <c r="P1038" t="inlineStr"/>
+      <c r="Q1038" t="inlineStr"/>
+      <c r="R1038" t="inlineStr"/>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="n">
+        <v>1038</v>
+      </c>
+      <c r="B1039" t="inlineStr">
+        <is>
+          <t>Junior Automation Experten (m/w/d) für KI-Strategieberatung</t>
+        </is>
+      </c>
+      <c r="C1039" t="inlineStr">
+        <is>
+          <t>Neurawork</t>
+        </is>
+      </c>
+      <c r="D1039" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1039" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1039" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/neurawork/junior-automation-experten-fur-ki-strategieberatung-berlin-418823</t>
+        </is>
+      </c>
+      <c r="G1039" t="inlineStr"/>
+      <c r="H1039" t="inlineStr"/>
+      <c r="I1039" t="inlineStr"/>
+      <c r="J1039" t="inlineStr"/>
+      <c r="K1039" t="inlineStr"/>
+      <c r="L1039" t="inlineStr"/>
+      <c r="M1039" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N1039" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O1039" t="n">
+        <v>70</v>
+      </c>
+      <c r="P1039" t="inlineStr"/>
+      <c r="Q1039" t="inlineStr"/>
+      <c r="R1039" t="inlineStr"/>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="n">
+        <v>1039</v>
+      </c>
+      <c r="B1040" t="inlineStr">
+        <is>
+          <t>(Senior) Projektmanager SAP S/4HANA (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1040" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1040" t="inlineStr">
+        <is>
+          <t>Mannheim</t>
+        </is>
+      </c>
+      <c r="E1040" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1040" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-projektmanager-sap-s-4hana-remote-mannheim-67062</t>
+        </is>
+      </c>
+      <c r="G1040" t="inlineStr"/>
+      <c r="H1040" t="inlineStr"/>
+      <c r="I1040" t="inlineStr"/>
+      <c r="J1040" t="inlineStr"/>
+      <c r="K1040" t="inlineStr"/>
+      <c r="L1040" t="inlineStr"/>
+      <c r="M1040" t="inlineStr"/>
+      <c r="N1040" t="inlineStr"/>
+      <c r="O1040" t="inlineStr"/>
+      <c r="P1040" t="inlineStr"/>
+      <c r="Q1040" t="inlineStr"/>
+      <c r="R1040" t="inlineStr"/>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="n">
+        <v>1040</v>
+      </c>
+      <c r="B1041" t="inlineStr">
+        <is>
+          <t>(Senior) Projektmanager SAP S/4HANA (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1041" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1041" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E1041" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1041" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-projektmanager-sap-s-4hana-remote-cologne-288258</t>
+        </is>
+      </c>
+      <c r="G1041" t="inlineStr"/>
+      <c r="H1041" t="inlineStr"/>
+      <c r="I1041" t="inlineStr"/>
+      <c r="J1041" t="inlineStr"/>
+      <c r="K1041" t="inlineStr"/>
+      <c r="L1041" t="inlineStr"/>
+      <c r="M1041" t="inlineStr"/>
+      <c r="N1041" t="inlineStr"/>
+      <c r="O1041" t="inlineStr"/>
+      <c r="P1041" t="inlineStr"/>
+      <c r="Q1041" t="inlineStr"/>
+      <c r="R1041" t="inlineStr"/>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="n">
+        <v>1041</v>
+      </c>
+      <c r="B1042" t="inlineStr">
+        <is>
+          <t>(Senior) Projektmanager SAP S/4HANA (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1042" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1042" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E1042" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1042" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-projektmanager-sap-s-4hana-remote-heidelberg-393651</t>
+        </is>
+      </c>
+      <c r="G1042" t="inlineStr"/>
+      <c r="H1042" t="inlineStr"/>
+      <c r="I1042" t="inlineStr"/>
+      <c r="J1042" t="inlineStr"/>
+      <c r="K1042" t="inlineStr"/>
+      <c r="L1042" t="inlineStr"/>
+      <c r="M1042" t="inlineStr"/>
+      <c r="N1042" t="inlineStr"/>
+      <c r="O1042" t="inlineStr"/>
+      <c r="P1042" t="inlineStr"/>
+      <c r="Q1042" t="inlineStr"/>
+      <c r="R1042" t="inlineStr"/>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="n">
+        <v>1042</v>
+      </c>
+      <c r="B1043" t="inlineStr">
+        <is>
+          <t>Telefonischer Kundenberater / Call Center Agent m/w/d Krankenversicherung</t>
+        </is>
+      </c>
+      <c r="C1043" t="inlineStr">
+        <is>
+          <t>W&amp;W Human Resources -  Ivonne Wresch -</t>
+        </is>
+      </c>
+      <c r="D1043" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E1043" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1043" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ww-human-resources-ivonne-wresch/telefonischer-kundenberater-call-center-agent-krankenversicherung-hamburg-332750</t>
+        </is>
+      </c>
+      <c r="G1043" t="inlineStr"/>
+      <c r="H1043" t="inlineStr"/>
+      <c r="I1043" t="inlineStr"/>
+      <c r="J1043" t="inlineStr"/>
+      <c r="K1043" t="inlineStr"/>
+      <c r="L1043" t="inlineStr"/>
+      <c r="M1043" t="inlineStr"/>
+      <c r="N1043" t="inlineStr"/>
+      <c r="O1043" t="inlineStr"/>
+      <c r="P1043" t="inlineStr"/>
+      <c r="Q1043" t="inlineStr"/>
+      <c r="R1043" t="inlineStr"/>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="n">
+        <v>1043</v>
+      </c>
+      <c r="B1044" t="inlineStr">
+        <is>
+          <t>2350-2800 € Telefonischer Kundenbetreuer  m/w/d Kundenservice Mo-Fr</t>
+        </is>
+      </c>
+      <c r="C1044" t="inlineStr">
+        <is>
+          <t>W&amp;W Human Resources -  Ivonne Wresch -</t>
+        </is>
+      </c>
+      <c r="D1044" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1044" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1044" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ww-human-resources-ivonne-wresch/2350-2800-eur-telefonischer-kundenbetreuer-kundenservice-mo-fr-berlin-114921</t>
+        </is>
+      </c>
+      <c r="G1044" t="inlineStr"/>
+      <c r="H1044" t="inlineStr"/>
+      <c r="I1044" t="inlineStr"/>
+      <c r="J1044" t="inlineStr"/>
+      <c r="K1044" t="inlineStr"/>
+      <c r="L1044" t="inlineStr"/>
+      <c r="M1044" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N1044" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O1044" t="n">
+        <v>70</v>
+      </c>
+      <c r="P1044" t="inlineStr"/>
+      <c r="Q1044" t="inlineStr"/>
+      <c r="R1044" t="inlineStr"/>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="n">
+        <v>1044</v>
+      </c>
+      <c r="B1045" t="inlineStr">
+        <is>
+          <t>Call Center Agent  m/w/d Kundenservice</t>
+        </is>
+      </c>
+      <c r="C1045" t="inlineStr">
+        <is>
+          <t>W&amp;W Human Resources -  Ivonne Wresch -</t>
+        </is>
+      </c>
+      <c r="D1045" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1045" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1045" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ww-human-resources-ivonne-wresch/call-center-agent-kundenservice-berlin-218147</t>
+        </is>
+      </c>
+      <c r="G1045" t="inlineStr"/>
+      <c r="H1045" t="inlineStr"/>
+      <c r="I1045" t="inlineStr"/>
+      <c r="J1045" t="inlineStr"/>
+      <c r="K1045" t="inlineStr"/>
+      <c r="L1045" t="inlineStr"/>
+      <c r="M1045" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N1045" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O1045" t="n">
+        <v>70</v>
+      </c>
+      <c r="P1045" t="inlineStr"/>
+      <c r="Q1045" t="inlineStr"/>
+      <c r="R1045" t="inlineStr"/>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="n">
+        <v>1045</v>
+      </c>
+      <c r="B1046" t="inlineStr">
+        <is>
+          <t>Telefonischer Kundenberater / Call Center Agent m/w/d  Mo-Fr VZ/TZ</t>
+        </is>
+      </c>
+      <c r="C1046" t="inlineStr">
+        <is>
+          <t>W&amp;W Human Resources -  Ivonne Wresch -</t>
+        </is>
+      </c>
+      <c r="D1046" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E1046" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1046" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ww-human-resources-ivonne-wresch/telefonischer-kundenberater-call-center-agent-mo-fr-vz-tz-hamburg-400889</t>
+        </is>
+      </c>
+      <c r="G1046" t="inlineStr"/>
+      <c r="H1046" t="inlineStr"/>
+      <c r="I1046" t="inlineStr"/>
+      <c r="J1046" t="inlineStr"/>
+      <c r="K1046" t="inlineStr"/>
+      <c r="L1046" t="inlineStr"/>
+      <c r="M1046" t="inlineStr"/>
+      <c r="N1046" t="inlineStr"/>
+      <c r="O1046" t="inlineStr"/>
+      <c r="P1046" t="inlineStr"/>
+      <c r="Q1046" t="inlineStr"/>
+      <c r="R1046" t="inlineStr"/>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="n">
+        <v>1046</v>
+      </c>
+      <c r="B1047" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Frankfurt am Main, auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C1047" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D1047" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E1047" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1047" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-frankfurt-am-main-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-55850</t>
+        </is>
+      </c>
+      <c r="G1047" t="inlineStr"/>
+      <c r="H1047" t="inlineStr"/>
+      <c r="I1047" t="inlineStr"/>
+      <c r="J1047" t="inlineStr"/>
+      <c r="K1047" t="inlineStr"/>
+      <c r="L1047" t="inlineStr"/>
+      <c r="M1047" t="inlineStr"/>
+      <c r="N1047" t="inlineStr"/>
+      <c r="O1047" t="inlineStr"/>
+      <c r="P1047" t="inlineStr"/>
+      <c r="Q1047" t="inlineStr"/>
+      <c r="R1047" t="inlineStr"/>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="n">
+        <v>1047</v>
+      </c>
+      <c r="B1048" t="inlineStr">
+        <is>
+          <t>Creative Communications Designer (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C1048" t="inlineStr">
+        <is>
+          <t>Dxm Gmbh &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="D1048" t="inlineStr">
+        <is>
+          <t>Düsseldorf</t>
+        </is>
+      </c>
+      <c r="E1048" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1048" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/dxm-gmbh-co-kg/creative-communications-designer-dusseldorf-492273</t>
+        </is>
+      </c>
+      <c r="G1048" t="inlineStr"/>
+      <c r="H1048" t="inlineStr"/>
+      <c r="I1048" t="inlineStr"/>
+      <c r="J1048" t="inlineStr"/>
+      <c r="K1048" t="inlineStr"/>
+      <c r="L1048" t="inlineStr"/>
+      <c r="M1048" t="inlineStr"/>
+      <c r="N1048" t="inlineStr"/>
+      <c r="O1048" t="inlineStr"/>
+      <c r="P1048" t="inlineStr"/>
+      <c r="Q1048" t="inlineStr"/>
+      <c r="R1048" t="inlineStr"/>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="n">
+        <v>1048</v>
+      </c>
+      <c r="B1049" t="inlineStr">
+        <is>
+          <t>(Junior)JavaScript-Entwickler (m/w/d) 100% REMOTE</t>
+        </is>
+      </c>
+      <c r="C1049" t="inlineStr">
+        <is>
+          <t>Powerprozesse</t>
+        </is>
+      </c>
+      <c r="D1049" t="inlineStr">
+        <is>
+          <t>Worms</t>
+        </is>
+      </c>
+      <c r="E1049" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1049" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/powerprozesse/juniorjavascript-entwickler-100-remote-worms-136587</t>
+        </is>
+      </c>
+      <c r="G1049" t="inlineStr"/>
+      <c r="H1049" t="inlineStr"/>
+      <c r="I1049" t="inlineStr"/>
+      <c r="J1049" t="inlineStr"/>
+      <c r="K1049" t="inlineStr"/>
+      <c r="L1049" t="inlineStr"/>
+      <c r="M1049" t="inlineStr"/>
+      <c r="N1049" t="inlineStr"/>
+      <c r="O1049" t="inlineStr"/>
+      <c r="P1049" t="inlineStr"/>
+      <c r="Q1049" t="inlineStr"/>
+      <c r="R1049" t="inlineStr"/>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="n">
+        <v>1049</v>
+      </c>
+      <c r="B1050" t="inlineStr">
+        <is>
+          <t>Callcenteragent als Vorprüfer (m/w/d) für Unternehmen in Krisensituationen | 100 % Home Office</t>
+        </is>
+      </c>
+      <c r="C1050" t="inlineStr">
+        <is>
+          <t>Perspektive Zukunft E.V.</t>
+        </is>
+      </c>
+      <c r="D1050" t="inlineStr">
+        <is>
+          <t>Hanover</t>
+        </is>
+      </c>
+      <c r="E1050" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1050" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/perspektive-zukunft-ev/callcenteragent-als-vorprufer-fur-unternehmen-in-krisensituationen-100-home-office-hanover-362782</t>
+        </is>
+      </c>
+      <c r="G1050" t="inlineStr"/>
+      <c r="H1050" t="inlineStr"/>
+      <c r="I1050" t="inlineStr"/>
+      <c r="J1050" t="inlineStr"/>
+      <c r="K1050" t="inlineStr"/>
+      <c r="L1050" t="inlineStr"/>
+      <c r="M1050" t="inlineStr"/>
+      <c r="N1050" t="inlineStr"/>
+      <c r="O1050" t="inlineStr"/>
+      <c r="P1050" t="inlineStr"/>
+      <c r="Q1050" t="inlineStr"/>
+      <c r="R1050" t="inlineStr"/>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="n">
+        <v>1050</v>
+      </c>
+      <c r="B1051" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Nürnberg, auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C1051" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D1051" t="inlineStr">
+        <is>
+          <t>Nuremberg</t>
+        </is>
+      </c>
+      <c r="E1051" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1051" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-nurnberg-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-nuremberg-268112</t>
+        </is>
+      </c>
+      <c r="G1051" t="inlineStr"/>
+      <c r="H1051" t="inlineStr"/>
+      <c r="I1051" t="inlineStr"/>
+      <c r="J1051" t="inlineStr"/>
+      <c r="K1051" t="inlineStr"/>
+      <c r="L1051" t="inlineStr"/>
+      <c r="M1051" t="inlineStr"/>
+      <c r="N1051" t="inlineStr"/>
+      <c r="O1051" t="inlineStr"/>
+      <c r="P1051" t="inlineStr"/>
+      <c r="Q1051" t="inlineStr"/>
+      <c r="R1051" t="inlineStr"/>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="n">
+        <v>1051</v>
+      </c>
+      <c r="B1052" t="inlineStr">
+        <is>
+          <t>Personalreferent mit Macherqualität (m/w/d) | 100 % Home Office</t>
+        </is>
+      </c>
+      <c r="C1052" t="inlineStr">
+        <is>
+          <t>Perspektive Zukunft E.V.</t>
+        </is>
+      </c>
+      <c r="D1052" t="inlineStr">
+        <is>
+          <t>Hanover</t>
+        </is>
+      </c>
+      <c r="E1052" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1052" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/perspektive-zukunft-ev/personalreferent-mit-macherqualitat-100-home-office-hanover-48391</t>
+        </is>
+      </c>
+      <c r="G1052" t="inlineStr"/>
+      <c r="H1052" t="inlineStr"/>
+      <c r="I1052" t="inlineStr"/>
+      <c r="J1052" t="inlineStr"/>
+      <c r="K1052" t="inlineStr"/>
+      <c r="L1052" t="inlineStr"/>
+      <c r="M1052" t="inlineStr"/>
+      <c r="N1052" t="inlineStr"/>
+      <c r="O1052" t="inlineStr"/>
+      <c r="P1052" t="inlineStr"/>
+      <c r="Q1052" t="inlineStr"/>
+      <c r="R1052" t="inlineStr"/>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="n">
+        <v>1052</v>
+      </c>
+      <c r="B1053" t="inlineStr">
+        <is>
+          <t>Videograf / Fotograf (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C1053" t="inlineStr">
+        <is>
+          <t>Taxit Consulting Gmbh</t>
+        </is>
+      </c>
+      <c r="D1053" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E1053" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1053" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxit-consulting-gmbh/videograf-fotograf-stuttgart-292819</t>
+        </is>
+      </c>
+      <c r="G1053" t="inlineStr"/>
+      <c r="H1053" t="inlineStr"/>
+      <c r="I1053" t="inlineStr"/>
+      <c r="J1053" t="inlineStr"/>
+      <c r="K1053" t="inlineStr"/>
+      <c r="L1053" t="inlineStr"/>
+      <c r="M1053" t="inlineStr"/>
+      <c r="N1053" t="inlineStr"/>
+      <c r="O1053" t="inlineStr"/>
+      <c r="P1053" t="inlineStr"/>
+      <c r="Q1053" t="inlineStr"/>
+      <c r="R1053" t="inlineStr"/>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="n">
+        <v>1053</v>
+      </c>
+      <c r="B1054" t="inlineStr">
+        <is>
+          <t>(Pflicht-) Praktikum / Praxissemester Videograf / Fotograf (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C1054" t="inlineStr">
+        <is>
+          <t>Taxit Consulting Gmbh</t>
+        </is>
+      </c>
+      <c r="D1054" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E1054" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1054" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxit-consulting-gmbh/pflicht-praktikum-praxissemester-videograf-fotograf-stuttgart-380286</t>
+        </is>
+      </c>
+      <c r="G1054" t="inlineStr"/>
+      <c r="H1054" t="inlineStr"/>
+      <c r="I1054" t="inlineStr"/>
+      <c r="J1054" t="inlineStr"/>
+      <c r="K1054" t="inlineStr"/>
+      <c r="L1054" t="inlineStr"/>
+      <c r="M1054" t="inlineStr"/>
+      <c r="N1054" t="inlineStr"/>
+      <c r="O1054" t="inlineStr"/>
+      <c r="P1054" t="inlineStr"/>
+      <c r="Q1054" t="inlineStr"/>
+      <c r="R1054" t="inlineStr"/>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B1055" t="inlineStr">
+        <is>
+          <t>Managing Director Corporate Finance/M&amp;A (all genders)</t>
+        </is>
+      </c>
+      <c r="C1055" t="inlineStr">
+        <is>
+          <t>Banking Consult Executive Search</t>
+        </is>
+      </c>
+      <c r="D1055" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E1055" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1055" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/banking-consult-executive-search/managing-director-corporate-finance-ma-all-genders-frankfurt-395941</t>
+        </is>
+      </c>
+      <c r="G1055" t="inlineStr"/>
+      <c r="H1055" t="inlineStr"/>
+      <c r="I1055" t="inlineStr"/>
+      <c r="J1055" t="inlineStr"/>
+      <c r="K1055" t="inlineStr"/>
+      <c r="L1055" t="inlineStr"/>
+      <c r="M1055" t="inlineStr"/>
+      <c r="N1055" t="inlineStr"/>
+      <c r="O1055" t="inlineStr"/>
+      <c r="P1055" t="inlineStr"/>
+      <c r="Q1055" t="inlineStr"/>
+      <c r="R1055" t="inlineStr"/>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="n">
+        <v>1055</v>
+      </c>
+      <c r="B1056" t="inlineStr">
+        <is>
+          <t>Heilpraktikerin für Ästhetische | Regenerative Medizin</t>
+        </is>
+      </c>
+      <c r="C1056" t="inlineStr">
+        <is>
+          <t>Inanna Gmbh</t>
+        </is>
+      </c>
+      <c r="D1056" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1056" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1056" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/inanna-gmbh/heilpraktikerin-fur-asthetische-regenerative-medizin-berlin-225137</t>
+        </is>
+      </c>
+      <c r="G1056" t="inlineStr"/>
+      <c r="H1056" t="inlineStr"/>
+      <c r="I1056" t="inlineStr"/>
+      <c r="J1056" t="inlineStr"/>
+      <c r="K1056" t="inlineStr"/>
+      <c r="L1056" t="inlineStr"/>
+      <c r="M1056" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N1056" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O1056" t="n">
+        <v>70</v>
+      </c>
+      <c r="P1056" t="inlineStr"/>
+      <c r="Q1056" t="inlineStr"/>
+      <c r="R1056" t="inlineStr"/>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="n">
+        <v>1056</v>
+      </c>
+      <c r="B1057" t="inlineStr">
+        <is>
+          <t>Teamleiter:in Grundbau und Vermessung Projekte (w/m/d)</t>
+        </is>
+      </c>
+      <c r="C1057" t="inlineStr">
+        <is>
+          <t>Deutsche Reihenhaus Ag</t>
+        </is>
+      </c>
+      <c r="D1057" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E1057" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1057" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutsche-reihenhaus-ag/teamleiterin-grundbau-und-vermessung-projekte-cologne-262008</t>
+        </is>
+      </c>
+      <c r="G1057" t="inlineStr"/>
+      <c r="H1057" t="inlineStr"/>
+      <c r="I1057" t="inlineStr"/>
+      <c r="J1057" t="inlineStr"/>
+      <c r="K1057" t="inlineStr"/>
+      <c r="L1057" t="inlineStr"/>
+      <c r="M1057" t="inlineStr"/>
+      <c r="N1057" t="inlineStr"/>
+      <c r="O1057" t="inlineStr"/>
+      <c r="P1057" t="inlineStr"/>
+      <c r="Q1057" t="inlineStr"/>
+      <c r="R1057" t="inlineStr"/>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B1058" t="inlineStr">
+        <is>
+          <t>Mechanical Integration Specialist</t>
+        </is>
+      </c>
+      <c r="C1058" t="inlineStr">
+        <is>
+          <t>Landa Corporation</t>
+        </is>
+      </c>
+      <c r="D1058" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="E1058" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1058" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/landa-corporation/remote-mechanical-integration-specialist-munich-417122</t>
+        </is>
+      </c>
+      <c r="G1058" t="inlineStr"/>
+      <c r="H1058" t="inlineStr"/>
+      <c r="I1058" t="inlineStr"/>
+      <c r="J1058" t="inlineStr"/>
+      <c r="K1058" t="inlineStr"/>
+      <c r="L1058" t="inlineStr"/>
+      <c r="M1058" t="inlineStr"/>
+      <c r="N1058" t="inlineStr"/>
+      <c r="O1058" t="inlineStr"/>
+      <c r="P1058" t="inlineStr"/>
+      <c r="Q1058" t="inlineStr"/>
+      <c r="R1058" t="inlineStr"/>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="n">
+        <v>1058</v>
+      </c>
+      <c r="B1059" t="inlineStr">
+        <is>
+          <t>Master Stylist (m/w/d) bei WunderHaar Friseure Berlin</t>
+        </is>
+      </c>
+      <c r="C1059" t="inlineStr">
+        <is>
+          <t>Wunderhaar Friseure Berlin</t>
+        </is>
+      </c>
+      <c r="D1059" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1059" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1059" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/wunderhaar-friseure-berlin/master-stylist-bei-wunderhaar-friseure-berlin-172014</t>
+        </is>
+      </c>
+      <c r="G1059" t="inlineStr"/>
+      <c r="H1059" t="inlineStr"/>
+      <c r="I1059" t="inlineStr"/>
+      <c r="J1059" t="inlineStr"/>
+      <c r="K1059" t="inlineStr"/>
+      <c r="L1059" t="inlineStr"/>
+      <c r="M1059" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N1059" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O1059" t="n">
+        <v>70</v>
+      </c>
+      <c r="P1059" t="inlineStr"/>
+      <c r="Q1059" t="inlineStr"/>
+      <c r="R1059" t="inlineStr"/>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="n">
+        <v>1059</v>
+      </c>
+      <c r="B1060" t="inlineStr">
+        <is>
+          <t>Technical Account Manager</t>
+        </is>
+      </c>
+      <c r="C1060" t="inlineStr">
+        <is>
+          <t>Wolt - English</t>
+        </is>
+      </c>
+      <c r="D1060" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E1060" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1060" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/wolt-english/technical-account-manager-berlin-464839</t>
+        </is>
+      </c>
+      <c r="G1060" t="inlineStr"/>
+      <c r="H1060" t="inlineStr"/>
+      <c r="I1060" t="inlineStr"/>
+      <c r="J1060" t="inlineStr"/>
+      <c r="K1060" t="inlineStr"/>
+      <c r="L1060" t="inlineStr"/>
+      <c r="M1060" t="inlineStr"/>
+      <c r="N1060" t="inlineStr"/>
+      <c r="O1060" t="inlineStr"/>
+      <c r="P1060" t="inlineStr"/>
+      <c r="Q1060" t="inlineStr"/>
+      <c r="R1060" t="inlineStr"/>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="n">
+        <v>1060</v>
+      </c>
+      <c r="B1061" t="inlineStr">
+        <is>
+          <t>Social Media - Manager:in</t>
+        </is>
+      </c>
+      <c r="C1061" t="inlineStr">
+        <is>
+          <t>Ld Media</t>
+        </is>
+      </c>
+      <c r="D1061" t="inlineStr">
+        <is>
+          <t>Schwäbisch Hall</t>
+        </is>
+      </c>
+      <c r="E1061" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1061" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ld-media/social-media-managerin-schwabisch-hall-107265</t>
+        </is>
+      </c>
+      <c r="G1061" t="inlineStr"/>
+      <c r="H1061" t="inlineStr"/>
+      <c r="I1061" t="inlineStr"/>
+      <c r="J1061" t="inlineStr"/>
+      <c r="K1061" t="inlineStr"/>
+      <c r="L1061" t="inlineStr"/>
+      <c r="M1061" t="inlineStr"/>
+      <c r="N1061" t="inlineStr"/>
+      <c r="O1061" t="inlineStr"/>
+      <c r="P1061" t="inlineStr"/>
+      <c r="Q1061" t="inlineStr"/>
+      <c r="R1061" t="inlineStr"/>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="n">
+        <v>1061</v>
+      </c>
+      <c r="B1062" t="inlineStr">
+        <is>
+          <t>Film - / Video - Cutter</t>
+        </is>
+      </c>
+      <c r="C1062" t="inlineStr">
+        <is>
+          <t>Ld Media</t>
+        </is>
+      </c>
+      <c r="D1062" t="inlineStr">
+        <is>
+          <t>Schwäbisch Hall</t>
+        </is>
+      </c>
+      <c r="E1062" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1062" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ld-media/film-video-cutter-schwabisch-hall-357203</t>
+        </is>
+      </c>
+      <c r="G1062" t="inlineStr"/>
+      <c r="H1062" t="inlineStr"/>
+      <c r="I1062" t="inlineStr"/>
+      <c r="J1062" t="inlineStr"/>
+      <c r="K1062" t="inlineStr"/>
+      <c r="L1062" t="inlineStr"/>
+      <c r="M1062" t="inlineStr"/>
+      <c r="N1062" t="inlineStr"/>
+      <c r="O1062" t="inlineStr"/>
+      <c r="P1062" t="inlineStr"/>
+      <c r="Q1062" t="inlineStr"/>
+      <c r="R1062" t="inlineStr"/>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="n">
+        <v>1062</v>
+      </c>
+      <c r="B1063" t="inlineStr">
+        <is>
+          <t>Praktikant (m/w/d) für Praktikum in Social Media Marketing Agentur</t>
+        </is>
+      </c>
+      <c r="C1063" t="inlineStr">
+        <is>
+          <t>Strehlow Media Gmbh</t>
+        </is>
+      </c>
+      <c r="D1063" t="inlineStr">
+        <is>
+          <t>Kiel</t>
+        </is>
+      </c>
+      <c r="E1063" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1063" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/strehlow-media-gmbh/praktikant-fur-praktikum-in-social-media-marketing-agentur-kiel-186432</t>
+        </is>
+      </c>
+      <c r="G1063" t="inlineStr"/>
+      <c r="H1063" t="inlineStr"/>
+      <c r="I1063" t="inlineStr"/>
+      <c r="J1063" t="inlineStr"/>
+      <c r="K1063" t="inlineStr"/>
+      <c r="L1063" t="inlineStr"/>
+      <c r="M1063" t="inlineStr"/>
+      <c r="N1063" t="inlineStr"/>
+      <c r="O1063" t="inlineStr"/>
+      <c r="P1063" t="inlineStr"/>
+      <c r="Q1063" t="inlineStr"/>
+      <c r="R1063" t="inlineStr"/>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="n">
+        <v>1063</v>
+      </c>
+      <c r="B1064" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Würzburg, auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C1064" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D1064" t="inlineStr">
+        <is>
+          <t>Würzburg</t>
+        </is>
+      </c>
+      <c r="E1064" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1064" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-wurzburg-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-110253</t>
+        </is>
+      </c>
+      <c r="G1064" t="inlineStr"/>
+      <c r="H1064" t="inlineStr"/>
+      <c r="I1064" t="inlineStr"/>
+      <c r="J1064" t="inlineStr"/>
+      <c r="K1064" t="inlineStr"/>
+      <c r="L1064" t="inlineStr"/>
+      <c r="M1064" t="inlineStr"/>
+      <c r="N1064" t="inlineStr"/>
+      <c r="O1064" t="inlineStr"/>
+      <c r="P1064" t="inlineStr"/>
+      <c r="Q1064" t="inlineStr"/>
+      <c r="R1064" t="inlineStr"/>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="n">
+        <v>1064</v>
+      </c>
+      <c r="B1065" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Augsburg , auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C1065" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D1065" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="E1065" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1065" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-augsburg-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-431485</t>
+        </is>
+      </c>
+      <c r="G1065" t="inlineStr"/>
+      <c r="H1065" t="inlineStr"/>
+      <c r="I1065" t="inlineStr"/>
+      <c r="J1065" t="inlineStr"/>
+      <c r="K1065" t="inlineStr"/>
+      <c r="L1065" t="inlineStr"/>
+      <c r="M1065" t="inlineStr"/>
+      <c r="N1065" t="inlineStr"/>
+      <c r="O1065" t="inlineStr"/>
+      <c r="P1065" t="inlineStr"/>
+      <c r="Q1065" t="inlineStr"/>
+      <c r="R1065" t="inlineStr"/>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="n">
+        <v>1065</v>
+      </c>
+      <c r="B1066" t="inlineStr">
+        <is>
+          <t>Part-time CTO</t>
+        </is>
+      </c>
+      <c r="C1066" t="inlineStr">
+        <is>
+          <t>Paintgun</t>
+        </is>
+      </c>
+      <c r="D1066" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1066" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1066" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/paintgun/part-time-cto-berlin-236359</t>
+        </is>
+      </c>
+      <c r="G1066" t="inlineStr"/>
+      <c r="H1066" t="inlineStr"/>
+      <c r="I1066" t="inlineStr"/>
+      <c r="J1066" t="inlineStr"/>
+      <c r="K1066" t="inlineStr"/>
+      <c r="L1066" t="inlineStr"/>
+      <c r="M1066" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N1066" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O1066" t="n">
+        <v>70</v>
+      </c>
+      <c r="P1066" t="inlineStr"/>
+      <c r="Q1066" t="inlineStr"/>
+      <c r="R1066" t="inlineStr"/>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="n">
+        <v>1066</v>
+      </c>
+      <c r="B1067" t="inlineStr">
+        <is>
+          <t>German-speaking E-commerce assistant</t>
+        </is>
+      </c>
+      <c r="C1067" t="inlineStr">
+        <is>
+          <t>Paintgun</t>
+        </is>
+      </c>
+      <c r="D1067" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1067" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1067" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/paintgun/german-speaking-e-commerce-assistant-berlin-360379</t>
+        </is>
+      </c>
+      <c r="G1067" t="inlineStr"/>
+      <c r="H1067" t="inlineStr"/>
+      <c r="I1067" t="inlineStr"/>
+      <c r="J1067" t="inlineStr"/>
+      <c r="K1067" t="inlineStr"/>
+      <c r="L1067" t="inlineStr"/>
+      <c r="M1067" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N1067" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O1067" t="n">
+        <v>70</v>
+      </c>
+      <c r="P1067" t="inlineStr"/>
+      <c r="Q1067" t="inlineStr"/>
+      <c r="R1067" t="inlineStr"/>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B1068" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Neuried, auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C1068" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D1068" t="inlineStr">
+        <is>
+          <t>Neuried</t>
+        </is>
+      </c>
+      <c r="E1068" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1068" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-neuried-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-365025</t>
+        </is>
+      </c>
+      <c r="G1068" t="inlineStr"/>
+      <c r="H1068" t="inlineStr"/>
+      <c r="I1068" t="inlineStr"/>
+      <c r="J1068" t="inlineStr"/>
+      <c r="K1068" t="inlineStr"/>
+      <c r="L1068" t="inlineStr"/>
+      <c r="M1068" t="inlineStr"/>
+      <c r="N1068" t="inlineStr"/>
+      <c r="O1068" t="inlineStr"/>
+      <c r="P1068" t="inlineStr"/>
+      <c r="Q1068" t="inlineStr"/>
+      <c r="R1068" t="inlineStr"/>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="n">
+        <v>1068</v>
+      </c>
+      <c r="B1069" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Unterhaching , auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C1069" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D1069" t="inlineStr">
+        <is>
+          <t>Unterhaching</t>
+        </is>
+      </c>
+      <c r="E1069" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1069" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-unterhaching-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-230790</t>
+        </is>
+      </c>
+      <c r="G1069" t="inlineStr"/>
+      <c r="H1069" t="inlineStr"/>
+      <c r="I1069" t="inlineStr"/>
+      <c r="J1069" t="inlineStr"/>
+      <c r="K1069" t="inlineStr"/>
+      <c r="L1069" t="inlineStr"/>
+      <c r="M1069" t="inlineStr"/>
+      <c r="N1069" t="inlineStr"/>
+      <c r="O1069" t="inlineStr"/>
+      <c r="P1069" t="inlineStr"/>
+      <c r="Q1069" t="inlineStr"/>
+      <c r="R1069" t="inlineStr"/>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="n">
+        <v>1069</v>
+      </c>
+      <c r="B1070" t="inlineStr">
+        <is>
+          <t>Creative Producer @ Ad Creative Agency (Freelance)</t>
+        </is>
+      </c>
+      <c r="C1070" t="inlineStr">
+        <is>
+          <t>Paintgun</t>
+        </is>
+      </c>
+      <c r="D1070" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1070" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1070" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/paintgun/creative-producer-at-ad-creative-agency-freelance-berlin-392817</t>
+        </is>
+      </c>
+      <c r="G1070" t="inlineStr"/>
+      <c r="H1070" t="inlineStr"/>
+      <c r="I1070" t="inlineStr"/>
+      <c r="J1070" t="inlineStr"/>
+      <c r="K1070" t="inlineStr"/>
+      <c r="L1070" t="inlineStr"/>
+      <c r="M1070" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N1070" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O1070" t="n">
+        <v>70</v>
+      </c>
+      <c r="P1070" t="inlineStr"/>
+      <c r="Q1070" t="inlineStr"/>
+      <c r="R1070" t="inlineStr"/>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="n">
+        <v>1070</v>
+      </c>
+      <c r="B1071" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Karlsfeld , auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C1071" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D1071" t="inlineStr">
+        <is>
+          <t>Karlsfeld</t>
+        </is>
+      </c>
+      <c r="E1071" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1071" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-karlsfeld-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-61449</t>
+        </is>
+      </c>
+      <c r="G1071" t="inlineStr"/>
+      <c r="H1071" t="inlineStr"/>
+      <c r="I1071" t="inlineStr"/>
+      <c r="J1071" t="inlineStr"/>
+      <c r="K1071" t="inlineStr"/>
+      <c r="L1071" t="inlineStr"/>
+      <c r="M1071" t="inlineStr"/>
+      <c r="N1071" t="inlineStr"/>
+      <c r="O1071" t="inlineStr"/>
+      <c r="P1071" t="inlineStr"/>
+      <c r="Q1071" t="inlineStr"/>
+      <c r="R1071" t="inlineStr"/>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="n">
+        <v>1071</v>
+      </c>
+      <c r="B1072" t="inlineStr">
+        <is>
+          <t>Ad Creative Strategist (Freelance)</t>
+        </is>
+      </c>
+      <c r="C1072" t="inlineStr">
+        <is>
+          <t>Paintgun</t>
+        </is>
+      </c>
+      <c r="D1072" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1072" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1072" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/paintgun/ad-creative-strategist-freelance-berlin-36774</t>
+        </is>
+      </c>
+      <c r="G1072" t="inlineStr"/>
+      <c r="H1072" t="inlineStr"/>
+      <c r="I1072" t="inlineStr"/>
+      <c r="J1072" t="inlineStr"/>
+      <c r="K1072" t="inlineStr"/>
+      <c r="L1072" t="inlineStr"/>
+      <c r="M1072" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N1072" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O1072" t="n">
+        <v>70</v>
+      </c>
+      <c r="P1072" t="inlineStr"/>
+      <c r="Q1072" t="inlineStr"/>
+      <c r="R1072" t="inlineStr"/>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="n">
+        <v>1072</v>
+      </c>
+      <c r="B1073" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in München, auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C1073" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D1073" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="E1073" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1073" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-munchen-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-munich-178223</t>
+        </is>
+      </c>
+      <c r="G1073" t="inlineStr"/>
+      <c r="H1073" t="inlineStr"/>
+      <c r="I1073" t="inlineStr"/>
+      <c r="J1073" t="inlineStr"/>
+      <c r="K1073" t="inlineStr"/>
+      <c r="L1073" t="inlineStr"/>
+      <c r="M1073" t="inlineStr"/>
+      <c r="N1073" t="inlineStr"/>
+      <c r="O1073" t="inlineStr"/>
+      <c r="P1073" t="inlineStr"/>
+      <c r="Q1073" t="inlineStr"/>
+      <c r="R1073" t="inlineStr"/>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B1074" t="inlineStr">
+        <is>
+          <t>Senior SAP Consultant mit Karriereambitionen - jetzt mit uns voll durchstarten! (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C1074" t="inlineStr">
+        <is>
+          <t>Auralis Partners Gmbh</t>
+        </is>
+      </c>
+      <c r="D1074" t="inlineStr">
+        <is>
+          <t>Markt Indersdorf</t>
+        </is>
+      </c>
+      <c r="E1074" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1074" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/auralis-partners-gmbh/senior-sap-consultant-mit-karriereambitionen-jetzt-mit-uns-voll-durchstarten-markt-indersdorf-403458</t>
+        </is>
+      </c>
+      <c r="G1074" t="inlineStr"/>
+      <c r="H1074" t="inlineStr"/>
+      <c r="I1074" t="inlineStr"/>
+      <c r="J1074" t="inlineStr"/>
+      <c r="K1074" t="inlineStr"/>
+      <c r="L1074" t="inlineStr"/>
+      <c r="M1074" t="inlineStr"/>
+      <c r="N1074" t="inlineStr"/>
+      <c r="O1074" t="inlineStr"/>
+      <c r="P1074" t="inlineStr"/>
+      <c r="Q1074" t="inlineStr"/>
+      <c r="R1074" t="inlineStr"/>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="n">
+        <v>1074</v>
+      </c>
+      <c r="B1075" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Heidelberg, auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C1075" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D1075" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E1075" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1075" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-heidelberg-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-188516</t>
+        </is>
+      </c>
+      <c r="G1075" t="inlineStr"/>
+      <c r="H1075" t="inlineStr"/>
+      <c r="I1075" t="inlineStr"/>
+      <c r="J1075" t="inlineStr"/>
+      <c r="K1075" t="inlineStr"/>
+      <c r="L1075" t="inlineStr"/>
+      <c r="M1075" t="inlineStr"/>
+      <c r="N1075" t="inlineStr"/>
+      <c r="O1075" t="inlineStr"/>
+      <c r="P1075" t="inlineStr"/>
+      <c r="Q1075" t="inlineStr"/>
+      <c r="R1075" t="inlineStr"/>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="n">
+        <v>1075</v>
+      </c>
+      <c r="B1076" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Mannheim, auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C1076" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D1076" t="inlineStr">
+        <is>
+          <t>Mannheim</t>
+        </is>
+      </c>
+      <c r="E1076" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1076" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-mannheim-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-191853</t>
+        </is>
+      </c>
+      <c r="G1076" t="inlineStr"/>
+      <c r="H1076" t="inlineStr"/>
+      <c r="I1076" t="inlineStr"/>
+      <c r="J1076" t="inlineStr"/>
+      <c r="K1076" t="inlineStr"/>
+      <c r="L1076" t="inlineStr"/>
+      <c r="M1076" t="inlineStr"/>
+      <c r="N1076" t="inlineStr"/>
+      <c r="O1076" t="inlineStr"/>
+      <c r="P1076" t="inlineStr"/>
+      <c r="Q1076" t="inlineStr"/>
+      <c r="R1076" t="inlineStr"/>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="n">
+        <v>1076</v>
+      </c>
+      <c r="B1077" t="inlineStr">
+        <is>
+          <t>WerkstudentIn</t>
+        </is>
+      </c>
+      <c r="C1077" t="inlineStr">
+        <is>
+          <t>Digitaleheimat Gmbh</t>
+        </is>
+      </c>
+      <c r="D1077" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1077" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1077" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/digitaleheimat-gmbh/werkstudentin-berlin-290614</t>
+        </is>
+      </c>
+      <c r="G1077" t="inlineStr"/>
+      <c r="H1077" t="inlineStr"/>
+      <c r="I1077" t="inlineStr"/>
+      <c r="J1077" t="inlineStr"/>
+      <c r="K1077" t="inlineStr"/>
+      <c r="L1077" t="inlineStr"/>
+      <c r="M1077" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N1077" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O1077" t="n">
+        <v>70</v>
+      </c>
+      <c r="P1077" t="inlineStr"/>
+      <c r="Q1077" t="inlineStr"/>
+      <c r="R1077" t="inlineStr"/>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="n">
+        <v>1077</v>
+      </c>
+      <c r="B1078" t="inlineStr">
+        <is>
+          <t>Werkstudent: Embedded Software Developer</t>
+        </is>
+      </c>
+      <c r="C1078" t="inlineStr">
+        <is>
+          <t>Software Engineering Weber Gmbh</t>
+        </is>
+      </c>
+      <c r="D1078" t="inlineStr">
+        <is>
+          <t>Kempten</t>
+        </is>
+      </c>
+      <c r="E1078" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1078" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/software-engineering-weber-gmbh/werkstudent-embedded-software-developer-kempten-170327</t>
+        </is>
+      </c>
+      <c r="G1078" t="inlineStr"/>
+      <c r="H1078" t="inlineStr"/>
+      <c r="I1078" t="inlineStr"/>
+      <c r="J1078" t="inlineStr"/>
+      <c r="K1078" t="inlineStr"/>
+      <c r="L1078" t="inlineStr"/>
+      <c r="M1078" t="inlineStr"/>
+      <c r="N1078" t="inlineStr"/>
+      <c r="O1078" t="inlineStr"/>
+      <c r="P1078" t="inlineStr"/>
+      <c r="Q1078" t="inlineStr"/>
+      <c r="R1078" t="inlineStr"/>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="n">
+        <v>1078</v>
+      </c>
+      <c r="B1079" t="inlineStr">
+        <is>
+          <t>Verkauf altersgerechete Badsanierung (m/w/d) in Voll- oder Teilzeit</t>
+        </is>
+      </c>
+      <c r="C1079" t="inlineStr">
+        <is>
+          <t>Besser Zuhause Gmbh</t>
+        </is>
+      </c>
+      <c r="D1079" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E1079" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1079" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/besser-zuhause-gmbh/verkauf-altersgerechete-badsanierung-in-voll-oder-teilzeit-hamburg-224565</t>
+        </is>
+      </c>
+      <c r="G1079" t="inlineStr"/>
+      <c r="H1079" t="inlineStr"/>
+      <c r="I1079" t="inlineStr"/>
+      <c r="J1079" t="inlineStr"/>
+      <c r="K1079" t="inlineStr"/>
+      <c r="L1079" t="inlineStr"/>
+      <c r="M1079" t="inlineStr"/>
+      <c r="N1079" t="inlineStr"/>
+      <c r="O1079" t="inlineStr"/>
+      <c r="P1079" t="inlineStr"/>
+      <c r="Q1079" t="inlineStr"/>
+      <c r="R1079" t="inlineStr"/>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B1080" t="inlineStr">
+        <is>
+          <t>Messtechniker (m/w/d) im Qualitätswesen Weltmarktführer an der Mosel</t>
+        </is>
+      </c>
+      <c r="C1080" t="inlineStr">
+        <is>
+          <t>Heads4Solution</t>
+        </is>
+      </c>
+      <c r="D1080" t="inlineStr">
+        <is>
+          <t>Zell</t>
+        </is>
+      </c>
+      <c r="E1080" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1080" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/heads4solution/messtechniker-im-qualitatswesen-weltmarktfuhrer-an-der-mosel-zell-109369</t>
+        </is>
+      </c>
+      <c r="G1080" t="inlineStr"/>
+      <c r="H1080" t="inlineStr"/>
+      <c r="I1080" t="inlineStr"/>
+      <c r="J1080" t="inlineStr"/>
+      <c r="K1080" t="inlineStr"/>
+      <c r="L1080" t="inlineStr"/>
+      <c r="M1080" t="inlineStr"/>
+      <c r="N1080" t="inlineStr"/>
+      <c r="O1080" t="inlineStr"/>
+      <c r="P1080" t="inlineStr"/>
+      <c r="Q1080" t="inlineStr"/>
+      <c r="R1080" t="inlineStr"/>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="n">
+        <v>1080</v>
+      </c>
+      <c r="B1081" t="inlineStr">
+        <is>
+          <t>2350-2800 € Telefonischer Kundenbetreuer  m/w/d Kundenservice Mo-Fr</t>
+        </is>
+      </c>
+      <c r="C1081" t="inlineStr">
+        <is>
+          <t>W&amp;W Human Resources -  Ivonne Wresch -</t>
+        </is>
+      </c>
+      <c r="D1081" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1081" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1081" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ww-human-resources-ivonne-wresch/2350-2800-eur-telefonischer-kundenbetreuer-kundenservice-mo-fr-berlin-75306</t>
+        </is>
+      </c>
+      <c r="G1081" t="inlineStr"/>
+      <c r="H1081" t="inlineStr"/>
+      <c r="I1081" t="inlineStr"/>
+      <c r="J1081" t="inlineStr"/>
+      <c r="K1081" t="inlineStr"/>
+      <c r="L1081" t="inlineStr"/>
+      <c r="M1081" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N1081" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O1081" t="n">
+        <v>70</v>
+      </c>
+      <c r="P1081" t="inlineStr"/>
+      <c r="Q1081" t="inlineStr"/>
+      <c r="R1081" t="inlineStr"/>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="n">
+        <v>1081</v>
+      </c>
+      <c r="B1082" t="inlineStr">
+        <is>
+          <t>Werkstudent:In Admin HR (m/w/d) Hamburg</t>
+        </is>
+      </c>
+      <c r="C1082" t="inlineStr">
+        <is>
+          <t>Eta Plus Gmbh</t>
+        </is>
+      </c>
+      <c r="D1082" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E1082" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1082" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/eta-plus-gmbh/werkstudentin-admin-hr-hamburg-74868</t>
+        </is>
+      </c>
+      <c r="G1082" t="inlineStr"/>
+      <c r="H1082" t="inlineStr"/>
+      <c r="I1082" t="inlineStr"/>
+      <c r="J1082" t="inlineStr"/>
+      <c r="K1082" t="inlineStr"/>
+      <c r="L1082" t="inlineStr"/>
+      <c r="M1082" t="inlineStr"/>
+      <c r="N1082" t="inlineStr"/>
+      <c r="O1082" t="inlineStr"/>
+      <c r="P1082" t="inlineStr"/>
+      <c r="Q1082" t="inlineStr"/>
+      <c r="R1082" t="inlineStr"/>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B1083" t="inlineStr">
+        <is>
+          <t>English Native Speaker mit perfekten Deutsch Kenntnissen</t>
+        </is>
+      </c>
+      <c r="C1083" t="inlineStr">
+        <is>
+          <t>Gito Mbh Verlag</t>
+        </is>
+      </c>
+      <c r="D1083" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1083" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1083" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/gito-mbh-verlag/english-native-speaker-mit-perfekten-deutsch-kenntnissen-berlin-377251</t>
+        </is>
+      </c>
+      <c r="G1083" t="inlineStr"/>
+      <c r="H1083" t="inlineStr"/>
+      <c r="I1083" t="inlineStr"/>
+      <c r="J1083" t="inlineStr"/>
+      <c r="K1083" t="inlineStr"/>
+      <c r="L1083" t="inlineStr"/>
+      <c r="M1083" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="N1083" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="O1083" t="n">
+        <v>70</v>
+      </c>
+      <c r="P1083" t="inlineStr"/>
+      <c r="Q1083" t="inlineStr"/>
+      <c r="R1083" t="inlineStr"/>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="n">
+        <v>1083</v>
+      </c>
+      <c r="B1084" t="inlineStr">
+        <is>
+          <t>Produktionsmanager:in (m/w/d) mit Chance auf Stellvertretung als Produktionsleitung</t>
+        </is>
+      </c>
+      <c r="C1084" t="inlineStr">
+        <is>
+          <t>Jobsmatter</t>
+        </is>
+      </c>
+      <c r="D1084" t="inlineStr">
+        <is>
+          <t>Giessen</t>
+        </is>
+      </c>
+      <c r="E1084" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1084" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/jobsmatter/produktionsmanagerin-mit-chance-auf-stellvertretung-als-produktionsleitung-giessen-128509</t>
+        </is>
+      </c>
+      <c r="G1084" t="inlineStr"/>
+      <c r="H1084" t="inlineStr"/>
+      <c r="I1084" t="inlineStr"/>
+      <c r="J1084" t="inlineStr"/>
+      <c r="K1084" t="inlineStr"/>
+      <c r="L1084" t="inlineStr"/>
+      <c r="M1084" t="inlineStr"/>
+      <c r="N1084" t="inlineStr"/>
+      <c r="O1084" t="inlineStr"/>
+      <c r="P1084" t="inlineStr"/>
+      <c r="Q1084" t="inlineStr"/>
+      <c r="R1084" t="inlineStr"/>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="n">
+        <v>1084</v>
+      </c>
+      <c r="B1085" t="inlineStr">
+        <is>
+          <t>Enterprise Account Director</t>
+        </is>
+      </c>
+      <c r="C1085" t="inlineStr">
+        <is>
+          <t>Retailnext</t>
+        </is>
+      </c>
+      <c r="D1085" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E1085" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1085" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/retailnext/enterprise-account-director-berlin-114252</t>
+        </is>
+      </c>
+      <c r="G1085" t="inlineStr"/>
+      <c r="H1085" t="inlineStr"/>
+      <c r="I1085" t="inlineStr"/>
+      <c r="J1085" t="inlineStr"/>
+      <c r="K1085" t="inlineStr"/>
+      <c r="L1085" t="inlineStr"/>
+      <c r="M1085" t="inlineStr"/>
+      <c r="N1085" t="inlineStr"/>
+      <c r="O1085" t="inlineStr"/>
+      <c r="P1085" t="inlineStr"/>
+      <c r="Q1085" t="inlineStr"/>
+      <c r="R1085" t="inlineStr"/>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="n">
+        <v>1085</v>
+      </c>
+      <c r="B1086" t="inlineStr">
+        <is>
+          <t>Epic Trips Brand Director</t>
+        </is>
+      </c>
+      <c r="C1086" t="inlineStr">
+        <is>
+          <t>Ventura Travel</t>
+        </is>
+      </c>
+      <c r="D1086" t="inlineStr">
+        <is>
+          <t>Munich, Bavaria, Germany</t>
+        </is>
+      </c>
+      <c r="E1086" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1086" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ventura-travel/epic-trips-brand-director-munich-88355</t>
+        </is>
+      </c>
+      <c r="G1086" t="inlineStr"/>
+      <c r="H1086" t="inlineStr"/>
+      <c r="I1086" t="inlineStr"/>
+      <c r="J1086" t="inlineStr"/>
+      <c r="K1086" t="inlineStr"/>
+      <c r="L1086" t="inlineStr"/>
+      <c r="M1086" t="inlineStr"/>
+      <c r="N1086" t="inlineStr"/>
+      <c r="O1086" t="inlineStr"/>
+      <c r="P1086" t="inlineStr"/>
+      <c r="Q1086" t="inlineStr"/>
+      <c r="R1086" t="inlineStr"/>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="n">
+        <v>1086</v>
+      </c>
+      <c r="B1087" t="inlineStr">
+        <is>
+          <t>Travel Specialist for Central America (German Market)</t>
+        </is>
+      </c>
+      <c r="C1087" t="inlineStr">
+        <is>
+          <t>Ventura Travel</t>
+        </is>
+      </c>
+      <c r="D1087" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E1087" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1087" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ventura-travel/travel-specialist-for-central-america-german-market-berlin-474628</t>
+        </is>
+      </c>
+      <c r="G1087" t="inlineStr"/>
+      <c r="H1087" t="inlineStr"/>
+      <c r="I1087" t="inlineStr"/>
+      <c r="J1087" t="inlineStr"/>
+      <c r="K1087" t="inlineStr"/>
+      <c r="L1087" t="inlineStr"/>
+      <c r="M1087" t="inlineStr"/>
+      <c r="N1087" t="inlineStr"/>
+      <c r="O1087" t="inlineStr"/>
+      <c r="P1087" t="inlineStr"/>
+      <c r="Q1087" t="inlineStr"/>
+      <c r="R1087" t="inlineStr"/>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="n">
+        <v>1087</v>
+      </c>
+      <c r="B1088" t="inlineStr">
+        <is>
+          <t>Finance Systems Administrator &amp; Developer, IBM TM1</t>
+        </is>
+      </c>
+      <c r="C1088" t="inlineStr">
+        <is>
+          <t>Wolt - English</t>
+        </is>
+      </c>
+      <c r="D1088" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E1088" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1088" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/wolt-english/finance-systems-administrator-developer-ibm-tm1-berlin-139411</t>
+        </is>
+      </c>
+      <c r="G1088" t="inlineStr"/>
+      <c r="H1088" t="inlineStr"/>
+      <c r="I1088" t="inlineStr"/>
+      <c r="J1088" t="inlineStr"/>
+      <c r="K1088" t="inlineStr"/>
+      <c r="L1088" t="inlineStr"/>
+      <c r="M1088" t="inlineStr"/>
+      <c r="N1088" t="inlineStr"/>
+      <c r="O1088" t="inlineStr"/>
+      <c r="P1088" t="inlineStr"/>
+      <c r="Q1088" t="inlineStr"/>
+      <c r="R1088" t="inlineStr"/>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="n">
+        <v>1088</v>
+      </c>
+      <c r="B1089" t="inlineStr">
+        <is>
+          <t>Influencer Partnership Manager (all genders) (Junior / Senior)</t>
+        </is>
+      </c>
+      <c r="C1089" t="inlineStr">
+        <is>
+          <t>Brainbook</t>
+        </is>
+      </c>
+      <c r="D1089" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E1089" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1089" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/brainbook/influencer-partnership-manager-all-genders-junior-senior-frankfurt-179076</t>
+        </is>
+      </c>
+      <c r="G1089" t="inlineStr"/>
+      <c r="H1089" t="inlineStr"/>
+      <c r="I1089" t="inlineStr"/>
+      <c r="J1089" t="inlineStr"/>
+      <c r="K1089" t="inlineStr"/>
+      <c r="L1089" t="inlineStr"/>
+      <c r="M1089" t="inlineStr"/>
+      <c r="N1089" t="inlineStr"/>
+      <c r="O1089" t="inlineStr"/>
+      <c r="P1089" t="inlineStr"/>
+      <c r="Q1089" t="inlineStr"/>
+      <c r="R1089" t="inlineStr"/>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B1090" t="inlineStr">
+        <is>
+          <t>Product Owner (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C1090" t="inlineStr">
+        <is>
+          <t>Cannaleo Digital Gmbh</t>
+        </is>
+      </c>
+      <c r="D1090" t="inlineStr">
+        <is>
+          <t>Saarbrücken</t>
+        </is>
+      </c>
+      <c r="E1090" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1090" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/cannaleo-digital-gmbh/product-owner-saarbrucken-98262</t>
+        </is>
+      </c>
+      <c r="G1090" t="inlineStr"/>
+      <c r="H1090" t="inlineStr"/>
+      <c r="I1090" t="inlineStr"/>
+      <c r="J1090" t="inlineStr"/>
+      <c r="K1090" t="inlineStr"/>
+      <c r="L1090" t="inlineStr"/>
+      <c r="M1090" t="inlineStr"/>
+      <c r="N1090" t="inlineStr"/>
+      <c r="O1090" t="inlineStr"/>
+      <c r="P1090" t="inlineStr"/>
+      <c r="Q1090" t="inlineStr"/>
+      <c r="R1090" t="inlineStr"/>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B1091" t="inlineStr">
+        <is>
+          <t>UX/UI Designer (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C1091" t="inlineStr">
+        <is>
+          <t>Cannaleo Digital Gmbh</t>
+        </is>
+      </c>
+      <c r="D1091" t="inlineStr">
+        <is>
+          <t>Saarbrücken</t>
+        </is>
+      </c>
+      <c r="E1091" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1091" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/cannaleo-digital-gmbh/ux-ui-designer-saarbrucken-56590</t>
+        </is>
+      </c>
+      <c r="G1091" t="inlineStr"/>
+      <c r="H1091" t="inlineStr"/>
+      <c r="I1091" t="inlineStr"/>
+      <c r="J1091" t="inlineStr"/>
+      <c r="K1091" t="inlineStr"/>
+      <c r="L1091" t="inlineStr"/>
+      <c r="M1091" t="inlineStr"/>
+      <c r="N1091" t="inlineStr"/>
+      <c r="O1091" t="inlineStr"/>
+      <c r="P1091" t="inlineStr"/>
+      <c r="Q1091" t="inlineStr"/>
+      <c r="R1091" t="inlineStr"/>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="n">
+        <v>1091</v>
+      </c>
+      <c r="B1092" t="inlineStr">
+        <is>
+          <t>Frontend Developer (m/w/d) - NodeJS / TypeScript / Angular / Next.js</t>
+        </is>
+      </c>
+      <c r="C1092" t="inlineStr">
+        <is>
+          <t>Cannaleo Digital Gmbh</t>
+        </is>
+      </c>
+      <c r="D1092" t="inlineStr">
+        <is>
+          <t>Saarbrücken</t>
+        </is>
+      </c>
+      <c r="E1092" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1092" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/cannaleo-digital-gmbh/frontend-developer-nodejs-typescript-angular-nextjs-saarbrucken-187102</t>
+        </is>
+      </c>
+      <c r="G1092" t="inlineStr"/>
+      <c r="H1092" t="inlineStr"/>
+      <c r="I1092" t="inlineStr"/>
+      <c r="J1092" t="inlineStr"/>
+      <c r="K1092" t="inlineStr"/>
+      <c r="L1092" t="inlineStr"/>
+      <c r="M1092" t="inlineStr"/>
+      <c r="N1092" t="inlineStr"/>
+      <c r="O1092" t="inlineStr"/>
+      <c r="P1092" t="inlineStr"/>
+      <c r="Q1092" t="inlineStr"/>
+      <c r="R1092" t="inlineStr"/>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="n">
+        <v>1092</v>
+      </c>
+      <c r="B1093" t="inlineStr">
+        <is>
+          <t>Senior Back-End Engineer (Node.js / TypeScript / NestJS)</t>
+        </is>
+      </c>
+      <c r="C1093" t="inlineStr">
+        <is>
+          <t>Funded.Club</t>
+        </is>
+      </c>
+      <c r="D1093" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E1093" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1093" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/fundedclub/senior-back-end-engineer-nodejs-typescript-nestjs-berlin-38774</t>
+        </is>
+      </c>
+      <c r="G1093" t="inlineStr"/>
+      <c r="H1093" t="inlineStr"/>
+      <c r="I1093" t="inlineStr"/>
+      <c r="J1093" t="inlineStr"/>
+      <c r="K1093" t="inlineStr"/>
+      <c r="L1093" t="inlineStr"/>
+      <c r="M1093" t="inlineStr"/>
+      <c r="N1093" t="inlineStr"/>
+      <c r="O1093" t="inlineStr"/>
+      <c r="P1093" t="inlineStr"/>
+      <c r="Q1093" t="inlineStr"/>
+      <c r="R1093" t="inlineStr"/>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="n">
+        <v>1093</v>
+      </c>
+      <c r="B1094" t="inlineStr">
+        <is>
+          <t>ImmoPixels sucht Fotografen/Videografen (m/w/d) aus der Region Mannheim/Speyer/ Neustadt - in Teilzeit/Vollzeit</t>
+        </is>
+      </c>
+      <c r="C1094" t="inlineStr">
+        <is>
+          <t>Immopixels</t>
+        </is>
+      </c>
+      <c r="D1094" t="inlineStr">
+        <is>
+          <t>Hettenleidelheim</t>
+        </is>
+      </c>
+      <c r="E1094" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1094" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/immopixels/immopixels-sucht-fotografen-videografen-aus-der-region-mannheim-speyer-neustadt-in-teilzeit-vollzeit-hettenleidelheim-66473</t>
+        </is>
+      </c>
+      <c r="G1094" t="inlineStr"/>
+      <c r="H1094" t="inlineStr"/>
+      <c r="I1094" t="inlineStr"/>
+      <c r="J1094" t="inlineStr"/>
+      <c r="K1094" t="inlineStr"/>
+      <c r="L1094" t="inlineStr"/>
+      <c r="M1094" t="inlineStr"/>
+      <c r="N1094" t="inlineStr"/>
+      <c r="O1094" t="inlineStr"/>
+      <c r="P1094" t="inlineStr"/>
+      <c r="Q1094" t="inlineStr"/>
+      <c r="R1094" t="inlineStr"/>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="n">
+        <v>1094</v>
+      </c>
+      <c r="B1095" t="inlineStr">
+        <is>
+          <t>Junior Produkt Manger (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C1095" t="inlineStr">
+        <is>
+          <t>Secupay Ag</t>
+        </is>
+      </c>
+      <c r="D1095" t="inlineStr">
+        <is>
+          <t>Pulsnitz</t>
+        </is>
+      </c>
+      <c r="E1095" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1095" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/secupay-ag/junior-produkt-manger-pulsnitz-150192</t>
+        </is>
+      </c>
+      <c r="G1095" t="inlineStr"/>
+      <c r="H1095" t="inlineStr"/>
+      <c r="I1095" t="inlineStr"/>
+      <c r="J1095" t="inlineStr"/>
+      <c r="K1095" t="inlineStr"/>
+      <c r="L1095" t="inlineStr"/>
+      <c r="M1095" t="inlineStr"/>
+      <c r="N1095" t="inlineStr"/>
+      <c r="O1095" t="inlineStr"/>
+      <c r="P1095" t="inlineStr"/>
+      <c r="Q1095" t="inlineStr"/>
+      <c r="R1095" t="inlineStr"/>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="n">
+        <v>1095</v>
+      </c>
+      <c r="B1096" t="inlineStr">
+        <is>
+          <t>Senior Projektleitung (m/f/d)</t>
+        </is>
+      </c>
+      <c r="C1096" t="inlineStr">
+        <is>
+          <t>Mimacom Deutschland Gmbh</t>
+        </is>
+      </c>
+      <c r="D1096" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E1096" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1096" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/mimacom-deutschland-gmbh/senior-projektleitung-stuttgart-72417</t>
+        </is>
+      </c>
+      <c r="G1096" t="inlineStr"/>
+      <c r="H1096" t="inlineStr"/>
+      <c r="I1096" t="inlineStr"/>
+      <c r="J1096" t="inlineStr"/>
+      <c r="K1096" t="inlineStr"/>
+      <c r="L1096" t="inlineStr"/>
+      <c r="M1096" t="inlineStr"/>
+      <c r="N1096" t="inlineStr"/>
+      <c r="O1096" t="inlineStr"/>
+      <c r="P1096" t="inlineStr"/>
+      <c r="Q1096" t="inlineStr"/>
+      <c r="R1096" t="inlineStr"/>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="n">
+        <v>1096</v>
+      </c>
+      <c r="B1097" t="inlineStr">
+        <is>
+          <t>Kosmetik Product Manager (m/w/d) Vollzeit</t>
+        </is>
+      </c>
+      <c r="C1097" t="inlineStr">
+        <is>
+          <t>Crispy Cousins C.C. Gmbh</t>
+        </is>
+      </c>
+      <c r="D1097" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E1097" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1097" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/crispy-cousins-cc-gmbh/kosmetik-product-manager-vollzeit-frankfurt-166026</t>
+        </is>
+      </c>
+      <c r="G1097" t="inlineStr"/>
+      <c r="H1097" t="inlineStr"/>
+      <c r="I1097" t="inlineStr"/>
+      <c r="J1097" t="inlineStr"/>
+      <c r="K1097" t="inlineStr"/>
+      <c r="L1097" t="inlineStr"/>
+      <c r="M1097" t="inlineStr"/>
+      <c r="N1097" t="inlineStr"/>
+      <c r="O1097" t="inlineStr"/>
+      <c r="P1097" t="inlineStr"/>
+      <c r="Q1097" t="inlineStr"/>
+      <c r="R1097" t="inlineStr"/>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="n">
+        <v>1097</v>
+      </c>
+      <c r="B1098" t="inlineStr">
+        <is>
+          <t>Community Manager (m/w/d) bei Crispy Cousins</t>
+        </is>
+      </c>
+      <c r="C1098" t="inlineStr">
+        <is>
+          <t>Crispy Cousins C.C. Gmbh</t>
+        </is>
+      </c>
+      <c r="D1098" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E1098" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1098" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/crispy-cousins-cc-gmbh/community-manager-bei-crispy-cousins-frankfurt-6556</t>
+        </is>
+      </c>
+      <c r="G1098" t="inlineStr"/>
+      <c r="H1098" t="inlineStr"/>
+      <c r="I1098" t="inlineStr"/>
+      <c r="J1098" t="inlineStr"/>
+      <c r="K1098" t="inlineStr"/>
+      <c r="L1098" t="inlineStr"/>
+      <c r="M1098" t="inlineStr"/>
+      <c r="N1098" t="inlineStr"/>
+      <c r="O1098" t="inlineStr"/>
+      <c r="P1098" t="inlineStr"/>
+      <c r="Q1098" t="inlineStr"/>
+      <c r="R1098" t="inlineStr"/>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="n">
+        <v>1098</v>
+      </c>
+      <c r="B1099" t="inlineStr">
+        <is>
+          <t>Advanced Analyst (w/m/d)</t>
+        </is>
+      </c>
+      <c r="C1099" t="inlineStr">
+        <is>
+          <t>Billie</t>
+        </is>
+      </c>
+      <c r="D1099" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E1099" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1099" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/billie/advanced-analyst-berlin-140843</t>
+        </is>
+      </c>
+      <c r="G1099" t="inlineStr"/>
+      <c r="H1099" t="inlineStr"/>
+      <c r="I1099" t="inlineStr"/>
+      <c r="J1099" t="inlineStr"/>
+      <c r="K1099" t="inlineStr"/>
+      <c r="L1099" t="inlineStr"/>
+      <c r="M1099" t="inlineStr"/>
+      <c r="N1099" t="inlineStr"/>
+      <c r="O1099" t="inlineStr"/>
+      <c r="P1099" t="inlineStr"/>
+      <c r="Q1099" t="inlineStr"/>
+      <c r="R1099" t="inlineStr"/>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="n">
+        <v>1099</v>
+      </c>
+      <c r="B1100" t="inlineStr">
+        <is>
+          <t>Data Science Analyst (w/m/d)</t>
+        </is>
+      </c>
+      <c r="C1100" t="inlineStr">
+        <is>
+          <t>Billie</t>
+        </is>
+      </c>
+      <c r="D1100" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E1100" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1100" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/billie/data-science-analyst-berlin-192781</t>
+        </is>
+      </c>
+      <c r="G1100" t="inlineStr"/>
+      <c r="H1100" t="inlineStr"/>
+      <c r="I1100" t="inlineStr"/>
+      <c r="J1100" t="inlineStr"/>
+      <c r="K1100" t="inlineStr"/>
+      <c r="L1100" t="inlineStr"/>
+      <c r="M1100" t="inlineStr"/>
+      <c r="N1100" t="inlineStr"/>
+      <c r="O1100" t="inlineStr"/>
+      <c r="P1100" t="inlineStr"/>
+      <c r="Q1100" t="inlineStr"/>
+      <c r="R1100" t="inlineStr"/>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="n">
+        <v>1100</v>
+      </c>
+      <c r="B1101" t="inlineStr">
+        <is>
+          <t>Werkstudent (w/m/d) HR/People Team</t>
+        </is>
+      </c>
+      <c r="C1101" t="inlineStr">
+        <is>
+          <t>Clariness</t>
+        </is>
+      </c>
+      <c r="D1101" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E1101" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1101" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/clariness/werkstudent-hr-people-team-berlin-377662</t>
+        </is>
+      </c>
+      <c r="G1101" t="inlineStr"/>
+      <c r="H1101" t="inlineStr"/>
+      <c r="I1101" t="inlineStr"/>
+      <c r="J1101" t="inlineStr"/>
+      <c r="K1101" t="inlineStr"/>
+      <c r="L1101" t="inlineStr"/>
+      <c r="M1101" t="inlineStr"/>
+      <c r="N1101" t="inlineStr"/>
+      <c r="O1101" t="inlineStr"/>
+      <c r="P1101" t="inlineStr"/>
+      <c r="Q1101" t="inlineStr"/>
+      <c r="R1101" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
